--- a/doc/CS01/task10/scrum_final.xlsx
+++ b/doc/CS01/task10/scrum_final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BFH\X2a\3.HS\Software Engeneering und Design\Case Studies\CS1\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12624" windowHeight="8832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="4" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="C1:L8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -206,11 +202,32 @@
   <si>
     <t>3.2</t>
   </si>
+  <si>
+    <t>reyrp1</t>
+  </si>
+  <si>
+    <t>odaoj1</t>
+  </si>
+  <si>
+    <t>Set an motivation text</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Implement function of motivator</t>
+  </si>
+  <si>
+    <t>set color based on compare result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -687,15 +704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="26" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="26" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1">
@@ -4765,24 +4782,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="26" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="26" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.8">
+    <row r="1" spans="1:26" ht="29">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4843,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -4868,7 +4885,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="57.6">
+    <row r="3" spans="1:26" ht="58">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4893,7 +4910,7 @@
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4918,7 +4935,7 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4951,7 +4968,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4">
+    <row r="7" spans="1:26" ht="14.5">
       <c r="A7" s="20"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
@@ -4959,7 +4976,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="14.4">
+    <row r="8" spans="1:26" ht="14.5">
       <c r="A8" s="20"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -14839,26 +14856,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="26" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="26" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1">
@@ -14913,7 +14930,7 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" ht="43.2">
+    <row r="2" spans="1:26" ht="43.5">
       <c r="A2" s="30" t="s">
         <v>55</v>
       </c>
@@ -14928,7 +14945,7 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>16</v>
@@ -14959,7 +14976,7 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" customFormat="1" ht="29">
       <c r="A3" s="30" t="s">
         <v>56</v>
       </c>
@@ -14976,10 +14993,10 @@
         <v>46</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>48</v>
@@ -15007,7 +15024,7 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="28.8">
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="14.5">
       <c r="A4" s="30" t="s">
         <v>57</v>
       </c>
@@ -15018,20 +15035,20 @@
         <v>36</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I4" s="21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -15053,7 +15070,7 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
     </row>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="29">
       <c r="A5" s="30" t="s">
         <v>58</v>
       </c>
@@ -15061,25 +15078,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>46</v>
+      <c r="E5" s="21"/>
+      <c r="F5" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -15087,87 +15102,85 @@
         <v>12</v>
       </c>
       <c r="M5" s="31"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.8">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="29">
       <c r="A6" s="30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
+      <c r="F6" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>18</v>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
-        <v>12</v>
-      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="1:26" ht="43.2">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+    </row>
+    <row r="7" spans="1:26" customFormat="1" ht="29">
       <c r="A7" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>47</v>
@@ -15195,93 +15208,131 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="8" spans="1:26" customFormat="1" ht="29">
+      <c r="A8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="21">
+        <v>6</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" spans="1:26" customFormat="1" ht="43.5">
+      <c r="A9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="21">
+        <v>6</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+    </row>
+    <row r="10" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-    </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="14.4">
-      <c r="A11" s="30"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="32"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" ht="14.4">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" customFormat="1" ht="14.5">
       <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -15289,27 +15340,27 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="31"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="14.4">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" s="11" customFormat="1" ht="14.5">
       <c r="A13" s="30"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -15337,7 +15388,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="14.5">
       <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -15351,38 +15402,62 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-    </row>
-    <row r="15" spans="1:26" ht="40.5" customHeight="1">
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-    </row>
-    <row r="16" spans="1:26" ht="31.05" customHeight="1">
-      <c r="M16" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+    </row>
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="14.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16" spans="1:26" customFormat="1" ht="14.5">
+      <c r="A16" s="30"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
@@ -15397,7 +15472,8 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" ht="39" customHeight="1">
+    <row r="17" spans="1:26" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A17" s="28"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -15413,7 +15489,8 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" ht="39.450000000000003" customHeight="1">
+    <row r="18" spans="1:26" customFormat="1" ht="31" customHeight="1">
+      <c r="A18" s="28"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -15429,7 +15506,8 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" ht="13.5" customHeight="1">
+    <row r="19" spans="1:26" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="28"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -15445,19 +15523,8 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+    <row r="20" spans="1:26" customFormat="1" ht="39.5" customHeight="1">
+      <c r="A20" s="28"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -15473,19 +15540,8 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+    <row r="21" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="28"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -15501,7 +15557,7 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1">
+    <row r="22" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -15529,7 +15585,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1">
+    <row r="23" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -15557,7 +15613,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1">
+    <row r="24" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -15585,7 +15641,7 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="13.5" customHeight="1">
+    <row r="25" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -15613,7 +15669,7 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -15641,7 +15697,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1">
+    <row r="27" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -15669,7 +15725,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="13.5" customHeight="1">
+    <row r="28" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -15697,7 +15753,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1">
+    <row r="29" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -15725,7 +15781,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1">
+    <row r="30" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -15753,7 +15809,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1">
+    <row r="31" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -15781,7 +15837,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1">
+    <row r="32" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -15809,7 +15865,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" customHeight="1">
+    <row r="33" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="29"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -15837,7 +15893,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" customHeight="1">
+    <row r="34" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="29"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -15865,7 +15921,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" customHeight="1">
+    <row r="35" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="29"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -15893,7 +15949,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="13.5" customHeight="1">
+    <row r="36" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="29"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -15921,7 +15977,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="13.5" customHeight="1">
+    <row r="37" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="29"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -15949,7 +16005,7 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" ht="13.5" customHeight="1">
+    <row r="38" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="29"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -15977,7 +16033,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" ht="13.5" customHeight="1">
+    <row r="39" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="29"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -16005,7 +16061,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" ht="13.5" customHeight="1">
+    <row r="40" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -16033,7 +16089,7 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1">
+    <row r="41" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A41" s="29"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -16061,7 +16117,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1">
+    <row r="42" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A42" s="29"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -16089,7 +16145,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1">
+    <row r="43" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A43" s="29"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -16117,7 +16173,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1">
+    <row r="44" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -16145,7 +16201,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1">
+    <row r="45" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="29"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -16173,7 +16229,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1">
+    <row r="46" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="29"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -16201,7 +16257,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1">
+    <row r="47" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="29"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -16229,7 +16285,7 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1">
+    <row r="48" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="29"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -16257,7 +16313,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1">
+    <row r="49" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A49" s="29"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -16285,7 +16341,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" customHeight="1">
+    <row r="50" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="29"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -16313,7 +16369,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" customHeight="1">
+    <row r="51" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="29"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -16341,7 +16397,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" customHeight="1">
+    <row r="52" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="29"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -16369,7 +16425,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" ht="13.5" customHeight="1">
+    <row r="53" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="29"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -16397,7 +16453,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" ht="13.5" customHeight="1">
+    <row r="54" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A54" s="29"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -16425,7 +16481,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" ht="13.5" customHeight="1">
+    <row r="55" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A55" s="29"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -16453,7 +16509,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" customHeight="1">
+    <row r="56" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="29"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -16481,7 +16537,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" ht="13.5" customHeight="1">
+    <row r="57" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A57" s="29"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -16509,7 +16565,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" ht="13.5" customHeight="1">
+    <row r="58" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A58" s="29"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -16537,7 +16593,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" ht="13.5" customHeight="1">
+    <row r="59" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="29"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -16565,7 +16621,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1">
+    <row r="60" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="29"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -16593,7 +16649,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1">
+    <row r="61" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="29"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -16621,7 +16677,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" customHeight="1">
+    <row r="62" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="29"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -16649,7 +16705,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" ht="13.5" customHeight="1">
+    <row r="63" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="29"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -16677,7 +16733,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" customHeight="1">
+    <row r="64" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A64" s="29"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -16705,7 +16761,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" ht="13.5" customHeight="1">
+    <row r="65" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A65" s="29"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -16733,7 +16789,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" ht="13.5" customHeight="1">
+    <row r="66" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A66" s="29"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -16761,7 +16817,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" customHeight="1">
+    <row r="67" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -16789,7 +16845,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" customHeight="1">
+    <row r="68" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A68" s="29"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -16817,7 +16873,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" ht="13.5" customHeight="1">
+    <row r="69" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A69" s="29"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -16845,7 +16901,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" ht="13.5" customHeight="1">
+    <row r="70" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A70" s="29"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -16873,7 +16929,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" customHeight="1">
+    <row r="71" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A71" s="29"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -16901,7 +16957,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" customHeight="1">
+    <row r="72" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A72" s="29"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -16929,7 +16985,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" customHeight="1">
+    <row r="73" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A73" s="29"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -16957,7 +17013,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" customHeight="1">
+    <row r="74" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A74" s="29"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -16985,7 +17041,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" customHeight="1">
+    <row r="75" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A75" s="29"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -17013,7 +17069,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" ht="13.5" customHeight="1">
+    <row r="76" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A76" s="29"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -17041,7 +17097,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" ht="13.5" customHeight="1">
+    <row r="77" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A77" s="29"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -17069,7 +17125,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" ht="13.5" customHeight="1">
+    <row r="78" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A78" s="29"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -17097,7 +17153,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" ht="13.5" customHeight="1">
+    <row r="79" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A79" s="29"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -17125,7 +17181,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" ht="13.5" customHeight="1">
+    <row r="80" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A80" s="29"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -17153,7 +17209,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" ht="13.5" customHeight="1">
+    <row r="81" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A81" s="29"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -17181,7 +17237,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" ht="13.5" customHeight="1">
+    <row r="82" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A82" s="29"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -17209,7 +17265,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" ht="13.5" customHeight="1">
+    <row r="83" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A83" s="29"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -17237,7 +17293,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" ht="13.5" customHeight="1">
+    <row r="84" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A84" s="29"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -17265,7 +17321,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" ht="13.5" customHeight="1">
+    <row r="85" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A85" s="29"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -17293,7 +17349,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" ht="13.5" customHeight="1">
+    <row r="86" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A86" s="29"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -17321,7 +17377,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" customHeight="1">
+    <row r="87" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A87" s="29"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -17349,7 +17405,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" ht="13.5" customHeight="1">
+    <row r="88" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A88" s="29"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -17377,7 +17433,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" ht="13.5" customHeight="1">
+    <row r="89" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A89" s="29"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -17405,7 +17461,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" customHeight="1">
+    <row r="90" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A90" s="29"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -17433,7 +17489,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" customHeight="1">
+    <row r="91" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A91" s="29"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -17461,7 +17517,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" customHeight="1">
+    <row r="92" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A92" s="29"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -17489,7 +17545,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" ht="13.5" customHeight="1">
+    <row r="93" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A93" s="29"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -17517,7 +17573,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" customHeight="1">
+    <row r="94" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A94" s="29"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -17545,7 +17601,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" customHeight="1">
+    <row r="95" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A95" s="29"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -17573,7 +17629,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" ht="13.5" customHeight="1">
+    <row r="96" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A96" s="29"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -17601,7 +17657,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" customHeight="1">
+    <row r="97" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A97" s="29"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -17629,7 +17685,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" customHeight="1">
+    <row r="98" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A98" s="29"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -17657,7 +17713,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" customHeight="1">
+    <row r="99" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A99" s="29"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -17685,7 +17741,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" customHeight="1">
+    <row r="100" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A100" s="29"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -17713,7 +17769,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" customHeight="1">
+    <row r="101" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="29"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -17741,7 +17797,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" ht="13.5" customHeight="1">
+    <row r="102" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A102" s="29"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -17769,7 +17825,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" customHeight="1">
+    <row r="103" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A103" s="29"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -17797,7 +17853,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" ht="13.5" customHeight="1">
+    <row r="104" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A104" s="29"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -17825,7 +17881,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" customHeight="1">
+    <row r="105" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A105" s="29"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -17853,7 +17909,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" customHeight="1">
+    <row r="106" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A106" s="29"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -17881,7 +17937,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" customHeight="1">
+    <row r="107" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A107" s="29"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -17909,7 +17965,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" ht="13.5" customHeight="1">
+    <row r="108" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A108" s="29"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -17937,7 +17993,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" ht="13.5" customHeight="1">
+    <row r="109" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A109" s="29"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -17965,7 +18021,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" customHeight="1">
+    <row r="110" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A110" s="29"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -17993,7 +18049,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" ht="13.5" customHeight="1">
+    <row r="111" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A111" s="29"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -18021,7 +18077,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" customHeight="1">
+    <row r="112" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A112" s="29"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -18049,7 +18105,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" ht="13.5" customHeight="1">
+    <row r="113" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A113" s="29"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -18077,7 +18133,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" customHeight="1">
+    <row r="114" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A114" s="29"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -18105,7 +18161,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" customHeight="1">
+    <row r="115" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A115" s="29"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -18133,7 +18189,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" customHeight="1">
+    <row r="116" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A116" s="29"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -18161,7 +18217,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" customHeight="1">
+    <row r="117" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A117" s="29"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -18189,7 +18245,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" ht="13.5" customHeight="1">
+    <row r="118" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A118" s="29"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -18217,7 +18273,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" ht="13.5" customHeight="1">
+    <row r="119" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A119" s="29"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -18245,7 +18301,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" ht="13.5" customHeight="1">
+    <row r="120" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A120" s="29"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -18273,7 +18329,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" customHeight="1">
+    <row r="121" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A121" s="29"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -18301,7 +18357,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" customHeight="1">
+    <row r="122" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A122" s="29"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -18329,7 +18385,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" ht="13.5" customHeight="1">
+    <row r="123" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A123" s="29"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -18357,7 +18413,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" ht="13.5" customHeight="1">
+    <row r="124" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A124" s="29"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -18385,7 +18441,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" ht="13.5" customHeight="1">
+    <row r="125" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A125" s="29"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -18413,7 +18469,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" customHeight="1">
+    <row r="126" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A126" s="29"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -18441,7 +18497,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" customHeight="1">
+    <row r="127" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A127" s="29"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -18469,7 +18525,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" customHeight="1">
+    <row r="128" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A128" s="29"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -18497,7 +18553,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" ht="13.5" customHeight="1">
+    <row r="129" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A129" s="29"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -18525,7 +18581,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" ht="13.5" customHeight="1">
+    <row r="130" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A130" s="29"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -18553,7 +18609,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" customHeight="1">
+    <row r="131" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A131" s="29"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -18581,7 +18637,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" customHeight="1">
+    <row r="132" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A132" s="29"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -18609,7 +18665,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133" spans="1:26" ht="13.5" customHeight="1">
+    <row r="133" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A133" s="29"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -18637,7 +18693,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" customHeight="1">
+    <row r="134" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A134" s="29"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -18665,7 +18721,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" customHeight="1">
+    <row r="135" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A135" s="29"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -18693,7 +18749,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" ht="13.5" customHeight="1">
+    <row r="136" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A136" s="29"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -18721,7 +18777,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" ht="13.5" customHeight="1">
+    <row r="137" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A137" s="29"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -18749,7 +18805,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" customHeight="1">
+    <row r="138" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A138" s="29"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -18777,7 +18833,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" customHeight="1">
+    <row r="139" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A139" s="29"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -18805,7 +18861,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" customHeight="1">
+    <row r="140" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A140" s="29"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -18833,7 +18889,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" customHeight="1">
+    <row r="141" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A141" s="29"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -18861,7 +18917,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" customHeight="1">
+    <row r="142" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A142" s="29"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -18889,7 +18945,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" ht="13.5" customHeight="1">
+    <row r="143" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A143" s="29"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -18917,7 +18973,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" customHeight="1">
+    <row r="144" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A144" s="29"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -18945,7 +19001,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1">
+    <row r="145" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A145" s="29"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -18973,7 +19029,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1">
+    <row r="146" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A146" s="29"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -19001,7 +19057,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1">
+    <row r="147" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A147" s="29"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -19029,7 +19085,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1">
+    <row r="148" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A148" s="29"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -19057,7 +19113,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1">
+    <row r="149" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A149" s="29"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -19085,7 +19141,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1">
+    <row r="150" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A150" s="29"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -19113,7 +19169,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1">
+    <row r="151" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A151" s="29"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -19141,7 +19197,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1">
+    <row r="152" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A152" s="29"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -19169,7 +19225,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1">
+    <row r="153" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A153" s="29"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -19197,7 +19253,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1">
+    <row r="154" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A154" s="29"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -19225,7 +19281,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1">
+    <row r="155" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A155" s="29"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -19253,7 +19309,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" ht="13.5" customHeight="1">
+    <row r="156" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A156" s="29"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -19281,7 +19337,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1">
+    <row r="157" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A157" s="29"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -19309,7 +19365,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1">
+    <row r="158" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A158" s="29"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -19337,7 +19393,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" ht="13.5" customHeight="1">
+    <row r="159" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A159" s="29"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -19365,7 +19421,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1">
+    <row r="160" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A160" s="29"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -19393,7 +19449,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" ht="13.5" customHeight="1">
+    <row r="161" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A161" s="29"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -19421,7 +19477,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" ht="13.5" customHeight="1">
+    <row r="162" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A162" s="29"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -19449,7 +19505,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" ht="13.5" customHeight="1">
+    <row r="163" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A163" s="29"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -19477,7 +19533,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" ht="13.5" customHeight="1">
+    <row r="164" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A164" s="29"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -19505,7 +19561,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" ht="13.5" customHeight="1">
+    <row r="165" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A165" s="29"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -19533,7 +19589,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" ht="13.5" customHeight="1">
+    <row r="166" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A166" s="29"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -19561,7 +19617,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" ht="13.5" customHeight="1">
+    <row r="167" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A167" s="29"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -19589,7 +19645,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" ht="13.5" customHeight="1">
+    <row r="168" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A168" s="29"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -19617,7 +19673,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" ht="13.5" customHeight="1">
+    <row r="169" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A169" s="29"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -19645,7 +19701,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" ht="13.5" customHeight="1">
+    <row r="170" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A170" s="29"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -19673,7 +19729,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" ht="13.5" customHeight="1">
+    <row r="171" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A171" s="29"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -19701,7 +19757,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" ht="13.5" customHeight="1">
+    <row r="172" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A172" s="29"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -19729,7 +19785,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" ht="13.5" customHeight="1">
+    <row r="173" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A173" s="29"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -19757,7 +19813,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" ht="13.5" customHeight="1">
+    <row r="174" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A174" s="29"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -19785,7 +19841,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" ht="13.5" customHeight="1">
+    <row r="175" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A175" s="29"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -19813,7 +19869,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" ht="13.5" customHeight="1">
+    <row r="176" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A176" s="29"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -19841,7 +19897,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" ht="13.5" customHeight="1">
+    <row r="177" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A177" s="29"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -19869,7 +19925,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" ht="13.5" customHeight="1">
+    <row r="178" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A178" s="29"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -19897,7 +19953,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" ht="13.5" customHeight="1">
+    <row r="179" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A179" s="29"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -19925,7 +19981,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" ht="13.5" customHeight="1">
+    <row r="180" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A180" s="29"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -19953,7 +20009,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" ht="13.5" customHeight="1">
+    <row r="181" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A181" s="29"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -19981,7 +20037,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" ht="13.5" customHeight="1">
+    <row r="182" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A182" s="29"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -20009,7 +20065,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" ht="13.5" customHeight="1">
+    <row r="183" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A183" s="29"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -20037,7 +20093,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" ht="13.5" customHeight="1">
+    <row r="184" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A184" s="29"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -20065,7 +20121,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" ht="13.5" customHeight="1">
+    <row r="185" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A185" s="29"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -20093,7 +20149,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" ht="13.5" customHeight="1">
+    <row r="186" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A186" s="29"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -20121,7 +20177,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" ht="13.5" customHeight="1">
+    <row r="187" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A187" s="29"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -20149,7 +20205,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" ht="13.5" customHeight="1">
+    <row r="188" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A188" s="29"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -20177,7 +20233,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" ht="13.5" customHeight="1">
+    <row r="189" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A189" s="29"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -20205,7 +20261,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" ht="13.5" customHeight="1">
+    <row r="190" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A190" s="29"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -20233,7 +20289,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" ht="13.5" customHeight="1">
+    <row r="191" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A191" s="29"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -20261,7 +20317,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" ht="13.5" customHeight="1">
+    <row r="192" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A192" s="29"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -20289,7 +20345,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" ht="13.5" customHeight="1">
+    <row r="193" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A193" s="29"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -20317,7 +20373,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" ht="13.5" customHeight="1">
+    <row r="194" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A194" s="29"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -20345,7 +20401,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" ht="13.5" customHeight="1">
+    <row r="195" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A195" s="29"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -20373,7 +20429,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" ht="13.5" customHeight="1">
+    <row r="196" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A196" s="29"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -20401,7 +20457,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" ht="13.5" customHeight="1">
+    <row r="197" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A197" s="29"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -20429,7 +20485,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" ht="13.5" customHeight="1">
+    <row r="198" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A198" s="29"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -20457,7 +20513,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" ht="13.5" customHeight="1">
+    <row r="199" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A199" s="29"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -20485,7 +20541,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" ht="13.5" customHeight="1">
+    <row r="200" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A200" s="29"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -20513,7 +20569,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" ht="13.5" customHeight="1">
+    <row r="201" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A201" s="29"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -20541,7 +20597,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" ht="13.5" customHeight="1">
+    <row r="202" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A202" s="29"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -20569,7 +20625,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" ht="13.5" customHeight="1">
+    <row r="203" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A203" s="29"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -20597,7 +20653,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" ht="13.5" customHeight="1">
+    <row r="204" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A204" s="29"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -20625,7 +20681,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" ht="13.5" customHeight="1">
+    <row r="205" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A205" s="29"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -20653,7 +20709,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" ht="13.5" customHeight="1">
+    <row r="206" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A206" s="29"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -20681,7 +20737,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" ht="13.5" customHeight="1">
+    <row r="207" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A207" s="29"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -20709,7 +20765,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" ht="13.5" customHeight="1">
+    <row r="208" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A208" s="29"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -20737,7 +20793,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" ht="13.5" customHeight="1">
+    <row r="209" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A209" s="29"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -20765,7 +20821,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" ht="13.5" customHeight="1">
+    <row r="210" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A210" s="29"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -20793,7 +20849,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" ht="13.5" customHeight="1">
+    <row r="211" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A211" s="29"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -20821,7 +20877,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" ht="13.5" customHeight="1">
+    <row r="212" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A212" s="29"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -20849,7 +20905,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" ht="13.5" customHeight="1">
+    <row r="213" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A213" s="29"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -20877,7 +20933,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" ht="13.5" customHeight="1">
+    <row r="214" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A214" s="29"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -20905,7 +20961,7 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
     </row>
-    <row r="215" spans="1:26" ht="13.5" customHeight="1">
+    <row r="215" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A215" s="29"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -20933,7 +20989,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" ht="13.5" customHeight="1">
+    <row r="216" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A216" s="29"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -20961,7 +21017,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" ht="13.5" customHeight="1">
+    <row r="217" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A217" s="29"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -20989,7 +21045,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" ht="13.5" customHeight="1">
+    <row r="218" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A218" s="29"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -21017,7 +21073,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" ht="13.5" customHeight="1">
+    <row r="219" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A219" s="29"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -21045,7 +21101,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" ht="13.5" customHeight="1">
+    <row r="220" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A220" s="29"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -21073,7 +21129,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" ht="13.5" customHeight="1">
+    <row r="221" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A221" s="29"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -21101,7 +21157,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" ht="13.5" customHeight="1">
+    <row r="222" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A222" s="29"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -21129,7 +21185,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" ht="13.5" customHeight="1">
+    <row r="223" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A223" s="29"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -21157,7 +21213,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" ht="13.5" customHeight="1">
+    <row r="224" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A224" s="29"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -21185,7 +21241,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" ht="13.5" customHeight="1">
+    <row r="225" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A225" s="29"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -21213,7 +21269,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" ht="13.5" customHeight="1">
+    <row r="226" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A226" s="29"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -21241,7 +21297,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" ht="13.5" customHeight="1">
+    <row r="227" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A227" s="29"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -21269,7 +21325,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="13.5" customHeight="1">
+    <row r="228" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A228" s="29"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -21297,7 +21353,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" ht="13.5" customHeight="1">
+    <row r="229" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A229" s="29"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -21325,7 +21381,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" ht="13.5" customHeight="1">
+    <row r="230" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A230" s="29"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -21353,7 +21409,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" ht="13.5" customHeight="1">
+    <row r="231" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A231" s="29"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -21381,7 +21437,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" ht="13.5" customHeight="1">
+    <row r="232" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A232" s="29"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -21409,7 +21465,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" ht="13.5" customHeight="1">
+    <row r="233" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A233" s="29"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -21437,7 +21493,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" ht="13.5" customHeight="1">
+    <row r="234" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A234" s="29"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -21465,7 +21521,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" ht="13.5" customHeight="1">
+    <row r="235" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A235" s="29"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -21493,7 +21549,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" ht="13.5" customHeight="1">
+    <row r="236" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A236" s="29"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -21521,7 +21577,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" ht="13.5" customHeight="1">
+    <row r="237" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A237" s="29"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -21549,7 +21605,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" ht="13.5" customHeight="1">
+    <row r="238" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A238" s="29"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -21577,7 +21633,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" ht="13.5" customHeight="1">
+    <row r="239" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A239" s="29"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -21605,7 +21661,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" ht="13.5" customHeight="1">
+    <row r="240" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A240" s="29"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -21633,7 +21689,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" ht="13.5" customHeight="1">
+    <row r="241" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A241" s="29"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -21661,7 +21717,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" ht="13.5" customHeight="1">
+    <row r="242" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A242" s="29"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -21689,7 +21745,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" ht="13.5" customHeight="1">
+    <row r="243" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A243" s="29"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -21717,7 +21773,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" ht="13.5" customHeight="1">
+    <row r="244" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A244" s="29"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -21745,7 +21801,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" ht="13.5" customHeight="1">
+    <row r="245" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A245" s="29"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -21773,7 +21829,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" ht="13.5" customHeight="1">
+    <row r="246" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A246" s="29"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -21801,7 +21857,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" ht="13.5" customHeight="1">
+    <row r="247" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A247" s="29"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -21829,7 +21885,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" ht="13.5" customHeight="1">
+    <row r="248" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A248" s="29"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -21857,7 +21913,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" ht="13.5" customHeight="1">
+    <row r="249" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A249" s="29"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -21885,7 +21941,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" ht="13.5" customHeight="1">
+    <row r="250" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A250" s="29"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -21913,7 +21969,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" ht="13.5" customHeight="1">
+    <row r="251" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A251" s="29"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -21941,7 +21997,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" ht="13.5" customHeight="1">
+    <row r="252" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A252" s="29"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -21969,7 +22025,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" ht="13.5" customHeight="1">
+    <row r="253" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A253" s="29"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -21997,7 +22053,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" ht="13.5" customHeight="1">
+    <row r="254" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A254" s="29"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -22025,7 +22081,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" ht="13.5" customHeight="1">
+    <row r="255" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A255" s="29"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -22053,7 +22109,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" ht="13.5" customHeight="1">
+    <row r="256" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A256" s="29"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -22081,7 +22137,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" ht="13.5" customHeight="1">
+    <row r="257" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A257" s="29"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -22109,7 +22165,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" ht="13.5" customHeight="1">
+    <row r="258" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A258" s="29"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -22137,7 +22193,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" ht="13.5" customHeight="1">
+    <row r="259" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A259" s="29"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -22165,7 +22221,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" ht="13.5" customHeight="1">
+    <row r="260" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A260" s="29"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -22193,7 +22249,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" ht="13.5" customHeight="1">
+    <row r="261" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A261" s="29"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -22221,7 +22277,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" ht="13.5" customHeight="1">
+    <row r="262" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A262" s="29"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -22249,7 +22305,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" ht="13.5" customHeight="1">
+    <row r="263" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A263" s="29"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -22277,7 +22333,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" ht="13.5" customHeight="1">
+    <row r="264" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A264" s="29"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -22305,7 +22361,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" ht="13.5" customHeight="1">
+    <row r="265" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A265" s="29"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -22333,7 +22389,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" ht="13.5" customHeight="1">
+    <row r="266" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A266" s="29"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -22361,7 +22417,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" ht="13.5" customHeight="1">
+    <row r="267" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A267" s="29"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -22389,7 +22445,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" ht="13.5" customHeight="1">
+    <row r="268" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A268" s="29"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -22417,7 +22473,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" ht="13.5" customHeight="1">
+    <row r="269" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A269" s="29"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -22445,7 +22501,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" ht="13.5" customHeight="1">
+    <row r="270" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A270" s="29"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -22473,7 +22529,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" ht="13.5" customHeight="1">
+    <row r="271" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A271" s="29"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -22501,7 +22557,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" ht="13.5" customHeight="1">
+    <row r="272" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A272" s="29"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -22529,7 +22585,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" ht="13.5" customHeight="1">
+    <row r="273" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A273" s="29"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -22557,7 +22613,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" ht="13.5" customHeight="1">
+    <row r="274" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A274" s="29"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -22585,7 +22641,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" ht="13.5" customHeight="1">
+    <row r="275" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A275" s="29"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -22613,7 +22669,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" ht="13.5" customHeight="1">
+    <row r="276" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A276" s="29"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -22641,7 +22697,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" ht="13.5" customHeight="1">
+    <row r="277" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A277" s="29"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -22669,7 +22725,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" ht="13.5" customHeight="1">
+    <row r="278" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A278" s="29"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -22697,7 +22753,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" ht="13.5" customHeight="1">
+    <row r="279" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A279" s="29"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -22725,7 +22781,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" ht="13.5" customHeight="1">
+    <row r="280" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A280" s="29"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -22753,7 +22809,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" ht="13.5" customHeight="1">
+    <row r="281" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A281" s="29"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -22781,7 +22837,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" ht="13.5" customHeight="1">
+    <row r="282" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A282" s="29"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -22809,7 +22865,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" ht="13.5" customHeight="1">
+    <row r="283" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A283" s="29"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -22837,7 +22893,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" ht="13.5" customHeight="1">
+    <row r="284" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A284" s="29"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -22865,7 +22921,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" ht="13.5" customHeight="1">
+    <row r="285" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A285" s="29"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -22893,7 +22949,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" ht="13.5" customHeight="1">
+    <row r="286" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A286" s="29"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -22921,7 +22977,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" ht="13.5" customHeight="1">
+    <row r="287" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A287" s="29"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -22949,7 +23005,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" ht="13.5" customHeight="1">
+    <row r="288" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A288" s="29"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -22977,7 +23033,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" ht="13.5" customHeight="1">
+    <row r="289" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A289" s="29"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -23005,7 +23061,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" ht="13.5" customHeight="1">
+    <row r="290" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A290" s="29"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -23033,7 +23089,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" ht="13.5" customHeight="1">
+    <row r="291" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A291" s="29"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -23061,7 +23117,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" ht="13.5" customHeight="1">
+    <row r="292" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A292" s="29"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -23089,7 +23145,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" ht="13.5" customHeight="1">
+    <row r="293" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A293" s="29"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -23117,7 +23173,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" ht="13.5" customHeight="1">
+    <row r="294" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A294" s="29"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -23145,7 +23201,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" ht="13.5" customHeight="1">
+    <row r="295" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A295" s="29"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -23173,7 +23229,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" ht="13.5" customHeight="1">
+    <row r="296" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A296" s="29"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -23201,7 +23257,7 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
     </row>
-    <row r="297" spans="1:26" ht="13.5" customHeight="1">
+    <row r="297" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A297" s="29"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -23229,7 +23285,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" ht="13.5" customHeight="1">
+    <row r="298" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A298" s="29"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -23257,7 +23313,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" ht="13.5" customHeight="1">
+    <row r="299" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A299" s="29"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -23285,7 +23341,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" ht="13.5" customHeight="1">
+    <row r="300" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A300" s="29"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -23313,7 +23369,7 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
     </row>
-    <row r="301" spans="1:26" ht="13.5" customHeight="1">
+    <row r="301" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A301" s="29"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -23341,7 +23397,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" ht="13.5" customHeight="1">
+    <row r="302" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A302" s="29"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -23369,7 +23425,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" ht="13.5" customHeight="1">
+    <row r="303" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A303" s="29"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -23397,7 +23453,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" ht="13.5" customHeight="1">
+    <row r="304" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A304" s="29"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -23425,7 +23481,7 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
     </row>
-    <row r="305" spans="1:26" ht="13.5" customHeight="1">
+    <row r="305" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A305" s="29"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -23453,7 +23509,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" ht="13.5" customHeight="1">
+    <row r="306" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A306" s="29"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -23481,7 +23537,7 @@
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
     </row>
-    <row r="307" spans="1:26" ht="13.5" customHeight="1">
+    <row r="307" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A307" s="29"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -23509,7 +23565,7 @@
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
     </row>
-    <row r="308" spans="1:26" ht="13.5" customHeight="1">
+    <row r="308" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A308" s="29"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -23537,7 +23593,7 @@
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
     </row>
-    <row r="309" spans="1:26" ht="13.5" customHeight="1">
+    <row r="309" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A309" s="29"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -23565,7 +23621,7 @@
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
     </row>
-    <row r="310" spans="1:26" ht="13.5" customHeight="1">
+    <row r="310" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A310" s="29"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -23593,7 +23649,7 @@
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
     </row>
-    <row r="311" spans="1:26" ht="13.5" customHeight="1">
+    <row r="311" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A311" s="29"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -23621,7 +23677,7 @@
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
     </row>
-    <row r="312" spans="1:26" ht="13.5" customHeight="1">
+    <row r="312" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A312" s="29"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -23649,7 +23705,7 @@
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
     </row>
-    <row r="313" spans="1:26" ht="13.5" customHeight="1">
+    <row r="313" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A313" s="29"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -23677,7 +23733,7 @@
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
     </row>
-    <row r="314" spans="1:26" ht="13.5" customHeight="1">
+    <row r="314" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A314" s="29"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -23705,7 +23761,7 @@
       <c r="Y314" s="18"/>
       <c r="Z314" s="18"/>
     </row>
-    <row r="315" spans="1:26" ht="13.5" customHeight="1">
+    <row r="315" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A315" s="29"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -23733,7 +23789,7 @@
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
     </row>
-    <row r="316" spans="1:26" ht="13.5" customHeight="1">
+    <row r="316" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A316" s="29"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -23761,7 +23817,7 @@
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
     </row>
-    <row r="317" spans="1:26" ht="13.5" customHeight="1">
+    <row r="317" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A317" s="29"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -23789,7 +23845,7 @@
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
     </row>
-    <row r="318" spans="1:26" ht="13.5" customHeight="1">
+    <row r="318" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A318" s="29"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -23817,7 +23873,7 @@
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
     </row>
-    <row r="319" spans="1:26" ht="13.5" customHeight="1">
+    <row r="319" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A319" s="29"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -23845,7 +23901,7 @@
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
     </row>
-    <row r="320" spans="1:26" ht="13.5" customHeight="1">
+    <row r="320" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A320" s="29"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -23873,7 +23929,7 @@
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
     </row>
-    <row r="321" spans="1:26" ht="13.5" customHeight="1">
+    <row r="321" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A321" s="29"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -23901,7 +23957,7 @@
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
     </row>
-    <row r="322" spans="1:26" ht="13.5" customHeight="1">
+    <row r="322" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A322" s="29"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -23929,7 +23985,7 @@
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
     </row>
-    <row r="323" spans="1:26" ht="13.5" customHeight="1">
+    <row r="323" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A323" s="29"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -23957,7 +24013,7 @@
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
     </row>
-    <row r="324" spans="1:26" ht="13.5" customHeight="1">
+    <row r="324" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A324" s="29"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -23985,7 +24041,7 @@
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
     </row>
-    <row r="325" spans="1:26" ht="13.5" customHeight="1">
+    <row r="325" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A325" s="29"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -24013,7 +24069,7 @@
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
     </row>
-    <row r="326" spans="1:26" ht="13.5" customHeight="1">
+    <row r="326" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A326" s="29"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -24041,7 +24097,7 @@
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
     </row>
-    <row r="327" spans="1:26" ht="13.5" customHeight="1">
+    <row r="327" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A327" s="29"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -24069,7 +24125,7 @@
       <c r="Y327" s="18"/>
       <c r="Z327" s="18"/>
     </row>
-    <row r="328" spans="1:26" ht="13.5" customHeight="1">
+    <row r="328" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A328" s="29"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -24097,7 +24153,7 @@
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
     </row>
-    <row r="329" spans="1:26" ht="13.5" customHeight="1">
+    <row r="329" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A329" s="29"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -24125,7 +24181,7 @@
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
     </row>
-    <row r="330" spans="1:26" ht="13.5" customHeight="1">
+    <row r="330" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A330" s="29"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -24153,7 +24209,7 @@
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
     </row>
-    <row r="331" spans="1:26" ht="13.5" customHeight="1">
+    <row r="331" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A331" s="29"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -24181,7 +24237,7 @@
       <c r="Y331" s="18"/>
       <c r="Z331" s="18"/>
     </row>
-    <row r="332" spans="1:26" ht="13.5" customHeight="1">
+    <row r="332" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A332" s="29"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -24209,7 +24265,7 @@
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
     </row>
-    <row r="333" spans="1:26" ht="13.5" customHeight="1">
+    <row r="333" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A333" s="29"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -24237,7 +24293,7 @@
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
     </row>
-    <row r="334" spans="1:26" ht="13.5" customHeight="1">
+    <row r="334" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A334" s="29"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -24265,7 +24321,7 @@
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
     </row>
-    <row r="335" spans="1:26" ht="13.5" customHeight="1">
+    <row r="335" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A335" s="29"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -24293,7 +24349,7 @@
       <c r="Y335" s="18"/>
       <c r="Z335" s="18"/>
     </row>
-    <row r="336" spans="1:26" ht="13.5" customHeight="1">
+    <row r="336" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A336" s="29"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -24321,7 +24377,7 @@
       <c r="Y336" s="18"/>
       <c r="Z336" s="18"/>
     </row>
-    <row r="337" spans="1:26" ht="13.5" customHeight="1">
+    <row r="337" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A337" s="29"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -24349,7 +24405,7 @@
       <c r="Y337" s="18"/>
       <c r="Z337" s="18"/>
     </row>
-    <row r="338" spans="1:26" ht="13.5" customHeight="1">
+    <row r="338" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A338" s="29"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -24377,7 +24433,7 @@
       <c r="Y338" s="18"/>
       <c r="Z338" s="18"/>
     </row>
-    <row r="339" spans="1:26" ht="13.5" customHeight="1">
+    <row r="339" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A339" s="29"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -24405,7 +24461,7 @@
       <c r="Y339" s="18"/>
       <c r="Z339" s="18"/>
     </row>
-    <row r="340" spans="1:26" ht="13.5" customHeight="1">
+    <row r="340" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A340" s="29"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -24433,7 +24489,7 @@
       <c r="Y340" s="18"/>
       <c r="Z340" s="18"/>
     </row>
-    <row r="341" spans="1:26" ht="13.5" customHeight="1">
+    <row r="341" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A341" s="29"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -24461,7 +24517,7 @@
       <c r="Y341" s="18"/>
       <c r="Z341" s="18"/>
     </row>
-    <row r="342" spans="1:26" ht="13.5" customHeight="1">
+    <row r="342" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A342" s="29"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -24489,7 +24545,7 @@
       <c r="Y342" s="18"/>
       <c r="Z342" s="18"/>
     </row>
-    <row r="343" spans="1:26" ht="13.5" customHeight="1">
+    <row r="343" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A343" s="29"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -24517,7 +24573,7 @@
       <c r="Y343" s="18"/>
       <c r="Z343" s="18"/>
     </row>
-    <row r="344" spans="1:26" ht="13.5" customHeight="1">
+    <row r="344" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A344" s="29"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -24545,7 +24601,7 @@
       <c r="Y344" s="18"/>
       <c r="Z344" s="18"/>
     </row>
-    <row r="345" spans="1:26" ht="13.5" customHeight="1">
+    <row r="345" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A345" s="29"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -24573,7 +24629,7 @@
       <c r="Y345" s="18"/>
       <c r="Z345" s="18"/>
     </row>
-    <row r="346" spans="1:26" ht="13.5" customHeight="1">
+    <row r="346" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A346" s="29"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -24601,7 +24657,7 @@
       <c r="Y346" s="18"/>
       <c r="Z346" s="18"/>
     </row>
-    <row r="347" spans="1:26" ht="13.5" customHeight="1">
+    <row r="347" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A347" s="29"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -24629,7 +24685,7 @@
       <c r="Y347" s="18"/>
       <c r="Z347" s="18"/>
     </row>
-    <row r="348" spans="1:26" ht="13.5" customHeight="1">
+    <row r="348" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A348" s="29"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -24657,7 +24713,7 @@
       <c r="Y348" s="18"/>
       <c r="Z348" s="18"/>
     </row>
-    <row r="349" spans="1:26" ht="13.5" customHeight="1">
+    <row r="349" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A349" s="29"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -24685,7 +24741,7 @@
       <c r="Y349" s="18"/>
       <c r="Z349" s="18"/>
     </row>
-    <row r="350" spans="1:26" ht="13.5" customHeight="1">
+    <row r="350" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A350" s="29"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -24713,7 +24769,7 @@
       <c r="Y350" s="18"/>
       <c r="Z350" s="18"/>
     </row>
-    <row r="351" spans="1:26" ht="13.5" customHeight="1">
+    <row r="351" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A351" s="29"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -24741,7 +24797,7 @@
       <c r="Y351" s="18"/>
       <c r="Z351" s="18"/>
     </row>
-    <row r="352" spans="1:26" ht="13.5" customHeight="1">
+    <row r="352" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A352" s="29"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -24769,7 +24825,7 @@
       <c r="Y352" s="18"/>
       <c r="Z352" s="18"/>
     </row>
-    <row r="353" spans="1:26" ht="13.5" customHeight="1">
+    <row r="353" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A353" s="29"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -24797,7 +24853,7 @@
       <c r="Y353" s="18"/>
       <c r="Z353" s="18"/>
     </row>
-    <row r="354" spans="1:26" ht="13.5" customHeight="1">
+    <row r="354" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A354" s="29"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -24825,7 +24881,7 @@
       <c r="Y354" s="18"/>
       <c r="Z354" s="18"/>
     </row>
-    <row r="355" spans="1:26" ht="13.5" customHeight="1">
+    <row r="355" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A355" s="29"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -24853,7 +24909,7 @@
       <c r="Y355" s="18"/>
       <c r="Z355" s="18"/>
     </row>
-    <row r="356" spans="1:26" ht="13.5" customHeight="1">
+    <row r="356" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A356" s="29"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -24881,7 +24937,7 @@
       <c r="Y356" s="18"/>
       <c r="Z356" s="18"/>
     </row>
-    <row r="357" spans="1:26" ht="13.5" customHeight="1">
+    <row r="357" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A357" s="29"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -24909,7 +24965,7 @@
       <c r="Y357" s="18"/>
       <c r="Z357" s="18"/>
     </row>
-    <row r="358" spans="1:26" ht="13.5" customHeight="1">
+    <row r="358" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A358" s="29"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -24937,7 +24993,7 @@
       <c r="Y358" s="18"/>
       <c r="Z358" s="18"/>
     </row>
-    <row r="359" spans="1:26" ht="13.5" customHeight="1">
+    <row r="359" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A359" s="29"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -24965,7 +25021,7 @@
       <c r="Y359" s="18"/>
       <c r="Z359" s="18"/>
     </row>
-    <row r="360" spans="1:26" ht="13.5" customHeight="1">
+    <row r="360" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A360" s="29"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -24993,7 +25049,7 @@
       <c r="Y360" s="18"/>
       <c r="Z360" s="18"/>
     </row>
-    <row r="361" spans="1:26" ht="13.5" customHeight="1">
+    <row r="361" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A361" s="29"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -25021,7 +25077,7 @@
       <c r="Y361" s="18"/>
       <c r="Z361" s="18"/>
     </row>
-    <row r="362" spans="1:26" ht="13.5" customHeight="1">
+    <row r="362" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A362" s="29"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -25049,7 +25105,7 @@
       <c r="Y362" s="18"/>
       <c r="Z362" s="18"/>
     </row>
-    <row r="363" spans="1:26" ht="13.5" customHeight="1">
+    <row r="363" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A363" s="29"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -25077,7 +25133,7 @@
       <c r="Y363" s="18"/>
       <c r="Z363" s="18"/>
     </row>
-    <row r="364" spans="1:26" ht="13.5" customHeight="1">
+    <row r="364" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A364" s="29"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -25105,7 +25161,7 @@
       <c r="Y364" s="18"/>
       <c r="Z364" s="18"/>
     </row>
-    <row r="365" spans="1:26" ht="13.5" customHeight="1">
+    <row r="365" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A365" s="29"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -25133,7 +25189,7 @@
       <c r="Y365" s="18"/>
       <c r="Z365" s="18"/>
     </row>
-    <row r="366" spans="1:26" ht="13.5" customHeight="1">
+    <row r="366" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A366" s="29"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -25161,7 +25217,7 @@
       <c r="Y366" s="18"/>
       <c r="Z366" s="18"/>
     </row>
-    <row r="367" spans="1:26" ht="13.5" customHeight="1">
+    <row r="367" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A367" s="29"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -25189,7 +25245,7 @@
       <c r="Y367" s="18"/>
       <c r="Z367" s="18"/>
     </row>
-    <row r="368" spans="1:26" ht="13.5" customHeight="1">
+    <row r="368" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A368" s="29"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -25217,7 +25273,7 @@
       <c r="Y368" s="18"/>
       <c r="Z368" s="18"/>
     </row>
-    <row r="369" spans="1:26" ht="13.5" customHeight="1">
+    <row r="369" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A369" s="29"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -25245,7 +25301,7 @@
       <c r="Y369" s="18"/>
       <c r="Z369" s="18"/>
     </row>
-    <row r="370" spans="1:26" ht="13.5" customHeight="1">
+    <row r="370" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A370" s="29"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -25273,7 +25329,7 @@
       <c r="Y370" s="18"/>
       <c r="Z370" s="18"/>
     </row>
-    <row r="371" spans="1:26" ht="13.5" customHeight="1">
+    <row r="371" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A371" s="29"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -25301,7 +25357,7 @@
       <c r="Y371" s="18"/>
       <c r="Z371" s="18"/>
     </row>
-    <row r="372" spans="1:26" ht="13.5" customHeight="1">
+    <row r="372" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A372" s="29"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -25329,7 +25385,7 @@
       <c r="Y372" s="18"/>
       <c r="Z372" s="18"/>
     </row>
-    <row r="373" spans="1:26" ht="13.5" customHeight="1">
+    <row r="373" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A373" s="29"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -25357,7 +25413,7 @@
       <c r="Y373" s="18"/>
       <c r="Z373" s="18"/>
     </row>
-    <row r="374" spans="1:26" ht="13.5" customHeight="1">
+    <row r="374" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A374" s="29"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -25385,7 +25441,7 @@
       <c r="Y374" s="18"/>
       <c r="Z374" s="18"/>
     </row>
-    <row r="375" spans="1:26" ht="13.5" customHeight="1">
+    <row r="375" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A375" s="29"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -25413,7 +25469,7 @@
       <c r="Y375" s="18"/>
       <c r="Z375" s="18"/>
     </row>
-    <row r="376" spans="1:26" ht="13.5" customHeight="1">
+    <row r="376" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A376" s="29"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -25441,7 +25497,7 @@
       <c r="Y376" s="18"/>
       <c r="Z376" s="18"/>
     </row>
-    <row r="377" spans="1:26" ht="13.5" customHeight="1">
+    <row r="377" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A377" s="29"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -25469,7 +25525,7 @@
       <c r="Y377" s="18"/>
       <c r="Z377" s="18"/>
     </row>
-    <row r="378" spans="1:26" ht="13.5" customHeight="1">
+    <row r="378" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A378" s="29"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -25497,7 +25553,7 @@
       <c r="Y378" s="18"/>
       <c r="Z378" s="18"/>
     </row>
-    <row r="379" spans="1:26" ht="13.5" customHeight="1">
+    <row r="379" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A379" s="29"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -25525,7 +25581,7 @@
       <c r="Y379" s="18"/>
       <c r="Z379" s="18"/>
     </row>
-    <row r="380" spans="1:26" ht="13.5" customHeight="1">
+    <row r="380" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A380" s="29"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -25553,7 +25609,7 @@
       <c r="Y380" s="18"/>
       <c r="Z380" s="18"/>
     </row>
-    <row r="381" spans="1:26" ht="13.5" customHeight="1">
+    <row r="381" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A381" s="29"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -25581,7 +25637,7 @@
       <c r="Y381" s="18"/>
       <c r="Z381" s="18"/>
     </row>
-    <row r="382" spans="1:26" ht="13.5" customHeight="1">
+    <row r="382" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A382" s="29"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -25609,7 +25665,7 @@
       <c r="Y382" s="18"/>
       <c r="Z382" s="18"/>
     </row>
-    <row r="383" spans="1:26" ht="13.5" customHeight="1">
+    <row r="383" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A383" s="29"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -25637,7 +25693,7 @@
       <c r="Y383" s="18"/>
       <c r="Z383" s="18"/>
     </row>
-    <row r="384" spans="1:26" ht="13.5" customHeight="1">
+    <row r="384" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A384" s="29"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -25665,7 +25721,7 @@
       <c r="Y384" s="18"/>
       <c r="Z384" s="18"/>
     </row>
-    <row r="385" spans="1:26" ht="13.5" customHeight="1">
+    <row r="385" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A385" s="29"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -25693,7 +25749,7 @@
       <c r="Y385" s="18"/>
       <c r="Z385" s="18"/>
     </row>
-    <row r="386" spans="1:26" ht="13.5" customHeight="1">
+    <row r="386" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A386" s="29"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -25721,7 +25777,7 @@
       <c r="Y386" s="18"/>
       <c r="Z386" s="18"/>
     </row>
-    <row r="387" spans="1:26" ht="13.5" customHeight="1">
+    <row r="387" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A387" s="29"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -25749,7 +25805,7 @@
       <c r="Y387" s="18"/>
       <c r="Z387" s="18"/>
     </row>
-    <row r="388" spans="1:26" ht="13.5" customHeight="1">
+    <row r="388" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A388" s="29"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -25777,7 +25833,7 @@
       <c r="Y388" s="18"/>
       <c r="Z388" s="18"/>
     </row>
-    <row r="389" spans="1:26" ht="13.5" customHeight="1">
+    <row r="389" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A389" s="29"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -25805,7 +25861,7 @@
       <c r="Y389" s="18"/>
       <c r="Z389" s="18"/>
     </row>
-    <row r="390" spans="1:26" ht="13.5" customHeight="1">
+    <row r="390" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A390" s="29"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -25833,7 +25889,7 @@
       <c r="Y390" s="18"/>
       <c r="Z390" s="18"/>
     </row>
-    <row r="391" spans="1:26" ht="13.5" customHeight="1">
+    <row r="391" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A391" s="29"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -25861,7 +25917,7 @@
       <c r="Y391" s="18"/>
       <c r="Z391" s="18"/>
     </row>
-    <row r="392" spans="1:26" ht="13.5" customHeight="1">
+    <row r="392" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A392" s="29"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -25889,7 +25945,7 @@
       <c r="Y392" s="18"/>
       <c r="Z392" s="18"/>
     </row>
-    <row r="393" spans="1:26" ht="13.5" customHeight="1">
+    <row r="393" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A393" s="29"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -25917,7 +25973,7 @@
       <c r="Y393" s="18"/>
       <c r="Z393" s="18"/>
     </row>
-    <row r="394" spans="1:26" ht="13.5" customHeight="1">
+    <row r="394" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A394" s="29"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -25945,7 +26001,7 @@
       <c r="Y394" s="18"/>
       <c r="Z394" s="18"/>
     </row>
-    <row r="395" spans="1:26" ht="13.5" customHeight="1">
+    <row r="395" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A395" s="29"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -25973,7 +26029,7 @@
       <c r="Y395" s="18"/>
       <c r="Z395" s="18"/>
     </row>
-    <row r="396" spans="1:26" ht="13.5" customHeight="1">
+    <row r="396" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A396" s="29"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -26001,7 +26057,7 @@
       <c r="Y396" s="18"/>
       <c r="Z396" s="18"/>
     </row>
-    <row r="397" spans="1:26" ht="13.5" customHeight="1">
+    <row r="397" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A397" s="29"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -26029,7 +26085,7 @@
       <c r="Y397" s="18"/>
       <c r="Z397" s="18"/>
     </row>
-    <row r="398" spans="1:26" ht="13.5" customHeight="1">
+    <row r="398" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A398" s="29"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -26057,7 +26113,7 @@
       <c r="Y398" s="18"/>
       <c r="Z398" s="18"/>
     </row>
-    <row r="399" spans="1:26" ht="13.5" customHeight="1">
+    <row r="399" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A399" s="29"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -26085,7 +26141,7 @@
       <c r="Y399" s="18"/>
       <c r="Z399" s="18"/>
     </row>
-    <row r="400" spans="1:26" ht="13.5" customHeight="1">
+    <row r="400" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A400" s="29"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -26113,7 +26169,7 @@
       <c r="Y400" s="18"/>
       <c r="Z400" s="18"/>
     </row>
-    <row r="401" spans="1:26" ht="13.5" customHeight="1">
+    <row r="401" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A401" s="29"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -26141,7 +26197,7 @@
       <c r="Y401" s="18"/>
       <c r="Z401" s="18"/>
     </row>
-    <row r="402" spans="1:26" ht="13.5" customHeight="1">
+    <row r="402" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A402" s="29"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -26169,7 +26225,7 @@
       <c r="Y402" s="18"/>
       <c r="Z402" s="18"/>
     </row>
-    <row r="403" spans="1:26" ht="13.5" customHeight="1">
+    <row r="403" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A403" s="29"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -26197,7 +26253,7 @@
       <c r="Y403" s="18"/>
       <c r="Z403" s="18"/>
     </row>
-    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+    <row r="404" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A404" s="29"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -26225,7 +26281,7 @@
       <c r="Y404" s="18"/>
       <c r="Z404" s="18"/>
     </row>
-    <row r="405" spans="1:26" ht="13.5" customHeight="1">
+    <row r="405" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A405" s="29"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -26253,7 +26309,7 @@
       <c r="Y405" s="18"/>
       <c r="Z405" s="18"/>
     </row>
-    <row r="406" spans="1:26" ht="13.5" customHeight="1">
+    <row r="406" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A406" s="29"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -26281,7 +26337,7 @@
       <c r="Y406" s="18"/>
       <c r="Z406" s="18"/>
     </row>
-    <row r="407" spans="1:26" ht="13.5" customHeight="1">
+    <row r="407" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A407" s="29"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -26309,7 +26365,7 @@
       <c r="Y407" s="18"/>
       <c r="Z407" s="18"/>
     </row>
-    <row r="408" spans="1:26" ht="13.5" customHeight="1">
+    <row r="408" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A408" s="29"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -26337,7 +26393,7 @@
       <c r="Y408" s="18"/>
       <c r="Z408" s="18"/>
     </row>
-    <row r="409" spans="1:26" ht="13.5" customHeight="1">
+    <row r="409" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A409" s="29"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -26365,7 +26421,7 @@
       <c r="Y409" s="18"/>
       <c r="Z409" s="18"/>
     </row>
-    <row r="410" spans="1:26" ht="13.5" customHeight="1">
+    <row r="410" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A410" s="29"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -26393,7 +26449,7 @@
       <c r="Y410" s="18"/>
       <c r="Z410" s="18"/>
     </row>
-    <row r="411" spans="1:26" ht="13.5" customHeight="1">
+    <row r="411" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A411" s="29"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -26421,7 +26477,7 @@
       <c r="Y411" s="18"/>
       <c r="Z411" s="18"/>
     </row>
-    <row r="412" spans="1:26" ht="13.5" customHeight="1">
+    <row r="412" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A412" s="29"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -26449,7 +26505,7 @@
       <c r="Y412" s="18"/>
       <c r="Z412" s="18"/>
     </row>
-    <row r="413" spans="1:26" ht="13.5" customHeight="1">
+    <row r="413" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A413" s="29"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -26477,7 +26533,7 @@
       <c r="Y413" s="18"/>
       <c r="Z413" s="18"/>
     </row>
-    <row r="414" spans="1:26" ht="13.5" customHeight="1">
+    <row r="414" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A414" s="29"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -26505,7 +26561,7 @@
       <c r="Y414" s="18"/>
       <c r="Z414" s="18"/>
     </row>
-    <row r="415" spans="1:26" ht="13.5" customHeight="1">
+    <row r="415" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A415" s="29"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -26533,7 +26589,7 @@
       <c r="Y415" s="18"/>
       <c r="Z415" s="18"/>
     </row>
-    <row r="416" spans="1:26" ht="13.5" customHeight="1">
+    <row r="416" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A416" s="29"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -26561,7 +26617,7 @@
       <c r="Y416" s="18"/>
       <c r="Z416" s="18"/>
     </row>
-    <row r="417" spans="1:26" ht="13.5" customHeight="1">
+    <row r="417" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A417" s="29"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -26589,7 +26645,7 @@
       <c r="Y417" s="18"/>
       <c r="Z417" s="18"/>
     </row>
-    <row r="418" spans="1:26" ht="13.5" customHeight="1">
+    <row r="418" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A418" s="29"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -26617,7 +26673,7 @@
       <c r="Y418" s="18"/>
       <c r="Z418" s="18"/>
     </row>
-    <row r="419" spans="1:26" ht="13.5" customHeight="1">
+    <row r="419" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A419" s="29"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -26645,7 +26701,7 @@
       <c r="Y419" s="18"/>
       <c r="Z419" s="18"/>
     </row>
-    <row r="420" spans="1:26" ht="13.5" customHeight="1">
+    <row r="420" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A420" s="29"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -26673,7 +26729,7 @@
       <c r="Y420" s="18"/>
       <c r="Z420" s="18"/>
     </row>
-    <row r="421" spans="1:26" ht="13.5" customHeight="1">
+    <row r="421" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A421" s="29"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -26701,7 +26757,7 @@
       <c r="Y421" s="18"/>
       <c r="Z421" s="18"/>
     </row>
-    <row r="422" spans="1:26" ht="13.5" customHeight="1">
+    <row r="422" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A422" s="29"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -26729,7 +26785,7 @@
       <c r="Y422" s="18"/>
       <c r="Z422" s="18"/>
     </row>
-    <row r="423" spans="1:26" ht="13.5" customHeight="1">
+    <row r="423" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A423" s="29"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -26757,7 +26813,7 @@
       <c r="Y423" s="18"/>
       <c r="Z423" s="18"/>
     </row>
-    <row r="424" spans="1:26" ht="13.5" customHeight="1">
+    <row r="424" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A424" s="29"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -26785,7 +26841,7 @@
       <c r="Y424" s="18"/>
       <c r="Z424" s="18"/>
     </row>
-    <row r="425" spans="1:26" ht="13.5" customHeight="1">
+    <row r="425" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A425" s="29"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -26813,7 +26869,7 @@
       <c r="Y425" s="18"/>
       <c r="Z425" s="18"/>
     </row>
-    <row r="426" spans="1:26" ht="13.5" customHeight="1">
+    <row r="426" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A426" s="29"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -26841,7 +26897,7 @@
       <c r="Y426" s="18"/>
       <c r="Z426" s="18"/>
     </row>
-    <row r="427" spans="1:26" ht="13.5" customHeight="1">
+    <row r="427" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A427" s="29"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -26869,7 +26925,7 @@
       <c r="Y427" s="18"/>
       <c r="Z427" s="18"/>
     </row>
-    <row r="428" spans="1:26" ht="13.5" customHeight="1">
+    <row r="428" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A428" s="29"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -26897,7 +26953,7 @@
       <c r="Y428" s="18"/>
       <c r="Z428" s="18"/>
     </row>
-    <row r="429" spans="1:26" ht="13.5" customHeight="1">
+    <row r="429" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A429" s="29"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -26925,7 +26981,7 @@
       <c r="Y429" s="18"/>
       <c r="Z429" s="18"/>
     </row>
-    <row r="430" spans="1:26" ht="13.5" customHeight="1">
+    <row r="430" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A430" s="29"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -26953,7 +27009,7 @@
       <c r="Y430" s="18"/>
       <c r="Z430" s="18"/>
     </row>
-    <row r="431" spans="1:26" ht="13.5" customHeight="1">
+    <row r="431" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A431" s="29"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -26981,7 +27037,7 @@
       <c r="Y431" s="18"/>
       <c r="Z431" s="18"/>
     </row>
-    <row r="432" spans="1:26" ht="13.5" customHeight="1">
+    <row r="432" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A432" s="29"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -27009,7 +27065,7 @@
       <c r="Y432" s="18"/>
       <c r="Z432" s="18"/>
     </row>
-    <row r="433" spans="1:26" ht="13.5" customHeight="1">
+    <row r="433" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A433" s="29"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -27037,7 +27093,7 @@
       <c r="Y433" s="18"/>
       <c r="Z433" s="18"/>
     </row>
-    <row r="434" spans="1:26" ht="13.5" customHeight="1">
+    <row r="434" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A434" s="29"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -27065,7 +27121,7 @@
       <c r="Y434" s="18"/>
       <c r="Z434" s="18"/>
     </row>
-    <row r="435" spans="1:26" ht="13.5" customHeight="1">
+    <row r="435" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A435" s="29"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -27093,7 +27149,7 @@
       <c r="Y435" s="18"/>
       <c r="Z435" s="18"/>
     </row>
-    <row r="436" spans="1:26" ht="13.5" customHeight="1">
+    <row r="436" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A436" s="29"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -27121,7 +27177,7 @@
       <c r="Y436" s="18"/>
       <c r="Z436" s="18"/>
     </row>
-    <row r="437" spans="1:26" ht="13.5" customHeight="1">
+    <row r="437" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A437" s="29"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -27149,7 +27205,7 @@
       <c r="Y437" s="18"/>
       <c r="Z437" s="18"/>
     </row>
-    <row r="438" spans="1:26" ht="13.5" customHeight="1">
+    <row r="438" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A438" s="29"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -27177,7 +27233,7 @@
       <c r="Y438" s="18"/>
       <c r="Z438" s="18"/>
     </row>
-    <row r="439" spans="1:26" ht="13.5" customHeight="1">
+    <row r="439" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A439" s="29"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -27205,7 +27261,7 @@
       <c r="Y439" s="18"/>
       <c r="Z439" s="18"/>
     </row>
-    <row r="440" spans="1:26" ht="13.5" customHeight="1">
+    <row r="440" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A440" s="29"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -27233,7 +27289,7 @@
       <c r="Y440" s="18"/>
       <c r="Z440" s="18"/>
     </row>
-    <row r="441" spans="1:26" ht="13.5" customHeight="1">
+    <row r="441" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A441" s="29"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -27261,7 +27317,7 @@
       <c r="Y441" s="18"/>
       <c r="Z441" s="18"/>
     </row>
-    <row r="442" spans="1:26" ht="13.5" customHeight="1">
+    <row r="442" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A442" s="29"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -27289,7 +27345,7 @@
       <c r="Y442" s="18"/>
       <c r="Z442" s="18"/>
     </row>
-    <row r="443" spans="1:26" ht="13.5" customHeight="1">
+    <row r="443" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A443" s="29"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -27317,7 +27373,7 @@
       <c r="Y443" s="18"/>
       <c r="Z443" s="18"/>
     </row>
-    <row r="444" spans="1:26" ht="13.5" customHeight="1">
+    <row r="444" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A444" s="29"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -27345,7 +27401,7 @@
       <c r="Y444" s="18"/>
       <c r="Z444" s="18"/>
     </row>
-    <row r="445" spans="1:26" ht="13.5" customHeight="1">
+    <row r="445" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A445" s="29"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -27373,7 +27429,7 @@
       <c r="Y445" s="18"/>
       <c r="Z445" s="18"/>
     </row>
-    <row r="446" spans="1:26" ht="13.5" customHeight="1">
+    <row r="446" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A446" s="29"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -27401,7 +27457,7 @@
       <c r="Y446" s="18"/>
       <c r="Z446" s="18"/>
     </row>
-    <row r="447" spans="1:26" ht="13.5" customHeight="1">
+    <row r="447" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A447" s="29"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -27429,7 +27485,7 @@
       <c r="Y447" s="18"/>
       <c r="Z447" s="18"/>
     </row>
-    <row r="448" spans="1:26" ht="13.5" customHeight="1">
+    <row r="448" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A448" s="29"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -27457,7 +27513,7 @@
       <c r="Y448" s="18"/>
       <c r="Z448" s="18"/>
     </row>
-    <row r="449" spans="1:26" ht="13.5" customHeight="1">
+    <row r="449" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A449" s="29"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -27485,7 +27541,7 @@
       <c r="Y449" s="18"/>
       <c r="Z449" s="18"/>
     </row>
-    <row r="450" spans="1:26" ht="13.5" customHeight="1">
+    <row r="450" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A450" s="29"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -27513,7 +27569,7 @@
       <c r="Y450" s="18"/>
       <c r="Z450" s="18"/>
     </row>
-    <row r="451" spans="1:26" ht="13.5" customHeight="1">
+    <row r="451" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A451" s="29"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -27541,7 +27597,7 @@
       <c r="Y451" s="18"/>
       <c r="Z451" s="18"/>
     </row>
-    <row r="452" spans="1:26" ht="13.5" customHeight="1">
+    <row r="452" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A452" s="29"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -27569,7 +27625,7 @@
       <c r="Y452" s="18"/>
       <c r="Z452" s="18"/>
     </row>
-    <row r="453" spans="1:26" ht="13.5" customHeight="1">
+    <row r="453" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A453" s="29"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -27597,7 +27653,7 @@
       <c r="Y453" s="18"/>
       <c r="Z453" s="18"/>
     </row>
-    <row r="454" spans="1:26" ht="13.5" customHeight="1">
+    <row r="454" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A454" s="29"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -27625,7 +27681,7 @@
       <c r="Y454" s="18"/>
       <c r="Z454" s="18"/>
     </row>
-    <row r="455" spans="1:26" ht="13.5" customHeight="1">
+    <row r="455" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A455" s="29"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -27653,7 +27709,7 @@
       <c r="Y455" s="18"/>
       <c r="Z455" s="18"/>
     </row>
-    <row r="456" spans="1:26" ht="13.5" customHeight="1">
+    <row r="456" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A456" s="29"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -27681,7 +27737,7 @@
       <c r="Y456" s="18"/>
       <c r="Z456" s="18"/>
     </row>
-    <row r="457" spans="1:26" ht="13.5" customHeight="1">
+    <row r="457" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A457" s="29"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -27709,7 +27765,7 @@
       <c r="Y457" s="18"/>
       <c r="Z457" s="18"/>
     </row>
-    <row r="458" spans="1:26" ht="13.5" customHeight="1">
+    <row r="458" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A458" s="29"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -27737,7 +27793,7 @@
       <c r="Y458" s="18"/>
       <c r="Z458" s="18"/>
     </row>
-    <row r="459" spans="1:26" ht="13.5" customHeight="1">
+    <row r="459" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A459" s="29"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -27765,7 +27821,7 @@
       <c r="Y459" s="18"/>
       <c r="Z459" s="18"/>
     </row>
-    <row r="460" spans="1:26" ht="13.5" customHeight="1">
+    <row r="460" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A460" s="29"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -27793,7 +27849,7 @@
       <c r="Y460" s="18"/>
       <c r="Z460" s="18"/>
     </row>
-    <row r="461" spans="1:26" ht="13.5" customHeight="1">
+    <row r="461" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A461" s="29"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -27821,7 +27877,7 @@
       <c r="Y461" s="18"/>
       <c r="Z461" s="18"/>
     </row>
-    <row r="462" spans="1:26" ht="13.5" customHeight="1">
+    <row r="462" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A462" s="29"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -27849,7 +27905,7 @@
       <c r="Y462" s="18"/>
       <c r="Z462" s="18"/>
     </row>
-    <row r="463" spans="1:26" ht="13.5" customHeight="1">
+    <row r="463" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A463" s="29"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -27877,7 +27933,7 @@
       <c r="Y463" s="18"/>
       <c r="Z463" s="18"/>
     </row>
-    <row r="464" spans="1:26" ht="13.5" customHeight="1">
+    <row r="464" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A464" s="29"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -27905,7 +27961,7 @@
       <c r="Y464" s="18"/>
       <c r="Z464" s="18"/>
     </row>
-    <row r="465" spans="1:26" ht="13.5" customHeight="1">
+    <row r="465" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A465" s="29"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -27933,7 +27989,7 @@
       <c r="Y465" s="18"/>
       <c r="Z465" s="18"/>
     </row>
-    <row r="466" spans="1:26" ht="13.5" customHeight="1">
+    <row r="466" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A466" s="29"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -27961,7 +28017,7 @@
       <c r="Y466" s="18"/>
       <c r="Z466" s="18"/>
     </row>
-    <row r="467" spans="1:26" ht="13.5" customHeight="1">
+    <row r="467" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A467" s="29"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -27989,7 +28045,7 @@
       <c r="Y467" s="18"/>
       <c r="Z467" s="18"/>
     </row>
-    <row r="468" spans="1:26" ht="13.5" customHeight="1">
+    <row r="468" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A468" s="29"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -28017,7 +28073,7 @@
       <c r="Y468" s="18"/>
       <c r="Z468" s="18"/>
     </row>
-    <row r="469" spans="1:26" ht="13.5" customHeight="1">
+    <row r="469" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A469" s="29"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -28045,7 +28101,7 @@
       <c r="Y469" s="18"/>
       <c r="Z469" s="18"/>
     </row>
-    <row r="470" spans="1:26" ht="13.5" customHeight="1">
+    <row r="470" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A470" s="29"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -28073,7 +28129,7 @@
       <c r="Y470" s="18"/>
       <c r="Z470" s="18"/>
     </row>
-    <row r="471" spans="1:26" ht="13.5" customHeight="1">
+    <row r="471" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A471" s="29"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -28101,7 +28157,7 @@
       <c r="Y471" s="18"/>
       <c r="Z471" s="18"/>
     </row>
-    <row r="472" spans="1:26" ht="13.5" customHeight="1">
+    <row r="472" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A472" s="29"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -28129,7 +28185,7 @@
       <c r="Y472" s="18"/>
       <c r="Z472" s="18"/>
     </row>
-    <row r="473" spans="1:26" ht="13.5" customHeight="1">
+    <row r="473" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A473" s="29"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -28157,7 +28213,7 @@
       <c r="Y473" s="18"/>
       <c r="Z473" s="18"/>
     </row>
-    <row r="474" spans="1:26" ht="13.5" customHeight="1">
+    <row r="474" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A474" s="29"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -28185,7 +28241,7 @@
       <c r="Y474" s="18"/>
       <c r="Z474" s="18"/>
     </row>
-    <row r="475" spans="1:26" ht="13.5" customHeight="1">
+    <row r="475" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A475" s="29"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -28213,7 +28269,7 @@
       <c r="Y475" s="18"/>
       <c r="Z475" s="18"/>
     </row>
-    <row r="476" spans="1:26" ht="13.5" customHeight="1">
+    <row r="476" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A476" s="29"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -28241,7 +28297,7 @@
       <c r="Y476" s="18"/>
       <c r="Z476" s="18"/>
     </row>
-    <row r="477" spans="1:26" ht="13.5" customHeight="1">
+    <row r="477" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A477" s="29"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -28269,7 +28325,7 @@
       <c r="Y477" s="18"/>
       <c r="Z477" s="18"/>
     </row>
-    <row r="478" spans="1:26" ht="13.5" customHeight="1">
+    <row r="478" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A478" s="29"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -28297,7 +28353,7 @@
       <c r="Y478" s="18"/>
       <c r="Z478" s="18"/>
     </row>
-    <row r="479" spans="1:26" ht="13.5" customHeight="1">
+    <row r="479" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A479" s="29"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -28325,7 +28381,7 @@
       <c r="Y479" s="18"/>
       <c r="Z479" s="18"/>
     </row>
-    <row r="480" spans="1:26" ht="13.5" customHeight="1">
+    <row r="480" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A480" s="29"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -28353,7 +28409,7 @@
       <c r="Y480" s="18"/>
       <c r="Z480" s="18"/>
     </row>
-    <row r="481" spans="1:26" ht="13.5" customHeight="1">
+    <row r="481" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A481" s="29"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -28381,7 +28437,7 @@
       <c r="Y481" s="18"/>
       <c r="Z481" s="18"/>
     </row>
-    <row r="482" spans="1:26" ht="13.5" customHeight="1">
+    <row r="482" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A482" s="29"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -28409,7 +28465,7 @@
       <c r="Y482" s="18"/>
       <c r="Z482" s="18"/>
     </row>
-    <row r="483" spans="1:26" ht="13.5" customHeight="1">
+    <row r="483" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A483" s="29"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -28437,7 +28493,7 @@
       <c r="Y483" s="18"/>
       <c r="Z483" s="18"/>
     </row>
-    <row r="484" spans="1:26" ht="13.5" customHeight="1">
+    <row r="484" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A484" s="29"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -28465,7 +28521,7 @@
       <c r="Y484" s="18"/>
       <c r="Z484" s="18"/>
     </row>
-    <row r="485" spans="1:26" ht="13.5" customHeight="1">
+    <row r="485" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A485" s="29"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -28493,7 +28549,7 @@
       <c r="Y485" s="18"/>
       <c r="Z485" s="18"/>
     </row>
-    <row r="486" spans="1:26" ht="13.5" customHeight="1">
+    <row r="486" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A486" s="29"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -28521,7 +28577,7 @@
       <c r="Y486" s="18"/>
       <c r="Z486" s="18"/>
     </row>
-    <row r="487" spans="1:26" ht="13.5" customHeight="1">
+    <row r="487" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A487" s="29"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -28549,7 +28605,7 @@
       <c r="Y487" s="18"/>
       <c r="Z487" s="18"/>
     </row>
-    <row r="488" spans="1:26" ht="13.5" customHeight="1">
+    <row r="488" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A488" s="29"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -28577,7 +28633,7 @@
       <c r="Y488" s="18"/>
       <c r="Z488" s="18"/>
     </row>
-    <row r="489" spans="1:26" ht="13.5" customHeight="1">
+    <row r="489" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A489" s="29"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -28605,7 +28661,7 @@
       <c r="Y489" s="18"/>
       <c r="Z489" s="18"/>
     </row>
-    <row r="490" spans="1:26" ht="13.5" customHeight="1">
+    <row r="490" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A490" s="29"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -28633,7 +28689,7 @@
       <c r="Y490" s="18"/>
       <c r="Z490" s="18"/>
     </row>
-    <row r="491" spans="1:26" ht="13.5" customHeight="1">
+    <row r="491" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A491" s="29"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -28661,7 +28717,7 @@
       <c r="Y491" s="18"/>
       <c r="Z491" s="18"/>
     </row>
-    <row r="492" spans="1:26" ht="13.5" customHeight="1">
+    <row r="492" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A492" s="29"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -28689,7 +28745,7 @@
       <c r="Y492" s="18"/>
       <c r="Z492" s="18"/>
     </row>
-    <row r="493" spans="1:26" ht="13.5" customHeight="1">
+    <row r="493" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A493" s="29"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -28717,7 +28773,7 @@
       <c r="Y493" s="18"/>
       <c r="Z493" s="18"/>
     </row>
-    <row r="494" spans="1:26" ht="13.5" customHeight="1">
+    <row r="494" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A494" s="29"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -28745,7 +28801,7 @@
       <c r="Y494" s="18"/>
       <c r="Z494" s="18"/>
     </row>
-    <row r="495" spans="1:26" ht="13.5" customHeight="1">
+    <row r="495" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A495" s="29"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -28773,7 +28829,7 @@
       <c r="Y495" s="18"/>
       <c r="Z495" s="18"/>
     </row>
-    <row r="496" spans="1:26" ht="13.5" customHeight="1">
+    <row r="496" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A496" s="29"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -28801,7 +28857,7 @@
       <c r="Y496" s="18"/>
       <c r="Z496" s="18"/>
     </row>
-    <row r="497" spans="1:26" ht="13.5" customHeight="1">
+    <row r="497" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A497" s="29"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -28829,7 +28885,7 @@
       <c r="Y497" s="18"/>
       <c r="Z497" s="18"/>
     </row>
-    <row r="498" spans="1:26" ht="13.5" customHeight="1">
+    <row r="498" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A498" s="29"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -28857,7 +28913,7 @@
       <c r="Y498" s="18"/>
       <c r="Z498" s="18"/>
     </row>
-    <row r="499" spans="1:26" ht="13.5" customHeight="1">
+    <row r="499" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A499" s="29"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -28885,7 +28941,7 @@
       <c r="Y499" s="18"/>
       <c r="Z499" s="18"/>
     </row>
-    <row r="500" spans="1:26" ht="13.5" customHeight="1">
+    <row r="500" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A500" s="29"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -28913,7 +28969,7 @@
       <c r="Y500" s="18"/>
       <c r="Z500" s="18"/>
     </row>
-    <row r="501" spans="1:26" ht="13.5" customHeight="1">
+    <row r="501" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A501" s="29"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
@@ -28941,7 +28997,7 @@
       <c r="Y501" s="18"/>
       <c r="Z501" s="18"/>
     </row>
-    <row r="502" spans="1:26" ht="13.5" customHeight="1">
+    <row r="502" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A502" s="29"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
@@ -28969,7 +29025,7 @@
       <c r="Y502" s="18"/>
       <c r="Z502" s="18"/>
     </row>
-    <row r="503" spans="1:26" ht="13.5" customHeight="1">
+    <row r="503" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A503" s="29"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
@@ -28997,7 +29053,7 @@
       <c r="Y503" s="18"/>
       <c r="Z503" s="18"/>
     </row>
-    <row r="504" spans="1:26" ht="13.5" customHeight="1">
+    <row r="504" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A504" s="29"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
@@ -29025,7 +29081,7 @@
       <c r="Y504" s="18"/>
       <c r="Z504" s="18"/>
     </row>
-    <row r="505" spans="1:26" ht="13.5" customHeight="1">
+    <row r="505" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A505" s="29"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
@@ -29053,7 +29109,7 @@
       <c r="Y505" s="18"/>
       <c r="Z505" s="18"/>
     </row>
-    <row r="506" spans="1:26" ht="13.5" customHeight="1">
+    <row r="506" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A506" s="29"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
@@ -29081,7 +29137,7 @@
       <c r="Y506" s="18"/>
       <c r="Z506" s="18"/>
     </row>
-    <row r="507" spans="1:26" ht="13.5" customHeight="1">
+    <row r="507" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A507" s="29"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
@@ -29109,7 +29165,7 @@
       <c r="Y507" s="18"/>
       <c r="Z507" s="18"/>
     </row>
-    <row r="508" spans="1:26" ht="13.5" customHeight="1">
+    <row r="508" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A508" s="29"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
@@ -29137,7 +29193,7 @@
       <c r="Y508" s="18"/>
       <c r="Z508" s="18"/>
     </row>
-    <row r="509" spans="1:26" ht="13.5" customHeight="1">
+    <row r="509" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A509" s="29"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
@@ -29165,7 +29221,7 @@
       <c r="Y509" s="18"/>
       <c r="Z509" s="18"/>
     </row>
-    <row r="510" spans="1:26" ht="13.5" customHeight="1">
+    <row r="510" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A510" s="29"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
@@ -29193,7 +29249,7 @@
       <c r="Y510" s="18"/>
       <c r="Z510" s="18"/>
     </row>
-    <row r="511" spans="1:26" ht="13.5" customHeight="1">
+    <row r="511" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A511" s="29"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
@@ -29221,7 +29277,7 @@
       <c r="Y511" s="18"/>
       <c r="Z511" s="18"/>
     </row>
-    <row r="512" spans="1:26" ht="13.5" customHeight="1">
+    <row r="512" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A512" s="29"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
@@ -29249,7 +29305,7 @@
       <c r="Y512" s="18"/>
       <c r="Z512" s="18"/>
     </row>
-    <row r="513" spans="1:26" ht="13.5" customHeight="1">
+    <row r="513" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A513" s="29"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
@@ -29277,7 +29333,7 @@
       <c r="Y513" s="18"/>
       <c r="Z513" s="18"/>
     </row>
-    <row r="514" spans="1:26" ht="13.5" customHeight="1">
+    <row r="514" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A514" s="29"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
@@ -29305,7 +29361,7 @@
       <c r="Y514" s="18"/>
       <c r="Z514" s="18"/>
     </row>
-    <row r="515" spans="1:26" ht="13.5" customHeight="1">
+    <row r="515" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A515" s="29"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
@@ -29333,7 +29389,7 @@
       <c r="Y515" s="18"/>
       <c r="Z515" s="18"/>
     </row>
-    <row r="516" spans="1:26" ht="13.5" customHeight="1">
+    <row r="516" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A516" s="29"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
@@ -29361,7 +29417,7 @@
       <c r="Y516" s="18"/>
       <c r="Z516" s="18"/>
     </row>
-    <row r="517" spans="1:26" ht="13.5" customHeight="1">
+    <row r="517" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A517" s="29"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
@@ -29389,7 +29445,7 @@
       <c r="Y517" s="18"/>
       <c r="Z517" s="18"/>
     </row>
-    <row r="518" spans="1:26" ht="13.5" customHeight="1">
+    <row r="518" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A518" s="29"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
@@ -29417,7 +29473,7 @@
       <c r="Y518" s="18"/>
       <c r="Z518" s="18"/>
     </row>
-    <row r="519" spans="1:26" ht="13.5" customHeight="1">
+    <row r="519" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A519" s="29"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
@@ -29445,7 +29501,7 @@
       <c r="Y519" s="18"/>
       <c r="Z519" s="18"/>
     </row>
-    <row r="520" spans="1:26" ht="13.5" customHeight="1">
+    <row r="520" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A520" s="29"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
@@ -29473,7 +29529,7 @@
       <c r="Y520" s="18"/>
       <c r="Z520" s="18"/>
     </row>
-    <row r="521" spans="1:26" ht="13.5" customHeight="1">
+    <row r="521" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A521" s="29"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
@@ -29501,7 +29557,7 @@
       <c r="Y521" s="18"/>
       <c r="Z521" s="18"/>
     </row>
-    <row r="522" spans="1:26" ht="13.5" customHeight="1">
+    <row r="522" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A522" s="29"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
@@ -29529,7 +29585,7 @@
       <c r="Y522" s="18"/>
       <c r="Z522" s="18"/>
     </row>
-    <row r="523" spans="1:26" ht="13.5" customHeight="1">
+    <row r="523" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A523" s="29"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
@@ -29557,7 +29613,7 @@
       <c r="Y523" s="18"/>
       <c r="Z523" s="18"/>
     </row>
-    <row r="524" spans="1:26" ht="13.5" customHeight="1">
+    <row r="524" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A524" s="29"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
@@ -29585,7 +29641,7 @@
       <c r="Y524" s="18"/>
       <c r="Z524" s="18"/>
     </row>
-    <row r="525" spans="1:26" ht="13.5" customHeight="1">
+    <row r="525" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A525" s="29"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
@@ -29613,7 +29669,7 @@
       <c r="Y525" s="18"/>
       <c r="Z525" s="18"/>
     </row>
-    <row r="526" spans="1:26" ht="13.5" customHeight="1">
+    <row r="526" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A526" s="29"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
@@ -29641,7 +29697,7 @@
       <c r="Y526" s="18"/>
       <c r="Z526" s="18"/>
     </row>
-    <row r="527" spans="1:26" ht="13.5" customHeight="1">
+    <row r="527" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A527" s="29"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
@@ -29669,7 +29725,7 @@
       <c r="Y527" s="18"/>
       <c r="Z527" s="18"/>
     </row>
-    <row r="528" spans="1:26" ht="13.5" customHeight="1">
+    <row r="528" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A528" s="29"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -29697,7 +29753,7 @@
       <c r="Y528" s="18"/>
       <c r="Z528" s="18"/>
     </row>
-    <row r="529" spans="1:26" ht="13.5" customHeight="1">
+    <row r="529" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A529" s="29"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
@@ -29725,7 +29781,7 @@
       <c r="Y529" s="18"/>
       <c r="Z529" s="18"/>
     </row>
-    <row r="530" spans="1:26" ht="13.5" customHeight="1">
+    <row r="530" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A530" s="29"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
@@ -29753,7 +29809,7 @@
       <c r="Y530" s="18"/>
       <c r="Z530" s="18"/>
     </row>
-    <row r="531" spans="1:26" ht="13.5" customHeight="1">
+    <row r="531" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A531" s="29"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
@@ -29781,7 +29837,7 @@
       <c r="Y531" s="18"/>
       <c r="Z531" s="18"/>
     </row>
-    <row r="532" spans="1:26" ht="13.5" customHeight="1">
+    <row r="532" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A532" s="29"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
@@ -29809,7 +29865,7 @@
       <c r="Y532" s="18"/>
       <c r="Z532" s="18"/>
     </row>
-    <row r="533" spans="1:26" ht="13.5" customHeight="1">
+    <row r="533" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A533" s="29"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
@@ -29837,7 +29893,7 @@
       <c r="Y533" s="18"/>
       <c r="Z533" s="18"/>
     </row>
-    <row r="534" spans="1:26" ht="13.5" customHeight="1">
+    <row r="534" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A534" s="29"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
@@ -29865,7 +29921,7 @@
       <c r="Y534" s="18"/>
       <c r="Z534" s="18"/>
     </row>
-    <row r="535" spans="1:26" ht="13.5" customHeight="1">
+    <row r="535" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A535" s="29"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
@@ -29893,7 +29949,7 @@
       <c r="Y535" s="18"/>
       <c r="Z535" s="18"/>
     </row>
-    <row r="536" spans="1:26" ht="13.5" customHeight="1">
+    <row r="536" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A536" s="29"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
@@ -29921,7 +29977,7 @@
       <c r="Y536" s="18"/>
       <c r="Z536" s="18"/>
     </row>
-    <row r="537" spans="1:26" ht="13.5" customHeight="1">
+    <row r="537" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A537" s="29"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
@@ -29949,7 +30005,7 @@
       <c r="Y537" s="18"/>
       <c r="Z537" s="18"/>
     </row>
-    <row r="538" spans="1:26" ht="13.5" customHeight="1">
+    <row r="538" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A538" s="29"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
@@ -29977,7 +30033,7 @@
       <c r="Y538" s="18"/>
       <c r="Z538" s="18"/>
     </row>
-    <row r="539" spans="1:26" ht="13.5" customHeight="1">
+    <row r="539" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A539" s="29"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
@@ -30005,7 +30061,7 @@
       <c r="Y539" s="18"/>
       <c r="Z539" s="18"/>
     </row>
-    <row r="540" spans="1:26" ht="13.5" customHeight="1">
+    <row r="540" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A540" s="29"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
@@ -30033,7 +30089,7 @@
       <c r="Y540" s="18"/>
       <c r="Z540" s="18"/>
     </row>
-    <row r="541" spans="1:26" ht="13.5" customHeight="1">
+    <row r="541" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A541" s="29"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
@@ -30061,7 +30117,7 @@
       <c r="Y541" s="18"/>
       <c r="Z541" s="18"/>
     </row>
-    <row r="542" spans="1:26" ht="13.5" customHeight="1">
+    <row r="542" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A542" s="29"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
@@ -30089,7 +30145,7 @@
       <c r="Y542" s="18"/>
       <c r="Z542" s="18"/>
     </row>
-    <row r="543" spans="1:26" ht="13.5" customHeight="1">
+    <row r="543" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A543" s="29"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
@@ -30117,7 +30173,7 @@
       <c r="Y543" s="18"/>
       <c r="Z543" s="18"/>
     </row>
-    <row r="544" spans="1:26" ht="13.5" customHeight="1">
+    <row r="544" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A544" s="29"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
@@ -30145,7 +30201,7 @@
       <c r="Y544" s="18"/>
       <c r="Z544" s="18"/>
     </row>
-    <row r="545" spans="1:26" ht="13.5" customHeight="1">
+    <row r="545" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A545" s="29"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
@@ -30173,7 +30229,7 @@
       <c r="Y545" s="18"/>
       <c r="Z545" s="18"/>
     </row>
-    <row r="546" spans="1:26" ht="13.5" customHeight="1">
+    <row r="546" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A546" s="29"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
@@ -30201,7 +30257,7 @@
       <c r="Y546" s="18"/>
       <c r="Z546" s="18"/>
     </row>
-    <row r="547" spans="1:26" ht="13.5" customHeight="1">
+    <row r="547" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A547" s="29"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
@@ -30229,7 +30285,7 @@
       <c r="Y547" s="18"/>
       <c r="Z547" s="18"/>
     </row>
-    <row r="548" spans="1:26" ht="13.5" customHeight="1">
+    <row r="548" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A548" s="29"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
@@ -30257,7 +30313,7 @@
       <c r="Y548" s="18"/>
       <c r="Z548" s="18"/>
     </row>
-    <row r="549" spans="1:26" ht="13.5" customHeight="1">
+    <row r="549" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A549" s="29"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
@@ -30285,7 +30341,7 @@
       <c r="Y549" s="18"/>
       <c r="Z549" s="18"/>
     </row>
-    <row r="550" spans="1:26" ht="13.5" customHeight="1">
+    <row r="550" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A550" s="29"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
@@ -30313,7 +30369,7 @@
       <c r="Y550" s="18"/>
       <c r="Z550" s="18"/>
     </row>
-    <row r="551" spans="1:26" ht="13.5" customHeight="1">
+    <row r="551" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A551" s="29"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
@@ -30341,7 +30397,7 @@
       <c r="Y551" s="18"/>
       <c r="Z551" s="18"/>
     </row>
-    <row r="552" spans="1:26" ht="13.5" customHeight="1">
+    <row r="552" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A552" s="29"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
@@ -30369,7 +30425,7 @@
       <c r="Y552" s="18"/>
       <c r="Z552" s="18"/>
     </row>
-    <row r="553" spans="1:26" ht="13.5" customHeight="1">
+    <row r="553" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A553" s="29"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
@@ -30397,7 +30453,7 @@
       <c r="Y553" s="18"/>
       <c r="Z553" s="18"/>
     </row>
-    <row r="554" spans="1:26" ht="13.5" customHeight="1">
+    <row r="554" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A554" s="29"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
@@ -30425,7 +30481,7 @@
       <c r="Y554" s="18"/>
       <c r="Z554" s="18"/>
     </row>
-    <row r="555" spans="1:26" ht="13.5" customHeight="1">
+    <row r="555" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A555" s="29"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
@@ -30453,7 +30509,7 @@
       <c r="Y555" s="18"/>
       <c r="Z555" s="18"/>
     </row>
-    <row r="556" spans="1:26" ht="13.5" customHeight="1">
+    <row r="556" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A556" s="29"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
@@ -30481,7 +30537,7 @@
       <c r="Y556" s="18"/>
       <c r="Z556" s="18"/>
     </row>
-    <row r="557" spans="1:26" ht="13.5" customHeight="1">
+    <row r="557" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A557" s="29"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
@@ -30509,7 +30565,7 @@
       <c r="Y557" s="18"/>
       <c r="Z557" s="18"/>
     </row>
-    <row r="558" spans="1:26" ht="13.5" customHeight="1">
+    <row r="558" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A558" s="29"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
@@ -30537,7 +30593,7 @@
       <c r="Y558" s="18"/>
       <c r="Z558" s="18"/>
     </row>
-    <row r="559" spans="1:26" ht="13.5" customHeight="1">
+    <row r="559" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A559" s="29"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
@@ -30565,7 +30621,7 @@
       <c r="Y559" s="18"/>
       <c r="Z559" s="18"/>
     </row>
-    <row r="560" spans="1:26" ht="13.5" customHeight="1">
+    <row r="560" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A560" s="29"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
@@ -30593,7 +30649,7 @@
       <c r="Y560" s="18"/>
       <c r="Z560" s="18"/>
     </row>
-    <row r="561" spans="1:26" ht="13.5" customHeight="1">
+    <row r="561" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A561" s="29"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
@@ -30621,7 +30677,7 @@
       <c r="Y561" s="18"/>
       <c r="Z561" s="18"/>
     </row>
-    <row r="562" spans="1:26" ht="13.5" customHeight="1">
+    <row r="562" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A562" s="29"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
@@ -30649,7 +30705,7 @@
       <c r="Y562" s="18"/>
       <c r="Z562" s="18"/>
     </row>
-    <row r="563" spans="1:26" ht="13.5" customHeight="1">
+    <row r="563" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A563" s="29"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
@@ -30677,7 +30733,7 @@
       <c r="Y563" s="18"/>
       <c r="Z563" s="18"/>
     </row>
-    <row r="564" spans="1:26" ht="13.5" customHeight="1">
+    <row r="564" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A564" s="29"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
@@ -30705,7 +30761,7 @@
       <c r="Y564" s="18"/>
       <c r="Z564" s="18"/>
     </row>
-    <row r="565" spans="1:26" ht="13.5" customHeight="1">
+    <row r="565" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A565" s="29"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
@@ -30733,7 +30789,7 @@
       <c r="Y565" s="18"/>
       <c r="Z565" s="18"/>
     </row>
-    <row r="566" spans="1:26" ht="13.5" customHeight="1">
+    <row r="566" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A566" s="29"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
@@ -30761,7 +30817,7 @@
       <c r="Y566" s="18"/>
       <c r="Z566" s="18"/>
     </row>
-    <row r="567" spans="1:26" ht="13.5" customHeight="1">
+    <row r="567" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A567" s="29"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
@@ -30789,7 +30845,7 @@
       <c r="Y567" s="18"/>
       <c r="Z567" s="18"/>
     </row>
-    <row r="568" spans="1:26" ht="13.5" customHeight="1">
+    <row r="568" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A568" s="29"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
@@ -30817,7 +30873,7 @@
       <c r="Y568" s="18"/>
       <c r="Z568" s="18"/>
     </row>
-    <row r="569" spans="1:26" ht="13.5" customHeight="1">
+    <row r="569" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A569" s="29"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
@@ -30845,7 +30901,7 @@
       <c r="Y569" s="18"/>
       <c r="Z569" s="18"/>
     </row>
-    <row r="570" spans="1:26" ht="13.5" customHeight="1">
+    <row r="570" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A570" s="29"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
@@ -30873,7 +30929,7 @@
       <c r="Y570" s="18"/>
       <c r="Z570" s="18"/>
     </row>
-    <row r="571" spans="1:26" ht="13.5" customHeight="1">
+    <row r="571" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A571" s="29"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
@@ -30901,7 +30957,7 @@
       <c r="Y571" s="18"/>
       <c r="Z571" s="18"/>
     </row>
-    <row r="572" spans="1:26" ht="13.5" customHeight="1">
+    <row r="572" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A572" s="29"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
@@ -30929,7 +30985,7 @@
       <c r="Y572" s="18"/>
       <c r="Z572" s="18"/>
     </row>
-    <row r="573" spans="1:26" ht="13.5" customHeight="1">
+    <row r="573" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A573" s="29"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
@@ -30957,7 +31013,7 @@
       <c r="Y573" s="18"/>
       <c r="Z573" s="18"/>
     </row>
-    <row r="574" spans="1:26" ht="13.5" customHeight="1">
+    <row r="574" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A574" s="29"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
@@ -30985,7 +31041,7 @@
       <c r="Y574" s="18"/>
       <c r="Z574" s="18"/>
     </row>
-    <row r="575" spans="1:26" ht="13.5" customHeight="1">
+    <row r="575" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A575" s="29"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
@@ -31013,7 +31069,7 @@
       <c r="Y575" s="18"/>
       <c r="Z575" s="18"/>
     </row>
-    <row r="576" spans="1:26" ht="13.5" customHeight="1">
+    <row r="576" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A576" s="29"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
@@ -31041,7 +31097,7 @@
       <c r="Y576" s="18"/>
       <c r="Z576" s="18"/>
     </row>
-    <row r="577" spans="1:26" ht="13.5" customHeight="1">
+    <row r="577" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A577" s="29"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
@@ -31069,7 +31125,7 @@
       <c r="Y577" s="18"/>
       <c r="Z577" s="18"/>
     </row>
-    <row r="578" spans="1:26" ht="13.5" customHeight="1">
+    <row r="578" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A578" s="29"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
@@ -31097,7 +31153,7 @@
       <c r="Y578" s="18"/>
       <c r="Z578" s="18"/>
     </row>
-    <row r="579" spans="1:26" ht="13.5" customHeight="1">
+    <row r="579" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A579" s="29"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
@@ -31125,7 +31181,7 @@
       <c r="Y579" s="18"/>
       <c r="Z579" s="18"/>
     </row>
-    <row r="580" spans="1:26" ht="13.5" customHeight="1">
+    <row r="580" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A580" s="29"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
@@ -31153,7 +31209,7 @@
       <c r="Y580" s="18"/>
       <c r="Z580" s="18"/>
     </row>
-    <row r="581" spans="1:26" ht="13.5" customHeight="1">
+    <row r="581" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A581" s="29"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
@@ -31181,7 +31237,7 @@
       <c r="Y581" s="18"/>
       <c r="Z581" s="18"/>
     </row>
-    <row r="582" spans="1:26" ht="13.5" customHeight="1">
+    <row r="582" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A582" s="29"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
@@ -31209,7 +31265,7 @@
       <c r="Y582" s="18"/>
       <c r="Z582" s="18"/>
     </row>
-    <row r="583" spans="1:26" ht="13.5" customHeight="1">
+    <row r="583" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A583" s="29"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
@@ -31237,7 +31293,7 @@
       <c r="Y583" s="18"/>
       <c r="Z583" s="18"/>
     </row>
-    <row r="584" spans="1:26" ht="13.5" customHeight="1">
+    <row r="584" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A584" s="29"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
@@ -31265,7 +31321,7 @@
       <c r="Y584" s="18"/>
       <c r="Z584" s="18"/>
     </row>
-    <row r="585" spans="1:26" ht="13.5" customHeight="1">
+    <row r="585" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A585" s="29"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
@@ -31293,7 +31349,7 @@
       <c r="Y585" s="18"/>
       <c r="Z585" s="18"/>
     </row>
-    <row r="586" spans="1:26" ht="13.5" customHeight="1">
+    <row r="586" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A586" s="29"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
@@ -31321,7 +31377,7 @@
       <c r="Y586" s="18"/>
       <c r="Z586" s="18"/>
     </row>
-    <row r="587" spans="1:26" ht="13.5" customHeight="1">
+    <row r="587" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A587" s="29"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
@@ -31349,7 +31405,7 @@
       <c r="Y587" s="18"/>
       <c r="Z587" s="18"/>
     </row>
-    <row r="588" spans="1:26" ht="13.5" customHeight="1">
+    <row r="588" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A588" s="29"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
@@ -31377,7 +31433,7 @@
       <c r="Y588" s="18"/>
       <c r="Z588" s="18"/>
     </row>
-    <row r="589" spans="1:26" ht="13.5" customHeight="1">
+    <row r="589" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A589" s="29"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
@@ -31405,7 +31461,7 @@
       <c r="Y589" s="18"/>
       <c r="Z589" s="18"/>
     </row>
-    <row r="590" spans="1:26" ht="13.5" customHeight="1">
+    <row r="590" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A590" s="29"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
@@ -31433,7 +31489,7 @@
       <c r="Y590" s="18"/>
       <c r="Z590" s="18"/>
     </row>
-    <row r="591" spans="1:26" ht="13.5" customHeight="1">
+    <row r="591" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A591" s="29"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
@@ -31461,7 +31517,7 @@
       <c r="Y591" s="18"/>
       <c r="Z591" s="18"/>
     </row>
-    <row r="592" spans="1:26" ht="13.5" customHeight="1">
+    <row r="592" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A592" s="29"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
@@ -31489,7 +31545,7 @@
       <c r="Y592" s="18"/>
       <c r="Z592" s="18"/>
     </row>
-    <row r="593" spans="1:26" ht="13.5" customHeight="1">
+    <row r="593" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A593" s="29"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
@@ -31517,7 +31573,7 @@
       <c r="Y593" s="18"/>
       <c r="Z593" s="18"/>
     </row>
-    <row r="594" spans="1:26" ht="13.5" customHeight="1">
+    <row r="594" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A594" s="29"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
@@ -31545,7 +31601,7 @@
       <c r="Y594" s="18"/>
       <c r="Z594" s="18"/>
     </row>
-    <row r="595" spans="1:26" ht="13.5" customHeight="1">
+    <row r="595" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A595" s="29"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
@@ -31573,7 +31629,7 @@
       <c r="Y595" s="18"/>
       <c r="Z595" s="18"/>
     </row>
-    <row r="596" spans="1:26" ht="13.5" customHeight="1">
+    <row r="596" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A596" s="29"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
@@ -31601,7 +31657,7 @@
       <c r="Y596" s="18"/>
       <c r="Z596" s="18"/>
     </row>
-    <row r="597" spans="1:26" ht="13.5" customHeight="1">
+    <row r="597" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A597" s="29"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
@@ -31629,7 +31685,7 @@
       <c r="Y597" s="18"/>
       <c r="Z597" s="18"/>
     </row>
-    <row r="598" spans="1:26" ht="13.5" customHeight="1">
+    <row r="598" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A598" s="29"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
@@ -31657,7 +31713,7 @@
       <c r="Y598" s="18"/>
       <c r="Z598" s="18"/>
     </row>
-    <row r="599" spans="1:26" ht="13.5" customHeight="1">
+    <row r="599" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A599" s="29"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
@@ -31685,7 +31741,7 @@
       <c r="Y599" s="18"/>
       <c r="Z599" s="18"/>
     </row>
-    <row r="600" spans="1:26" ht="13.5" customHeight="1">
+    <row r="600" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A600" s="29"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
@@ -31713,7 +31769,7 @@
       <c r="Y600" s="18"/>
       <c r="Z600" s="18"/>
     </row>
-    <row r="601" spans="1:26" ht="13.5" customHeight="1">
+    <row r="601" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A601" s="29"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
@@ -31741,7 +31797,7 @@
       <c r="Y601" s="18"/>
       <c r="Z601" s="18"/>
     </row>
-    <row r="602" spans="1:26" ht="13.5" customHeight="1">
+    <row r="602" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A602" s="29"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
@@ -31769,7 +31825,7 @@
       <c r="Y602" s="18"/>
       <c r="Z602" s="18"/>
     </row>
-    <row r="603" spans="1:26" ht="13.5" customHeight="1">
+    <row r="603" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A603" s="29"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
@@ -31797,7 +31853,7 @@
       <c r="Y603" s="18"/>
       <c r="Z603" s="18"/>
     </row>
-    <row r="604" spans="1:26" ht="13.5" customHeight="1">
+    <row r="604" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A604" s="29"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
@@ -31825,7 +31881,7 @@
       <c r="Y604" s="18"/>
       <c r="Z604" s="18"/>
     </row>
-    <row r="605" spans="1:26" ht="13.5" customHeight="1">
+    <row r="605" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A605" s="29"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
@@ -31853,7 +31909,7 @@
       <c r="Y605" s="18"/>
       <c r="Z605" s="18"/>
     </row>
-    <row r="606" spans="1:26" ht="13.5" customHeight="1">
+    <row r="606" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A606" s="29"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
@@ -31881,7 +31937,7 @@
       <c r="Y606" s="18"/>
       <c r="Z606" s="18"/>
     </row>
-    <row r="607" spans="1:26" ht="13.5" customHeight="1">
+    <row r="607" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A607" s="29"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
@@ -31909,7 +31965,7 @@
       <c r="Y607" s="18"/>
       <c r="Z607" s="18"/>
     </row>
-    <row r="608" spans="1:26" ht="13.5" customHeight="1">
+    <row r="608" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A608" s="29"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
@@ -31937,7 +31993,7 @@
       <c r="Y608" s="18"/>
       <c r="Z608" s="18"/>
     </row>
-    <row r="609" spans="1:26" ht="13.5" customHeight="1">
+    <row r="609" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A609" s="29"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
@@ -31965,7 +32021,7 @@
       <c r="Y609" s="18"/>
       <c r="Z609" s="18"/>
     </row>
-    <row r="610" spans="1:26" ht="13.5" customHeight="1">
+    <row r="610" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A610" s="29"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
@@ -31993,7 +32049,7 @@
       <c r="Y610" s="18"/>
       <c r="Z610" s="18"/>
     </row>
-    <row r="611" spans="1:26" ht="13.5" customHeight="1">
+    <row r="611" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A611" s="29"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
@@ -32021,7 +32077,7 @@
       <c r="Y611" s="18"/>
       <c r="Z611" s="18"/>
     </row>
-    <row r="612" spans="1:26" ht="13.5" customHeight="1">
+    <row r="612" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A612" s="29"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
@@ -32049,7 +32105,7 @@
       <c r="Y612" s="18"/>
       <c r="Z612" s="18"/>
     </row>
-    <row r="613" spans="1:26" ht="13.5" customHeight="1">
+    <row r="613" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A613" s="29"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
@@ -32077,7 +32133,7 @@
       <c r="Y613" s="18"/>
       <c r="Z613" s="18"/>
     </row>
-    <row r="614" spans="1:26" ht="13.5" customHeight="1">
+    <row r="614" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A614" s="29"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
@@ -32105,7 +32161,7 @@
       <c r="Y614" s="18"/>
       <c r="Z614" s="18"/>
     </row>
-    <row r="615" spans="1:26" ht="13.5" customHeight="1">
+    <row r="615" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A615" s="29"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
@@ -32133,7 +32189,7 @@
       <c r="Y615" s="18"/>
       <c r="Z615" s="18"/>
     </row>
-    <row r="616" spans="1:26" ht="13.5" customHeight="1">
+    <row r="616" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A616" s="29"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
@@ -32161,7 +32217,7 @@
       <c r="Y616" s="18"/>
       <c r="Z616" s="18"/>
     </row>
-    <row r="617" spans="1:26" ht="13.5" customHeight="1">
+    <row r="617" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A617" s="29"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
@@ -32189,7 +32245,7 @@
       <c r="Y617" s="18"/>
       <c r="Z617" s="18"/>
     </row>
-    <row r="618" spans="1:26" ht="13.5" customHeight="1">
+    <row r="618" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A618" s="29"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
@@ -32217,7 +32273,7 @@
       <c r="Y618" s="18"/>
       <c r="Z618" s="18"/>
     </row>
-    <row r="619" spans="1:26" ht="13.5" customHeight="1">
+    <row r="619" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A619" s="29"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
@@ -32245,7 +32301,7 @@
       <c r="Y619" s="18"/>
       <c r="Z619" s="18"/>
     </row>
-    <row r="620" spans="1:26" ht="13.5" customHeight="1">
+    <row r="620" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A620" s="29"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
@@ -32273,7 +32329,7 @@
       <c r="Y620" s="18"/>
       <c r="Z620" s="18"/>
     </row>
-    <row r="621" spans="1:26" ht="13.5" customHeight="1">
+    <row r="621" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A621" s="29"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
@@ -32301,7 +32357,7 @@
       <c r="Y621" s="18"/>
       <c r="Z621" s="18"/>
     </row>
-    <row r="622" spans="1:26" ht="13.5" customHeight="1">
+    <row r="622" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A622" s="29"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
@@ -32329,7 +32385,7 @@
       <c r="Y622" s="18"/>
       <c r="Z622" s="18"/>
     </row>
-    <row r="623" spans="1:26" ht="13.5" customHeight="1">
+    <row r="623" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A623" s="29"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
@@ -32357,7 +32413,7 @@
       <c r="Y623" s="18"/>
       <c r="Z623" s="18"/>
     </row>
-    <row r="624" spans="1:26" ht="13.5" customHeight="1">
+    <row r="624" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A624" s="29"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
@@ -32385,7 +32441,7 @@
       <c r="Y624" s="18"/>
       <c r="Z624" s="18"/>
     </row>
-    <row r="625" spans="1:26" ht="13.5" customHeight="1">
+    <row r="625" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A625" s="29"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
@@ -32413,7 +32469,7 @@
       <c r="Y625" s="18"/>
       <c r="Z625" s="18"/>
     </row>
-    <row r="626" spans="1:26" ht="13.5" customHeight="1">
+    <row r="626" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A626" s="29"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
@@ -32441,7 +32497,7 @@
       <c r="Y626" s="18"/>
       <c r="Z626" s="18"/>
     </row>
-    <row r="627" spans="1:26" ht="13.5" customHeight="1">
+    <row r="627" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A627" s="29"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
@@ -32469,7 +32525,7 @@
       <c r="Y627" s="18"/>
       <c r="Z627" s="18"/>
     </row>
-    <row r="628" spans="1:26" ht="13.5" customHeight="1">
+    <row r="628" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A628" s="29"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
@@ -32497,7 +32553,7 @@
       <c r="Y628" s="18"/>
       <c r="Z628" s="18"/>
     </row>
-    <row r="629" spans="1:26" ht="13.5" customHeight="1">
+    <row r="629" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A629" s="29"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
@@ -32525,7 +32581,7 @@
       <c r="Y629" s="18"/>
       <c r="Z629" s="18"/>
     </row>
-    <row r="630" spans="1:26" ht="13.5" customHeight="1">
+    <row r="630" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A630" s="29"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
@@ -32553,7 +32609,7 @@
       <c r="Y630" s="18"/>
       <c r="Z630" s="18"/>
     </row>
-    <row r="631" spans="1:26" ht="13.5" customHeight="1">
+    <row r="631" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A631" s="29"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
@@ -32581,7 +32637,7 @@
       <c r="Y631" s="18"/>
       <c r="Z631" s="18"/>
     </row>
-    <row r="632" spans="1:26" ht="13.5" customHeight="1">
+    <row r="632" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A632" s="29"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
@@ -32609,7 +32665,7 @@
       <c r="Y632" s="18"/>
       <c r="Z632" s="18"/>
     </row>
-    <row r="633" spans="1:26" ht="13.5" customHeight="1">
+    <row r="633" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A633" s="29"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
@@ -32637,7 +32693,7 @@
       <c r="Y633" s="18"/>
       <c r="Z633" s="18"/>
     </row>
-    <row r="634" spans="1:26" ht="13.5" customHeight="1">
+    <row r="634" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A634" s="29"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
@@ -32665,7 +32721,7 @@
       <c r="Y634" s="18"/>
       <c r="Z634" s="18"/>
     </row>
-    <row r="635" spans="1:26" ht="13.5" customHeight="1">
+    <row r="635" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A635" s="29"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
@@ -32693,7 +32749,7 @@
       <c r="Y635" s="18"/>
       <c r="Z635" s="18"/>
     </row>
-    <row r="636" spans="1:26" ht="13.5" customHeight="1">
+    <row r="636" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A636" s="29"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
@@ -32721,7 +32777,7 @@
       <c r="Y636" s="18"/>
       <c r="Z636" s="18"/>
     </row>
-    <row r="637" spans="1:26" ht="13.5" customHeight="1">
+    <row r="637" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A637" s="29"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
@@ -32749,7 +32805,7 @@
       <c r="Y637" s="18"/>
       <c r="Z637" s="18"/>
     </row>
-    <row r="638" spans="1:26" ht="13.5" customHeight="1">
+    <row r="638" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A638" s="29"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
@@ -32777,7 +32833,7 @@
       <c r="Y638" s="18"/>
       <c r="Z638" s="18"/>
     </row>
-    <row r="639" spans="1:26" ht="13.5" customHeight="1">
+    <row r="639" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A639" s="29"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
@@ -32805,7 +32861,7 @@
       <c r="Y639" s="18"/>
       <c r="Z639" s="18"/>
     </row>
-    <row r="640" spans="1:26" ht="13.5" customHeight="1">
+    <row r="640" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A640" s="29"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
@@ -32833,7 +32889,7 @@
       <c r="Y640" s="18"/>
       <c r="Z640" s="18"/>
     </row>
-    <row r="641" spans="1:26" ht="13.5" customHeight="1">
+    <row r="641" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A641" s="29"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
@@ -32861,7 +32917,7 @@
       <c r="Y641" s="18"/>
       <c r="Z641" s="18"/>
     </row>
-    <row r="642" spans="1:26" ht="13.5" customHeight="1">
+    <row r="642" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A642" s="29"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
@@ -32889,7 +32945,7 @@
       <c r="Y642" s="18"/>
       <c r="Z642" s="18"/>
     </row>
-    <row r="643" spans="1:26" ht="13.5" customHeight="1">
+    <row r="643" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A643" s="29"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
@@ -32917,7 +32973,7 @@
       <c r="Y643" s="18"/>
       <c r="Z643" s="18"/>
     </row>
-    <row r="644" spans="1:26" ht="13.5" customHeight="1">
+    <row r="644" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A644" s="29"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
@@ -32945,7 +33001,7 @@
       <c r="Y644" s="18"/>
       <c r="Z644" s="18"/>
     </row>
-    <row r="645" spans="1:26" ht="13.5" customHeight="1">
+    <row r="645" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A645" s="29"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
@@ -32973,7 +33029,7 @@
       <c r="Y645" s="18"/>
       <c r="Z645" s="18"/>
     </row>
-    <row r="646" spans="1:26" ht="13.5" customHeight="1">
+    <row r="646" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A646" s="29"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
@@ -33001,7 +33057,7 @@
       <c r="Y646" s="18"/>
       <c r="Z646" s="18"/>
     </row>
-    <row r="647" spans="1:26" ht="13.5" customHeight="1">
+    <row r="647" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A647" s="29"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
@@ -33029,7 +33085,7 @@
       <c r="Y647" s="18"/>
       <c r="Z647" s="18"/>
     </row>
-    <row r="648" spans="1:26" ht="13.5" customHeight="1">
+    <row r="648" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A648" s="29"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
@@ -33057,7 +33113,7 @@
       <c r="Y648" s="18"/>
       <c r="Z648" s="18"/>
     </row>
-    <row r="649" spans="1:26" ht="13.5" customHeight="1">
+    <row r="649" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A649" s="29"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
@@ -33085,7 +33141,7 @@
       <c r="Y649" s="18"/>
       <c r="Z649" s="18"/>
     </row>
-    <row r="650" spans="1:26" ht="13.5" customHeight="1">
+    <row r="650" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A650" s="29"/>
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
@@ -33113,7 +33169,7 @@
       <c r="Y650" s="18"/>
       <c r="Z650" s="18"/>
     </row>
-    <row r="651" spans="1:26" ht="13.5" customHeight="1">
+    <row r="651" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A651" s="29"/>
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
@@ -33141,7 +33197,7 @@
       <c r="Y651" s="18"/>
       <c r="Z651" s="18"/>
     </row>
-    <row r="652" spans="1:26" ht="13.5" customHeight="1">
+    <row r="652" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A652" s="29"/>
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
@@ -33169,7 +33225,7 @@
       <c r="Y652" s="18"/>
       <c r="Z652" s="18"/>
     </row>
-    <row r="653" spans="1:26" ht="13.5" customHeight="1">
+    <row r="653" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A653" s="29"/>
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
@@ -33197,7 +33253,7 @@
       <c r="Y653" s="18"/>
       <c r="Z653" s="18"/>
     </row>
-    <row r="654" spans="1:26" ht="13.5" customHeight="1">
+    <row r="654" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A654" s="29"/>
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
@@ -33225,7 +33281,7 @@
       <c r="Y654" s="18"/>
       <c r="Z654" s="18"/>
     </row>
-    <row r="655" spans="1:26" ht="13.5" customHeight="1">
+    <row r="655" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A655" s="29"/>
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
@@ -33253,7 +33309,7 @@
       <c r="Y655" s="18"/>
       <c r="Z655" s="18"/>
     </row>
-    <row r="656" spans="1:26" ht="13.5" customHeight="1">
+    <row r="656" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A656" s="29"/>
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
@@ -33281,7 +33337,7 @@
       <c r="Y656" s="18"/>
       <c r="Z656" s="18"/>
     </row>
-    <row r="657" spans="1:26" ht="13.5" customHeight="1">
+    <row r="657" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A657" s="29"/>
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
@@ -33309,7 +33365,7 @@
       <c r="Y657" s="18"/>
       <c r="Z657" s="18"/>
     </row>
-    <row r="658" spans="1:26" ht="13.5" customHeight="1">
+    <row r="658" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A658" s="29"/>
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
@@ -33337,7 +33393,7 @@
       <c r="Y658" s="18"/>
       <c r="Z658" s="18"/>
     </row>
-    <row r="659" spans="1:26" ht="13.5" customHeight="1">
+    <row r="659" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A659" s="29"/>
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
@@ -33365,7 +33421,7 @@
       <c r="Y659" s="18"/>
       <c r="Z659" s="18"/>
     </row>
-    <row r="660" spans="1:26" ht="13.5" customHeight="1">
+    <row r="660" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A660" s="29"/>
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
@@ -33393,7 +33449,7 @@
       <c r="Y660" s="18"/>
       <c r="Z660" s="18"/>
     </row>
-    <row r="661" spans="1:26" ht="13.5" customHeight="1">
+    <row r="661" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A661" s="29"/>
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
@@ -33421,7 +33477,7 @@
       <c r="Y661" s="18"/>
       <c r="Z661" s="18"/>
     </row>
-    <row r="662" spans="1:26" ht="13.5" customHeight="1">
+    <row r="662" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A662" s="29"/>
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
@@ -33449,7 +33505,7 @@
       <c r="Y662" s="18"/>
       <c r="Z662" s="18"/>
     </row>
-    <row r="663" spans="1:26" ht="13.5" customHeight="1">
+    <row r="663" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A663" s="29"/>
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
@@ -33477,7 +33533,7 @@
       <c r="Y663" s="18"/>
       <c r="Z663" s="18"/>
     </row>
-    <row r="664" spans="1:26" ht="13.5" customHeight="1">
+    <row r="664" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A664" s="29"/>
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
@@ -33505,7 +33561,7 @@
       <c r="Y664" s="18"/>
       <c r="Z664" s="18"/>
     </row>
-    <row r="665" spans="1:26" ht="13.5" customHeight="1">
+    <row r="665" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A665" s="29"/>
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
@@ -33533,7 +33589,7 @@
       <c r="Y665" s="18"/>
       <c r="Z665" s="18"/>
     </row>
-    <row r="666" spans="1:26" ht="13.5" customHeight="1">
+    <row r="666" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A666" s="29"/>
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
@@ -33561,7 +33617,7 @@
       <c r="Y666" s="18"/>
       <c r="Z666" s="18"/>
     </row>
-    <row r="667" spans="1:26" ht="13.5" customHeight="1">
+    <row r="667" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A667" s="29"/>
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
@@ -33589,7 +33645,7 @@
       <c r="Y667" s="18"/>
       <c r="Z667" s="18"/>
     </row>
-    <row r="668" spans="1:26" ht="13.5" customHeight="1">
+    <row r="668" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A668" s="29"/>
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
@@ -33617,7 +33673,7 @@
       <c r="Y668" s="18"/>
       <c r="Z668" s="18"/>
     </row>
-    <row r="669" spans="1:26" ht="13.5" customHeight="1">
+    <row r="669" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A669" s="29"/>
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
@@ -33645,7 +33701,7 @@
       <c r="Y669" s="18"/>
       <c r="Z669" s="18"/>
     </row>
-    <row r="670" spans="1:26" ht="13.5" customHeight="1">
+    <row r="670" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A670" s="29"/>
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
@@ -33673,7 +33729,7 @@
       <c r="Y670" s="18"/>
       <c r="Z670" s="18"/>
     </row>
-    <row r="671" spans="1:26" ht="13.5" customHeight="1">
+    <row r="671" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A671" s="29"/>
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
@@ -33701,7 +33757,7 @@
       <c r="Y671" s="18"/>
       <c r="Z671" s="18"/>
     </row>
-    <row r="672" spans="1:26" ht="13.5" customHeight="1">
+    <row r="672" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A672" s="29"/>
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
@@ -33729,7 +33785,7 @@
       <c r="Y672" s="18"/>
       <c r="Z672" s="18"/>
     </row>
-    <row r="673" spans="1:26" ht="13.5" customHeight="1">
+    <row r="673" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A673" s="29"/>
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
@@ -33757,7 +33813,7 @@
       <c r="Y673" s="18"/>
       <c r="Z673" s="18"/>
     </row>
-    <row r="674" spans="1:26" ht="13.5" customHeight="1">
+    <row r="674" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A674" s="29"/>
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
@@ -33785,7 +33841,7 @@
       <c r="Y674" s="18"/>
       <c r="Z674" s="18"/>
     </row>
-    <row r="675" spans="1:26" ht="13.5" customHeight="1">
+    <row r="675" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A675" s="29"/>
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
@@ -33813,7 +33869,7 @@
       <c r="Y675" s="18"/>
       <c r="Z675" s="18"/>
     </row>
-    <row r="676" spans="1:26" ht="13.5" customHeight="1">
+    <row r="676" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A676" s="29"/>
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
@@ -33841,7 +33897,7 @@
       <c r="Y676" s="18"/>
       <c r="Z676" s="18"/>
     </row>
-    <row r="677" spans="1:26" ht="13.5" customHeight="1">
+    <row r="677" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A677" s="29"/>
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
@@ -33869,7 +33925,7 @@
       <c r="Y677" s="18"/>
       <c r="Z677" s="18"/>
     </row>
-    <row r="678" spans="1:26" ht="13.5" customHeight="1">
+    <row r="678" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A678" s="29"/>
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
@@ -33897,7 +33953,7 @@
       <c r="Y678" s="18"/>
       <c r="Z678" s="18"/>
     </row>
-    <row r="679" spans="1:26" ht="13.5" customHeight="1">
+    <row r="679" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A679" s="29"/>
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
@@ -33925,7 +33981,7 @@
       <c r="Y679" s="18"/>
       <c r="Z679" s="18"/>
     </row>
-    <row r="680" spans="1:26" ht="13.5" customHeight="1">
+    <row r="680" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A680" s="29"/>
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
@@ -33953,7 +34009,7 @@
       <c r="Y680" s="18"/>
       <c r="Z680" s="18"/>
     </row>
-    <row r="681" spans="1:26" ht="13.5" customHeight="1">
+    <row r="681" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A681" s="29"/>
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
@@ -33981,7 +34037,7 @@
       <c r="Y681" s="18"/>
       <c r="Z681" s="18"/>
     </row>
-    <row r="682" spans="1:26" ht="13.5" customHeight="1">
+    <row r="682" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A682" s="29"/>
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
@@ -34009,7 +34065,7 @@
       <c r="Y682" s="18"/>
       <c r="Z682" s="18"/>
     </row>
-    <row r="683" spans="1:26" ht="13.5" customHeight="1">
+    <row r="683" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A683" s="29"/>
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
@@ -34037,7 +34093,7 @@
       <c r="Y683" s="18"/>
       <c r="Z683" s="18"/>
     </row>
-    <row r="684" spans="1:26" ht="13.5" customHeight="1">
+    <row r="684" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A684" s="29"/>
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
@@ -34065,7 +34121,7 @@
       <c r="Y684" s="18"/>
       <c r="Z684" s="18"/>
     </row>
-    <row r="685" spans="1:26" ht="13.5" customHeight="1">
+    <row r="685" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A685" s="29"/>
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
@@ -34093,7 +34149,7 @@
       <c r="Y685" s="18"/>
       <c r="Z685" s="18"/>
     </row>
-    <row r="686" spans="1:26" ht="13.5" customHeight="1">
+    <row r="686" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A686" s="29"/>
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
@@ -34121,7 +34177,7 @@
       <c r="Y686" s="18"/>
       <c r="Z686" s="18"/>
     </row>
-    <row r="687" spans="1:26" ht="13.5" customHeight="1">
+    <row r="687" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A687" s="29"/>
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
@@ -34149,7 +34205,7 @@
       <c r="Y687" s="18"/>
       <c r="Z687" s="18"/>
     </row>
-    <row r="688" spans="1:26" ht="13.5" customHeight="1">
+    <row r="688" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A688" s="29"/>
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
@@ -34177,7 +34233,7 @@
       <c r="Y688" s="18"/>
       <c r="Z688" s="18"/>
     </row>
-    <row r="689" spans="1:26" ht="13.5" customHeight="1">
+    <row r="689" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A689" s="29"/>
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
@@ -34205,7 +34261,7 @@
       <c r="Y689" s="18"/>
       <c r="Z689" s="18"/>
     </row>
-    <row r="690" spans="1:26" ht="13.5" customHeight="1">
+    <row r="690" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A690" s="29"/>
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
@@ -34233,7 +34289,7 @@
       <c r="Y690" s="18"/>
       <c r="Z690" s="18"/>
     </row>
-    <row r="691" spans="1:26" ht="13.5" customHeight="1">
+    <row r="691" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A691" s="29"/>
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
@@ -34261,7 +34317,7 @@
       <c r="Y691" s="18"/>
       <c r="Z691" s="18"/>
     </row>
-    <row r="692" spans="1:26" ht="13.5" customHeight="1">
+    <row r="692" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A692" s="29"/>
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
@@ -34289,7 +34345,7 @@
       <c r="Y692" s="18"/>
       <c r="Z692" s="18"/>
     </row>
-    <row r="693" spans="1:26" ht="13.5" customHeight="1">
+    <row r="693" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A693" s="29"/>
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
@@ -34317,7 +34373,7 @@
       <c r="Y693" s="18"/>
       <c r="Z693" s="18"/>
     </row>
-    <row r="694" spans="1:26" ht="13.5" customHeight="1">
+    <row r="694" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A694" s="29"/>
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
@@ -34345,7 +34401,7 @@
       <c r="Y694" s="18"/>
       <c r="Z694" s="18"/>
     </row>
-    <row r="695" spans="1:26" ht="13.5" customHeight="1">
+    <row r="695" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A695" s="29"/>
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
@@ -34373,7 +34429,7 @@
       <c r="Y695" s="18"/>
       <c r="Z695" s="18"/>
     </row>
-    <row r="696" spans="1:26" ht="13.5" customHeight="1">
+    <row r="696" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A696" s="29"/>
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
@@ -34401,7 +34457,7 @@
       <c r="Y696" s="18"/>
       <c r="Z696" s="18"/>
     </row>
-    <row r="697" spans="1:26" ht="13.5" customHeight="1">
+    <row r="697" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A697" s="29"/>
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
@@ -34429,7 +34485,7 @@
       <c r="Y697" s="18"/>
       <c r="Z697" s="18"/>
     </row>
-    <row r="698" spans="1:26" ht="13.5" customHeight="1">
+    <row r="698" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A698" s="29"/>
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
@@ -34457,7 +34513,7 @@
       <c r="Y698" s="18"/>
       <c r="Z698" s="18"/>
     </row>
-    <row r="699" spans="1:26" ht="13.5" customHeight="1">
+    <row r="699" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A699" s="29"/>
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
@@ -34485,7 +34541,7 @@
       <c r="Y699" s="18"/>
       <c r="Z699" s="18"/>
     </row>
-    <row r="700" spans="1:26" ht="13.5" customHeight="1">
+    <row r="700" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A700" s="29"/>
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
@@ -34513,7 +34569,7 @@
       <c r="Y700" s="18"/>
       <c r="Z700" s="18"/>
     </row>
-    <row r="701" spans="1:26" ht="13.5" customHeight="1">
+    <row r="701" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A701" s="29"/>
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
@@ -34541,7 +34597,7 @@
       <c r="Y701" s="18"/>
       <c r="Z701" s="18"/>
     </row>
-    <row r="702" spans="1:26" ht="13.5" customHeight="1">
+    <row r="702" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A702" s="29"/>
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
@@ -34569,7 +34625,7 @@
       <c r="Y702" s="18"/>
       <c r="Z702" s="18"/>
     </row>
-    <row r="703" spans="1:26" ht="13.5" customHeight="1">
+    <row r="703" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A703" s="29"/>
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
@@ -34597,7 +34653,7 @@
       <c r="Y703" s="18"/>
       <c r="Z703" s="18"/>
     </row>
-    <row r="704" spans="1:26" ht="13.5" customHeight="1">
+    <row r="704" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A704" s="29"/>
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
@@ -34625,7 +34681,7 @@
       <c r="Y704" s="18"/>
       <c r="Z704" s="18"/>
     </row>
-    <row r="705" spans="1:26" ht="13.5" customHeight="1">
+    <row r="705" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A705" s="29"/>
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
@@ -34653,7 +34709,7 @@
       <c r="Y705" s="18"/>
       <c r="Z705" s="18"/>
     </row>
-    <row r="706" spans="1:26" ht="13.5" customHeight="1">
+    <row r="706" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A706" s="29"/>
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
@@ -34681,7 +34737,7 @@
       <c r="Y706" s="18"/>
       <c r="Z706" s="18"/>
     </row>
-    <row r="707" spans="1:26" ht="13.5" customHeight="1">
+    <row r="707" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A707" s="29"/>
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
@@ -34709,7 +34765,7 @@
       <c r="Y707" s="18"/>
       <c r="Z707" s="18"/>
     </row>
-    <row r="708" spans="1:26" ht="13.5" customHeight="1">
+    <row r="708" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A708" s="29"/>
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
@@ -34737,7 +34793,7 @@
       <c r="Y708" s="18"/>
       <c r="Z708" s="18"/>
     </row>
-    <row r="709" spans="1:26" ht="13.5" customHeight="1">
+    <row r="709" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A709" s="29"/>
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
@@ -34765,7 +34821,7 @@
       <c r="Y709" s="18"/>
       <c r="Z709" s="18"/>
     </row>
-    <row r="710" spans="1:26" ht="13.5" customHeight="1">
+    <row r="710" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A710" s="29"/>
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
@@ -34793,7 +34849,7 @@
       <c r="Y710" s="18"/>
       <c r="Z710" s="18"/>
     </row>
-    <row r="711" spans="1:26" ht="13.5" customHeight="1">
+    <row r="711" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A711" s="29"/>
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
@@ -34821,7 +34877,7 @@
       <c r="Y711" s="18"/>
       <c r="Z711" s="18"/>
     </row>
-    <row r="712" spans="1:26" ht="13.5" customHeight="1">
+    <row r="712" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A712" s="29"/>
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
@@ -34849,7 +34905,7 @@
       <c r="Y712" s="18"/>
       <c r="Z712" s="18"/>
     </row>
-    <row r="713" spans="1:26" ht="13.5" customHeight="1">
+    <row r="713" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A713" s="29"/>
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
@@ -34877,7 +34933,7 @@
       <c r="Y713" s="18"/>
       <c r="Z713" s="18"/>
     </row>
-    <row r="714" spans="1:26" ht="13.5" customHeight="1">
+    <row r="714" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A714" s="29"/>
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
@@ -34905,7 +34961,7 @@
       <c r="Y714" s="18"/>
       <c r="Z714" s="18"/>
     </row>
-    <row r="715" spans="1:26" ht="13.5" customHeight="1">
+    <row r="715" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A715" s="29"/>
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
@@ -34933,7 +34989,7 @@
       <c r="Y715" s="18"/>
       <c r="Z715" s="18"/>
     </row>
-    <row r="716" spans="1:26" ht="13.5" customHeight="1">
+    <row r="716" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A716" s="29"/>
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
@@ -34961,7 +35017,7 @@
       <c r="Y716" s="18"/>
       <c r="Z716" s="18"/>
     </row>
-    <row r="717" spans="1:26" ht="13.5" customHeight="1">
+    <row r="717" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A717" s="29"/>
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
@@ -34989,7 +35045,7 @@
       <c r="Y717" s="18"/>
       <c r="Z717" s="18"/>
     </row>
-    <row r="718" spans="1:26" ht="13.5" customHeight="1">
+    <row r="718" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A718" s="29"/>
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
@@ -35017,7 +35073,7 @@
       <c r="Y718" s="18"/>
       <c r="Z718" s="18"/>
     </row>
-    <row r="719" spans="1:26" ht="13.5" customHeight="1">
+    <row r="719" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A719" s="29"/>
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
@@ -35045,7 +35101,7 @@
       <c r="Y719" s="18"/>
       <c r="Z719" s="18"/>
     </row>
-    <row r="720" spans="1:26" ht="13.5" customHeight="1">
+    <row r="720" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A720" s="29"/>
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
@@ -35073,7 +35129,7 @@
       <c r="Y720" s="18"/>
       <c r="Z720" s="18"/>
     </row>
-    <row r="721" spans="1:26" ht="13.5" customHeight="1">
+    <row r="721" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A721" s="29"/>
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
@@ -35101,7 +35157,7 @@
       <c r="Y721" s="18"/>
       <c r="Z721" s="18"/>
     </row>
-    <row r="722" spans="1:26" ht="13.5" customHeight="1">
+    <row r="722" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A722" s="29"/>
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
@@ -35129,7 +35185,7 @@
       <c r="Y722" s="18"/>
       <c r="Z722" s="18"/>
     </row>
-    <row r="723" spans="1:26" ht="13.5" customHeight="1">
+    <row r="723" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A723" s="29"/>
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
@@ -35157,7 +35213,7 @@
       <c r="Y723" s="18"/>
       <c r="Z723" s="18"/>
     </row>
-    <row r="724" spans="1:26" ht="13.5" customHeight="1">
+    <row r="724" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A724" s="29"/>
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
@@ -35185,7 +35241,7 @@
       <c r="Y724" s="18"/>
       <c r="Z724" s="18"/>
     </row>
-    <row r="725" spans="1:26" ht="13.5" customHeight="1">
+    <row r="725" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A725" s="29"/>
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
@@ -35213,7 +35269,7 @@
       <c r="Y725" s="18"/>
       <c r="Z725" s="18"/>
     </row>
-    <row r="726" spans="1:26" ht="13.5" customHeight="1">
+    <row r="726" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A726" s="29"/>
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
@@ -35241,7 +35297,7 @@
       <c r="Y726" s="18"/>
       <c r="Z726" s="18"/>
     </row>
-    <row r="727" spans="1:26" ht="13.5" customHeight="1">
+    <row r="727" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A727" s="29"/>
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
@@ -35269,7 +35325,7 @@
       <c r="Y727" s="18"/>
       <c r="Z727" s="18"/>
     </row>
-    <row r="728" spans="1:26" ht="13.5" customHeight="1">
+    <row r="728" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A728" s="29"/>
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
@@ -35297,7 +35353,7 @@
       <c r="Y728" s="18"/>
       <c r="Z728" s="18"/>
     </row>
-    <row r="729" spans="1:26" ht="13.5" customHeight="1">
+    <row r="729" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A729" s="29"/>
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
@@ -35325,7 +35381,7 @@
       <c r="Y729" s="18"/>
       <c r="Z729" s="18"/>
     </row>
-    <row r="730" spans="1:26" ht="13.5" customHeight="1">
+    <row r="730" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A730" s="29"/>
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
@@ -35353,7 +35409,7 @@
       <c r="Y730" s="18"/>
       <c r="Z730" s="18"/>
     </row>
-    <row r="731" spans="1:26" ht="13.5" customHeight="1">
+    <row r="731" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A731" s="29"/>
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
@@ -35381,7 +35437,7 @@
       <c r="Y731" s="18"/>
       <c r="Z731" s="18"/>
     </row>
-    <row r="732" spans="1:26" ht="13.5" customHeight="1">
+    <row r="732" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A732" s="29"/>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
@@ -35409,7 +35465,7 @@
       <c r="Y732" s="18"/>
       <c r="Z732" s="18"/>
     </row>
-    <row r="733" spans="1:26" ht="13.5" customHeight="1">
+    <row r="733" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A733" s="29"/>
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
@@ -35437,7 +35493,7 @@
       <c r="Y733" s="18"/>
       <c r="Z733" s="18"/>
     </row>
-    <row r="734" spans="1:26" ht="13.5" customHeight="1">
+    <row r="734" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A734" s="29"/>
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
@@ -35465,7 +35521,7 @@
       <c r="Y734" s="18"/>
       <c r="Z734" s="18"/>
     </row>
-    <row r="735" spans="1:26" ht="13.5" customHeight="1">
+    <row r="735" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A735" s="29"/>
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
@@ -35493,7 +35549,7 @@
       <c r="Y735" s="18"/>
       <c r="Z735" s="18"/>
     </row>
-    <row r="736" spans="1:26" ht="13.5" customHeight="1">
+    <row r="736" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A736" s="29"/>
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
@@ -35521,7 +35577,7 @@
       <c r="Y736" s="18"/>
       <c r="Z736" s="18"/>
     </row>
-    <row r="737" spans="1:26" ht="13.5" customHeight="1">
+    <row r="737" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A737" s="29"/>
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
@@ -35549,7 +35605,7 @@
       <c r="Y737" s="18"/>
       <c r="Z737" s="18"/>
     </row>
-    <row r="738" spans="1:26" ht="13.5" customHeight="1">
+    <row r="738" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A738" s="29"/>
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
@@ -35577,7 +35633,7 @@
       <c r="Y738" s="18"/>
       <c r="Z738" s="18"/>
     </row>
-    <row r="739" spans="1:26" ht="13.5" customHeight="1">
+    <row r="739" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A739" s="29"/>
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
@@ -35605,7 +35661,7 @@
       <c r="Y739" s="18"/>
       <c r="Z739" s="18"/>
     </row>
-    <row r="740" spans="1:26" ht="13.5" customHeight="1">
+    <row r="740" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A740" s="29"/>
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
@@ -35633,7 +35689,7 @@
       <c r="Y740" s="18"/>
       <c r="Z740" s="18"/>
     </row>
-    <row r="741" spans="1:26" ht="13.5" customHeight="1">
+    <row r="741" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A741" s="29"/>
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
@@ -35661,7 +35717,7 @@
       <c r="Y741" s="18"/>
       <c r="Z741" s="18"/>
     </row>
-    <row r="742" spans="1:26" ht="13.5" customHeight="1">
+    <row r="742" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A742" s="29"/>
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
@@ -35689,7 +35745,7 @@
       <c r="Y742" s="18"/>
       <c r="Z742" s="18"/>
     </row>
-    <row r="743" spans="1:26" ht="13.5" customHeight="1">
+    <row r="743" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A743" s="29"/>
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
@@ -35717,7 +35773,7 @@
       <c r="Y743" s="18"/>
       <c r="Z743" s="18"/>
     </row>
-    <row r="744" spans="1:26" ht="13.5" customHeight="1">
+    <row r="744" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A744" s="29"/>
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
@@ -35745,7 +35801,7 @@
       <c r="Y744" s="18"/>
       <c r="Z744" s="18"/>
     </row>
-    <row r="745" spans="1:26" ht="13.5" customHeight="1">
+    <row r="745" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A745" s="29"/>
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
@@ -35773,7 +35829,7 @@
       <c r="Y745" s="18"/>
       <c r="Z745" s="18"/>
     </row>
-    <row r="746" spans="1:26" ht="13.5" customHeight="1">
+    <row r="746" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A746" s="29"/>
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
@@ -35801,7 +35857,7 @@
       <c r="Y746" s="18"/>
       <c r="Z746" s="18"/>
     </row>
-    <row r="747" spans="1:26" ht="13.5" customHeight="1">
+    <row r="747" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A747" s="29"/>
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
@@ -35829,7 +35885,7 @@
       <c r="Y747" s="18"/>
       <c r="Z747" s="18"/>
     </row>
-    <row r="748" spans="1:26" ht="13.5" customHeight="1">
+    <row r="748" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A748" s="29"/>
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
@@ -35857,7 +35913,7 @@
       <c r="Y748" s="18"/>
       <c r="Z748" s="18"/>
     </row>
-    <row r="749" spans="1:26" ht="13.5" customHeight="1">
+    <row r="749" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A749" s="29"/>
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
@@ -35885,7 +35941,7 @@
       <c r="Y749" s="18"/>
       <c r="Z749" s="18"/>
     </row>
-    <row r="750" spans="1:26" ht="13.5" customHeight="1">
+    <row r="750" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A750" s="29"/>
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
@@ -35913,7 +35969,7 @@
       <c r="Y750" s="18"/>
       <c r="Z750" s="18"/>
     </row>
-    <row r="751" spans="1:26" ht="13.5" customHeight="1">
+    <row r="751" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A751" s="29"/>
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
@@ -35941,7 +35997,7 @@
       <c r="Y751" s="18"/>
       <c r="Z751" s="18"/>
     </row>
-    <row r="752" spans="1:26" ht="13.5" customHeight="1">
+    <row r="752" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A752" s="29"/>
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
@@ -35969,7 +36025,7 @@
       <c r="Y752" s="18"/>
       <c r="Z752" s="18"/>
     </row>
-    <row r="753" spans="1:26" ht="13.5" customHeight="1">
+    <row r="753" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A753" s="29"/>
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
@@ -35997,7 +36053,7 @@
       <c r="Y753" s="18"/>
       <c r="Z753" s="18"/>
     </row>
-    <row r="754" spans="1:26" ht="13.5" customHeight="1">
+    <row r="754" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A754" s="29"/>
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
@@ -36025,7 +36081,7 @@
       <c r="Y754" s="18"/>
       <c r="Z754" s="18"/>
     </row>
-    <row r="755" spans="1:26" ht="13.5" customHeight="1">
+    <row r="755" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A755" s="29"/>
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
@@ -36053,7 +36109,7 @@
       <c r="Y755" s="18"/>
       <c r="Z755" s="18"/>
     </row>
-    <row r="756" spans="1:26" ht="13.5" customHeight="1">
+    <row r="756" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A756" s="29"/>
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
@@ -36081,7 +36137,7 @@
       <c r="Y756" s="18"/>
       <c r="Z756" s="18"/>
     </row>
-    <row r="757" spans="1:26" ht="13.5" customHeight="1">
+    <row r="757" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A757" s="29"/>
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
@@ -36109,7 +36165,7 @@
       <c r="Y757" s="18"/>
       <c r="Z757" s="18"/>
     </row>
-    <row r="758" spans="1:26" ht="13.5" customHeight="1">
+    <row r="758" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A758" s="29"/>
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
@@ -36137,7 +36193,7 @@
       <c r="Y758" s="18"/>
       <c r="Z758" s="18"/>
     </row>
-    <row r="759" spans="1:26" ht="13.5" customHeight="1">
+    <row r="759" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A759" s="29"/>
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
@@ -36165,7 +36221,7 @@
       <c r="Y759" s="18"/>
       <c r="Z759" s="18"/>
     </row>
-    <row r="760" spans="1:26" ht="13.5" customHeight="1">
+    <row r="760" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A760" s="29"/>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
@@ -36193,7 +36249,7 @@
       <c r="Y760" s="18"/>
       <c r="Z760" s="18"/>
     </row>
-    <row r="761" spans="1:26" ht="13.5" customHeight="1">
+    <row r="761" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A761" s="29"/>
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
@@ -36221,7 +36277,7 @@
       <c r="Y761" s="18"/>
       <c r="Z761" s="18"/>
     </row>
-    <row r="762" spans="1:26" ht="13.5" customHeight="1">
+    <row r="762" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A762" s="29"/>
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
@@ -36249,7 +36305,7 @@
       <c r="Y762" s="18"/>
       <c r="Z762" s="18"/>
     </row>
-    <row r="763" spans="1:26" ht="13.5" customHeight="1">
+    <row r="763" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A763" s="29"/>
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
@@ -36277,7 +36333,7 @@
       <c r="Y763" s="18"/>
       <c r="Z763" s="18"/>
     </row>
-    <row r="764" spans="1:26" ht="13.5" customHeight="1">
+    <row r="764" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A764" s="29"/>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
@@ -36305,7 +36361,7 @@
       <c r="Y764" s="18"/>
       <c r="Z764" s="18"/>
     </row>
-    <row r="765" spans="1:26" ht="13.5" customHeight="1">
+    <row r="765" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A765" s="29"/>
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
@@ -36333,7 +36389,7 @@
       <c r="Y765" s="18"/>
       <c r="Z765" s="18"/>
     </row>
-    <row r="766" spans="1:26" ht="13.5" customHeight="1">
+    <row r="766" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A766" s="29"/>
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
@@ -36361,7 +36417,7 @@
       <c r="Y766" s="18"/>
       <c r="Z766" s="18"/>
     </row>
-    <row r="767" spans="1:26" ht="13.5" customHeight="1">
+    <row r="767" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A767" s="29"/>
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
@@ -36389,7 +36445,7 @@
       <c r="Y767" s="18"/>
       <c r="Z767" s="18"/>
     </row>
-    <row r="768" spans="1:26" ht="13.5" customHeight="1">
+    <row r="768" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A768" s="29"/>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
@@ -36417,7 +36473,7 @@
       <c r="Y768" s="18"/>
       <c r="Z768" s="18"/>
     </row>
-    <row r="769" spans="1:26" ht="13.5" customHeight="1">
+    <row r="769" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A769" s="29"/>
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
@@ -36445,7 +36501,7 @@
       <c r="Y769" s="18"/>
       <c r="Z769" s="18"/>
     </row>
-    <row r="770" spans="1:26" ht="13.5" customHeight="1">
+    <row r="770" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A770" s="29"/>
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
@@ -36473,7 +36529,7 @@
       <c r="Y770" s="18"/>
       <c r="Z770" s="18"/>
     </row>
-    <row r="771" spans="1:26" ht="13.5" customHeight="1">
+    <row r="771" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A771" s="29"/>
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
@@ -36501,7 +36557,7 @@
       <c r="Y771" s="18"/>
       <c r="Z771" s="18"/>
     </row>
-    <row r="772" spans="1:26" ht="13.5" customHeight="1">
+    <row r="772" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A772" s="29"/>
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
@@ -36529,7 +36585,7 @@
       <c r="Y772" s="18"/>
       <c r="Z772" s="18"/>
     </row>
-    <row r="773" spans="1:26" ht="13.5" customHeight="1">
+    <row r="773" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A773" s="29"/>
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
@@ -36557,7 +36613,7 @@
       <c r="Y773" s="18"/>
       <c r="Z773" s="18"/>
     </row>
-    <row r="774" spans="1:26" ht="13.5" customHeight="1">
+    <row r="774" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A774" s="29"/>
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
@@ -36585,7 +36641,7 @@
       <c r="Y774" s="18"/>
       <c r="Z774" s="18"/>
     </row>
-    <row r="775" spans="1:26" ht="13.5" customHeight="1">
+    <row r="775" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A775" s="29"/>
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
@@ -36613,7 +36669,7 @@
       <c r="Y775" s="18"/>
       <c r="Z775" s="18"/>
     </row>
-    <row r="776" spans="1:26" ht="13.5" customHeight="1">
+    <row r="776" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A776" s="29"/>
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
@@ -36641,7 +36697,7 @@
       <c r="Y776" s="18"/>
       <c r="Z776" s="18"/>
     </row>
-    <row r="777" spans="1:26" ht="13.5" customHeight="1">
+    <row r="777" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A777" s="29"/>
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
@@ -36669,7 +36725,7 @@
       <c r="Y777" s="18"/>
       <c r="Z777" s="18"/>
     </row>
-    <row r="778" spans="1:26" ht="13.5" customHeight="1">
+    <row r="778" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A778" s="29"/>
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
@@ -36697,7 +36753,7 @@
       <c r="Y778" s="18"/>
       <c r="Z778" s="18"/>
     </row>
-    <row r="779" spans="1:26" ht="13.5" customHeight="1">
+    <row r="779" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A779" s="29"/>
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
@@ -36725,7 +36781,7 @@
       <c r="Y779" s="18"/>
       <c r="Z779" s="18"/>
     </row>
-    <row r="780" spans="1:26" ht="13.5" customHeight="1">
+    <row r="780" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A780" s="29"/>
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
@@ -36753,7 +36809,7 @@
       <c r="Y780" s="18"/>
       <c r="Z780" s="18"/>
     </row>
-    <row r="781" spans="1:26" ht="13.5" customHeight="1">
+    <row r="781" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A781" s="29"/>
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
@@ -36781,7 +36837,7 @@
       <c r="Y781" s="18"/>
       <c r="Z781" s="18"/>
     </row>
-    <row r="782" spans="1:26" ht="13.5" customHeight="1">
+    <row r="782" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A782" s="29"/>
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
@@ -36809,7 +36865,7 @@
       <c r="Y782" s="18"/>
       <c r="Z782" s="18"/>
     </row>
-    <row r="783" spans="1:26" ht="13.5" customHeight="1">
+    <row r="783" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A783" s="29"/>
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
@@ -36837,7 +36893,7 @@
       <c r="Y783" s="18"/>
       <c r="Z783" s="18"/>
     </row>
-    <row r="784" spans="1:26" ht="13.5" customHeight="1">
+    <row r="784" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A784" s="29"/>
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
@@ -36865,7 +36921,7 @@
       <c r="Y784" s="18"/>
       <c r="Z784" s="18"/>
     </row>
-    <row r="785" spans="1:26" ht="13.5" customHeight="1">
+    <row r="785" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A785" s="29"/>
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
@@ -36893,7 +36949,7 @@
       <c r="Y785" s="18"/>
       <c r="Z785" s="18"/>
     </row>
-    <row r="786" spans="1:26" ht="13.5" customHeight="1">
+    <row r="786" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A786" s="29"/>
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
@@ -36921,7 +36977,7 @@
       <c r="Y786" s="18"/>
       <c r="Z786" s="18"/>
     </row>
-    <row r="787" spans="1:26" ht="13.5" customHeight="1">
+    <row r="787" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A787" s="29"/>
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
@@ -36949,7 +37005,7 @@
       <c r="Y787" s="18"/>
       <c r="Z787" s="18"/>
     </row>
-    <row r="788" spans="1:26" ht="13.5" customHeight="1">
+    <row r="788" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A788" s="29"/>
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
@@ -36977,7 +37033,7 @@
       <c r="Y788" s="18"/>
       <c r="Z788" s="18"/>
     </row>
-    <row r="789" spans="1:26" ht="13.5" customHeight="1">
+    <row r="789" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A789" s="29"/>
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
@@ -37005,7 +37061,7 @@
       <c r="Y789" s="18"/>
       <c r="Z789" s="18"/>
     </row>
-    <row r="790" spans="1:26" ht="13.5" customHeight="1">
+    <row r="790" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A790" s="29"/>
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
@@ -37033,7 +37089,7 @@
       <c r="Y790" s="18"/>
       <c r="Z790" s="18"/>
     </row>
-    <row r="791" spans="1:26" ht="13.5" customHeight="1">
+    <row r="791" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A791" s="29"/>
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
@@ -37061,7 +37117,7 @@
       <c r="Y791" s="18"/>
       <c r="Z791" s="18"/>
     </row>
-    <row r="792" spans="1:26" ht="13.5" customHeight="1">
+    <row r="792" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A792" s="29"/>
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
@@ -37089,7 +37145,7 @@
       <c r="Y792" s="18"/>
       <c r="Z792" s="18"/>
     </row>
-    <row r="793" spans="1:26" ht="13.5" customHeight="1">
+    <row r="793" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A793" s="29"/>
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
@@ -37117,7 +37173,7 @@
       <c r="Y793" s="18"/>
       <c r="Z793" s="18"/>
     </row>
-    <row r="794" spans="1:26" ht="13.5" customHeight="1">
+    <row r="794" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A794" s="29"/>
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
@@ -37145,7 +37201,7 @@
       <c r="Y794" s="18"/>
       <c r="Z794" s="18"/>
     </row>
-    <row r="795" spans="1:26" ht="13.5" customHeight="1">
+    <row r="795" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A795" s="29"/>
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
@@ -37173,7 +37229,7 @@
       <c r="Y795" s="18"/>
       <c r="Z795" s="18"/>
     </row>
-    <row r="796" spans="1:26" ht="13.5" customHeight="1">
+    <row r="796" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A796" s="29"/>
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
@@ -37201,7 +37257,7 @@
       <c r="Y796" s="18"/>
       <c r="Z796" s="18"/>
     </row>
-    <row r="797" spans="1:26" ht="13.5" customHeight="1">
+    <row r="797" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A797" s="29"/>
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
@@ -37229,7 +37285,7 @@
       <c r="Y797" s="18"/>
       <c r="Z797" s="18"/>
     </row>
-    <row r="798" spans="1:26" ht="13.5" customHeight="1">
+    <row r="798" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A798" s="29"/>
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
@@ -37257,7 +37313,7 @@
       <c r="Y798" s="18"/>
       <c r="Z798" s="18"/>
     </row>
-    <row r="799" spans="1:26" ht="13.5" customHeight="1">
+    <row r="799" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A799" s="29"/>
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
@@ -37285,7 +37341,7 @@
       <c r="Y799" s="18"/>
       <c r="Z799" s="18"/>
     </row>
-    <row r="800" spans="1:26" ht="13.5" customHeight="1">
+    <row r="800" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A800" s="29"/>
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
@@ -37313,7 +37369,7 @@
       <c r="Y800" s="18"/>
       <c r="Z800" s="18"/>
     </row>
-    <row r="801" spans="1:26" ht="13.5" customHeight="1">
+    <row r="801" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A801" s="29"/>
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
@@ -37341,7 +37397,7 @@
       <c r="Y801" s="18"/>
       <c r="Z801" s="18"/>
     </row>
-    <row r="802" spans="1:26" ht="13.5" customHeight="1">
+    <row r="802" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A802" s="29"/>
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
@@ -37369,7 +37425,7 @@
       <c r="Y802" s="18"/>
       <c r="Z802" s="18"/>
     </row>
-    <row r="803" spans="1:26" ht="13.5" customHeight="1">
+    <row r="803" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A803" s="29"/>
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
@@ -37397,7 +37453,7 @@
       <c r="Y803" s="18"/>
       <c r="Z803" s="18"/>
     </row>
-    <row r="804" spans="1:26" ht="13.5" customHeight="1">
+    <row r="804" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A804" s="29"/>
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
@@ -37425,7 +37481,7 @@
       <c r="Y804" s="18"/>
       <c r="Z804" s="18"/>
     </row>
-    <row r="805" spans="1:26" ht="13.5" customHeight="1">
+    <row r="805" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A805" s="29"/>
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
@@ -37453,7 +37509,7 @@
       <c r="Y805" s="18"/>
       <c r="Z805" s="18"/>
     </row>
-    <row r="806" spans="1:26" ht="13.5" customHeight="1">
+    <row r="806" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A806" s="29"/>
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
@@ -37481,7 +37537,7 @@
       <c r="Y806" s="18"/>
       <c r="Z806" s="18"/>
     </row>
-    <row r="807" spans="1:26" ht="13.5" customHeight="1">
+    <row r="807" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A807" s="29"/>
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
@@ -37509,7 +37565,7 @@
       <c r="Y807" s="18"/>
       <c r="Z807" s="18"/>
     </row>
-    <row r="808" spans="1:26" ht="13.5" customHeight="1">
+    <row r="808" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A808" s="29"/>
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
@@ -37537,7 +37593,7 @@
       <c r="Y808" s="18"/>
       <c r="Z808" s="18"/>
     </row>
-    <row r="809" spans="1:26" ht="13.5" customHeight="1">
+    <row r="809" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A809" s="29"/>
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
@@ -37565,7 +37621,7 @@
       <c r="Y809" s="18"/>
       <c r="Z809" s="18"/>
     </row>
-    <row r="810" spans="1:26" ht="13.5" customHeight="1">
+    <row r="810" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A810" s="29"/>
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
@@ -37593,7 +37649,7 @@
       <c r="Y810" s="18"/>
       <c r="Z810" s="18"/>
     </row>
-    <row r="811" spans="1:26" ht="13.5" customHeight="1">
+    <row r="811" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A811" s="29"/>
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
@@ -37621,7 +37677,7 @@
       <c r="Y811" s="18"/>
       <c r="Z811" s="18"/>
     </row>
-    <row r="812" spans="1:26" ht="13.5" customHeight="1">
+    <row r="812" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A812" s="29"/>
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
@@ -37649,7 +37705,7 @@
       <c r="Y812" s="18"/>
       <c r="Z812" s="18"/>
     </row>
-    <row r="813" spans="1:26" ht="13.5" customHeight="1">
+    <row r="813" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A813" s="29"/>
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
@@ -37677,7 +37733,7 @@
       <c r="Y813" s="18"/>
       <c r="Z813" s="18"/>
     </row>
-    <row r="814" spans="1:26" ht="13.5" customHeight="1">
+    <row r="814" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A814" s="29"/>
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
@@ -37705,7 +37761,7 @@
       <c r="Y814" s="18"/>
       <c r="Z814" s="18"/>
     </row>
-    <row r="815" spans="1:26" ht="13.5" customHeight="1">
+    <row r="815" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A815" s="29"/>
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
@@ -37733,7 +37789,7 @@
       <c r="Y815" s="18"/>
       <c r="Z815" s="18"/>
     </row>
-    <row r="816" spans="1:26" ht="13.5" customHeight="1">
+    <row r="816" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A816" s="29"/>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
@@ -37761,7 +37817,7 @@
       <c r="Y816" s="18"/>
       <c r="Z816" s="18"/>
     </row>
-    <row r="817" spans="1:26" ht="13.5" customHeight="1">
+    <row r="817" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A817" s="29"/>
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
@@ -37789,7 +37845,7 @@
       <c r="Y817" s="18"/>
       <c r="Z817" s="18"/>
     </row>
-    <row r="818" spans="1:26" ht="13.5" customHeight="1">
+    <row r="818" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A818" s="29"/>
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
@@ -37817,7 +37873,7 @@
       <c r="Y818" s="18"/>
       <c r="Z818" s="18"/>
     </row>
-    <row r="819" spans="1:26" ht="13.5" customHeight="1">
+    <row r="819" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A819" s="29"/>
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
@@ -37845,7 +37901,7 @@
       <c r="Y819" s="18"/>
       <c r="Z819" s="18"/>
     </row>
-    <row r="820" spans="1:26" ht="13.5" customHeight="1">
+    <row r="820" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A820" s="29"/>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
@@ -37873,7 +37929,7 @@
       <c r="Y820" s="18"/>
       <c r="Z820" s="18"/>
     </row>
-    <row r="821" spans="1:26" ht="13.5" customHeight="1">
+    <row r="821" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A821" s="29"/>
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
@@ -37901,7 +37957,7 @@
       <c r="Y821" s="18"/>
       <c r="Z821" s="18"/>
     </row>
-    <row r="822" spans="1:26" ht="13.5" customHeight="1">
+    <row r="822" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A822" s="29"/>
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
@@ -37929,7 +37985,7 @@
       <c r="Y822" s="18"/>
       <c r="Z822" s="18"/>
     </row>
-    <row r="823" spans="1:26" ht="13.5" customHeight="1">
+    <row r="823" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A823" s="29"/>
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
@@ -37957,7 +38013,7 @@
       <c r="Y823" s="18"/>
       <c r="Z823" s="18"/>
     </row>
-    <row r="824" spans="1:26" ht="13.5" customHeight="1">
+    <row r="824" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A824" s="29"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
@@ -37985,7 +38041,7 @@
       <c r="Y824" s="18"/>
       <c r="Z824" s="18"/>
     </row>
-    <row r="825" spans="1:26" ht="13.5" customHeight="1">
+    <row r="825" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A825" s="29"/>
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
@@ -38013,7 +38069,7 @@
       <c r="Y825" s="18"/>
       <c r="Z825" s="18"/>
     </row>
-    <row r="826" spans="1:26" ht="13.5" customHeight="1">
+    <row r="826" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A826" s="29"/>
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
@@ -38041,7 +38097,7 @@
       <c r="Y826" s="18"/>
       <c r="Z826" s="18"/>
     </row>
-    <row r="827" spans="1:26" ht="13.5" customHeight="1">
+    <row r="827" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A827" s="29"/>
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
@@ -38069,7 +38125,7 @@
       <c r="Y827" s="18"/>
       <c r="Z827" s="18"/>
     </row>
-    <row r="828" spans="1:26" ht="13.5" customHeight="1">
+    <row r="828" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A828" s="29"/>
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
@@ -38097,7 +38153,7 @@
       <c r="Y828" s="18"/>
       <c r="Z828" s="18"/>
     </row>
-    <row r="829" spans="1:26" ht="13.5" customHeight="1">
+    <row r="829" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A829" s="29"/>
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
@@ -38125,7 +38181,7 @@
       <c r="Y829" s="18"/>
       <c r="Z829" s="18"/>
     </row>
-    <row r="830" spans="1:26" ht="13.5" customHeight="1">
+    <row r="830" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A830" s="29"/>
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
@@ -38153,7 +38209,7 @@
       <c r="Y830" s="18"/>
       <c r="Z830" s="18"/>
     </row>
-    <row r="831" spans="1:26" ht="13.5" customHeight="1">
+    <row r="831" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A831" s="29"/>
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
@@ -38181,7 +38237,7 @@
       <c r="Y831" s="18"/>
       <c r="Z831" s="18"/>
     </row>
-    <row r="832" spans="1:26" ht="13.5" customHeight="1">
+    <row r="832" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A832" s="29"/>
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
@@ -38209,7 +38265,7 @@
       <c r="Y832" s="18"/>
       <c r="Z832" s="18"/>
     </row>
-    <row r="833" spans="1:26" ht="13.5" customHeight="1">
+    <row r="833" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A833" s="29"/>
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
@@ -38237,7 +38293,7 @@
       <c r="Y833" s="18"/>
       <c r="Z833" s="18"/>
     </row>
-    <row r="834" spans="1:26" ht="13.5" customHeight="1">
+    <row r="834" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A834" s="29"/>
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
@@ -38265,7 +38321,7 @@
       <c r="Y834" s="18"/>
       <c r="Z834" s="18"/>
     </row>
-    <row r="835" spans="1:26" ht="13.5" customHeight="1">
+    <row r="835" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A835" s="29"/>
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
@@ -38293,7 +38349,7 @@
       <c r="Y835" s="18"/>
       <c r="Z835" s="18"/>
     </row>
-    <row r="836" spans="1:26" ht="13.5" customHeight="1">
+    <row r="836" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A836" s="29"/>
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
@@ -38321,7 +38377,7 @@
       <c r="Y836" s="18"/>
       <c r="Z836" s="18"/>
     </row>
-    <row r="837" spans="1:26" ht="13.5" customHeight="1">
+    <row r="837" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A837" s="29"/>
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
@@ -38349,7 +38405,7 @@
       <c r="Y837" s="18"/>
       <c r="Z837" s="18"/>
     </row>
-    <row r="838" spans="1:26" ht="13.5" customHeight="1">
+    <row r="838" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A838" s="29"/>
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
@@ -38377,7 +38433,7 @@
       <c r="Y838" s="18"/>
       <c r="Z838" s="18"/>
     </row>
-    <row r="839" spans="1:26" ht="13.5" customHeight="1">
+    <row r="839" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A839" s="29"/>
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
@@ -38405,7 +38461,7 @@
       <c r="Y839" s="18"/>
       <c r="Z839" s="18"/>
     </row>
-    <row r="840" spans="1:26" ht="13.5" customHeight="1">
+    <row r="840" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A840" s="29"/>
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
@@ -38433,7 +38489,7 @@
       <c r="Y840" s="18"/>
       <c r="Z840" s="18"/>
     </row>
-    <row r="841" spans="1:26" ht="13.5" customHeight="1">
+    <row r="841" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A841" s="29"/>
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
@@ -38461,7 +38517,7 @@
       <c r="Y841" s="18"/>
       <c r="Z841" s="18"/>
     </row>
-    <row r="842" spans="1:26" ht="13.5" customHeight="1">
+    <row r="842" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A842" s="29"/>
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
@@ -38489,7 +38545,7 @@
       <c r="Y842" s="18"/>
       <c r="Z842" s="18"/>
     </row>
-    <row r="843" spans="1:26" ht="13.5" customHeight="1">
+    <row r="843" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A843" s="29"/>
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
@@ -38517,7 +38573,7 @@
       <c r="Y843" s="18"/>
       <c r="Z843" s="18"/>
     </row>
-    <row r="844" spans="1:26" ht="13.5" customHeight="1">
+    <row r="844" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A844" s="29"/>
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
@@ -38545,7 +38601,7 @@
       <c r="Y844" s="18"/>
       <c r="Z844" s="18"/>
     </row>
-    <row r="845" spans="1:26" ht="13.5" customHeight="1">
+    <row r="845" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A845" s="29"/>
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
@@ -38573,7 +38629,7 @@
       <c r="Y845" s="18"/>
       <c r="Z845" s="18"/>
     </row>
-    <row r="846" spans="1:26" ht="13.5" customHeight="1">
+    <row r="846" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A846" s="29"/>
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
@@ -38601,7 +38657,7 @@
       <c r="Y846" s="18"/>
       <c r="Z846" s="18"/>
     </row>
-    <row r="847" spans="1:26" ht="13.5" customHeight="1">
+    <row r="847" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A847" s="29"/>
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
@@ -38629,7 +38685,7 @@
       <c r="Y847" s="18"/>
       <c r="Z847" s="18"/>
     </row>
-    <row r="848" spans="1:26" ht="13.5" customHeight="1">
+    <row r="848" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A848" s="29"/>
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
@@ -38657,7 +38713,7 @@
       <c r="Y848" s="18"/>
       <c r="Z848" s="18"/>
     </row>
-    <row r="849" spans="1:26" ht="13.5" customHeight="1">
+    <row r="849" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A849" s="29"/>
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
@@ -38685,7 +38741,7 @@
       <c r="Y849" s="18"/>
       <c r="Z849" s="18"/>
     </row>
-    <row r="850" spans="1:26" ht="13.5" customHeight="1">
+    <row r="850" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A850" s="29"/>
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
@@ -38713,7 +38769,7 @@
       <c r="Y850" s="18"/>
       <c r="Z850" s="18"/>
     </row>
-    <row r="851" spans="1:26" ht="13.5" customHeight="1">
+    <row r="851" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A851" s="29"/>
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
@@ -38741,7 +38797,7 @@
       <c r="Y851" s="18"/>
       <c r="Z851" s="18"/>
     </row>
-    <row r="852" spans="1:26" ht="13.5" customHeight="1">
+    <row r="852" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A852" s="29"/>
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
@@ -38769,7 +38825,7 @@
       <c r="Y852" s="18"/>
       <c r="Z852" s="18"/>
     </row>
-    <row r="853" spans="1:26" ht="13.5" customHeight="1">
+    <row r="853" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A853" s="29"/>
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
@@ -38797,7 +38853,7 @@
       <c r="Y853" s="18"/>
       <c r="Z853" s="18"/>
     </row>
-    <row r="854" spans="1:26" ht="13.5" customHeight="1">
+    <row r="854" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A854" s="29"/>
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
@@ -38825,7 +38881,7 @@
       <c r="Y854" s="18"/>
       <c r="Z854" s="18"/>
     </row>
-    <row r="855" spans="1:26" ht="13.5" customHeight="1">
+    <row r="855" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A855" s="29"/>
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
@@ -38853,7 +38909,7 @@
       <c r="Y855" s="18"/>
       <c r="Z855" s="18"/>
     </row>
-    <row r="856" spans="1:26" ht="13.5" customHeight="1">
+    <row r="856" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A856" s="29"/>
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
@@ -38881,7 +38937,7 @@
       <c r="Y856" s="18"/>
       <c r="Z856" s="18"/>
     </row>
-    <row r="857" spans="1:26" ht="13.5" customHeight="1">
+    <row r="857" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A857" s="29"/>
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
@@ -38909,7 +38965,7 @@
       <c r="Y857" s="18"/>
       <c r="Z857" s="18"/>
     </row>
-    <row r="858" spans="1:26" ht="13.5" customHeight="1">
+    <row r="858" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A858" s="29"/>
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
@@ -38937,7 +38993,7 @@
       <c r="Y858" s="18"/>
       <c r="Z858" s="18"/>
     </row>
-    <row r="859" spans="1:26" ht="13.5" customHeight="1">
+    <row r="859" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A859" s="29"/>
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
@@ -38965,7 +39021,7 @@
       <c r="Y859" s="18"/>
       <c r="Z859" s="18"/>
     </row>
-    <row r="860" spans="1:26" ht="13.5" customHeight="1">
+    <row r="860" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A860" s="29"/>
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
@@ -38993,7 +39049,7 @@
       <c r="Y860" s="18"/>
       <c r="Z860" s="18"/>
     </row>
-    <row r="861" spans="1:26" ht="13.5" customHeight="1">
+    <row r="861" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A861" s="29"/>
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
@@ -39021,7 +39077,7 @@
       <c r="Y861" s="18"/>
       <c r="Z861" s="18"/>
     </row>
-    <row r="862" spans="1:26" ht="13.5" customHeight="1">
+    <row r="862" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A862" s="29"/>
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
@@ -39049,7 +39105,7 @@
       <c r="Y862" s="18"/>
       <c r="Z862" s="18"/>
     </row>
-    <row r="863" spans="1:26" ht="13.5" customHeight="1">
+    <row r="863" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A863" s="29"/>
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
@@ -39077,7 +39133,7 @@
       <c r="Y863" s="18"/>
       <c r="Z863" s="18"/>
     </row>
-    <row r="864" spans="1:26" ht="13.5" customHeight="1">
+    <row r="864" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A864" s="29"/>
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
@@ -39105,7 +39161,7 @@
       <c r="Y864" s="18"/>
       <c r="Z864" s="18"/>
     </row>
-    <row r="865" spans="1:26" ht="13.5" customHeight="1">
+    <row r="865" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A865" s="29"/>
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
@@ -39133,7 +39189,7 @@
       <c r="Y865" s="18"/>
       <c r="Z865" s="18"/>
     </row>
-    <row r="866" spans="1:26" ht="13.5" customHeight="1">
+    <row r="866" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A866" s="29"/>
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
@@ -39161,7 +39217,7 @@
       <c r="Y866" s="18"/>
       <c r="Z866" s="18"/>
     </row>
-    <row r="867" spans="1:26" ht="13.5" customHeight="1">
+    <row r="867" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A867" s="29"/>
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
@@ -39189,7 +39245,7 @@
       <c r="Y867" s="18"/>
       <c r="Z867" s="18"/>
     </row>
-    <row r="868" spans="1:26" ht="13.5" customHeight="1">
+    <row r="868" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A868" s="29"/>
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
@@ -39217,7 +39273,7 @@
       <c r="Y868" s="18"/>
       <c r="Z868" s="18"/>
     </row>
-    <row r="869" spans="1:26" ht="13.5" customHeight="1">
+    <row r="869" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A869" s="29"/>
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
@@ -39245,7 +39301,7 @@
       <c r="Y869" s="18"/>
       <c r="Z869" s="18"/>
     </row>
-    <row r="870" spans="1:26" ht="13.5" customHeight="1">
+    <row r="870" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A870" s="29"/>
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
@@ -39273,7 +39329,7 @@
       <c r="Y870" s="18"/>
       <c r="Z870" s="18"/>
     </row>
-    <row r="871" spans="1:26" ht="13.5" customHeight="1">
+    <row r="871" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A871" s="29"/>
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
@@ -39301,7 +39357,7 @@
       <c r="Y871" s="18"/>
       <c r="Z871" s="18"/>
     </row>
-    <row r="872" spans="1:26" ht="13.5" customHeight="1">
+    <row r="872" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A872" s="29"/>
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
@@ -39329,7 +39385,7 @@
       <c r="Y872" s="18"/>
       <c r="Z872" s="18"/>
     </row>
-    <row r="873" spans="1:26" ht="13.5" customHeight="1">
+    <row r="873" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A873" s="29"/>
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
@@ -39357,7 +39413,7 @@
       <c r="Y873" s="18"/>
       <c r="Z873" s="18"/>
     </row>
-    <row r="874" spans="1:26" ht="13.5" customHeight="1">
+    <row r="874" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A874" s="29"/>
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
@@ -39385,7 +39441,7 @@
       <c r="Y874" s="18"/>
       <c r="Z874" s="18"/>
     </row>
-    <row r="875" spans="1:26" ht="13.5" customHeight="1">
+    <row r="875" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A875" s="29"/>
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
@@ -39413,7 +39469,7 @@
       <c r="Y875" s="18"/>
       <c r="Z875" s="18"/>
     </row>
-    <row r="876" spans="1:26" ht="13.5" customHeight="1">
+    <row r="876" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A876" s="29"/>
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
@@ -39441,7 +39497,7 @@
       <c r="Y876" s="18"/>
       <c r="Z876" s="18"/>
     </row>
-    <row r="877" spans="1:26" ht="13.5" customHeight="1">
+    <row r="877" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A877" s="29"/>
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
@@ -39469,7 +39525,7 @@
       <c r="Y877" s="18"/>
       <c r="Z877" s="18"/>
     </row>
-    <row r="878" spans="1:26" ht="13.5" customHeight="1">
+    <row r="878" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A878" s="29"/>
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
@@ -39497,7 +39553,7 @@
       <c r="Y878" s="18"/>
       <c r="Z878" s="18"/>
     </row>
-    <row r="879" spans="1:26" ht="13.5" customHeight="1">
+    <row r="879" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A879" s="29"/>
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
@@ -39525,7 +39581,7 @@
       <c r="Y879" s="18"/>
       <c r="Z879" s="18"/>
     </row>
-    <row r="880" spans="1:26" ht="13.5" customHeight="1">
+    <row r="880" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A880" s="29"/>
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
@@ -39553,7 +39609,7 @@
       <c r="Y880" s="18"/>
       <c r="Z880" s="18"/>
     </row>
-    <row r="881" spans="1:26" ht="13.5" customHeight="1">
+    <row r="881" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A881" s="29"/>
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
@@ -39581,7 +39637,7 @@
       <c r="Y881" s="18"/>
       <c r="Z881" s="18"/>
     </row>
-    <row r="882" spans="1:26" ht="13.5" customHeight="1">
+    <row r="882" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A882" s="29"/>
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
@@ -39609,7 +39665,7 @@
       <c r="Y882" s="18"/>
       <c r="Z882" s="18"/>
     </row>
-    <row r="883" spans="1:26" ht="13.5" customHeight="1">
+    <row r="883" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A883" s="29"/>
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
@@ -39637,7 +39693,7 @@
       <c r="Y883" s="18"/>
       <c r="Z883" s="18"/>
     </row>
-    <row r="884" spans="1:26" ht="13.5" customHeight="1">
+    <row r="884" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A884" s="29"/>
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
@@ -39665,7 +39721,7 @@
       <c r="Y884" s="18"/>
       <c r="Z884" s="18"/>
     </row>
-    <row r="885" spans="1:26" ht="13.5" customHeight="1">
+    <row r="885" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A885" s="29"/>
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
@@ -39693,7 +39749,7 @@
       <c r="Y885" s="18"/>
       <c r="Z885" s="18"/>
     </row>
-    <row r="886" spans="1:26" ht="13.5" customHeight="1">
+    <row r="886" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A886" s="29"/>
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
@@ -39721,7 +39777,7 @@
       <c r="Y886" s="18"/>
       <c r="Z886" s="18"/>
     </row>
-    <row r="887" spans="1:26" ht="13.5" customHeight="1">
+    <row r="887" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A887" s="29"/>
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
@@ -39749,7 +39805,7 @@
       <c r="Y887" s="18"/>
       <c r="Z887" s="18"/>
     </row>
-    <row r="888" spans="1:26" ht="13.5" customHeight="1">
+    <row r="888" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A888" s="29"/>
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
@@ -39777,7 +39833,7 @@
       <c r="Y888" s="18"/>
       <c r="Z888" s="18"/>
     </row>
-    <row r="889" spans="1:26" ht="13.5" customHeight="1">
+    <row r="889" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A889" s="29"/>
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
@@ -39805,7 +39861,7 @@
       <c r="Y889" s="18"/>
       <c r="Z889" s="18"/>
     </row>
-    <row r="890" spans="1:26" ht="13.5" customHeight="1">
+    <row r="890" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A890" s="29"/>
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
@@ -39833,7 +39889,7 @@
       <c r="Y890" s="18"/>
       <c r="Z890" s="18"/>
     </row>
-    <row r="891" spans="1:26" ht="13.5" customHeight="1">
+    <row r="891" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A891" s="29"/>
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
@@ -39861,7 +39917,7 @@
       <c r="Y891" s="18"/>
       <c r="Z891" s="18"/>
     </row>
-    <row r="892" spans="1:26" ht="13.5" customHeight="1">
+    <row r="892" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A892" s="29"/>
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
@@ -39889,7 +39945,7 @@
       <c r="Y892" s="18"/>
       <c r="Z892" s="18"/>
     </row>
-    <row r="893" spans="1:26" ht="13.5" customHeight="1">
+    <row r="893" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A893" s="29"/>
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
@@ -39917,7 +39973,7 @@
       <c r="Y893" s="18"/>
       <c r="Z893" s="18"/>
     </row>
-    <row r="894" spans="1:26" ht="13.5" customHeight="1">
+    <row r="894" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A894" s="29"/>
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
@@ -39945,7 +40001,7 @@
       <c r="Y894" s="18"/>
       <c r="Z894" s="18"/>
     </row>
-    <row r="895" spans="1:26" ht="13.5" customHeight="1">
+    <row r="895" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A895" s="29"/>
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
@@ -39973,7 +40029,7 @@
       <c r="Y895" s="18"/>
       <c r="Z895" s="18"/>
     </row>
-    <row r="896" spans="1:26" ht="13.5" customHeight="1">
+    <row r="896" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A896" s="29"/>
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
@@ -40001,7 +40057,7 @@
       <c r="Y896" s="18"/>
       <c r="Z896" s="18"/>
     </row>
-    <row r="897" spans="1:26" ht="13.5" customHeight="1">
+    <row r="897" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A897" s="29"/>
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
@@ -40029,7 +40085,7 @@
       <c r="Y897" s="18"/>
       <c r="Z897" s="18"/>
     </row>
-    <row r="898" spans="1:26" ht="13.5" customHeight="1">
+    <row r="898" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A898" s="29"/>
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
@@ -40057,7 +40113,7 @@
       <c r="Y898" s="18"/>
       <c r="Z898" s="18"/>
     </row>
-    <row r="899" spans="1:26" ht="13.5" customHeight="1">
+    <row r="899" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A899" s="29"/>
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
@@ -40085,7 +40141,7 @@
       <c r="Y899" s="18"/>
       <c r="Z899" s="18"/>
     </row>
-    <row r="900" spans="1:26" ht="13.5" customHeight="1">
+    <row r="900" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A900" s="29"/>
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
@@ -40113,7 +40169,7 @@
       <c r="Y900" s="18"/>
       <c r="Z900" s="18"/>
     </row>
-    <row r="901" spans="1:26" ht="13.5" customHeight="1">
+    <row r="901" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A901" s="29"/>
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
@@ -40141,7 +40197,7 @@
       <c r="Y901" s="18"/>
       <c r="Z901" s="18"/>
     </row>
-    <row r="902" spans="1:26" ht="13.5" customHeight="1">
+    <row r="902" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A902" s="29"/>
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
@@ -40169,7 +40225,7 @@
       <c r="Y902" s="18"/>
       <c r="Z902" s="18"/>
     </row>
-    <row r="903" spans="1:26" ht="13.5" customHeight="1">
+    <row r="903" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A903" s="29"/>
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
@@ -40197,7 +40253,7 @@
       <c r="Y903" s="18"/>
       <c r="Z903" s="18"/>
     </row>
-    <row r="904" spans="1:26" ht="13.5" customHeight="1">
+    <row r="904" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A904" s="29"/>
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
@@ -40225,7 +40281,7 @@
       <c r="Y904" s="18"/>
       <c r="Z904" s="18"/>
     </row>
-    <row r="905" spans="1:26" ht="13.5" customHeight="1">
+    <row r="905" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A905" s="29"/>
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
@@ -40253,7 +40309,7 @@
       <c r="Y905" s="18"/>
       <c r="Z905" s="18"/>
     </row>
-    <row r="906" spans="1:26" ht="13.5" customHeight="1">
+    <row r="906" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A906" s="29"/>
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
@@ -40281,7 +40337,7 @@
       <c r="Y906" s="18"/>
       <c r="Z906" s="18"/>
     </row>
-    <row r="907" spans="1:26" ht="13.5" customHeight="1">
+    <row r="907" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A907" s="29"/>
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
@@ -40309,7 +40365,7 @@
       <c r="Y907" s="18"/>
       <c r="Z907" s="18"/>
     </row>
-    <row r="908" spans="1:26" ht="13.5" customHeight="1">
+    <row r="908" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A908" s="29"/>
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
@@ -40337,7 +40393,7 @@
       <c r="Y908" s="18"/>
       <c r="Z908" s="18"/>
     </row>
-    <row r="909" spans="1:26" ht="13.5" customHeight="1">
+    <row r="909" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A909" s="29"/>
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
@@ -40365,7 +40421,7 @@
       <c r="Y909" s="18"/>
       <c r="Z909" s="18"/>
     </row>
-    <row r="910" spans="1:26" ht="13.5" customHeight="1">
+    <row r="910" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A910" s="29"/>
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
@@ -40393,7 +40449,7 @@
       <c r="Y910" s="18"/>
       <c r="Z910" s="18"/>
     </row>
-    <row r="911" spans="1:26" ht="13.5" customHeight="1">
+    <row r="911" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A911" s="29"/>
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
@@ -40421,7 +40477,7 @@
       <c r="Y911" s="18"/>
       <c r="Z911" s="18"/>
     </row>
-    <row r="912" spans="1:26" ht="13.5" customHeight="1">
+    <row r="912" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A912" s="29"/>
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
@@ -40449,7 +40505,7 @@
       <c r="Y912" s="18"/>
       <c r="Z912" s="18"/>
     </row>
-    <row r="913" spans="1:26" ht="13.5" customHeight="1">
+    <row r="913" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A913" s="29"/>
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
@@ -40477,7 +40533,7 @@
       <c r="Y913" s="18"/>
       <c r="Z913" s="18"/>
     </row>
-    <row r="914" spans="1:26" ht="13.5" customHeight="1">
+    <row r="914" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A914" s="29"/>
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
@@ -40505,7 +40561,7 @@
       <c r="Y914" s="18"/>
       <c r="Z914" s="18"/>
     </row>
-    <row r="915" spans="1:26" ht="13.5" customHeight="1">
+    <row r="915" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A915" s="29"/>
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
@@ -40533,7 +40589,7 @@
       <c r="Y915" s="18"/>
       <c r="Z915" s="18"/>
     </row>
-    <row r="916" spans="1:26" ht="13.5" customHeight="1">
+    <row r="916" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A916" s="29"/>
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
@@ -40561,7 +40617,7 @@
       <c r="Y916" s="18"/>
       <c r="Z916" s="18"/>
     </row>
-    <row r="917" spans="1:26" ht="13.5" customHeight="1">
+    <row r="917" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A917" s="29"/>
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
@@ -40589,7 +40645,7 @@
       <c r="Y917" s="18"/>
       <c r="Z917" s="18"/>
     </row>
-    <row r="918" spans="1:26" ht="13.5" customHeight="1">
+    <row r="918" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A918" s="29"/>
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
@@ -40617,7 +40673,7 @@
       <c r="Y918" s="18"/>
       <c r="Z918" s="18"/>
     </row>
-    <row r="919" spans="1:26" ht="13.5" customHeight="1">
+    <row r="919" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A919" s="29"/>
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
@@ -40645,7 +40701,7 @@
       <c r="Y919" s="18"/>
       <c r="Z919" s="18"/>
     </row>
-    <row r="920" spans="1:26" ht="13.5" customHeight="1">
+    <row r="920" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A920" s="29"/>
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
@@ -40673,7 +40729,7 @@
       <c r="Y920" s="18"/>
       <c r="Z920" s="18"/>
     </row>
-    <row r="921" spans="1:26" ht="13.5" customHeight="1">
+    <row r="921" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A921" s="29"/>
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
@@ -40701,7 +40757,7 @@
       <c r="Y921" s="18"/>
       <c r="Z921" s="18"/>
     </row>
-    <row r="922" spans="1:26" ht="13.5" customHeight="1">
+    <row r="922" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A922" s="29"/>
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
@@ -40729,7 +40785,7 @@
       <c r="Y922" s="18"/>
       <c r="Z922" s="18"/>
     </row>
-    <row r="923" spans="1:26" ht="13.5" customHeight="1">
+    <row r="923" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A923" s="29"/>
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
@@ -40757,7 +40813,7 @@
       <c r="Y923" s="18"/>
       <c r="Z923" s="18"/>
     </row>
-    <row r="924" spans="1:26" ht="13.5" customHeight="1">
+    <row r="924" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A924" s="29"/>
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
@@ -40785,7 +40841,7 @@
       <c r="Y924" s="18"/>
       <c r="Z924" s="18"/>
     </row>
-    <row r="925" spans="1:26" ht="13.5" customHeight="1">
+    <row r="925" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A925" s="29"/>
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
@@ -40813,7 +40869,7 @@
       <c r="Y925" s="18"/>
       <c r="Z925" s="18"/>
     </row>
-    <row r="926" spans="1:26" ht="13.5" customHeight="1">
+    <row r="926" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A926" s="29"/>
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
@@ -40841,7 +40897,7 @@
       <c r="Y926" s="18"/>
       <c r="Z926" s="18"/>
     </row>
-    <row r="927" spans="1:26" ht="13.5" customHeight="1">
+    <row r="927" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A927" s="29"/>
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
@@ -40869,7 +40925,7 @@
       <c r="Y927" s="18"/>
       <c r="Z927" s="18"/>
     </row>
-    <row r="928" spans="1:26" ht="13.5" customHeight="1">
+    <row r="928" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A928" s="29"/>
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
@@ -40897,7 +40953,7 @@
       <c r="Y928" s="18"/>
       <c r="Z928" s="18"/>
     </row>
-    <row r="929" spans="1:26" ht="13.5" customHeight="1">
+    <row r="929" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A929" s="29"/>
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
@@ -40925,7 +40981,7 @@
       <c r="Y929" s="18"/>
       <c r="Z929" s="18"/>
     </row>
-    <row r="930" spans="1:26" ht="13.5" customHeight="1">
+    <row r="930" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A930" s="29"/>
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
@@ -40953,7 +41009,7 @@
       <c r="Y930" s="18"/>
       <c r="Z930" s="18"/>
     </row>
-    <row r="931" spans="1:26" ht="13.5" customHeight="1">
+    <row r="931" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A931" s="29"/>
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
@@ -40981,7 +41037,7 @@
       <c r="Y931" s="18"/>
       <c r="Z931" s="18"/>
     </row>
-    <row r="932" spans="1:26" ht="13.5" customHeight="1">
+    <row r="932" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A932" s="29"/>
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
@@ -41009,7 +41065,7 @@
       <c r="Y932" s="18"/>
       <c r="Z932" s="18"/>
     </row>
-    <row r="933" spans="1:26" ht="13.5" customHeight="1">
+    <row r="933" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A933" s="29"/>
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
@@ -41037,7 +41093,7 @@
       <c r="Y933" s="18"/>
       <c r="Z933" s="18"/>
     </row>
-    <row r="934" spans="1:26" ht="13.5" customHeight="1">
+    <row r="934" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A934" s="29"/>
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
@@ -41065,7 +41121,7 @@
       <c r="Y934" s="18"/>
       <c r="Z934" s="18"/>
     </row>
-    <row r="935" spans="1:26" ht="13.5" customHeight="1">
+    <row r="935" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A935" s="29"/>
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
@@ -41093,7 +41149,7 @@
       <c r="Y935" s="18"/>
       <c r="Z935" s="18"/>
     </row>
-    <row r="936" spans="1:26" ht="13.5" customHeight="1">
+    <row r="936" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A936" s="29"/>
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
@@ -41121,7 +41177,7 @@
       <c r="Y936" s="18"/>
       <c r="Z936" s="18"/>
     </row>
-    <row r="937" spans="1:26" ht="13.5" customHeight="1">
+    <row r="937" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A937" s="29"/>
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
@@ -41149,7 +41205,7 @@
       <c r="Y937" s="18"/>
       <c r="Z937" s="18"/>
     </row>
-    <row r="938" spans="1:26" ht="13.5" customHeight="1">
+    <row r="938" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A938" s="29"/>
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
@@ -41177,7 +41233,7 @@
       <c r="Y938" s="18"/>
       <c r="Z938" s="18"/>
     </row>
-    <row r="939" spans="1:26" ht="13.5" customHeight="1">
+    <row r="939" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A939" s="29"/>
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
@@ -41205,7 +41261,7 @@
       <c r="Y939" s="18"/>
       <c r="Z939" s="18"/>
     </row>
-    <row r="940" spans="1:26" ht="13.5" customHeight="1">
+    <row r="940" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A940" s="29"/>
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
@@ -41233,7 +41289,7 @@
       <c r="Y940" s="18"/>
       <c r="Z940" s="18"/>
     </row>
-    <row r="941" spans="1:26" ht="13.5" customHeight="1">
+    <row r="941" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A941" s="29"/>
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
@@ -41261,7 +41317,7 @@
       <c r="Y941" s="18"/>
       <c r="Z941" s="18"/>
     </row>
-    <row r="942" spans="1:26" ht="13.5" customHeight="1">
+    <row r="942" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A942" s="29"/>
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
@@ -41289,7 +41345,7 @@
       <c r="Y942" s="18"/>
       <c r="Z942" s="18"/>
     </row>
-    <row r="943" spans="1:26" ht="13.5" customHeight="1">
+    <row r="943" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A943" s="29"/>
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
@@ -41317,7 +41373,7 @@
       <c r="Y943" s="18"/>
       <c r="Z943" s="18"/>
     </row>
-    <row r="944" spans="1:26" ht="13.5" customHeight="1">
+    <row r="944" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A944" s="29"/>
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
@@ -41345,7 +41401,7 @@
       <c r="Y944" s="18"/>
       <c r="Z944" s="18"/>
     </row>
-    <row r="945" spans="1:26" ht="13.5" customHeight="1">
+    <row r="945" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A945" s="29"/>
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
@@ -41373,7 +41429,7 @@
       <c r="Y945" s="18"/>
       <c r="Z945" s="18"/>
     </row>
-    <row r="946" spans="1:26" ht="13.5" customHeight="1">
+    <row r="946" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A946" s="29"/>
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
@@ -41401,7 +41457,7 @@
       <c r="Y946" s="18"/>
       <c r="Z946" s="18"/>
     </row>
-    <row r="947" spans="1:26" ht="13.5" customHeight="1">
+    <row r="947" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A947" s="29"/>
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
@@ -41429,7 +41485,7 @@
       <c r="Y947" s="18"/>
       <c r="Z947" s="18"/>
     </row>
-    <row r="948" spans="1:26" ht="13.5" customHeight="1">
+    <row r="948" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A948" s="29"/>
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
@@ -41457,7 +41513,7 @@
       <c r="Y948" s="18"/>
       <c r="Z948" s="18"/>
     </row>
-    <row r="949" spans="1:26" ht="13.5" customHeight="1">
+    <row r="949" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A949" s="29"/>
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
@@ -41485,7 +41541,7 @@
       <c r="Y949" s="18"/>
       <c r="Z949" s="18"/>
     </row>
-    <row r="950" spans="1:26" ht="13.5" customHeight="1">
+    <row r="950" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A950" s="29"/>
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
@@ -41513,7 +41569,7 @@
       <c r="Y950" s="18"/>
       <c r="Z950" s="18"/>
     </row>
-    <row r="951" spans="1:26" ht="13.5" customHeight="1">
+    <row r="951" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A951" s="29"/>
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
@@ -41541,7 +41597,7 @@
       <c r="Y951" s="18"/>
       <c r="Z951" s="18"/>
     </row>
-    <row r="952" spans="1:26" ht="13.5" customHeight="1">
+    <row r="952" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A952" s="29"/>
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
@@ -41569,7 +41625,7 @@
       <c r="Y952" s="18"/>
       <c r="Z952" s="18"/>
     </row>
-    <row r="953" spans="1:26" ht="13.5" customHeight="1">
+    <row r="953" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A953" s="29"/>
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
@@ -41597,7 +41653,7 @@
       <c r="Y953" s="18"/>
       <c r="Z953" s="18"/>
     </row>
-    <row r="954" spans="1:26" ht="13.5" customHeight="1">
+    <row r="954" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A954" s="29"/>
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
@@ -41625,7 +41681,7 @@
       <c r="Y954" s="18"/>
       <c r="Z954" s="18"/>
     </row>
-    <row r="955" spans="1:26" ht="13.5" customHeight="1">
+    <row r="955" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A955" s="29"/>
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
@@ -41653,7 +41709,7 @@
       <c r="Y955" s="18"/>
       <c r="Z955" s="18"/>
     </row>
-    <row r="956" spans="1:26" ht="13.5" customHeight="1">
+    <row r="956" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A956" s="29"/>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
@@ -41681,7 +41737,7 @@
       <c r="Y956" s="18"/>
       <c r="Z956" s="18"/>
     </row>
-    <row r="957" spans="1:26" ht="13.5" customHeight="1">
+    <row r="957" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A957" s="29"/>
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
@@ -41709,7 +41765,7 @@
       <c r="Y957" s="18"/>
       <c r="Z957" s="18"/>
     </row>
-    <row r="958" spans="1:26" ht="13.5" customHeight="1">
+    <row r="958" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A958" s="29"/>
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
@@ -41737,7 +41793,7 @@
       <c r="Y958" s="18"/>
       <c r="Z958" s="18"/>
     </row>
-    <row r="959" spans="1:26" ht="13.5" customHeight="1">
+    <row r="959" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A959" s="29"/>
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
@@ -41765,7 +41821,7 @@
       <c r="Y959" s="18"/>
       <c r="Z959" s="18"/>
     </row>
-    <row r="960" spans="1:26" ht="13.5" customHeight="1">
+    <row r="960" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A960" s="29"/>
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
@@ -41793,7 +41849,7 @@
       <c r="Y960" s="18"/>
       <c r="Z960" s="18"/>
     </row>
-    <row r="961" spans="1:26" ht="13.5" customHeight="1">
+    <row r="961" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A961" s="29"/>
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
@@ -41821,7 +41877,7 @@
       <c r="Y961" s="18"/>
       <c r="Z961" s="18"/>
     </row>
-    <row r="962" spans="1:26" ht="13.5" customHeight="1">
+    <row r="962" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A962" s="29"/>
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
@@ -41849,7 +41905,7 @@
       <c r="Y962" s="18"/>
       <c r="Z962" s="18"/>
     </row>
-    <row r="963" spans="1:26" ht="13.5" customHeight="1">
+    <row r="963" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A963" s="29"/>
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
@@ -41877,7 +41933,7 @@
       <c r="Y963" s="18"/>
       <c r="Z963" s="18"/>
     </row>
-    <row r="964" spans="1:26" ht="13.5" customHeight="1">
+    <row r="964" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A964" s="29"/>
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
@@ -41905,7 +41961,7 @@
       <c r="Y964" s="18"/>
       <c r="Z964" s="18"/>
     </row>
-    <row r="965" spans="1:26" ht="13.5" customHeight="1">
+    <row r="965" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A965" s="29"/>
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
@@ -41933,7 +41989,7 @@
       <c r="Y965" s="18"/>
       <c r="Z965" s="18"/>
     </row>
-    <row r="966" spans="1:26" ht="13.5" customHeight="1">
+    <row r="966" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A966" s="29"/>
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
@@ -41961,7 +42017,7 @@
       <c r="Y966" s="18"/>
       <c r="Z966" s="18"/>
     </row>
-    <row r="967" spans="1:26" ht="13.5" customHeight="1">
+    <row r="967" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A967" s="29"/>
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
@@ -41989,7 +42045,7 @@
       <c r="Y967" s="18"/>
       <c r="Z967" s="18"/>
     </row>
-    <row r="968" spans="1:26" ht="13.5" customHeight="1">
+    <row r="968" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A968" s="29"/>
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
@@ -42017,7 +42073,7 @@
       <c r="Y968" s="18"/>
       <c r="Z968" s="18"/>
     </row>
-    <row r="969" spans="1:26" ht="13.5" customHeight="1">
+    <row r="969" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A969" s="29"/>
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
@@ -42045,7 +42101,7 @@
       <c r="Y969" s="18"/>
       <c r="Z969" s="18"/>
     </row>
-    <row r="970" spans="1:26" ht="13.5" customHeight="1">
+    <row r="970" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A970" s="29"/>
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
@@ -42073,7 +42129,7 @@
       <c r="Y970" s="18"/>
       <c r="Z970" s="18"/>
     </row>
-    <row r="971" spans="1:26" ht="13.5" customHeight="1">
+    <row r="971" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A971" s="29"/>
       <c r="B971" s="17"/>
       <c r="C971" s="17"/>
@@ -42101,7 +42157,7 @@
       <c r="Y971" s="18"/>
       <c r="Z971" s="18"/>
     </row>
-    <row r="972" spans="1:26" ht="13.5" customHeight="1">
+    <row r="972" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A972" s="29"/>
       <c r="B972" s="17"/>
       <c r="C972" s="17"/>
@@ -42129,7 +42185,7 @@
       <c r="Y972" s="18"/>
       <c r="Z972" s="18"/>
     </row>
-    <row r="973" spans="1:26" ht="13.5" customHeight="1">
+    <row r="973" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A973" s="29"/>
       <c r="B973" s="17"/>
       <c r="C973" s="17"/>
@@ -42157,7 +42213,7 @@
       <c r="Y973" s="18"/>
       <c r="Z973" s="18"/>
     </row>
-    <row r="974" spans="1:26" ht="13.5" customHeight="1">
+    <row r="974" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A974" s="29"/>
       <c r="B974" s="17"/>
       <c r="C974" s="17"/>
@@ -42185,7 +42241,7 @@
       <c r="Y974" s="18"/>
       <c r="Z974" s="18"/>
     </row>
-    <row r="975" spans="1:26" ht="13.5" customHeight="1">
+    <row r="975" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A975" s="29"/>
       <c r="B975" s="17"/>
       <c r="C975" s="17"/>
@@ -42213,7 +42269,7 @@
       <c r="Y975" s="18"/>
       <c r="Z975" s="18"/>
     </row>
-    <row r="976" spans="1:26" ht="13.5" customHeight="1">
+    <row r="976" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A976" s="29"/>
       <c r="B976" s="17"/>
       <c r="C976" s="17"/>
@@ -42241,7 +42297,7 @@
       <c r="Y976" s="18"/>
       <c r="Z976" s="18"/>
     </row>
-    <row r="977" spans="1:26" ht="13.5" customHeight="1">
+    <row r="977" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A977" s="29"/>
       <c r="B977" s="17"/>
       <c r="C977" s="17"/>
@@ -42269,7 +42325,7 @@
       <c r="Y977" s="18"/>
       <c r="Z977" s="18"/>
     </row>
-    <row r="978" spans="1:26" ht="13.5" customHeight="1">
+    <row r="978" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A978" s="29"/>
       <c r="B978" s="17"/>
       <c r="C978" s="17"/>
@@ -42297,7 +42353,7 @@
       <c r="Y978" s="18"/>
       <c r="Z978" s="18"/>
     </row>
-    <row r="979" spans="1:26" ht="13.5" customHeight="1">
+    <row r="979" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A979" s="29"/>
       <c r="B979" s="17"/>
       <c r="C979" s="17"/>
@@ -42325,7 +42381,7 @@
       <c r="Y979" s="18"/>
       <c r="Z979" s="18"/>
     </row>
-    <row r="980" spans="1:26" ht="13.5" customHeight="1">
+    <row r="980" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A980" s="29"/>
       <c r="B980" s="17"/>
       <c r="C980" s="17"/>
@@ -42353,7 +42409,7 @@
       <c r="Y980" s="18"/>
       <c r="Z980" s="18"/>
     </row>
-    <row r="981" spans="1:26" ht="13.5" customHeight="1">
+    <row r="981" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A981" s="29"/>
       <c r="B981" s="17"/>
       <c r="C981" s="17"/>
@@ -42381,7 +42437,7 @@
       <c r="Y981" s="18"/>
       <c r="Z981" s="18"/>
     </row>
-    <row r="982" spans="1:26" ht="13.5" customHeight="1">
+    <row r="982" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A982" s="29"/>
       <c r="B982" s="17"/>
       <c r="C982" s="17"/>
@@ -42409,7 +42465,7 @@
       <c r="Y982" s="18"/>
       <c r="Z982" s="18"/>
     </row>
-    <row r="983" spans="1:26" ht="13.5" customHeight="1">
+    <row r="983" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A983" s="29"/>
       <c r="B983" s="17"/>
       <c r="C983" s="17"/>
@@ -42437,7 +42493,7 @@
       <c r="Y983" s="18"/>
       <c r="Z983" s="18"/>
     </row>
-    <row r="984" spans="1:26" ht="13.5" customHeight="1">
+    <row r="984" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A984" s="29"/>
       <c r="B984" s="17"/>
       <c r="C984" s="17"/>
@@ -42465,7 +42521,7 @@
       <c r="Y984" s="18"/>
       <c r="Z984" s="18"/>
     </row>
-    <row r="985" spans="1:26" ht="13.5" customHeight="1">
+    <row r="985" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A985" s="29"/>
       <c r="B985" s="17"/>
       <c r="C985" s="17"/>
@@ -42493,7 +42549,7 @@
       <c r="Y985" s="18"/>
       <c r="Z985" s="18"/>
     </row>
-    <row r="986" spans="1:26" ht="13.5" customHeight="1">
+    <row r="986" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A986" s="29"/>
       <c r="B986" s="17"/>
       <c r="C986" s="17"/>
@@ -42521,7 +42577,7 @@
       <c r="Y986" s="18"/>
       <c r="Z986" s="18"/>
     </row>
-    <row r="987" spans="1:26" ht="13.5" customHeight="1">
+    <row r="987" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A987" s="29"/>
       <c r="B987" s="17"/>
       <c r="C987" s="17"/>
@@ -42549,7 +42605,7 @@
       <c r="Y987" s="18"/>
       <c r="Z987" s="18"/>
     </row>
-    <row r="988" spans="1:26" ht="13.5" customHeight="1">
+    <row r="988" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A988" s="29"/>
       <c r="B988" s="17"/>
       <c r="C988" s="17"/>
@@ -42577,7 +42633,7 @@
       <c r="Y988" s="18"/>
       <c r="Z988" s="18"/>
     </row>
-    <row r="989" spans="1:26" ht="13.5" customHeight="1">
+    <row r="989" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A989" s="29"/>
       <c r="B989" s="17"/>
       <c r="C989" s="17"/>
@@ -42605,7 +42661,7 @@
       <c r="Y989" s="18"/>
       <c r="Z989" s="18"/>
     </row>
-    <row r="990" spans="1:26" ht="13.5" customHeight="1">
+    <row r="990" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A990" s="29"/>
       <c r="B990" s="17"/>
       <c r="C990" s="17"/>
@@ -42633,7 +42689,7 @@
       <c r="Y990" s="18"/>
       <c r="Z990" s="18"/>
     </row>
-    <row r="991" spans="1:26" ht="13.5" customHeight="1">
+    <row r="991" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A991" s="29"/>
       <c r="B991" s="17"/>
       <c r="C991" s="17"/>
@@ -42661,7 +42717,7 @@
       <c r="Y991" s="18"/>
       <c r="Z991" s="18"/>
     </row>
-    <row r="992" spans="1:26" ht="13.5" customHeight="1">
+    <row r="992" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A992" s="29"/>
       <c r="B992" s="17"/>
       <c r="C992" s="17"/>
@@ -42689,7 +42745,7 @@
       <c r="Y992" s="18"/>
       <c r="Z992" s="18"/>
     </row>
-    <row r="993" spans="1:26" ht="13.5" customHeight="1">
+    <row r="993" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A993" s="29"/>
       <c r="B993" s="17"/>
       <c r="C993" s="17"/>
@@ -42717,7 +42773,7 @@
       <c r="Y993" s="18"/>
       <c r="Z993" s="18"/>
     </row>
-    <row r="994" spans="1:26" ht="13.5" customHeight="1">
+    <row r="994" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A994" s="29"/>
       <c r="B994" s="17"/>
       <c r="C994" s="17"/>
@@ -42745,7 +42801,7 @@
       <c r="Y994" s="18"/>
       <c r="Z994" s="18"/>
     </row>
-    <row r="995" spans="1:26" ht="13.5" customHeight="1">
+    <row r="995" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A995" s="29"/>
       <c r="B995" s="17"/>
       <c r="C995" s="17"/>
@@ -42773,7 +42829,7 @@
       <c r="Y995" s="18"/>
       <c r="Z995" s="18"/>
     </row>
-    <row r="996" spans="1:26" ht="13.5" customHeight="1">
+    <row r="996" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A996" s="29"/>
       <c r="B996" s="17"/>
       <c r="C996" s="17"/>
@@ -42801,7 +42857,7 @@
       <c r="Y996" s="18"/>
       <c r="Z996" s="18"/>
     </row>
-    <row r="997" spans="1:26" ht="13.5" customHeight="1">
+    <row r="997" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A997" s="29"/>
       <c r="B997" s="17"/>
       <c r="C997" s="17"/>
@@ -42829,7 +42885,7 @@
       <c r="Y997" s="18"/>
       <c r="Z997" s="18"/>
     </row>
-    <row r="998" spans="1:26" ht="13.5" customHeight="1">
+    <row r="998" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A998" s="29"/>
       <c r="B998" s="17"/>
       <c r="C998" s="17"/>
@@ -42857,7 +42913,7 @@
       <c r="Y998" s="18"/>
       <c r="Z998" s="18"/>
     </row>
-    <row r="999" spans="1:26" ht="13.5" customHeight="1">
+    <row r="999" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A999" s="29"/>
       <c r="B999" s="17"/>
       <c r="C999" s="17"/>
@@ -42885,7 +42941,7 @@
       <c r="Y999" s="18"/>
       <c r="Z999" s="18"/>
     </row>
-    <row r="1000" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1000" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1000" s="29"/>
       <c r="B1000" s="17"/>
       <c r="C1000" s="17"/>
@@ -42913,6 +42969,62 @@
       <c r="Y1000" s="18"/>
       <c r="Z1000" s="18"/>
     </row>
+    <row r="1001" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1001" s="29"/>
+      <c r="B1001" s="17"/>
+      <c r="C1001" s="17"/>
+      <c r="D1001" s="17"/>
+      <c r="E1001" s="17"/>
+      <c r="F1001" s="17"/>
+      <c r="G1001" s="17"/>
+      <c r="H1001" s="17"/>
+      <c r="I1001" s="17"/>
+      <c r="J1001" s="17"/>
+      <c r="K1001" s="17"/>
+      <c r="L1001" s="17"/>
+      <c r="M1001" s="18"/>
+      <c r="N1001" s="18"/>
+      <c r="O1001" s="18"/>
+      <c r="P1001" s="18"/>
+      <c r="Q1001" s="18"/>
+      <c r="R1001" s="18"/>
+      <c r="S1001" s="18"/>
+      <c r="T1001" s="18"/>
+      <c r="U1001" s="18"/>
+      <c r="V1001" s="18"/>
+      <c r="W1001" s="18"/>
+      <c r="X1001" s="18"/>
+      <c r="Y1001" s="18"/>
+      <c r="Z1001" s="18"/>
+    </row>
+    <row r="1002" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1002" s="29"/>
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="17"/>
+      <c r="E1002" s="17"/>
+      <c r="F1002" s="17"/>
+      <c r="G1002" s="17"/>
+      <c r="H1002" s="17"/>
+      <c r="I1002" s="17"/>
+      <c r="J1002" s="17"/>
+      <c r="K1002" s="17"/>
+      <c r="L1002" s="17"/>
+      <c r="M1002" s="18"/>
+      <c r="N1002" s="18"/>
+      <c r="O1002" s="18"/>
+      <c r="P1002" s="18"/>
+      <c r="Q1002" s="18"/>
+      <c r="R1002" s="18"/>
+      <c r="S1002" s="18"/>
+      <c r="T1002" s="18"/>
+      <c r="U1002" s="18"/>
+      <c r="V1002" s="18"/>
+      <c r="W1002" s="18"/>
+      <c r="X1002" s="18"/>
+      <c r="Y1002" s="18"/>
+      <c r="Z1002" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -42924,16 +43036,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="26" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="26" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">

--- a/doc/CS01/task10/scrum_final.xlsx
+++ b/doc/CS01/task10/scrum_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="4080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Implement the Vaadin View for the Motivator</t>
   </si>
   <si>
-    <t>Implement Motivation Class</t>
-  </si>
-  <si>
     <t>implement Person  Class</t>
   </si>
   <si>
@@ -218,10 +215,13 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>Implement function of motivator</t>
+    <t>set color based on compare result</t>
   </si>
   <si>
-    <t>set color based on compare result</t>
+    <t>Implement function of Motivation Class</t>
+  </si>
+  <si>
+    <t>Implement function of Motivator Class</t>
   </si>
 </sst>
 </file>
@@ -4804,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>26</v>
@@ -4848,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="5">
@@ -4890,10 +4890,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="7">
@@ -4915,10 +4915,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="7">
@@ -4940,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="7">
@@ -14858,8 +14858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
@@ -14932,26 +14932,26 @@
     </row>
     <row r="2" spans="1:26" ht="43.5">
       <c r="A2" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="21">
         <v>6</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="29">
       <c r="A3" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -14990,16 +14990,16 @@
         <v>33</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="21">
         <v>4</v>
@@ -15026,16 +15026,16 @@
     </row>
     <row r="4" spans="1:26" s="11" customFormat="1" ht="14.5">
       <c r="A4" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
@@ -15045,7 +15045,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="21">
         <v>2</v>
@@ -15072,16 +15072,16 @@
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="29">
       <c r="A5" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="23" t="s">
@@ -15091,7 +15091,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="21">
         <v>6</v>
@@ -15118,16 +15118,16 @@
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="29">
       <c r="A6" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
@@ -15137,7 +15137,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="21">
         <v>2</v>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="7" spans="1:26" customFormat="1" ht="29">
       <c r="A7" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -15174,7 +15174,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>14</v>
@@ -15183,7 +15183,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="21">
         <v>4</v>
@@ -15210,26 +15210,26 @@
     </row>
     <row r="8" spans="1:26" customFormat="1" ht="29">
       <c r="A8" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="21">
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -15256,7 +15256,7 @@
     </row>
     <row r="9" spans="1:26" customFormat="1" ht="43.5">
       <c r="A9" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="21">
         <v>1</v>
@@ -15268,7 +15268,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>18</v>
@@ -15277,7 +15277,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="21">
         <v>6</v>

--- a/doc/CS01/task10/scrum_final.xlsx
+++ b/doc/CS01/task10/scrum_final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="4080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="11220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="Sprint Backlog" sheetId="4" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="C1:L8"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -223,15 +227,18 @@
   <si>
     <t>Implement function of Motivator Class</t>
   </si>
+  <si>
+    <t>finish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -390,7 +397,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -500,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,11 +715,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="26" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="26" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1">
@@ -4775,6 +4782,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4782,24 +4794,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="26" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="26" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="29">
+    <row r="1" spans="1:26" ht="28">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4843,7 +4855,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -4885,7 +4897,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="58">
+    <row r="3" spans="1:26" ht="42">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4910,7 +4922,7 @@
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="29">
+    <row r="4" spans="1:26" ht="28">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4935,7 +4947,7 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="28">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4968,7 +4980,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="14.5">
+    <row r="7" spans="1:26" ht="14">
       <c r="A7" s="20"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
@@ -4976,7 +4988,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="14.5">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="20"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -14851,6 +14863,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14858,24 +14875,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="26" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="26" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1">
@@ -14930,7 +14947,7 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" ht="43.5">
+    <row r="2" spans="1:26" ht="28">
       <c r="A2" s="30" t="s">
         <v>54</v>
       </c>
@@ -14976,7 +14993,7 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" customFormat="1" ht="29">
+    <row r="3" spans="1:26" ht="28">
       <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
@@ -15024,7 +15041,7 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="14.5">
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="14">
       <c r="A4" s="30" t="s">
         <v>56</v>
       </c>
@@ -15070,7 +15087,7 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
     </row>
-    <row r="5" spans="1:26" s="11" customFormat="1" ht="29">
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="28">
       <c r="A5" s="30" t="s">
         <v>57</v>
       </c>
@@ -15116,7 +15133,7 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="29">
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="28">
       <c r="A6" s="30" t="s">
         <v>63</v>
       </c>
@@ -15160,7 +15177,7 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="1:26" customFormat="1" ht="29">
+    <row r="7" spans="1:26" ht="28">
       <c r="A7" s="30" t="s">
         <v>64</v>
       </c>
@@ -15208,7 +15225,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" customFormat="1" ht="29">
+    <row r="8" spans="1:26" ht="28">
       <c r="A8" s="30" t="s">
         <v>58</v>
       </c>
@@ -15254,7 +15271,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" customFormat="1" ht="43.5">
+    <row r="9" spans="1:26" ht="42">
       <c r="A9" s="30" t="s">
         <v>59</v>
       </c>
@@ -15285,7 +15302,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="18"/>
@@ -15302,7 +15319,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:26" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -15317,7 +15334,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:26" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -15332,7 +15349,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:26" customFormat="1" ht="14.5">
+    <row r="12" spans="1:26" ht="14">
       <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -15360,7 +15377,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="14.5">
+    <row r="13" spans="1:26" s="11" customFormat="1" ht="14">
       <c r="A13" s="30"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -15388,7 +15405,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="14.5">
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="14">
       <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -15416,7 +15433,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" ht="14.5">
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="14">
       <c r="A15" s="30"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -15444,7 +15461,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26" customFormat="1" ht="14.5">
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="30"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -15472,8 +15489,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:26" ht="40.5" customHeight="1">
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -15489,8 +15505,7 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" customFormat="1" ht="31" customHeight="1">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:26" ht="31" customHeight="1">
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -15506,8 +15521,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" customFormat="1" ht="39" customHeight="1">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:26" ht="39" customHeight="1">
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -15523,8 +15537,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" customFormat="1" ht="39.5" customHeight="1">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:26" ht="39.5" customHeight="1">
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -15540,8 +15553,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -15557,7 +15569,7 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -15585,7 +15597,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -15613,7 +15625,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="24" spans="1:26" ht="13.5" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -15641,7 +15653,7 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -15669,7 +15681,7 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -15697,7 +15709,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -15725,7 +15737,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -15753,7 +15765,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="29" spans="1:26" ht="13.5" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -15781,7 +15793,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="30" spans="1:26" ht="13.5" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -15809,7 +15821,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="31" spans="1:26" ht="13.5" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -15837,7 +15849,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="32" spans="1:26" ht="13.5" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -15865,7 +15877,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="33" spans="1:26" ht="13.5" customHeight="1">
       <c r="A33" s="29"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -15893,7 +15905,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="34" spans="1:26" ht="13.5" customHeight="1">
       <c r="A34" s="29"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -15921,7 +15933,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="35" spans="1:26" ht="13.5" customHeight="1">
       <c r="A35" s="29"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -15949,7 +15961,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="36" spans="1:26" ht="13.5" customHeight="1">
       <c r="A36" s="29"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -15977,7 +15989,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="37" spans="1:26" ht="13.5" customHeight="1">
       <c r="A37" s="29"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -16005,7 +16017,7 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="38" spans="1:26" ht="13.5" customHeight="1">
       <c r="A38" s="29"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -16033,7 +16045,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="39" spans="1:26" ht="13.5" customHeight="1">
       <c r="A39" s="29"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -16061,7 +16073,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="40" spans="1:26" ht="13.5" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -16089,7 +16101,7 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="41" spans="1:26" ht="13.5" customHeight="1">
       <c r="A41" s="29"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -16117,7 +16129,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1">
       <c r="A42" s="29"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -16145,7 +16157,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="29"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -16173,7 +16185,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -16201,7 +16213,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1">
       <c r="A45" s="29"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -16229,7 +16241,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="46" spans="1:26" ht="13.5" customHeight="1">
       <c r="A46" s="29"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -16257,7 +16269,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="47" spans="1:26" ht="13.5" customHeight="1">
       <c r="A47" s="29"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -16285,7 +16297,7 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="48" spans="1:26" ht="13.5" customHeight="1">
       <c r="A48" s="29"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -16313,7 +16325,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="49" spans="1:26" ht="13.5" customHeight="1">
       <c r="A49" s="29"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -16341,7 +16353,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="50" spans="1:26" ht="13.5" customHeight="1">
       <c r="A50" s="29"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -16369,7 +16381,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="51" spans="1:26" ht="13.5" customHeight="1">
       <c r="A51" s="29"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -16397,7 +16409,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="52" spans="1:26" ht="13.5" customHeight="1">
       <c r="A52" s="29"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -16425,7 +16437,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="53" spans="1:26" ht="13.5" customHeight="1">
       <c r="A53" s="29"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -16453,7 +16465,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="54" spans="1:26" ht="13.5" customHeight="1">
       <c r="A54" s="29"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -16481,7 +16493,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="55" spans="1:26" ht="13.5" customHeight="1">
       <c r="A55" s="29"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -16509,7 +16521,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="56" spans="1:26" ht="13.5" customHeight="1">
       <c r="A56" s="29"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -16537,7 +16549,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="57" spans="1:26" ht="13.5" customHeight="1">
       <c r="A57" s="29"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -16565,7 +16577,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="58" spans="1:26" ht="13.5" customHeight="1">
       <c r="A58" s="29"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -16593,7 +16605,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="59" spans="1:26" ht="13.5" customHeight="1">
       <c r="A59" s="29"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -16621,7 +16633,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="60" spans="1:26" ht="13.5" customHeight="1">
       <c r="A60" s="29"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -16649,7 +16661,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="61" spans="1:26" ht="13.5" customHeight="1">
       <c r="A61" s="29"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -16677,7 +16689,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="62" spans="1:26" ht="13.5" customHeight="1">
       <c r="A62" s="29"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -16705,7 +16717,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="63" spans="1:26" ht="13.5" customHeight="1">
       <c r="A63" s="29"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -16733,7 +16745,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="64" spans="1:26" ht="13.5" customHeight="1">
       <c r="A64" s="29"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -16761,7 +16773,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="65" spans="1:26" ht="13.5" customHeight="1">
       <c r="A65" s="29"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -16789,7 +16801,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="66" spans="1:26" ht="13.5" customHeight="1">
       <c r="A66" s="29"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -16817,7 +16829,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="67" spans="1:26" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -16845,7 +16857,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="68" spans="1:26" ht="13.5" customHeight="1">
       <c r="A68" s="29"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -16873,7 +16885,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="69" spans="1:26" ht="13.5" customHeight="1">
       <c r="A69" s="29"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -16901,7 +16913,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="70" spans="1:26" ht="13.5" customHeight="1">
       <c r="A70" s="29"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -16929,7 +16941,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="71" spans="1:26" ht="13.5" customHeight="1">
       <c r="A71" s="29"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -16957,7 +16969,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="72" spans="1:26" ht="13.5" customHeight="1">
       <c r="A72" s="29"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -16985,7 +16997,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="73" spans="1:26" ht="13.5" customHeight="1">
       <c r="A73" s="29"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -17013,7 +17025,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="74" spans="1:26" ht="13.5" customHeight="1">
       <c r="A74" s="29"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -17041,7 +17053,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="75" spans="1:26" ht="13.5" customHeight="1">
       <c r="A75" s="29"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -17069,7 +17081,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="76" spans="1:26" ht="13.5" customHeight="1">
       <c r="A76" s="29"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -17097,7 +17109,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="77" spans="1:26" ht="13.5" customHeight="1">
       <c r="A77" s="29"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -17125,7 +17137,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="78" spans="1:26" ht="13.5" customHeight="1">
       <c r="A78" s="29"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -17153,7 +17165,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="79" spans="1:26" ht="13.5" customHeight="1">
       <c r="A79" s="29"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -17181,7 +17193,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="80" spans="1:26" ht="13.5" customHeight="1">
       <c r="A80" s="29"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -17209,7 +17221,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="81" spans="1:26" ht="13.5" customHeight="1">
       <c r="A81" s="29"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -17237,7 +17249,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="82" spans="1:26" ht="13.5" customHeight="1">
       <c r="A82" s="29"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -17265,7 +17277,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="83" spans="1:26" ht="13.5" customHeight="1">
       <c r="A83" s="29"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -17293,7 +17305,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="84" spans="1:26" ht="13.5" customHeight="1">
       <c r="A84" s="29"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -17321,7 +17333,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="85" spans="1:26" ht="13.5" customHeight="1">
       <c r="A85" s="29"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -17349,7 +17361,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="86" spans="1:26" ht="13.5" customHeight="1">
       <c r="A86" s="29"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -17377,7 +17389,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="87" spans="1:26" ht="13.5" customHeight="1">
       <c r="A87" s="29"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -17405,7 +17417,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="88" spans="1:26" ht="13.5" customHeight="1">
       <c r="A88" s="29"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -17433,7 +17445,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="89" spans="1:26" ht="13.5" customHeight="1">
       <c r="A89" s="29"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -17461,7 +17473,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="90" spans="1:26" ht="13.5" customHeight="1">
       <c r="A90" s="29"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -17489,7 +17501,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="91" spans="1:26" ht="13.5" customHeight="1">
       <c r="A91" s="29"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -17517,7 +17529,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="92" spans="1:26" ht="13.5" customHeight="1">
       <c r="A92" s="29"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -17545,7 +17557,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="29"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -17573,7 +17585,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="94" spans="1:26" ht="13.5" customHeight="1">
       <c r="A94" s="29"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -17601,7 +17613,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="95" spans="1:26" ht="13.5" customHeight="1">
       <c r="A95" s="29"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -17629,7 +17641,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="96" spans="1:26" ht="13.5" customHeight="1">
       <c r="A96" s="29"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -17657,7 +17669,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="97" spans="1:26" ht="13.5" customHeight="1">
       <c r="A97" s="29"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -17685,7 +17697,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="98" spans="1:26" ht="13.5" customHeight="1">
       <c r="A98" s="29"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -17713,7 +17725,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="99" spans="1:26" ht="13.5" customHeight="1">
       <c r="A99" s="29"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -17741,7 +17753,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="29"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -17769,7 +17781,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="29"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -17797,7 +17809,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="102" spans="1:26" ht="13.5" customHeight="1">
       <c r="A102" s="29"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -17825,7 +17837,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="29"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -17853,7 +17865,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="29"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -17881,7 +17893,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="29"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -17909,7 +17921,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="106" spans="1:26" ht="13.5" customHeight="1">
       <c r="A106" s="29"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -17937,7 +17949,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="29"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -17965,7 +17977,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="108" spans="1:26" ht="13.5" customHeight="1">
       <c r="A108" s="29"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -17993,7 +18005,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="109" spans="1:26" ht="13.5" customHeight="1">
       <c r="A109" s="29"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -18021,7 +18033,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="29"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -18049,7 +18061,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="111" spans="1:26" ht="13.5" customHeight="1">
       <c r="A111" s="29"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -18077,7 +18089,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="112" spans="1:26" ht="13.5" customHeight="1">
       <c r="A112" s="29"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -18105,7 +18117,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="113" spans="1:26" ht="13.5" customHeight="1">
       <c r="A113" s="29"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -18133,7 +18145,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="114" spans="1:26" ht="13.5" customHeight="1">
       <c r="A114" s="29"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -18161,7 +18173,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="115" spans="1:26" ht="13.5" customHeight="1">
       <c r="A115" s="29"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -18189,7 +18201,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="29"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -18217,7 +18229,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="29"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -18245,7 +18257,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="29"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -18273,7 +18285,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="119" spans="1:26" ht="13.5" customHeight="1">
       <c r="A119" s="29"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -18301,7 +18313,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="120" spans="1:26" ht="13.5" customHeight="1">
       <c r="A120" s="29"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -18329,7 +18341,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="121" spans="1:26" ht="13.5" customHeight="1">
       <c r="A121" s="29"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -18357,7 +18369,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="122" spans="1:26" ht="13.5" customHeight="1">
       <c r="A122" s="29"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -18385,7 +18397,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="123" spans="1:26" ht="13.5" customHeight="1">
       <c r="A123" s="29"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -18413,7 +18425,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="124" spans="1:26" ht="13.5" customHeight="1">
       <c r="A124" s="29"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -18441,7 +18453,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="125" spans="1:26" ht="13.5" customHeight="1">
       <c r="A125" s="29"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -18469,7 +18481,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="126" spans="1:26" ht="13.5" customHeight="1">
       <c r="A126" s="29"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -18497,7 +18509,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="127" spans="1:26" ht="13.5" customHeight="1">
       <c r="A127" s="29"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -18525,7 +18537,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="128" spans="1:26" ht="13.5" customHeight="1">
       <c r="A128" s="29"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -18553,7 +18565,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="129" spans="1:26" ht="13.5" customHeight="1">
       <c r="A129" s="29"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -18581,7 +18593,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="130" spans="1:26" ht="13.5" customHeight="1">
       <c r="A130" s="29"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -18609,7 +18621,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="131" spans="1:26" ht="13.5" customHeight="1">
       <c r="A131" s="29"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -18637,7 +18649,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="132" spans="1:26" ht="13.5" customHeight="1">
       <c r="A132" s="29"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -18665,7 +18677,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="133" spans="1:26" ht="13.5" customHeight="1">
       <c r="A133" s="29"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -18693,7 +18705,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="134" spans="1:26" ht="13.5" customHeight="1">
       <c r="A134" s="29"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -18721,7 +18733,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="135" spans="1:26" ht="13.5" customHeight="1">
       <c r="A135" s="29"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -18749,7 +18761,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="136" spans="1:26" ht="13.5" customHeight="1">
       <c r="A136" s="29"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -18777,7 +18789,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="137" spans="1:26" ht="13.5" customHeight="1">
       <c r="A137" s="29"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -18805,7 +18817,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="138" spans="1:26" ht="13.5" customHeight="1">
       <c r="A138" s="29"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -18833,7 +18845,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="139" spans="1:26" ht="13.5" customHeight="1">
       <c r="A139" s="29"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -18861,7 +18873,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="140" spans="1:26" ht="13.5" customHeight="1">
       <c r="A140" s="29"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -18889,7 +18901,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="141" spans="1:26" ht="13.5" customHeight="1">
       <c r="A141" s="29"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -18917,7 +18929,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="142" spans="1:26" ht="13.5" customHeight="1">
       <c r="A142" s="29"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -18945,7 +18957,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="143" spans="1:26" ht="13.5" customHeight="1">
       <c r="A143" s="29"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -18973,7 +18985,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="29"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -19001,7 +19013,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="29"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -19029,7 +19041,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="29"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -19057,7 +19069,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="29"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -19085,7 +19097,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="29"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -19113,7 +19125,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="29"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -19141,7 +19153,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="29"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -19169,7 +19181,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="29"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -19197,7 +19209,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="29"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -19225,7 +19237,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="29"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -19253,7 +19265,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="A154" s="29"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -19281,7 +19293,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="A155" s="29"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -19309,7 +19321,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1">
       <c r="A156" s="29"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -19337,7 +19349,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="157" spans="1:26" ht="13.5" customHeight="1">
       <c r="A157" s="29"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -19365,7 +19377,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="29"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -19393,7 +19405,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="29"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -19421,7 +19433,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="29"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -19449,7 +19461,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="161" spans="1:26" ht="13.5" customHeight="1">
       <c r="A161" s="29"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -19477,7 +19489,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="162" spans="1:26" ht="13.5" customHeight="1">
       <c r="A162" s="29"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -19505,7 +19517,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="163" spans="1:26" ht="13.5" customHeight="1">
       <c r="A163" s="29"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -19533,7 +19545,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="29"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -19561,7 +19573,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="29"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -19589,7 +19601,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="166" spans="1:26" ht="13.5" customHeight="1">
       <c r="A166" s="29"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -19617,7 +19629,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="167" spans="1:26" ht="13.5" customHeight="1">
       <c r="A167" s="29"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -19645,7 +19657,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="168" spans="1:26" ht="13.5" customHeight="1">
       <c r="A168" s="29"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -19673,7 +19685,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="169" spans="1:26" ht="13.5" customHeight="1">
       <c r="A169" s="29"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -19701,7 +19713,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="170" spans="1:26" ht="13.5" customHeight="1">
       <c r="A170" s="29"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -19729,7 +19741,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="29"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -19757,7 +19769,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="29"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -19785,7 +19797,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="29"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -19813,7 +19825,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="29"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -19841,7 +19853,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="29"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -19869,7 +19881,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="29"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -19897,7 +19909,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="29"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -19925,7 +19937,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="29"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -19953,7 +19965,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="29"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -19981,7 +19993,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="29"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -20009,7 +20021,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="29"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -20037,7 +20049,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="29"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -20065,7 +20077,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="29"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -20093,7 +20105,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="29"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -20121,7 +20133,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="29"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -20149,7 +20161,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="29"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -20177,7 +20189,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="29"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -20205,7 +20217,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="29"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -20233,7 +20245,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="29"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -20261,7 +20273,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="29"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -20289,7 +20301,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="29"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -20317,7 +20329,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="29"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -20345,7 +20357,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="29"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -20373,7 +20385,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="29"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -20401,7 +20413,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="29"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -20429,7 +20441,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="29"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -20457,7 +20469,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="29"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -20485,7 +20497,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="29"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -20513,7 +20525,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="29"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -20541,7 +20553,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="29"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -20569,7 +20581,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="29"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -20597,7 +20609,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="29"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -20625,7 +20637,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="29"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -20653,7 +20665,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="29"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -20681,7 +20693,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="29"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -20709,7 +20721,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="29"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -20737,7 +20749,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="29"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -20765,7 +20777,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="29"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -20793,7 +20805,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="29"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -20821,7 +20833,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="29"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -20849,7 +20861,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="29"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -20877,7 +20889,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="29"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -20905,7 +20917,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="29"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -20933,7 +20945,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="29"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -20961,7 +20973,7 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
     </row>
-    <row r="215" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="29"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -20989,7 +21001,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="29"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -21017,7 +21029,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="29"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -21045,7 +21057,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="29"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -21073,7 +21085,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="29"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -21101,7 +21113,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="29"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -21129,7 +21141,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="29"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -21157,7 +21169,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="222" spans="1:26" ht="13.5" customHeight="1">
       <c r="A222" s="29"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -21185,7 +21197,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="223" spans="1:26" ht="13.5" customHeight="1">
       <c r="A223" s="29"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -21213,7 +21225,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="224" spans="1:26" ht="13.5" customHeight="1">
       <c r="A224" s="29"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -21241,7 +21253,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="225" spans="1:26" ht="13.5" customHeight="1">
       <c r="A225" s="29"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -21269,7 +21281,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="226" spans="1:26" ht="13.5" customHeight="1">
       <c r="A226" s="29"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -21297,7 +21309,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="227" spans="1:26" ht="13.5" customHeight="1">
       <c r="A227" s="29"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -21325,7 +21337,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="228" spans="1:26" ht="13.5" customHeight="1">
       <c r="A228" s="29"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -21353,7 +21365,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="229" spans="1:26" ht="13.5" customHeight="1">
       <c r="A229" s="29"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -21381,7 +21393,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="230" spans="1:26" ht="13.5" customHeight="1">
       <c r="A230" s="29"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -21409,7 +21421,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="231" spans="1:26" ht="13.5" customHeight="1">
       <c r="A231" s="29"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -21437,7 +21449,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="232" spans="1:26" ht="13.5" customHeight="1">
       <c r="A232" s="29"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -21465,7 +21477,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="233" spans="1:26" ht="13.5" customHeight="1">
       <c r="A233" s="29"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -21493,7 +21505,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="234" spans="1:26" ht="13.5" customHeight="1">
       <c r="A234" s="29"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -21521,7 +21533,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="235" spans="1:26" ht="13.5" customHeight="1">
       <c r="A235" s="29"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -21549,7 +21561,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="236" spans="1:26" ht="13.5" customHeight="1">
       <c r="A236" s="29"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -21577,7 +21589,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="237" spans="1:26" ht="13.5" customHeight="1">
       <c r="A237" s="29"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -21605,7 +21617,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="238" spans="1:26" ht="13.5" customHeight="1">
       <c r="A238" s="29"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -21633,7 +21645,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="239" spans="1:26" ht="13.5" customHeight="1">
       <c r="A239" s="29"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -21661,7 +21673,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="240" spans="1:26" ht="13.5" customHeight="1">
       <c r="A240" s="29"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -21689,7 +21701,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="241" spans="1:26" ht="13.5" customHeight="1">
       <c r="A241" s="29"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -21717,7 +21729,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="242" spans="1:26" ht="13.5" customHeight="1">
       <c r="A242" s="29"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -21745,7 +21757,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="243" spans="1:26" ht="13.5" customHeight="1">
       <c r="A243" s="29"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -21773,7 +21785,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="244" spans="1:26" ht="13.5" customHeight="1">
       <c r="A244" s="29"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -21801,7 +21813,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="245" spans="1:26" ht="13.5" customHeight="1">
       <c r="A245" s="29"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -21829,7 +21841,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="246" spans="1:26" ht="13.5" customHeight="1">
       <c r="A246" s="29"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -21857,7 +21869,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="247" spans="1:26" ht="13.5" customHeight="1">
       <c r="A247" s="29"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -21885,7 +21897,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="248" spans="1:26" ht="13.5" customHeight="1">
       <c r="A248" s="29"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -21913,7 +21925,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="249" spans="1:26" ht="13.5" customHeight="1">
       <c r="A249" s="29"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -21941,7 +21953,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="250" spans="1:26" ht="13.5" customHeight="1">
       <c r="A250" s="29"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -21969,7 +21981,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="251" spans="1:26" ht="13.5" customHeight="1">
       <c r="A251" s="29"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -21997,7 +22009,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="252" spans="1:26" ht="13.5" customHeight="1">
       <c r="A252" s="29"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -22025,7 +22037,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="253" spans="1:26" ht="13.5" customHeight="1">
       <c r="A253" s="29"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -22053,7 +22065,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="254" spans="1:26" ht="13.5" customHeight="1">
       <c r="A254" s="29"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -22081,7 +22093,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="255" spans="1:26" ht="13.5" customHeight="1">
       <c r="A255" s="29"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -22109,7 +22121,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="256" spans="1:26" ht="13.5" customHeight="1">
       <c r="A256" s="29"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -22137,7 +22149,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="257" spans="1:26" ht="13.5" customHeight="1">
       <c r="A257" s="29"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -22165,7 +22177,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="258" spans="1:26" ht="13.5" customHeight="1">
       <c r="A258" s="29"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -22193,7 +22205,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="259" spans="1:26" ht="13.5" customHeight="1">
       <c r="A259" s="29"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -22221,7 +22233,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="260" spans="1:26" ht="13.5" customHeight="1">
       <c r="A260" s="29"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -22249,7 +22261,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="261" spans="1:26" ht="13.5" customHeight="1">
       <c r="A261" s="29"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -22277,7 +22289,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="262" spans="1:26" ht="13.5" customHeight="1">
       <c r="A262" s="29"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -22305,7 +22317,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="263" spans="1:26" ht="13.5" customHeight="1">
       <c r="A263" s="29"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -22333,7 +22345,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="264" spans="1:26" ht="13.5" customHeight="1">
       <c r="A264" s="29"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -22361,7 +22373,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="265" spans="1:26" ht="13.5" customHeight="1">
       <c r="A265" s="29"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -22389,7 +22401,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="266" spans="1:26" ht="13.5" customHeight="1">
       <c r="A266" s="29"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -22417,7 +22429,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="267" spans="1:26" ht="13.5" customHeight="1">
       <c r="A267" s="29"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -22445,7 +22457,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="268" spans="1:26" ht="13.5" customHeight="1">
       <c r="A268" s="29"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -22473,7 +22485,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="269" spans="1:26" ht="13.5" customHeight="1">
       <c r="A269" s="29"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -22501,7 +22513,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="270" spans="1:26" ht="13.5" customHeight="1">
       <c r="A270" s="29"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -22529,7 +22541,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="271" spans="1:26" ht="13.5" customHeight="1">
       <c r="A271" s="29"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -22557,7 +22569,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="272" spans="1:26" ht="13.5" customHeight="1">
       <c r="A272" s="29"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -22585,7 +22597,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="273" spans="1:26" ht="13.5" customHeight="1">
       <c r="A273" s="29"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -22613,7 +22625,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="274" spans="1:26" ht="13.5" customHeight="1">
       <c r="A274" s="29"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -22641,7 +22653,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="275" spans="1:26" ht="13.5" customHeight="1">
       <c r="A275" s="29"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -22669,7 +22681,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="276" spans="1:26" ht="13.5" customHeight="1">
       <c r="A276" s="29"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -22697,7 +22709,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="277" spans="1:26" ht="13.5" customHeight="1">
       <c r="A277" s="29"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -22725,7 +22737,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="278" spans="1:26" ht="13.5" customHeight="1">
       <c r="A278" s="29"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -22753,7 +22765,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="279" spans="1:26" ht="13.5" customHeight="1">
       <c r="A279" s="29"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -22781,7 +22793,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="280" spans="1:26" ht="13.5" customHeight="1">
       <c r="A280" s="29"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -22809,7 +22821,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="281" spans="1:26" ht="13.5" customHeight="1">
       <c r="A281" s="29"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -22837,7 +22849,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="282" spans="1:26" ht="13.5" customHeight="1">
       <c r="A282" s="29"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -22865,7 +22877,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="283" spans="1:26" ht="13.5" customHeight="1">
       <c r="A283" s="29"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -22893,7 +22905,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="284" spans="1:26" ht="13.5" customHeight="1">
       <c r="A284" s="29"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -22921,7 +22933,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="285" spans="1:26" ht="13.5" customHeight="1">
       <c r="A285" s="29"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -22949,7 +22961,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="286" spans="1:26" ht="13.5" customHeight="1">
       <c r="A286" s="29"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -22977,7 +22989,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="287" spans="1:26" ht="13.5" customHeight="1">
       <c r="A287" s="29"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -23005,7 +23017,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="288" spans="1:26" ht="13.5" customHeight="1">
       <c r="A288" s="29"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -23033,7 +23045,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="289" spans="1:26" ht="13.5" customHeight="1">
       <c r="A289" s="29"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -23061,7 +23073,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="290" spans="1:26" ht="13.5" customHeight="1">
       <c r="A290" s="29"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -23089,7 +23101,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="291" spans="1:26" ht="13.5" customHeight="1">
       <c r="A291" s="29"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -23117,7 +23129,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="292" spans="1:26" ht="13.5" customHeight="1">
       <c r="A292" s="29"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -23145,7 +23157,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="293" spans="1:26" ht="13.5" customHeight="1">
       <c r="A293" s="29"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -23173,7 +23185,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="294" spans="1:26" ht="13.5" customHeight="1">
       <c r="A294" s="29"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -23201,7 +23213,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="295" spans="1:26" ht="13.5" customHeight="1">
       <c r="A295" s="29"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -23229,7 +23241,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="296" spans="1:26" ht="13.5" customHeight="1">
       <c r="A296" s="29"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -23257,7 +23269,7 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
     </row>
-    <row r="297" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="297" spans="1:26" ht="13.5" customHeight="1">
       <c r="A297" s="29"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -23285,7 +23297,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="298" spans="1:26" ht="13.5" customHeight="1">
       <c r="A298" s="29"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -23313,7 +23325,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="299" spans="1:26" ht="13.5" customHeight="1">
       <c r="A299" s="29"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -23341,7 +23353,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="300" spans="1:26" ht="13.5" customHeight="1">
       <c r="A300" s="29"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -23369,7 +23381,7 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
     </row>
-    <row r="301" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="301" spans="1:26" ht="13.5" customHeight="1">
       <c r="A301" s="29"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -23397,7 +23409,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="302" spans="1:26" ht="13.5" customHeight="1">
       <c r="A302" s="29"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -23425,7 +23437,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="303" spans="1:26" ht="13.5" customHeight="1">
       <c r="A303" s="29"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -23453,7 +23465,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="304" spans="1:26" ht="13.5" customHeight="1">
       <c r="A304" s="29"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -23481,7 +23493,7 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
     </row>
-    <row r="305" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="305" spans="1:26" ht="13.5" customHeight="1">
       <c r="A305" s="29"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -23509,7 +23521,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="306" spans="1:26" ht="13.5" customHeight="1">
       <c r="A306" s="29"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -23537,7 +23549,7 @@
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
     </row>
-    <row r="307" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="307" spans="1:26" ht="13.5" customHeight="1">
       <c r="A307" s="29"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -23565,7 +23577,7 @@
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
     </row>
-    <row r="308" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="308" spans="1:26" ht="13.5" customHeight="1">
       <c r="A308" s="29"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -23593,7 +23605,7 @@
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
     </row>
-    <row r="309" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="309" spans="1:26" ht="13.5" customHeight="1">
       <c r="A309" s="29"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -23621,7 +23633,7 @@
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
     </row>
-    <row r="310" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="310" spans="1:26" ht="13.5" customHeight="1">
       <c r="A310" s="29"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -23649,7 +23661,7 @@
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
     </row>
-    <row r="311" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="311" spans="1:26" ht="13.5" customHeight="1">
       <c r="A311" s="29"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -23677,7 +23689,7 @@
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
     </row>
-    <row r="312" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="312" spans="1:26" ht="13.5" customHeight="1">
       <c r="A312" s="29"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -23705,7 +23717,7 @@
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
     </row>
-    <row r="313" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="313" spans="1:26" ht="13.5" customHeight="1">
       <c r="A313" s="29"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -23733,7 +23745,7 @@
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
     </row>
-    <row r="314" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="314" spans="1:26" ht="13.5" customHeight="1">
       <c r="A314" s="29"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -23761,7 +23773,7 @@
       <c r="Y314" s="18"/>
       <c r="Z314" s="18"/>
     </row>
-    <row r="315" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="315" spans="1:26" ht="13.5" customHeight="1">
       <c r="A315" s="29"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -23789,7 +23801,7 @@
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
     </row>
-    <row r="316" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="316" spans="1:26" ht="13.5" customHeight="1">
       <c r="A316" s="29"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -23817,7 +23829,7 @@
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
     </row>
-    <row r="317" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="317" spans="1:26" ht="13.5" customHeight="1">
       <c r="A317" s="29"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -23845,7 +23857,7 @@
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
     </row>
-    <row r="318" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="318" spans="1:26" ht="13.5" customHeight="1">
       <c r="A318" s="29"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -23873,7 +23885,7 @@
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
     </row>
-    <row r="319" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="319" spans="1:26" ht="13.5" customHeight="1">
       <c r="A319" s="29"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -23901,7 +23913,7 @@
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
     </row>
-    <row r="320" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="320" spans="1:26" ht="13.5" customHeight="1">
       <c r="A320" s="29"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -23929,7 +23941,7 @@
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
     </row>
-    <row r="321" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="321" spans="1:26" ht="13.5" customHeight="1">
       <c r="A321" s="29"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -23957,7 +23969,7 @@
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
     </row>
-    <row r="322" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="322" spans="1:26" ht="13.5" customHeight="1">
       <c r="A322" s="29"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -23985,7 +23997,7 @@
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
     </row>
-    <row r="323" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="323" spans="1:26" ht="13.5" customHeight="1">
       <c r="A323" s="29"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -24013,7 +24025,7 @@
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
     </row>
-    <row r="324" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="324" spans="1:26" ht="13.5" customHeight="1">
       <c r="A324" s="29"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -24041,7 +24053,7 @@
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
     </row>
-    <row r="325" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="325" spans="1:26" ht="13.5" customHeight="1">
       <c r="A325" s="29"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -24069,7 +24081,7 @@
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
     </row>
-    <row r="326" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="326" spans="1:26" ht="13.5" customHeight="1">
       <c r="A326" s="29"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -24097,7 +24109,7 @@
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
     </row>
-    <row r="327" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="327" spans="1:26" ht="13.5" customHeight="1">
       <c r="A327" s="29"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -24125,7 +24137,7 @@
       <c r="Y327" s="18"/>
       <c r="Z327" s="18"/>
     </row>
-    <row r="328" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="328" spans="1:26" ht="13.5" customHeight="1">
       <c r="A328" s="29"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -24153,7 +24165,7 @@
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
     </row>
-    <row r="329" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="329" spans="1:26" ht="13.5" customHeight="1">
       <c r="A329" s="29"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -24181,7 +24193,7 @@
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
     </row>
-    <row r="330" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="330" spans="1:26" ht="13.5" customHeight="1">
       <c r="A330" s="29"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -24209,7 +24221,7 @@
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
     </row>
-    <row r="331" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="331" spans="1:26" ht="13.5" customHeight="1">
       <c r="A331" s="29"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -24237,7 +24249,7 @@
       <c r="Y331" s="18"/>
       <c r="Z331" s="18"/>
     </row>
-    <row r="332" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="332" spans="1:26" ht="13.5" customHeight="1">
       <c r="A332" s="29"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -24265,7 +24277,7 @@
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
     </row>
-    <row r="333" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="333" spans="1:26" ht="13.5" customHeight="1">
       <c r="A333" s="29"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -24293,7 +24305,7 @@
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
     </row>
-    <row r="334" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="334" spans="1:26" ht="13.5" customHeight="1">
       <c r="A334" s="29"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -24321,7 +24333,7 @@
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
     </row>
-    <row r="335" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="335" spans="1:26" ht="13.5" customHeight="1">
       <c r="A335" s="29"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -24349,7 +24361,7 @@
       <c r="Y335" s="18"/>
       <c r="Z335" s="18"/>
     </row>
-    <row r="336" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="336" spans="1:26" ht="13.5" customHeight="1">
       <c r="A336" s="29"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -24377,7 +24389,7 @@
       <c r="Y336" s="18"/>
       <c r="Z336" s="18"/>
     </row>
-    <row r="337" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="337" spans="1:26" ht="13.5" customHeight="1">
       <c r="A337" s="29"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -24405,7 +24417,7 @@
       <c r="Y337" s="18"/>
       <c r="Z337" s="18"/>
     </row>
-    <row r="338" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="338" spans="1:26" ht="13.5" customHeight="1">
       <c r="A338" s="29"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -24433,7 +24445,7 @@
       <c r="Y338" s="18"/>
       <c r="Z338" s="18"/>
     </row>
-    <row r="339" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="339" spans="1:26" ht="13.5" customHeight="1">
       <c r="A339" s="29"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -24461,7 +24473,7 @@
       <c r="Y339" s="18"/>
       <c r="Z339" s="18"/>
     </row>
-    <row r="340" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="340" spans="1:26" ht="13.5" customHeight="1">
       <c r="A340" s="29"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -24489,7 +24501,7 @@
       <c r="Y340" s="18"/>
       <c r="Z340" s="18"/>
     </row>
-    <row r="341" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="341" spans="1:26" ht="13.5" customHeight="1">
       <c r="A341" s="29"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -24517,7 +24529,7 @@
       <c r="Y341" s="18"/>
       <c r="Z341" s="18"/>
     </row>
-    <row r="342" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="342" spans="1:26" ht="13.5" customHeight="1">
       <c r="A342" s="29"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -24545,7 +24557,7 @@
       <c r="Y342" s="18"/>
       <c r="Z342" s="18"/>
     </row>
-    <row r="343" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="343" spans="1:26" ht="13.5" customHeight="1">
       <c r="A343" s="29"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -24573,7 +24585,7 @@
       <c r="Y343" s="18"/>
       <c r="Z343" s="18"/>
     </row>
-    <row r="344" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="344" spans="1:26" ht="13.5" customHeight="1">
       <c r="A344" s="29"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -24601,7 +24613,7 @@
       <c r="Y344" s="18"/>
       <c r="Z344" s="18"/>
     </row>
-    <row r="345" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="345" spans="1:26" ht="13.5" customHeight="1">
       <c r="A345" s="29"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -24629,7 +24641,7 @@
       <c r="Y345" s="18"/>
       <c r="Z345" s="18"/>
     </row>
-    <row r="346" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="346" spans="1:26" ht="13.5" customHeight="1">
       <c r="A346" s="29"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -24657,7 +24669,7 @@
       <c r="Y346" s="18"/>
       <c r="Z346" s="18"/>
     </row>
-    <row r="347" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="347" spans="1:26" ht="13.5" customHeight="1">
       <c r="A347" s="29"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -24685,7 +24697,7 @@
       <c r="Y347" s="18"/>
       <c r="Z347" s="18"/>
     </row>
-    <row r="348" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="348" spans="1:26" ht="13.5" customHeight="1">
       <c r="A348" s="29"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -24713,7 +24725,7 @@
       <c r="Y348" s="18"/>
       <c r="Z348" s="18"/>
     </row>
-    <row r="349" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="349" spans="1:26" ht="13.5" customHeight="1">
       <c r="A349" s="29"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -24741,7 +24753,7 @@
       <c r="Y349" s="18"/>
       <c r="Z349" s="18"/>
     </row>
-    <row r="350" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="350" spans="1:26" ht="13.5" customHeight="1">
       <c r="A350" s="29"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -24769,7 +24781,7 @@
       <c r="Y350" s="18"/>
       <c r="Z350" s="18"/>
     </row>
-    <row r="351" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="351" spans="1:26" ht="13.5" customHeight="1">
       <c r="A351" s="29"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -24797,7 +24809,7 @@
       <c r="Y351" s="18"/>
       <c r="Z351" s="18"/>
     </row>
-    <row r="352" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="352" spans="1:26" ht="13.5" customHeight="1">
       <c r="A352" s="29"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -24825,7 +24837,7 @@
       <c r="Y352" s="18"/>
       <c r="Z352" s="18"/>
     </row>
-    <row r="353" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="353" spans="1:26" ht="13.5" customHeight="1">
       <c r="A353" s="29"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -24853,7 +24865,7 @@
       <c r="Y353" s="18"/>
       <c r="Z353" s="18"/>
     </row>
-    <row r="354" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="354" spans="1:26" ht="13.5" customHeight="1">
       <c r="A354" s="29"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -24881,7 +24893,7 @@
       <c r="Y354" s="18"/>
       <c r="Z354" s="18"/>
     </row>
-    <row r="355" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="355" spans="1:26" ht="13.5" customHeight="1">
       <c r="A355" s="29"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -24909,7 +24921,7 @@
       <c r="Y355" s="18"/>
       <c r="Z355" s="18"/>
     </row>
-    <row r="356" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="356" spans="1:26" ht="13.5" customHeight="1">
       <c r="A356" s="29"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -24937,7 +24949,7 @@
       <c r="Y356" s="18"/>
       <c r="Z356" s="18"/>
     </row>
-    <row r="357" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="357" spans="1:26" ht="13.5" customHeight="1">
       <c r="A357" s="29"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -24965,7 +24977,7 @@
       <c r="Y357" s="18"/>
       <c r="Z357" s="18"/>
     </row>
-    <row r="358" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="358" spans="1:26" ht="13.5" customHeight="1">
       <c r="A358" s="29"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -24993,7 +25005,7 @@
       <c r="Y358" s="18"/>
       <c r="Z358" s="18"/>
     </row>
-    <row r="359" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="359" spans="1:26" ht="13.5" customHeight="1">
       <c r="A359" s="29"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -25021,7 +25033,7 @@
       <c r="Y359" s="18"/>
       <c r="Z359" s="18"/>
     </row>
-    <row r="360" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="360" spans="1:26" ht="13.5" customHeight="1">
       <c r="A360" s="29"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -25049,7 +25061,7 @@
       <c r="Y360" s="18"/>
       <c r="Z360" s="18"/>
     </row>
-    <row r="361" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="361" spans="1:26" ht="13.5" customHeight="1">
       <c r="A361" s="29"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -25077,7 +25089,7 @@
       <c r="Y361" s="18"/>
       <c r="Z361" s="18"/>
     </row>
-    <row r="362" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="362" spans="1:26" ht="13.5" customHeight="1">
       <c r="A362" s="29"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -25105,7 +25117,7 @@
       <c r="Y362" s="18"/>
       <c r="Z362" s="18"/>
     </row>
-    <row r="363" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="363" spans="1:26" ht="13.5" customHeight="1">
       <c r="A363" s="29"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -25133,7 +25145,7 @@
       <c r="Y363" s="18"/>
       <c r="Z363" s="18"/>
     </row>
-    <row r="364" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="364" spans="1:26" ht="13.5" customHeight="1">
       <c r="A364" s="29"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -25161,7 +25173,7 @@
       <c r="Y364" s="18"/>
       <c r="Z364" s="18"/>
     </row>
-    <row r="365" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="365" spans="1:26" ht="13.5" customHeight="1">
       <c r="A365" s="29"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -25189,7 +25201,7 @@
       <c r="Y365" s="18"/>
       <c r="Z365" s="18"/>
     </row>
-    <row r="366" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="366" spans="1:26" ht="13.5" customHeight="1">
       <c r="A366" s="29"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -25217,7 +25229,7 @@
       <c r="Y366" s="18"/>
       <c r="Z366" s="18"/>
     </row>
-    <row r="367" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="367" spans="1:26" ht="13.5" customHeight="1">
       <c r="A367" s="29"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -25245,7 +25257,7 @@
       <c r="Y367" s="18"/>
       <c r="Z367" s="18"/>
     </row>
-    <row r="368" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="368" spans="1:26" ht="13.5" customHeight="1">
       <c r="A368" s="29"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -25273,7 +25285,7 @@
       <c r="Y368" s="18"/>
       <c r="Z368" s="18"/>
     </row>
-    <row r="369" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="369" spans="1:26" ht="13.5" customHeight="1">
       <c r="A369" s="29"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -25301,7 +25313,7 @@
       <c r="Y369" s="18"/>
       <c r="Z369" s="18"/>
     </row>
-    <row r="370" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="370" spans="1:26" ht="13.5" customHeight="1">
       <c r="A370" s="29"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -25329,7 +25341,7 @@
       <c r="Y370" s="18"/>
       <c r="Z370" s="18"/>
     </row>
-    <row r="371" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="371" spans="1:26" ht="13.5" customHeight="1">
       <c r="A371" s="29"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -25357,7 +25369,7 @@
       <c r="Y371" s="18"/>
       <c r="Z371" s="18"/>
     </row>
-    <row r="372" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="372" spans="1:26" ht="13.5" customHeight="1">
       <c r="A372" s="29"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -25385,7 +25397,7 @@
       <c r="Y372" s="18"/>
       <c r="Z372" s="18"/>
     </row>
-    <row r="373" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="373" spans="1:26" ht="13.5" customHeight="1">
       <c r="A373" s="29"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -25413,7 +25425,7 @@
       <c r="Y373" s="18"/>
       <c r="Z373" s="18"/>
     </row>
-    <row r="374" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="374" spans="1:26" ht="13.5" customHeight="1">
       <c r="A374" s="29"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -25441,7 +25453,7 @@
       <c r="Y374" s="18"/>
       <c r="Z374" s="18"/>
     </row>
-    <row r="375" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="375" spans="1:26" ht="13.5" customHeight="1">
       <c r="A375" s="29"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -25469,7 +25481,7 @@
       <c r="Y375" s="18"/>
       <c r="Z375" s="18"/>
     </row>
-    <row r="376" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="376" spans="1:26" ht="13.5" customHeight="1">
       <c r="A376" s="29"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -25497,7 +25509,7 @@
       <c r="Y376" s="18"/>
       <c r="Z376" s="18"/>
     </row>
-    <row r="377" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="377" spans="1:26" ht="13.5" customHeight="1">
       <c r="A377" s="29"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -25525,7 +25537,7 @@
       <c r="Y377" s="18"/>
       <c r="Z377" s="18"/>
     </row>
-    <row r="378" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="378" spans="1:26" ht="13.5" customHeight="1">
       <c r="A378" s="29"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -25553,7 +25565,7 @@
       <c r="Y378" s="18"/>
       <c r="Z378" s="18"/>
     </row>
-    <row r="379" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="379" spans="1:26" ht="13.5" customHeight="1">
       <c r="A379" s="29"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -25581,7 +25593,7 @@
       <c r="Y379" s="18"/>
       <c r="Z379" s="18"/>
     </row>
-    <row r="380" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="380" spans="1:26" ht="13.5" customHeight="1">
       <c r="A380" s="29"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -25609,7 +25621,7 @@
       <c r="Y380" s="18"/>
       <c r="Z380" s="18"/>
     </row>
-    <row r="381" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="381" spans="1:26" ht="13.5" customHeight="1">
       <c r="A381" s="29"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -25637,7 +25649,7 @@
       <c r="Y381" s="18"/>
       <c r="Z381" s="18"/>
     </row>
-    <row r="382" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="382" spans="1:26" ht="13.5" customHeight="1">
       <c r="A382" s="29"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -25665,7 +25677,7 @@
       <c r="Y382" s="18"/>
       <c r="Z382" s="18"/>
     </row>
-    <row r="383" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="383" spans="1:26" ht="13.5" customHeight="1">
       <c r="A383" s="29"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -25693,7 +25705,7 @@
       <c r="Y383" s="18"/>
       <c r="Z383" s="18"/>
     </row>
-    <row r="384" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="384" spans="1:26" ht="13.5" customHeight="1">
       <c r="A384" s="29"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -25721,7 +25733,7 @@
       <c r="Y384" s="18"/>
       <c r="Z384" s="18"/>
     </row>
-    <row r="385" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="385" spans="1:26" ht="13.5" customHeight="1">
       <c r="A385" s="29"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -25749,7 +25761,7 @@
       <c r="Y385" s="18"/>
       <c r="Z385" s="18"/>
     </row>
-    <row r="386" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="386" spans="1:26" ht="13.5" customHeight="1">
       <c r="A386" s="29"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -25777,7 +25789,7 @@
       <c r="Y386" s="18"/>
       <c r="Z386" s="18"/>
     </row>
-    <row r="387" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="387" spans="1:26" ht="13.5" customHeight="1">
       <c r="A387" s="29"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -25805,7 +25817,7 @@
       <c r="Y387" s="18"/>
       <c r="Z387" s="18"/>
     </row>
-    <row r="388" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="388" spans="1:26" ht="13.5" customHeight="1">
       <c r="A388" s="29"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -25833,7 +25845,7 @@
       <c r="Y388" s="18"/>
       <c r="Z388" s="18"/>
     </row>
-    <row r="389" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="389" spans="1:26" ht="13.5" customHeight="1">
       <c r="A389" s="29"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -25861,7 +25873,7 @@
       <c r="Y389" s="18"/>
       <c r="Z389" s="18"/>
     </row>
-    <row r="390" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="390" spans="1:26" ht="13.5" customHeight="1">
       <c r="A390" s="29"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -25889,7 +25901,7 @@
       <c r="Y390" s="18"/>
       <c r="Z390" s="18"/>
     </row>
-    <row r="391" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="391" spans="1:26" ht="13.5" customHeight="1">
       <c r="A391" s="29"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -25917,7 +25929,7 @@
       <c r="Y391" s="18"/>
       <c r="Z391" s="18"/>
     </row>
-    <row r="392" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="392" spans="1:26" ht="13.5" customHeight="1">
       <c r="A392" s="29"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -25945,7 +25957,7 @@
       <c r="Y392" s="18"/>
       <c r="Z392" s="18"/>
     </row>
-    <row r="393" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="393" spans="1:26" ht="13.5" customHeight="1">
       <c r="A393" s="29"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -25973,7 +25985,7 @@
       <c r="Y393" s="18"/>
       <c r="Z393" s="18"/>
     </row>
-    <row r="394" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="394" spans="1:26" ht="13.5" customHeight="1">
       <c r="A394" s="29"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -26001,7 +26013,7 @@
       <c r="Y394" s="18"/>
       <c r="Z394" s="18"/>
     </row>
-    <row r="395" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="395" spans="1:26" ht="13.5" customHeight="1">
       <c r="A395" s="29"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -26029,7 +26041,7 @@
       <c r="Y395" s="18"/>
       <c r="Z395" s="18"/>
     </row>
-    <row r="396" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="396" spans="1:26" ht="13.5" customHeight="1">
       <c r="A396" s="29"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -26057,7 +26069,7 @@
       <c r="Y396" s="18"/>
       <c r="Z396" s="18"/>
     </row>
-    <row r="397" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="397" spans="1:26" ht="13.5" customHeight="1">
       <c r="A397" s="29"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -26085,7 +26097,7 @@
       <c r="Y397" s="18"/>
       <c r="Z397" s="18"/>
     </row>
-    <row r="398" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="398" spans="1:26" ht="13.5" customHeight="1">
       <c r="A398" s="29"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -26113,7 +26125,7 @@
       <c r="Y398" s="18"/>
       <c r="Z398" s="18"/>
     </row>
-    <row r="399" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="399" spans="1:26" ht="13.5" customHeight="1">
       <c r="A399" s="29"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -26141,7 +26153,7 @@
       <c r="Y399" s="18"/>
       <c r="Z399" s="18"/>
     </row>
-    <row r="400" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="400" spans="1:26" ht="13.5" customHeight="1">
       <c r="A400" s="29"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -26169,7 +26181,7 @@
       <c r="Y400" s="18"/>
       <c r="Z400" s="18"/>
     </row>
-    <row r="401" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="401" spans="1:26" ht="13.5" customHeight="1">
       <c r="A401" s="29"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -26197,7 +26209,7 @@
       <c r="Y401" s="18"/>
       <c r="Z401" s="18"/>
     </row>
-    <row r="402" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="402" spans="1:26" ht="13.5" customHeight="1">
       <c r="A402" s="29"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -26225,7 +26237,7 @@
       <c r="Y402" s="18"/>
       <c r="Z402" s="18"/>
     </row>
-    <row r="403" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="403" spans="1:26" ht="13.5" customHeight="1">
       <c r="A403" s="29"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -26253,7 +26265,7 @@
       <c r="Y403" s="18"/>
       <c r="Z403" s="18"/>
     </row>
-    <row r="404" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
       <c r="A404" s="29"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -26281,7 +26293,7 @@
       <c r="Y404" s="18"/>
       <c r="Z404" s="18"/>
     </row>
-    <row r="405" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="405" spans="1:26" ht="13.5" customHeight="1">
       <c r="A405" s="29"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -26309,7 +26321,7 @@
       <c r="Y405" s="18"/>
       <c r="Z405" s="18"/>
     </row>
-    <row r="406" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="406" spans="1:26" ht="13.5" customHeight="1">
       <c r="A406" s="29"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -26337,7 +26349,7 @@
       <c r="Y406" s="18"/>
       <c r="Z406" s="18"/>
     </row>
-    <row r="407" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="407" spans="1:26" ht="13.5" customHeight="1">
       <c r="A407" s="29"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -26365,7 +26377,7 @@
       <c r="Y407" s="18"/>
       <c r="Z407" s="18"/>
     </row>
-    <row r="408" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="408" spans="1:26" ht="13.5" customHeight="1">
       <c r="A408" s="29"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -26393,7 +26405,7 @@
       <c r="Y408" s="18"/>
       <c r="Z408" s="18"/>
     </row>
-    <row r="409" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="409" spans="1:26" ht="13.5" customHeight="1">
       <c r="A409" s="29"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -26421,7 +26433,7 @@
       <c r="Y409" s="18"/>
       <c r="Z409" s="18"/>
     </row>
-    <row r="410" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="410" spans="1:26" ht="13.5" customHeight="1">
       <c r="A410" s="29"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -26449,7 +26461,7 @@
       <c r="Y410" s="18"/>
       <c r="Z410" s="18"/>
     </row>
-    <row r="411" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="411" spans="1:26" ht="13.5" customHeight="1">
       <c r="A411" s="29"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -26477,7 +26489,7 @@
       <c r="Y411" s="18"/>
       <c r="Z411" s="18"/>
     </row>
-    <row r="412" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="412" spans="1:26" ht="13.5" customHeight="1">
       <c r="A412" s="29"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -26505,7 +26517,7 @@
       <c r="Y412" s="18"/>
       <c r="Z412" s="18"/>
     </row>
-    <row r="413" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="413" spans="1:26" ht="13.5" customHeight="1">
       <c r="A413" s="29"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -26533,7 +26545,7 @@
       <c r="Y413" s="18"/>
       <c r="Z413" s="18"/>
     </row>
-    <row r="414" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="414" spans="1:26" ht="13.5" customHeight="1">
       <c r="A414" s="29"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -26561,7 +26573,7 @@
       <c r="Y414" s="18"/>
       <c r="Z414" s="18"/>
     </row>
-    <row r="415" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="415" spans="1:26" ht="13.5" customHeight="1">
       <c r="A415" s="29"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -26589,7 +26601,7 @@
       <c r="Y415" s="18"/>
       <c r="Z415" s="18"/>
     </row>
-    <row r="416" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="416" spans="1:26" ht="13.5" customHeight="1">
       <c r="A416" s="29"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -26617,7 +26629,7 @@
       <c r="Y416" s="18"/>
       <c r="Z416" s="18"/>
     </row>
-    <row r="417" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="417" spans="1:26" ht="13.5" customHeight="1">
       <c r="A417" s="29"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -26645,7 +26657,7 @@
       <c r="Y417" s="18"/>
       <c r="Z417" s="18"/>
     </row>
-    <row r="418" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="418" spans="1:26" ht="13.5" customHeight="1">
       <c r="A418" s="29"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -26673,7 +26685,7 @@
       <c r="Y418" s="18"/>
       <c r="Z418" s="18"/>
     </row>
-    <row r="419" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="419" spans="1:26" ht="13.5" customHeight="1">
       <c r="A419" s="29"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -26701,7 +26713,7 @@
       <c r="Y419" s="18"/>
       <c r="Z419" s="18"/>
     </row>
-    <row r="420" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="420" spans="1:26" ht="13.5" customHeight="1">
       <c r="A420" s="29"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -26729,7 +26741,7 @@
       <c r="Y420" s="18"/>
       <c r="Z420" s="18"/>
     </row>
-    <row r="421" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="421" spans="1:26" ht="13.5" customHeight="1">
       <c r="A421" s="29"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -26757,7 +26769,7 @@
       <c r="Y421" s="18"/>
       <c r="Z421" s="18"/>
     </row>
-    <row r="422" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="422" spans="1:26" ht="13.5" customHeight="1">
       <c r="A422" s="29"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -26785,7 +26797,7 @@
       <c r="Y422" s="18"/>
       <c r="Z422" s="18"/>
     </row>
-    <row r="423" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="423" spans="1:26" ht="13.5" customHeight="1">
       <c r="A423" s="29"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -26813,7 +26825,7 @@
       <c r="Y423" s="18"/>
       <c r="Z423" s="18"/>
     </row>
-    <row r="424" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="424" spans="1:26" ht="13.5" customHeight="1">
       <c r="A424" s="29"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -26841,7 +26853,7 @@
       <c r="Y424" s="18"/>
       <c r="Z424" s="18"/>
     </row>
-    <row r="425" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="425" spans="1:26" ht="13.5" customHeight="1">
       <c r="A425" s="29"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -26869,7 +26881,7 @@
       <c r="Y425" s="18"/>
       <c r="Z425" s="18"/>
     </row>
-    <row r="426" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="426" spans="1:26" ht="13.5" customHeight="1">
       <c r="A426" s="29"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -26897,7 +26909,7 @@
       <c r="Y426" s="18"/>
       <c r="Z426" s="18"/>
     </row>
-    <row r="427" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="427" spans="1:26" ht="13.5" customHeight="1">
       <c r="A427" s="29"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -26925,7 +26937,7 @@
       <c r="Y427" s="18"/>
       <c r="Z427" s="18"/>
     </row>
-    <row r="428" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="428" spans="1:26" ht="13.5" customHeight="1">
       <c r="A428" s="29"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -26953,7 +26965,7 @@
       <c r="Y428" s="18"/>
       <c r="Z428" s="18"/>
     </row>
-    <row r="429" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="429" spans="1:26" ht="13.5" customHeight="1">
       <c r="A429" s="29"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -26981,7 +26993,7 @@
       <c r="Y429" s="18"/>
       <c r="Z429" s="18"/>
     </row>
-    <row r="430" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="430" spans="1:26" ht="13.5" customHeight="1">
       <c r="A430" s="29"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -27009,7 +27021,7 @@
       <c r="Y430" s="18"/>
       <c r="Z430" s="18"/>
     </row>
-    <row r="431" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="431" spans="1:26" ht="13.5" customHeight="1">
       <c r="A431" s="29"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -27037,7 +27049,7 @@
       <c r="Y431" s="18"/>
       <c r="Z431" s="18"/>
     </row>
-    <row r="432" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="432" spans="1:26" ht="13.5" customHeight="1">
       <c r="A432" s="29"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -27065,7 +27077,7 @@
       <c r="Y432" s="18"/>
       <c r="Z432" s="18"/>
     </row>
-    <row r="433" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="433" spans="1:26" ht="13.5" customHeight="1">
       <c r="A433" s="29"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -27093,7 +27105,7 @@
       <c r="Y433" s="18"/>
       <c r="Z433" s="18"/>
     </row>
-    <row r="434" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="434" spans="1:26" ht="13.5" customHeight="1">
       <c r="A434" s="29"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -27121,7 +27133,7 @@
       <c r="Y434" s="18"/>
       <c r="Z434" s="18"/>
     </row>
-    <row r="435" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="435" spans="1:26" ht="13.5" customHeight="1">
       <c r="A435" s="29"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -27149,7 +27161,7 @@
       <c r="Y435" s="18"/>
       <c r="Z435" s="18"/>
     </row>
-    <row r="436" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="436" spans="1:26" ht="13.5" customHeight="1">
       <c r="A436" s="29"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -27177,7 +27189,7 @@
       <c r="Y436" s="18"/>
       <c r="Z436" s="18"/>
     </row>
-    <row r="437" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="437" spans="1:26" ht="13.5" customHeight="1">
       <c r="A437" s="29"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -27205,7 +27217,7 @@
       <c r="Y437" s="18"/>
       <c r="Z437" s="18"/>
     </row>
-    <row r="438" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="438" spans="1:26" ht="13.5" customHeight="1">
       <c r="A438" s="29"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -27233,7 +27245,7 @@
       <c r="Y438" s="18"/>
       <c r="Z438" s="18"/>
     </row>
-    <row r="439" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="439" spans="1:26" ht="13.5" customHeight="1">
       <c r="A439" s="29"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -27261,7 +27273,7 @@
       <c r="Y439" s="18"/>
       <c r="Z439" s="18"/>
     </row>
-    <row r="440" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="440" spans="1:26" ht="13.5" customHeight="1">
       <c r="A440" s="29"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -27289,7 +27301,7 @@
       <c r="Y440" s="18"/>
       <c r="Z440" s="18"/>
     </row>
-    <row r="441" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="441" spans="1:26" ht="13.5" customHeight="1">
       <c r="A441" s="29"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -27317,7 +27329,7 @@
       <c r="Y441" s="18"/>
       <c r="Z441" s="18"/>
     </row>
-    <row r="442" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="442" spans="1:26" ht="13.5" customHeight="1">
       <c r="A442" s="29"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -27345,7 +27357,7 @@
       <c r="Y442" s="18"/>
       <c r="Z442" s="18"/>
     </row>
-    <row r="443" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="443" spans="1:26" ht="13.5" customHeight="1">
       <c r="A443" s="29"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -27373,7 +27385,7 @@
       <c r="Y443" s="18"/>
       <c r="Z443" s="18"/>
     </row>
-    <row r="444" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="444" spans="1:26" ht="13.5" customHeight="1">
       <c r="A444" s="29"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -27401,7 +27413,7 @@
       <c r="Y444" s="18"/>
       <c r="Z444" s="18"/>
     </row>
-    <row r="445" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="445" spans="1:26" ht="13.5" customHeight="1">
       <c r="A445" s="29"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -27429,7 +27441,7 @@
       <c r="Y445" s="18"/>
       <c r="Z445" s="18"/>
     </row>
-    <row r="446" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="446" spans="1:26" ht="13.5" customHeight="1">
       <c r="A446" s="29"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -27457,7 +27469,7 @@
       <c r="Y446" s="18"/>
       <c r="Z446" s="18"/>
     </row>
-    <row r="447" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="447" spans="1:26" ht="13.5" customHeight="1">
       <c r="A447" s="29"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -27485,7 +27497,7 @@
       <c r="Y447" s="18"/>
       <c r="Z447" s="18"/>
     </row>
-    <row r="448" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="448" spans="1:26" ht="13.5" customHeight="1">
       <c r="A448" s="29"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -27513,7 +27525,7 @@
       <c r="Y448" s="18"/>
       <c r="Z448" s="18"/>
     </row>
-    <row r="449" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="449" spans="1:26" ht="13.5" customHeight="1">
       <c r="A449" s="29"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -27541,7 +27553,7 @@
       <c r="Y449" s="18"/>
       <c r="Z449" s="18"/>
     </row>
-    <row r="450" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="450" spans="1:26" ht="13.5" customHeight="1">
       <c r="A450" s="29"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -27569,7 +27581,7 @@
       <c r="Y450" s="18"/>
       <c r="Z450" s="18"/>
     </row>
-    <row r="451" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="451" spans="1:26" ht="13.5" customHeight="1">
       <c r="A451" s="29"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -27597,7 +27609,7 @@
       <c r="Y451" s="18"/>
       <c r="Z451" s="18"/>
     </row>
-    <row r="452" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="452" spans="1:26" ht="13.5" customHeight="1">
       <c r="A452" s="29"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -27625,7 +27637,7 @@
       <c r="Y452" s="18"/>
       <c r="Z452" s="18"/>
     </row>
-    <row r="453" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="453" spans="1:26" ht="13.5" customHeight="1">
       <c r="A453" s="29"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -27653,7 +27665,7 @@
       <c r="Y453" s="18"/>
       <c r="Z453" s="18"/>
     </row>
-    <row r="454" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="454" spans="1:26" ht="13.5" customHeight="1">
       <c r="A454" s="29"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -27681,7 +27693,7 @@
       <c r="Y454" s="18"/>
       <c r="Z454" s="18"/>
     </row>
-    <row r="455" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="455" spans="1:26" ht="13.5" customHeight="1">
       <c r="A455" s="29"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -27709,7 +27721,7 @@
       <c r="Y455" s="18"/>
       <c r="Z455" s="18"/>
     </row>
-    <row r="456" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="456" spans="1:26" ht="13.5" customHeight="1">
       <c r="A456" s="29"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -27737,7 +27749,7 @@
       <c r="Y456" s="18"/>
       <c r="Z456" s="18"/>
     </row>
-    <row r="457" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="457" spans="1:26" ht="13.5" customHeight="1">
       <c r="A457" s="29"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -27765,7 +27777,7 @@
       <c r="Y457" s="18"/>
       <c r="Z457" s="18"/>
     </row>
-    <row r="458" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="458" spans="1:26" ht="13.5" customHeight="1">
       <c r="A458" s="29"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -27793,7 +27805,7 @@
       <c r="Y458" s="18"/>
       <c r="Z458" s="18"/>
     </row>
-    <row r="459" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="459" spans="1:26" ht="13.5" customHeight="1">
       <c r="A459" s="29"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -27821,7 +27833,7 @@
       <c r="Y459" s="18"/>
       <c r="Z459" s="18"/>
     </row>
-    <row r="460" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="460" spans="1:26" ht="13.5" customHeight="1">
       <c r="A460" s="29"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -27849,7 +27861,7 @@
       <c r="Y460" s="18"/>
       <c r="Z460" s="18"/>
     </row>
-    <row r="461" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="461" spans="1:26" ht="13.5" customHeight="1">
       <c r="A461" s="29"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -27877,7 +27889,7 @@
       <c r="Y461" s="18"/>
       <c r="Z461" s="18"/>
     </row>
-    <row r="462" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="462" spans="1:26" ht="13.5" customHeight="1">
       <c r="A462" s="29"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -27905,7 +27917,7 @@
       <c r="Y462" s="18"/>
       <c r="Z462" s="18"/>
     </row>
-    <row r="463" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="463" spans="1:26" ht="13.5" customHeight="1">
       <c r="A463" s="29"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -27933,7 +27945,7 @@
       <c r="Y463" s="18"/>
       <c r="Z463" s="18"/>
     </row>
-    <row r="464" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="464" spans="1:26" ht="13.5" customHeight="1">
       <c r="A464" s="29"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -27961,7 +27973,7 @@
       <c r="Y464" s="18"/>
       <c r="Z464" s="18"/>
     </row>
-    <row r="465" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="465" spans="1:26" ht="13.5" customHeight="1">
       <c r="A465" s="29"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -27989,7 +28001,7 @@
       <c r="Y465" s="18"/>
       <c r="Z465" s="18"/>
     </row>
-    <row r="466" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="466" spans="1:26" ht="13.5" customHeight="1">
       <c r="A466" s="29"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -28017,7 +28029,7 @@
       <c r="Y466" s="18"/>
       <c r="Z466" s="18"/>
     </row>
-    <row r="467" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="467" spans="1:26" ht="13.5" customHeight="1">
       <c r="A467" s="29"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -28045,7 +28057,7 @@
       <c r="Y467" s="18"/>
       <c r="Z467" s="18"/>
     </row>
-    <row r="468" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="468" spans="1:26" ht="13.5" customHeight="1">
       <c r="A468" s="29"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -28073,7 +28085,7 @@
       <c r="Y468" s="18"/>
       <c r="Z468" s="18"/>
     </row>
-    <row r="469" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="469" spans="1:26" ht="13.5" customHeight="1">
       <c r="A469" s="29"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -28101,7 +28113,7 @@
       <c r="Y469" s="18"/>
       <c r="Z469" s="18"/>
     </row>
-    <row r="470" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="470" spans="1:26" ht="13.5" customHeight="1">
       <c r="A470" s="29"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -28129,7 +28141,7 @@
       <c r="Y470" s="18"/>
       <c r="Z470" s="18"/>
     </row>
-    <row r="471" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="471" spans="1:26" ht="13.5" customHeight="1">
       <c r="A471" s="29"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -28157,7 +28169,7 @@
       <c r="Y471" s="18"/>
       <c r="Z471" s="18"/>
     </row>
-    <row r="472" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="472" spans="1:26" ht="13.5" customHeight="1">
       <c r="A472" s="29"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -28185,7 +28197,7 @@
       <c r="Y472" s="18"/>
       <c r="Z472" s="18"/>
     </row>
-    <row r="473" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="473" spans="1:26" ht="13.5" customHeight="1">
       <c r="A473" s="29"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -28213,7 +28225,7 @@
       <c r="Y473" s="18"/>
       <c r="Z473" s="18"/>
     </row>
-    <row r="474" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="474" spans="1:26" ht="13.5" customHeight="1">
       <c r="A474" s="29"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -28241,7 +28253,7 @@
       <c r="Y474" s="18"/>
       <c r="Z474" s="18"/>
     </row>
-    <row r="475" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="475" spans="1:26" ht="13.5" customHeight="1">
       <c r="A475" s="29"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -28269,7 +28281,7 @@
       <c r="Y475" s="18"/>
       <c r="Z475" s="18"/>
     </row>
-    <row r="476" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="476" spans="1:26" ht="13.5" customHeight="1">
       <c r="A476" s="29"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -28297,7 +28309,7 @@
       <c r="Y476" s="18"/>
       <c r="Z476" s="18"/>
     </row>
-    <row r="477" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="477" spans="1:26" ht="13.5" customHeight="1">
       <c r="A477" s="29"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -28325,7 +28337,7 @@
       <c r="Y477" s="18"/>
       <c r="Z477" s="18"/>
     </row>
-    <row r="478" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="478" spans="1:26" ht="13.5" customHeight="1">
       <c r="A478" s="29"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -28353,7 +28365,7 @@
       <c r="Y478" s="18"/>
       <c r="Z478" s="18"/>
     </row>
-    <row r="479" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="479" spans="1:26" ht="13.5" customHeight="1">
       <c r="A479" s="29"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -28381,7 +28393,7 @@
       <c r="Y479" s="18"/>
       <c r="Z479" s="18"/>
     </row>
-    <row r="480" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="480" spans="1:26" ht="13.5" customHeight="1">
       <c r="A480" s="29"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -28409,7 +28421,7 @@
       <c r="Y480" s="18"/>
       <c r="Z480" s="18"/>
     </row>
-    <row r="481" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="481" spans="1:26" ht="13.5" customHeight="1">
       <c r="A481" s="29"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -28437,7 +28449,7 @@
       <c r="Y481" s="18"/>
       <c r="Z481" s="18"/>
     </row>
-    <row r="482" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="482" spans="1:26" ht="13.5" customHeight="1">
       <c r="A482" s="29"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -28465,7 +28477,7 @@
       <c r="Y482" s="18"/>
       <c r="Z482" s="18"/>
     </row>
-    <row r="483" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="483" spans="1:26" ht="13.5" customHeight="1">
       <c r="A483" s="29"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -28493,7 +28505,7 @@
       <c r="Y483" s="18"/>
       <c r="Z483" s="18"/>
     </row>
-    <row r="484" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="484" spans="1:26" ht="13.5" customHeight="1">
       <c r="A484" s="29"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -28521,7 +28533,7 @@
       <c r="Y484" s="18"/>
       <c r="Z484" s="18"/>
     </row>
-    <row r="485" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="485" spans="1:26" ht="13.5" customHeight="1">
       <c r="A485" s="29"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -28549,7 +28561,7 @@
       <c r="Y485" s="18"/>
       <c r="Z485" s="18"/>
     </row>
-    <row r="486" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="486" spans="1:26" ht="13.5" customHeight="1">
       <c r="A486" s="29"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -28577,7 +28589,7 @@
       <c r="Y486" s="18"/>
       <c r="Z486" s="18"/>
     </row>
-    <row r="487" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="487" spans="1:26" ht="13.5" customHeight="1">
       <c r="A487" s="29"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -28605,7 +28617,7 @@
       <c r="Y487" s="18"/>
       <c r="Z487" s="18"/>
     </row>
-    <row r="488" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="488" spans="1:26" ht="13.5" customHeight="1">
       <c r="A488" s="29"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -28633,7 +28645,7 @@
       <c r="Y488" s="18"/>
       <c r="Z488" s="18"/>
     </row>
-    <row r="489" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="489" spans="1:26" ht="13.5" customHeight="1">
       <c r="A489" s="29"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -28661,7 +28673,7 @@
       <c r="Y489" s="18"/>
       <c r="Z489" s="18"/>
     </row>
-    <row r="490" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="490" spans="1:26" ht="13.5" customHeight="1">
       <c r="A490" s="29"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -28689,7 +28701,7 @@
       <c r="Y490" s="18"/>
       <c r="Z490" s="18"/>
     </row>
-    <row r="491" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="491" spans="1:26" ht="13.5" customHeight="1">
       <c r="A491" s="29"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -28717,7 +28729,7 @@
       <c r="Y491" s="18"/>
       <c r="Z491" s="18"/>
     </row>
-    <row r="492" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="492" spans="1:26" ht="13.5" customHeight="1">
       <c r="A492" s="29"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -28745,7 +28757,7 @@
       <c r="Y492" s="18"/>
       <c r="Z492" s="18"/>
     </row>
-    <row r="493" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="493" spans="1:26" ht="13.5" customHeight="1">
       <c r="A493" s="29"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -28773,7 +28785,7 @@
       <c r="Y493" s="18"/>
       <c r="Z493" s="18"/>
     </row>
-    <row r="494" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="494" spans="1:26" ht="13.5" customHeight="1">
       <c r="A494" s="29"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -28801,7 +28813,7 @@
       <c r="Y494" s="18"/>
       <c r="Z494" s="18"/>
     </row>
-    <row r="495" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="495" spans="1:26" ht="13.5" customHeight="1">
       <c r="A495" s="29"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -28829,7 +28841,7 @@
       <c r="Y495" s="18"/>
       <c r="Z495" s="18"/>
     </row>
-    <row r="496" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="496" spans="1:26" ht="13.5" customHeight="1">
       <c r="A496" s="29"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -28857,7 +28869,7 @@
       <c r="Y496" s="18"/>
       <c r="Z496" s="18"/>
     </row>
-    <row r="497" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="497" spans="1:26" ht="13.5" customHeight="1">
       <c r="A497" s="29"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -28885,7 +28897,7 @@
       <c r="Y497" s="18"/>
       <c r="Z497" s="18"/>
     </row>
-    <row r="498" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="498" spans="1:26" ht="13.5" customHeight="1">
       <c r="A498" s="29"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -28913,7 +28925,7 @@
       <c r="Y498" s="18"/>
       <c r="Z498" s="18"/>
     </row>
-    <row r="499" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="499" spans="1:26" ht="13.5" customHeight="1">
       <c r="A499" s="29"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -28941,7 +28953,7 @@
       <c r="Y499" s="18"/>
       <c r="Z499" s="18"/>
     </row>
-    <row r="500" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="500" spans="1:26" ht="13.5" customHeight="1">
       <c r="A500" s="29"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -28969,7 +28981,7 @@
       <c r="Y500" s="18"/>
       <c r="Z500" s="18"/>
     </row>
-    <row r="501" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="501" spans="1:26" ht="13.5" customHeight="1">
       <c r="A501" s="29"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
@@ -28997,7 +29009,7 @@
       <c r="Y501" s="18"/>
       <c r="Z501" s="18"/>
     </row>
-    <row r="502" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="502" spans="1:26" ht="13.5" customHeight="1">
       <c r="A502" s="29"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
@@ -29025,7 +29037,7 @@
       <c r="Y502" s="18"/>
       <c r="Z502" s="18"/>
     </row>
-    <row r="503" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="503" spans="1:26" ht="13.5" customHeight="1">
       <c r="A503" s="29"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
@@ -29053,7 +29065,7 @@
       <c r="Y503" s="18"/>
       <c r="Z503" s="18"/>
     </row>
-    <row r="504" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="504" spans="1:26" ht="13.5" customHeight="1">
       <c r="A504" s="29"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
@@ -29081,7 +29093,7 @@
       <c r="Y504" s="18"/>
       <c r="Z504" s="18"/>
     </row>
-    <row r="505" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="505" spans="1:26" ht="13.5" customHeight="1">
       <c r="A505" s="29"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
@@ -29109,7 +29121,7 @@
       <c r="Y505" s="18"/>
       <c r="Z505" s="18"/>
     </row>
-    <row r="506" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="506" spans="1:26" ht="13.5" customHeight="1">
       <c r="A506" s="29"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
@@ -29137,7 +29149,7 @@
       <c r="Y506" s="18"/>
       <c r="Z506" s="18"/>
     </row>
-    <row r="507" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="507" spans="1:26" ht="13.5" customHeight="1">
       <c r="A507" s="29"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
@@ -29165,7 +29177,7 @@
       <c r="Y507" s="18"/>
       <c r="Z507" s="18"/>
     </row>
-    <row r="508" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="508" spans="1:26" ht="13.5" customHeight="1">
       <c r="A508" s="29"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
@@ -29193,7 +29205,7 @@
       <c r="Y508" s="18"/>
       <c r="Z508" s="18"/>
     </row>
-    <row r="509" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="509" spans="1:26" ht="13.5" customHeight="1">
       <c r="A509" s="29"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
@@ -29221,7 +29233,7 @@
       <c r="Y509" s="18"/>
       <c r="Z509" s="18"/>
     </row>
-    <row r="510" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="510" spans="1:26" ht="13.5" customHeight="1">
       <c r="A510" s="29"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
@@ -29249,7 +29261,7 @@
       <c r="Y510" s="18"/>
       <c r="Z510" s="18"/>
     </row>
-    <row r="511" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="511" spans="1:26" ht="13.5" customHeight="1">
       <c r="A511" s="29"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
@@ -29277,7 +29289,7 @@
       <c r="Y511" s="18"/>
       <c r="Z511" s="18"/>
     </row>
-    <row r="512" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="512" spans="1:26" ht="13.5" customHeight="1">
       <c r="A512" s="29"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
@@ -29305,7 +29317,7 @@
       <c r="Y512" s="18"/>
       <c r="Z512" s="18"/>
     </row>
-    <row r="513" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="513" spans="1:26" ht="13.5" customHeight="1">
       <c r="A513" s="29"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
@@ -29333,7 +29345,7 @@
       <c r="Y513" s="18"/>
       <c r="Z513" s="18"/>
     </row>
-    <row r="514" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="514" spans="1:26" ht="13.5" customHeight="1">
       <c r="A514" s="29"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
@@ -29361,7 +29373,7 @@
       <c r="Y514" s="18"/>
       <c r="Z514" s="18"/>
     </row>
-    <row r="515" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="515" spans="1:26" ht="13.5" customHeight="1">
       <c r="A515" s="29"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
@@ -29389,7 +29401,7 @@
       <c r="Y515" s="18"/>
       <c r="Z515" s="18"/>
     </row>
-    <row r="516" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="516" spans="1:26" ht="13.5" customHeight="1">
       <c r="A516" s="29"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
@@ -29417,7 +29429,7 @@
       <c r="Y516" s="18"/>
       <c r="Z516" s="18"/>
     </row>
-    <row r="517" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="517" spans="1:26" ht="13.5" customHeight="1">
       <c r="A517" s="29"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
@@ -29445,7 +29457,7 @@
       <c r="Y517" s="18"/>
       <c r="Z517" s="18"/>
     </row>
-    <row r="518" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="518" spans="1:26" ht="13.5" customHeight="1">
       <c r="A518" s="29"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
@@ -29473,7 +29485,7 @@
       <c r="Y518" s="18"/>
       <c r="Z518" s="18"/>
     </row>
-    <row r="519" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="519" spans="1:26" ht="13.5" customHeight="1">
       <c r="A519" s="29"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
@@ -29501,7 +29513,7 @@
       <c r="Y519" s="18"/>
       <c r="Z519" s="18"/>
     </row>
-    <row r="520" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="520" spans="1:26" ht="13.5" customHeight="1">
       <c r="A520" s="29"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
@@ -29529,7 +29541,7 @@
       <c r="Y520" s="18"/>
       <c r="Z520" s="18"/>
     </row>
-    <row r="521" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="521" spans="1:26" ht="13.5" customHeight="1">
       <c r="A521" s="29"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
@@ -29557,7 +29569,7 @@
       <c r="Y521" s="18"/>
       <c r="Z521" s="18"/>
     </row>
-    <row r="522" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="522" spans="1:26" ht="13.5" customHeight="1">
       <c r="A522" s="29"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
@@ -29585,7 +29597,7 @@
       <c r="Y522" s="18"/>
       <c r="Z522" s="18"/>
     </row>
-    <row r="523" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="523" spans="1:26" ht="13.5" customHeight="1">
       <c r="A523" s="29"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
@@ -29613,7 +29625,7 @@
       <c r="Y523" s="18"/>
       <c r="Z523" s="18"/>
     </row>
-    <row r="524" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="524" spans="1:26" ht="13.5" customHeight="1">
       <c r="A524" s="29"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
@@ -29641,7 +29653,7 @@
       <c r="Y524" s="18"/>
       <c r="Z524" s="18"/>
     </row>
-    <row r="525" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="525" spans="1:26" ht="13.5" customHeight="1">
       <c r="A525" s="29"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
@@ -29669,7 +29681,7 @@
       <c r="Y525" s="18"/>
       <c r="Z525" s="18"/>
     </row>
-    <row r="526" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="526" spans="1:26" ht="13.5" customHeight="1">
       <c r="A526" s="29"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
@@ -29697,7 +29709,7 @@
       <c r="Y526" s="18"/>
       <c r="Z526" s="18"/>
     </row>
-    <row r="527" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="527" spans="1:26" ht="13.5" customHeight="1">
       <c r="A527" s="29"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
@@ -29725,7 +29737,7 @@
       <c r="Y527" s="18"/>
       <c r="Z527" s="18"/>
     </row>
-    <row r="528" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="528" spans="1:26" ht="13.5" customHeight="1">
       <c r="A528" s="29"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -29753,7 +29765,7 @@
       <c r="Y528" s="18"/>
       <c r="Z528" s="18"/>
     </row>
-    <row r="529" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="529" spans="1:26" ht="13.5" customHeight="1">
       <c r="A529" s="29"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
@@ -29781,7 +29793,7 @@
       <c r="Y529" s="18"/>
       <c r="Z529" s="18"/>
     </row>
-    <row r="530" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="530" spans="1:26" ht="13.5" customHeight="1">
       <c r="A530" s="29"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
@@ -29809,7 +29821,7 @@
       <c r="Y530" s="18"/>
       <c r="Z530" s="18"/>
     </row>
-    <row r="531" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="531" spans="1:26" ht="13.5" customHeight="1">
       <c r="A531" s="29"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
@@ -29837,7 +29849,7 @@
       <c r="Y531" s="18"/>
       <c r="Z531" s="18"/>
     </row>
-    <row r="532" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="532" spans="1:26" ht="13.5" customHeight="1">
       <c r="A532" s="29"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
@@ -29865,7 +29877,7 @@
       <c r="Y532" s="18"/>
       <c r="Z532" s="18"/>
     </row>
-    <row r="533" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="533" spans="1:26" ht="13.5" customHeight="1">
       <c r="A533" s="29"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
@@ -29893,7 +29905,7 @@
       <c r="Y533" s="18"/>
       <c r="Z533" s="18"/>
     </row>
-    <row r="534" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="534" spans="1:26" ht="13.5" customHeight="1">
       <c r="A534" s="29"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
@@ -29921,7 +29933,7 @@
       <c r="Y534" s="18"/>
       <c r="Z534" s="18"/>
     </row>
-    <row r="535" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="535" spans="1:26" ht="13.5" customHeight="1">
       <c r="A535" s="29"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
@@ -29949,7 +29961,7 @@
       <c r="Y535" s="18"/>
       <c r="Z535" s="18"/>
     </row>
-    <row r="536" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="536" spans="1:26" ht="13.5" customHeight="1">
       <c r="A536" s="29"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
@@ -29977,7 +29989,7 @@
       <c r="Y536" s="18"/>
       <c r="Z536" s="18"/>
     </row>
-    <row r="537" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="537" spans="1:26" ht="13.5" customHeight="1">
       <c r="A537" s="29"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
@@ -30005,7 +30017,7 @@
       <c r="Y537" s="18"/>
       <c r="Z537" s="18"/>
     </row>
-    <row r="538" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="538" spans="1:26" ht="13.5" customHeight="1">
       <c r="A538" s="29"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
@@ -30033,7 +30045,7 @@
       <c r="Y538" s="18"/>
       <c r="Z538" s="18"/>
     </row>
-    <row r="539" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="539" spans="1:26" ht="13.5" customHeight="1">
       <c r="A539" s="29"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
@@ -30061,7 +30073,7 @@
       <c r="Y539" s="18"/>
       <c r="Z539" s="18"/>
     </row>
-    <row r="540" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="540" spans="1:26" ht="13.5" customHeight="1">
       <c r="A540" s="29"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
@@ -30089,7 +30101,7 @@
       <c r="Y540" s="18"/>
       <c r="Z540" s="18"/>
     </row>
-    <row r="541" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="541" spans="1:26" ht="13.5" customHeight="1">
       <c r="A541" s="29"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
@@ -30117,7 +30129,7 @@
       <c r="Y541" s="18"/>
       <c r="Z541" s="18"/>
     </row>
-    <row r="542" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="542" spans="1:26" ht="13.5" customHeight="1">
       <c r="A542" s="29"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
@@ -30145,7 +30157,7 @@
       <c r="Y542" s="18"/>
       <c r="Z542" s="18"/>
     </row>
-    <row r="543" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="543" spans="1:26" ht="13.5" customHeight="1">
       <c r="A543" s="29"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
@@ -30173,7 +30185,7 @@
       <c r="Y543" s="18"/>
       <c r="Z543" s="18"/>
     </row>
-    <row r="544" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="544" spans="1:26" ht="13.5" customHeight="1">
       <c r="A544" s="29"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
@@ -30201,7 +30213,7 @@
       <c r="Y544" s="18"/>
       <c r="Z544" s="18"/>
     </row>
-    <row r="545" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="545" spans="1:26" ht="13.5" customHeight="1">
       <c r="A545" s="29"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
@@ -30229,7 +30241,7 @@
       <c r="Y545" s="18"/>
       <c r="Z545" s="18"/>
     </row>
-    <row r="546" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="546" spans="1:26" ht="13.5" customHeight="1">
       <c r="A546" s="29"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
@@ -30257,7 +30269,7 @@
       <c r="Y546" s="18"/>
       <c r="Z546" s="18"/>
     </row>
-    <row r="547" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="547" spans="1:26" ht="13.5" customHeight="1">
       <c r="A547" s="29"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
@@ -30285,7 +30297,7 @@
       <c r="Y547" s="18"/>
       <c r="Z547" s="18"/>
     </row>
-    <row r="548" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="548" spans="1:26" ht="13.5" customHeight="1">
       <c r="A548" s="29"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
@@ -30313,7 +30325,7 @@
       <c r="Y548" s="18"/>
       <c r="Z548" s="18"/>
     </row>
-    <row r="549" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="549" spans="1:26" ht="13.5" customHeight="1">
       <c r="A549" s="29"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
@@ -30341,7 +30353,7 @@
       <c r="Y549" s="18"/>
       <c r="Z549" s="18"/>
     </row>
-    <row r="550" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="550" spans="1:26" ht="13.5" customHeight="1">
       <c r="A550" s="29"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
@@ -30369,7 +30381,7 @@
       <c r="Y550" s="18"/>
       <c r="Z550" s="18"/>
     </row>
-    <row r="551" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="551" spans="1:26" ht="13.5" customHeight="1">
       <c r="A551" s="29"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
@@ -30397,7 +30409,7 @@
       <c r="Y551" s="18"/>
       <c r="Z551" s="18"/>
     </row>
-    <row r="552" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="552" spans="1:26" ht="13.5" customHeight="1">
       <c r="A552" s="29"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
@@ -30425,7 +30437,7 @@
       <c r="Y552" s="18"/>
       <c r="Z552" s="18"/>
     </row>
-    <row r="553" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="553" spans="1:26" ht="13.5" customHeight="1">
       <c r="A553" s="29"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
@@ -30453,7 +30465,7 @@
       <c r="Y553" s="18"/>
       <c r="Z553" s="18"/>
     </row>
-    <row r="554" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="554" spans="1:26" ht="13.5" customHeight="1">
       <c r="A554" s="29"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
@@ -30481,7 +30493,7 @@
       <c r="Y554" s="18"/>
       <c r="Z554" s="18"/>
     </row>
-    <row r="555" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="555" spans="1:26" ht="13.5" customHeight="1">
       <c r="A555" s="29"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
@@ -30509,7 +30521,7 @@
       <c r="Y555" s="18"/>
       <c r="Z555" s="18"/>
     </row>
-    <row r="556" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="556" spans="1:26" ht="13.5" customHeight="1">
       <c r="A556" s="29"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
@@ -30537,7 +30549,7 @@
       <c r="Y556" s="18"/>
       <c r="Z556" s="18"/>
     </row>
-    <row r="557" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="557" spans="1:26" ht="13.5" customHeight="1">
       <c r="A557" s="29"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
@@ -30565,7 +30577,7 @@
       <c r="Y557" s="18"/>
       <c r="Z557" s="18"/>
     </row>
-    <row r="558" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="558" spans="1:26" ht="13.5" customHeight="1">
       <c r="A558" s="29"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
@@ -30593,7 +30605,7 @@
       <c r="Y558" s="18"/>
       <c r="Z558" s="18"/>
     </row>
-    <row r="559" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="559" spans="1:26" ht="13.5" customHeight="1">
       <c r="A559" s="29"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
@@ -30621,7 +30633,7 @@
       <c r="Y559" s="18"/>
       <c r="Z559" s="18"/>
     </row>
-    <row r="560" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="560" spans="1:26" ht="13.5" customHeight="1">
       <c r="A560" s="29"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
@@ -30649,7 +30661,7 @@
       <c r="Y560" s="18"/>
       <c r="Z560" s="18"/>
     </row>
-    <row r="561" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="561" spans="1:26" ht="13.5" customHeight="1">
       <c r="A561" s="29"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
@@ -30677,7 +30689,7 @@
       <c r="Y561" s="18"/>
       <c r="Z561" s="18"/>
     </row>
-    <row r="562" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="562" spans="1:26" ht="13.5" customHeight="1">
       <c r="A562" s="29"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
@@ -30705,7 +30717,7 @@
       <c r="Y562" s="18"/>
       <c r="Z562" s="18"/>
     </row>
-    <row r="563" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="563" spans="1:26" ht="13.5" customHeight="1">
       <c r="A563" s="29"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
@@ -30733,7 +30745,7 @@
       <c r="Y563" s="18"/>
       <c r="Z563" s="18"/>
     </row>
-    <row r="564" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="564" spans="1:26" ht="13.5" customHeight="1">
       <c r="A564" s="29"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
@@ -30761,7 +30773,7 @@
       <c r="Y564" s="18"/>
       <c r="Z564" s="18"/>
     </row>
-    <row r="565" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="565" spans="1:26" ht="13.5" customHeight="1">
       <c r="A565" s="29"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
@@ -30789,7 +30801,7 @@
       <c r="Y565" s="18"/>
       <c r="Z565" s="18"/>
     </row>
-    <row r="566" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="566" spans="1:26" ht="13.5" customHeight="1">
       <c r="A566" s="29"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
@@ -30817,7 +30829,7 @@
       <c r="Y566" s="18"/>
       <c r="Z566" s="18"/>
     </row>
-    <row r="567" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="567" spans="1:26" ht="13.5" customHeight="1">
       <c r="A567" s="29"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
@@ -30845,7 +30857,7 @@
       <c r="Y567" s="18"/>
       <c r="Z567" s="18"/>
     </row>
-    <row r="568" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="568" spans="1:26" ht="13.5" customHeight="1">
       <c r="A568" s="29"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
@@ -30873,7 +30885,7 @@
       <c r="Y568" s="18"/>
       <c r="Z568" s="18"/>
     </row>
-    <row r="569" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="569" spans="1:26" ht="13.5" customHeight="1">
       <c r="A569" s="29"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
@@ -30901,7 +30913,7 @@
       <c r="Y569" s="18"/>
       <c r="Z569" s="18"/>
     </row>
-    <row r="570" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="570" spans="1:26" ht="13.5" customHeight="1">
       <c r="A570" s="29"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
@@ -30929,7 +30941,7 @@
       <c r="Y570" s="18"/>
       <c r="Z570" s="18"/>
     </row>
-    <row r="571" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="571" spans="1:26" ht="13.5" customHeight="1">
       <c r="A571" s="29"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
@@ -30957,7 +30969,7 @@
       <c r="Y571" s="18"/>
       <c r="Z571" s="18"/>
     </row>
-    <row r="572" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="572" spans="1:26" ht="13.5" customHeight="1">
       <c r="A572" s="29"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
@@ -30985,7 +30997,7 @@
       <c r="Y572" s="18"/>
       <c r="Z572" s="18"/>
     </row>
-    <row r="573" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="573" spans="1:26" ht="13.5" customHeight="1">
       <c r="A573" s="29"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
@@ -31013,7 +31025,7 @@
       <c r="Y573" s="18"/>
       <c r="Z573" s="18"/>
     </row>
-    <row r="574" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="574" spans="1:26" ht="13.5" customHeight="1">
       <c r="A574" s="29"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
@@ -31041,7 +31053,7 @@
       <c r="Y574" s="18"/>
       <c r="Z574" s="18"/>
     </row>
-    <row r="575" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="575" spans="1:26" ht="13.5" customHeight="1">
       <c r="A575" s="29"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
@@ -31069,7 +31081,7 @@
       <c r="Y575" s="18"/>
       <c r="Z575" s="18"/>
     </row>
-    <row r="576" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="576" spans="1:26" ht="13.5" customHeight="1">
       <c r="A576" s="29"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
@@ -31097,7 +31109,7 @@
       <c r="Y576" s="18"/>
       <c r="Z576" s="18"/>
     </row>
-    <row r="577" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="577" spans="1:26" ht="13.5" customHeight="1">
       <c r="A577" s="29"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
@@ -31125,7 +31137,7 @@
       <c r="Y577" s="18"/>
       <c r="Z577" s="18"/>
     </row>
-    <row r="578" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="578" spans="1:26" ht="13.5" customHeight="1">
       <c r="A578" s="29"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
@@ -31153,7 +31165,7 @@
       <c r="Y578" s="18"/>
       <c r="Z578" s="18"/>
     </row>
-    <row r="579" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="579" spans="1:26" ht="13.5" customHeight="1">
       <c r="A579" s="29"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
@@ -31181,7 +31193,7 @@
       <c r="Y579" s="18"/>
       <c r="Z579" s="18"/>
     </row>
-    <row r="580" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="580" spans="1:26" ht="13.5" customHeight="1">
       <c r="A580" s="29"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
@@ -31209,7 +31221,7 @@
       <c r="Y580" s="18"/>
       <c r="Z580" s="18"/>
     </row>
-    <row r="581" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="581" spans="1:26" ht="13.5" customHeight="1">
       <c r="A581" s="29"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
@@ -31237,7 +31249,7 @@
       <c r="Y581" s="18"/>
       <c r="Z581" s="18"/>
     </row>
-    <row r="582" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="582" spans="1:26" ht="13.5" customHeight="1">
       <c r="A582" s="29"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
@@ -31265,7 +31277,7 @@
       <c r="Y582" s="18"/>
       <c r="Z582" s="18"/>
     </row>
-    <row r="583" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="583" spans="1:26" ht="13.5" customHeight="1">
       <c r="A583" s="29"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
@@ -31293,7 +31305,7 @@
       <c r="Y583" s="18"/>
       <c r="Z583" s="18"/>
     </row>
-    <row r="584" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="584" spans="1:26" ht="13.5" customHeight="1">
       <c r="A584" s="29"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
@@ -31321,7 +31333,7 @@
       <c r="Y584" s="18"/>
       <c r="Z584" s="18"/>
     </row>
-    <row r="585" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="585" spans="1:26" ht="13.5" customHeight="1">
       <c r="A585" s="29"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
@@ -31349,7 +31361,7 @@
       <c r="Y585" s="18"/>
       <c r="Z585" s="18"/>
     </row>
-    <row r="586" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="586" spans="1:26" ht="13.5" customHeight="1">
       <c r="A586" s="29"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
@@ -31377,7 +31389,7 @@
       <c r="Y586" s="18"/>
       <c r="Z586" s="18"/>
     </row>
-    <row r="587" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="587" spans="1:26" ht="13.5" customHeight="1">
       <c r="A587" s="29"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
@@ -31405,7 +31417,7 @@
       <c r="Y587" s="18"/>
       <c r="Z587" s="18"/>
     </row>
-    <row r="588" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="588" spans="1:26" ht="13.5" customHeight="1">
       <c r="A588" s="29"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
@@ -31433,7 +31445,7 @@
       <c r="Y588" s="18"/>
       <c r="Z588" s="18"/>
     </row>
-    <row r="589" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="589" spans="1:26" ht="13.5" customHeight="1">
       <c r="A589" s="29"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
@@ -31461,7 +31473,7 @@
       <c r="Y589" s="18"/>
       <c r="Z589" s="18"/>
     </row>
-    <row r="590" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="590" spans="1:26" ht="13.5" customHeight="1">
       <c r="A590" s="29"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
@@ -31489,7 +31501,7 @@
       <c r="Y590" s="18"/>
       <c r="Z590" s="18"/>
     </row>
-    <row r="591" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="591" spans="1:26" ht="13.5" customHeight="1">
       <c r="A591" s="29"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
@@ -31517,7 +31529,7 @@
       <c r="Y591" s="18"/>
       <c r="Z591" s="18"/>
     </row>
-    <row r="592" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="592" spans="1:26" ht="13.5" customHeight="1">
       <c r="A592" s="29"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
@@ -31545,7 +31557,7 @@
       <c r="Y592" s="18"/>
       <c r="Z592" s="18"/>
     </row>
-    <row r="593" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="593" spans="1:26" ht="13.5" customHeight="1">
       <c r="A593" s="29"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
@@ -31573,7 +31585,7 @@
       <c r="Y593" s="18"/>
       <c r="Z593" s="18"/>
     </row>
-    <row r="594" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="594" spans="1:26" ht="13.5" customHeight="1">
       <c r="A594" s="29"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
@@ -31601,7 +31613,7 @@
       <c r="Y594" s="18"/>
       <c r="Z594" s="18"/>
     </row>
-    <row r="595" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="595" spans="1:26" ht="13.5" customHeight="1">
       <c r="A595" s="29"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
@@ -31629,7 +31641,7 @@
       <c r="Y595" s="18"/>
       <c r="Z595" s="18"/>
     </row>
-    <row r="596" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="596" spans="1:26" ht="13.5" customHeight="1">
       <c r="A596" s="29"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
@@ -31657,7 +31669,7 @@
       <c r="Y596" s="18"/>
       <c r="Z596" s="18"/>
     </row>
-    <row r="597" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="597" spans="1:26" ht="13.5" customHeight="1">
       <c r="A597" s="29"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
@@ -31685,7 +31697,7 @@
       <c r="Y597" s="18"/>
       <c r="Z597" s="18"/>
     </row>
-    <row r="598" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="598" spans="1:26" ht="13.5" customHeight="1">
       <c r="A598" s="29"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
@@ -31713,7 +31725,7 @@
       <c r="Y598" s="18"/>
       <c r="Z598" s="18"/>
     </row>
-    <row r="599" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="599" spans="1:26" ht="13.5" customHeight="1">
       <c r="A599" s="29"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
@@ -31741,7 +31753,7 @@
       <c r="Y599" s="18"/>
       <c r="Z599" s="18"/>
     </row>
-    <row r="600" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="600" spans="1:26" ht="13.5" customHeight="1">
       <c r="A600" s="29"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
@@ -31769,7 +31781,7 @@
       <c r="Y600" s="18"/>
       <c r="Z600" s="18"/>
     </row>
-    <row r="601" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="601" spans="1:26" ht="13.5" customHeight="1">
       <c r="A601" s="29"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
@@ -31797,7 +31809,7 @@
       <c r="Y601" s="18"/>
       <c r="Z601" s="18"/>
     </row>
-    <row r="602" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="602" spans="1:26" ht="13.5" customHeight="1">
       <c r="A602" s="29"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
@@ -31825,7 +31837,7 @@
       <c r="Y602" s="18"/>
       <c r="Z602" s="18"/>
     </row>
-    <row r="603" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="603" spans="1:26" ht="13.5" customHeight="1">
       <c r="A603" s="29"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
@@ -31853,7 +31865,7 @@
       <c r="Y603" s="18"/>
       <c r="Z603" s="18"/>
     </row>
-    <row r="604" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="604" spans="1:26" ht="13.5" customHeight="1">
       <c r="A604" s="29"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
@@ -31881,7 +31893,7 @@
       <c r="Y604" s="18"/>
       <c r="Z604" s="18"/>
     </row>
-    <row r="605" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="605" spans="1:26" ht="13.5" customHeight="1">
       <c r="A605" s="29"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
@@ -31909,7 +31921,7 @@
       <c r="Y605" s="18"/>
       <c r="Z605" s="18"/>
     </row>
-    <row r="606" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="606" spans="1:26" ht="13.5" customHeight="1">
       <c r="A606" s="29"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
@@ -31937,7 +31949,7 @@
       <c r="Y606" s="18"/>
       <c r="Z606" s="18"/>
     </row>
-    <row r="607" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="607" spans="1:26" ht="13.5" customHeight="1">
       <c r="A607" s="29"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
@@ -31965,7 +31977,7 @@
       <c r="Y607" s="18"/>
       <c r="Z607" s="18"/>
     </row>
-    <row r="608" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="608" spans="1:26" ht="13.5" customHeight="1">
       <c r="A608" s="29"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
@@ -31993,7 +32005,7 @@
       <c r="Y608" s="18"/>
       <c r="Z608" s="18"/>
     </row>
-    <row r="609" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="609" spans="1:26" ht="13.5" customHeight="1">
       <c r="A609" s="29"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
@@ -32021,7 +32033,7 @@
       <c r="Y609" s="18"/>
       <c r="Z609" s="18"/>
     </row>
-    <row r="610" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="610" spans="1:26" ht="13.5" customHeight="1">
       <c r="A610" s="29"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
@@ -32049,7 +32061,7 @@
       <c r="Y610" s="18"/>
       <c r="Z610" s="18"/>
     </row>
-    <row r="611" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="611" spans="1:26" ht="13.5" customHeight="1">
       <c r="A611" s="29"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
@@ -32077,7 +32089,7 @@
       <c r="Y611" s="18"/>
       <c r="Z611" s="18"/>
     </row>
-    <row r="612" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="612" spans="1:26" ht="13.5" customHeight="1">
       <c r="A612" s="29"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
@@ -32105,7 +32117,7 @@
       <c r="Y612" s="18"/>
       <c r="Z612" s="18"/>
     </row>
-    <row r="613" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="613" spans="1:26" ht="13.5" customHeight="1">
       <c r="A613" s="29"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
@@ -32133,7 +32145,7 @@
       <c r="Y613" s="18"/>
       <c r="Z613" s="18"/>
     </row>
-    <row r="614" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="614" spans="1:26" ht="13.5" customHeight="1">
       <c r="A614" s="29"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
@@ -32161,7 +32173,7 @@
       <c r="Y614" s="18"/>
       <c r="Z614" s="18"/>
     </row>
-    <row r="615" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="615" spans="1:26" ht="13.5" customHeight="1">
       <c r="A615" s="29"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
@@ -32189,7 +32201,7 @@
       <c r="Y615" s="18"/>
       <c r="Z615" s="18"/>
     </row>
-    <row r="616" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="616" spans="1:26" ht="13.5" customHeight="1">
       <c r="A616" s="29"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
@@ -32217,7 +32229,7 @@
       <c r="Y616" s="18"/>
       <c r="Z616" s="18"/>
     </row>
-    <row r="617" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="617" spans="1:26" ht="13.5" customHeight="1">
       <c r="A617" s="29"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
@@ -32245,7 +32257,7 @@
       <c r="Y617" s="18"/>
       <c r="Z617" s="18"/>
     </row>
-    <row r="618" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="618" spans="1:26" ht="13.5" customHeight="1">
       <c r="A618" s="29"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
@@ -32273,7 +32285,7 @@
       <c r="Y618" s="18"/>
       <c r="Z618" s="18"/>
     </row>
-    <row r="619" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="619" spans="1:26" ht="13.5" customHeight="1">
       <c r="A619" s="29"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
@@ -32301,7 +32313,7 @@
       <c r="Y619" s="18"/>
       <c r="Z619" s="18"/>
     </row>
-    <row r="620" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="620" spans="1:26" ht="13.5" customHeight="1">
       <c r="A620" s="29"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
@@ -32329,7 +32341,7 @@
       <c r="Y620" s="18"/>
       <c r="Z620" s="18"/>
     </row>
-    <row r="621" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="621" spans="1:26" ht="13.5" customHeight="1">
       <c r="A621" s="29"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
@@ -32357,7 +32369,7 @@
       <c r="Y621" s="18"/>
       <c r="Z621" s="18"/>
     </row>
-    <row r="622" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="622" spans="1:26" ht="13.5" customHeight="1">
       <c r="A622" s="29"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
@@ -32385,7 +32397,7 @@
       <c r="Y622" s="18"/>
       <c r="Z622" s="18"/>
     </row>
-    <row r="623" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="623" spans="1:26" ht="13.5" customHeight="1">
       <c r="A623" s="29"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
@@ -32413,7 +32425,7 @@
       <c r="Y623" s="18"/>
       <c r="Z623" s="18"/>
     </row>
-    <row r="624" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="624" spans="1:26" ht="13.5" customHeight="1">
       <c r="A624" s="29"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
@@ -32441,7 +32453,7 @@
       <c r="Y624" s="18"/>
       <c r="Z624" s="18"/>
     </row>
-    <row r="625" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="625" spans="1:26" ht="13.5" customHeight="1">
       <c r="A625" s="29"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
@@ -32469,7 +32481,7 @@
       <c r="Y625" s="18"/>
       <c r="Z625" s="18"/>
     </row>
-    <row r="626" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="626" spans="1:26" ht="13.5" customHeight="1">
       <c r="A626" s="29"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
@@ -32497,7 +32509,7 @@
       <c r="Y626" s="18"/>
       <c r="Z626" s="18"/>
     </row>
-    <row r="627" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="627" spans="1:26" ht="13.5" customHeight="1">
       <c r="A627" s="29"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
@@ -32525,7 +32537,7 @@
       <c r="Y627" s="18"/>
       <c r="Z627" s="18"/>
     </row>
-    <row r="628" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="628" spans="1:26" ht="13.5" customHeight="1">
       <c r="A628" s="29"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
@@ -32553,7 +32565,7 @@
       <c r="Y628" s="18"/>
       <c r="Z628" s="18"/>
     </row>
-    <row r="629" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="629" spans="1:26" ht="13.5" customHeight="1">
       <c r="A629" s="29"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
@@ -32581,7 +32593,7 @@
       <c r="Y629" s="18"/>
       <c r="Z629" s="18"/>
     </row>
-    <row r="630" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="630" spans="1:26" ht="13.5" customHeight="1">
       <c r="A630" s="29"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
@@ -32609,7 +32621,7 @@
       <c r="Y630" s="18"/>
       <c r="Z630" s="18"/>
     </row>
-    <row r="631" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="631" spans="1:26" ht="13.5" customHeight="1">
       <c r="A631" s="29"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
@@ -32637,7 +32649,7 @@
       <c r="Y631" s="18"/>
       <c r="Z631" s="18"/>
     </row>
-    <row r="632" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="632" spans="1:26" ht="13.5" customHeight="1">
       <c r="A632" s="29"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
@@ -32665,7 +32677,7 @@
       <c r="Y632" s="18"/>
       <c r="Z632" s="18"/>
     </row>
-    <row r="633" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="633" spans="1:26" ht="13.5" customHeight="1">
       <c r="A633" s="29"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
@@ -32693,7 +32705,7 @@
       <c r="Y633" s="18"/>
       <c r="Z633" s="18"/>
     </row>
-    <row r="634" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="634" spans="1:26" ht="13.5" customHeight="1">
       <c r="A634" s="29"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
@@ -32721,7 +32733,7 @@
       <c r="Y634" s="18"/>
       <c r="Z634" s="18"/>
     </row>
-    <row r="635" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="635" spans="1:26" ht="13.5" customHeight="1">
       <c r="A635" s="29"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
@@ -32749,7 +32761,7 @@
       <c r="Y635" s="18"/>
       <c r="Z635" s="18"/>
     </row>
-    <row r="636" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="636" spans="1:26" ht="13.5" customHeight="1">
       <c r="A636" s="29"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
@@ -32777,7 +32789,7 @@
       <c r="Y636" s="18"/>
       <c r="Z636" s="18"/>
     </row>
-    <row r="637" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="637" spans="1:26" ht="13.5" customHeight="1">
       <c r="A637" s="29"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
@@ -32805,7 +32817,7 @@
       <c r="Y637" s="18"/>
       <c r="Z637" s="18"/>
     </row>
-    <row r="638" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="638" spans="1:26" ht="13.5" customHeight="1">
       <c r="A638" s="29"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
@@ -32833,7 +32845,7 @@
       <c r="Y638" s="18"/>
       <c r="Z638" s="18"/>
     </row>
-    <row r="639" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="639" spans="1:26" ht="13.5" customHeight="1">
       <c r="A639" s="29"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
@@ -32861,7 +32873,7 @@
       <c r="Y639" s="18"/>
       <c r="Z639" s="18"/>
     </row>
-    <row r="640" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="640" spans="1:26" ht="13.5" customHeight="1">
       <c r="A640" s="29"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
@@ -32889,7 +32901,7 @@
       <c r="Y640" s="18"/>
       <c r="Z640" s="18"/>
     </row>
-    <row r="641" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="641" spans="1:26" ht="13.5" customHeight="1">
       <c r="A641" s="29"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
@@ -32917,7 +32929,7 @@
       <c r="Y641" s="18"/>
       <c r="Z641" s="18"/>
     </row>
-    <row r="642" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="642" spans="1:26" ht="13.5" customHeight="1">
       <c r="A642" s="29"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
@@ -32945,7 +32957,7 @@
       <c r="Y642" s="18"/>
       <c r="Z642" s="18"/>
     </row>
-    <row r="643" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="643" spans="1:26" ht="13.5" customHeight="1">
       <c r="A643" s="29"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
@@ -32973,7 +32985,7 @@
       <c r="Y643" s="18"/>
       <c r="Z643" s="18"/>
     </row>
-    <row r="644" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="644" spans="1:26" ht="13.5" customHeight="1">
       <c r="A644" s="29"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
@@ -33001,7 +33013,7 @@
       <c r="Y644" s="18"/>
       <c r="Z644" s="18"/>
     </row>
-    <row r="645" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="645" spans="1:26" ht="13.5" customHeight="1">
       <c r="A645" s="29"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
@@ -33029,7 +33041,7 @@
       <c r="Y645" s="18"/>
       <c r="Z645" s="18"/>
     </row>
-    <row r="646" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="646" spans="1:26" ht="13.5" customHeight="1">
       <c r="A646" s="29"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
@@ -33057,7 +33069,7 @@
       <c r="Y646" s="18"/>
       <c r="Z646" s="18"/>
     </row>
-    <row r="647" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="647" spans="1:26" ht="13.5" customHeight="1">
       <c r="A647" s="29"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
@@ -33085,7 +33097,7 @@
       <c r="Y647" s="18"/>
       <c r="Z647" s="18"/>
     </row>
-    <row r="648" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="648" spans="1:26" ht="13.5" customHeight="1">
       <c r="A648" s="29"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
@@ -33113,7 +33125,7 @@
       <c r="Y648" s="18"/>
       <c r="Z648" s="18"/>
     </row>
-    <row r="649" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="649" spans="1:26" ht="13.5" customHeight="1">
       <c r="A649" s="29"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
@@ -33141,7 +33153,7 @@
       <c r="Y649" s="18"/>
       <c r="Z649" s="18"/>
     </row>
-    <row r="650" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="650" spans="1:26" ht="13.5" customHeight="1">
       <c r="A650" s="29"/>
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
@@ -33169,7 +33181,7 @@
       <c r="Y650" s="18"/>
       <c r="Z650" s="18"/>
     </row>
-    <row r="651" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="651" spans="1:26" ht="13.5" customHeight="1">
       <c r="A651" s="29"/>
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
@@ -33197,7 +33209,7 @@
       <c r="Y651" s="18"/>
       <c r="Z651" s="18"/>
     </row>
-    <row r="652" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="652" spans="1:26" ht="13.5" customHeight="1">
       <c r="A652" s="29"/>
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
@@ -33225,7 +33237,7 @@
       <c r="Y652" s="18"/>
       <c r="Z652" s="18"/>
     </row>
-    <row r="653" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="653" spans="1:26" ht="13.5" customHeight="1">
       <c r="A653" s="29"/>
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
@@ -33253,7 +33265,7 @@
       <c r="Y653" s="18"/>
       <c r="Z653" s="18"/>
     </row>
-    <row r="654" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="654" spans="1:26" ht="13.5" customHeight="1">
       <c r="A654" s="29"/>
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
@@ -33281,7 +33293,7 @@
       <c r="Y654" s="18"/>
       <c r="Z654" s="18"/>
     </row>
-    <row r="655" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="655" spans="1:26" ht="13.5" customHeight="1">
       <c r="A655" s="29"/>
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
@@ -33309,7 +33321,7 @@
       <c r="Y655" s="18"/>
       <c r="Z655" s="18"/>
     </row>
-    <row r="656" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="656" spans="1:26" ht="13.5" customHeight="1">
       <c r="A656" s="29"/>
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
@@ -33337,7 +33349,7 @@
       <c r="Y656" s="18"/>
       <c r="Z656" s="18"/>
     </row>
-    <row r="657" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="657" spans="1:26" ht="13.5" customHeight="1">
       <c r="A657" s="29"/>
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
@@ -33365,7 +33377,7 @@
       <c r="Y657" s="18"/>
       <c r="Z657" s="18"/>
     </row>
-    <row r="658" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="658" spans="1:26" ht="13.5" customHeight="1">
       <c r="A658" s="29"/>
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
@@ -33393,7 +33405,7 @@
       <c r="Y658" s="18"/>
       <c r="Z658" s="18"/>
     </row>
-    <row r="659" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="659" spans="1:26" ht="13.5" customHeight="1">
       <c r="A659" s="29"/>
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
@@ -33421,7 +33433,7 @@
       <c r="Y659" s="18"/>
       <c r="Z659" s="18"/>
     </row>
-    <row r="660" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="660" spans="1:26" ht="13.5" customHeight="1">
       <c r="A660" s="29"/>
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
@@ -33449,7 +33461,7 @@
       <c r="Y660" s="18"/>
       <c r="Z660" s="18"/>
     </row>
-    <row r="661" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="661" spans="1:26" ht="13.5" customHeight="1">
       <c r="A661" s="29"/>
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
@@ -33477,7 +33489,7 @@
       <c r="Y661" s="18"/>
       <c r="Z661" s="18"/>
     </row>
-    <row r="662" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="662" spans="1:26" ht="13.5" customHeight="1">
       <c r="A662" s="29"/>
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
@@ -33505,7 +33517,7 @@
       <c r="Y662" s="18"/>
       <c r="Z662" s="18"/>
     </row>
-    <row r="663" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="663" spans="1:26" ht="13.5" customHeight="1">
       <c r="A663" s="29"/>
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
@@ -33533,7 +33545,7 @@
       <c r="Y663" s="18"/>
       <c r="Z663" s="18"/>
     </row>
-    <row r="664" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="664" spans="1:26" ht="13.5" customHeight="1">
       <c r="A664" s="29"/>
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
@@ -33561,7 +33573,7 @@
       <c r="Y664" s="18"/>
       <c r="Z664" s="18"/>
     </row>
-    <row r="665" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="665" spans="1:26" ht="13.5" customHeight="1">
       <c r="A665" s="29"/>
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
@@ -33589,7 +33601,7 @@
       <c r="Y665" s="18"/>
       <c r="Z665" s="18"/>
     </row>
-    <row r="666" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="666" spans="1:26" ht="13.5" customHeight="1">
       <c r="A666" s="29"/>
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
@@ -33617,7 +33629,7 @@
       <c r="Y666" s="18"/>
       <c r="Z666" s="18"/>
     </row>
-    <row r="667" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="667" spans="1:26" ht="13.5" customHeight="1">
       <c r="A667" s="29"/>
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
@@ -33645,7 +33657,7 @@
       <c r="Y667" s="18"/>
       <c r="Z667" s="18"/>
     </row>
-    <row r="668" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="668" spans="1:26" ht="13.5" customHeight="1">
       <c r="A668" s="29"/>
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
@@ -33673,7 +33685,7 @@
       <c r="Y668" s="18"/>
       <c r="Z668" s="18"/>
     </row>
-    <row r="669" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="669" spans="1:26" ht="13.5" customHeight="1">
       <c r="A669" s="29"/>
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
@@ -33701,7 +33713,7 @@
       <c r="Y669" s="18"/>
       <c r="Z669" s="18"/>
     </row>
-    <row r="670" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="670" spans="1:26" ht="13.5" customHeight="1">
       <c r="A670" s="29"/>
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
@@ -33729,7 +33741,7 @@
       <c r="Y670" s="18"/>
       <c r="Z670" s="18"/>
     </row>
-    <row r="671" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="671" spans="1:26" ht="13.5" customHeight="1">
       <c r="A671" s="29"/>
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
@@ -33757,7 +33769,7 @@
       <c r="Y671" s="18"/>
       <c r="Z671" s="18"/>
     </row>
-    <row r="672" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="672" spans="1:26" ht="13.5" customHeight="1">
       <c r="A672" s="29"/>
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
@@ -33785,7 +33797,7 @@
       <c r="Y672" s="18"/>
       <c r="Z672" s="18"/>
     </row>
-    <row r="673" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="673" spans="1:26" ht="13.5" customHeight="1">
       <c r="A673" s="29"/>
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
@@ -33813,7 +33825,7 @@
       <c r="Y673" s="18"/>
       <c r="Z673" s="18"/>
     </row>
-    <row r="674" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="674" spans="1:26" ht="13.5" customHeight="1">
       <c r="A674" s="29"/>
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
@@ -33841,7 +33853,7 @@
       <c r="Y674" s="18"/>
       <c r="Z674" s="18"/>
     </row>
-    <row r="675" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="675" spans="1:26" ht="13.5" customHeight="1">
       <c r="A675" s="29"/>
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
@@ -33869,7 +33881,7 @@
       <c r="Y675" s="18"/>
       <c r="Z675" s="18"/>
     </row>
-    <row r="676" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="676" spans="1:26" ht="13.5" customHeight="1">
       <c r="A676" s="29"/>
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
@@ -33897,7 +33909,7 @@
       <c r="Y676" s="18"/>
       <c r="Z676" s="18"/>
     </row>
-    <row r="677" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="677" spans="1:26" ht="13.5" customHeight="1">
       <c r="A677" s="29"/>
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
@@ -33925,7 +33937,7 @@
       <c r="Y677" s="18"/>
       <c r="Z677" s="18"/>
     </row>
-    <row r="678" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="678" spans="1:26" ht="13.5" customHeight="1">
       <c r="A678" s="29"/>
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
@@ -33953,7 +33965,7 @@
       <c r="Y678" s="18"/>
       <c r="Z678" s="18"/>
     </row>
-    <row r="679" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="679" spans="1:26" ht="13.5" customHeight="1">
       <c r="A679" s="29"/>
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
@@ -33981,7 +33993,7 @@
       <c r="Y679" s="18"/>
       <c r="Z679" s="18"/>
     </row>
-    <row r="680" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="680" spans="1:26" ht="13.5" customHeight="1">
       <c r="A680" s="29"/>
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
@@ -34009,7 +34021,7 @@
       <c r="Y680" s="18"/>
       <c r="Z680" s="18"/>
     </row>
-    <row r="681" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="681" spans="1:26" ht="13.5" customHeight="1">
       <c r="A681" s="29"/>
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
@@ -34037,7 +34049,7 @@
       <c r="Y681" s="18"/>
       <c r="Z681" s="18"/>
     </row>
-    <row r="682" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="682" spans="1:26" ht="13.5" customHeight="1">
       <c r="A682" s="29"/>
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
@@ -34065,7 +34077,7 @@
       <c r="Y682" s="18"/>
       <c r="Z682" s="18"/>
     </row>
-    <row r="683" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="683" spans="1:26" ht="13.5" customHeight="1">
       <c r="A683" s="29"/>
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
@@ -34093,7 +34105,7 @@
       <c r="Y683" s="18"/>
       <c r="Z683" s="18"/>
     </row>
-    <row r="684" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="684" spans="1:26" ht="13.5" customHeight="1">
       <c r="A684" s="29"/>
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
@@ -34121,7 +34133,7 @@
       <c r="Y684" s="18"/>
       <c r="Z684" s="18"/>
     </row>
-    <row r="685" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="685" spans="1:26" ht="13.5" customHeight="1">
       <c r="A685" s="29"/>
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
@@ -34149,7 +34161,7 @@
       <c r="Y685" s="18"/>
       <c r="Z685" s="18"/>
     </row>
-    <row r="686" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="686" spans="1:26" ht="13.5" customHeight="1">
       <c r="A686" s="29"/>
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
@@ -34177,7 +34189,7 @@
       <c r="Y686" s="18"/>
       <c r="Z686" s="18"/>
     </row>
-    <row r="687" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="687" spans="1:26" ht="13.5" customHeight="1">
       <c r="A687" s="29"/>
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
@@ -34205,7 +34217,7 @@
       <c r="Y687" s="18"/>
       <c r="Z687" s="18"/>
     </row>
-    <row r="688" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="688" spans="1:26" ht="13.5" customHeight="1">
       <c r="A688" s="29"/>
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
@@ -34233,7 +34245,7 @@
       <c r="Y688" s="18"/>
       <c r="Z688" s="18"/>
     </row>
-    <row r="689" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="689" spans="1:26" ht="13.5" customHeight="1">
       <c r="A689" s="29"/>
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
@@ -34261,7 +34273,7 @@
       <c r="Y689" s="18"/>
       <c r="Z689" s="18"/>
     </row>
-    <row r="690" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="690" spans="1:26" ht="13.5" customHeight="1">
       <c r="A690" s="29"/>
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
@@ -34289,7 +34301,7 @@
       <c r="Y690" s="18"/>
       <c r="Z690" s="18"/>
     </row>
-    <row r="691" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="691" spans="1:26" ht="13.5" customHeight="1">
       <c r="A691" s="29"/>
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
@@ -34317,7 +34329,7 @@
       <c r="Y691" s="18"/>
       <c r="Z691" s="18"/>
     </row>
-    <row r="692" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="692" spans="1:26" ht="13.5" customHeight="1">
       <c r="A692" s="29"/>
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
@@ -34345,7 +34357,7 @@
       <c r="Y692" s="18"/>
       <c r="Z692" s="18"/>
     </row>
-    <row r="693" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="693" spans="1:26" ht="13.5" customHeight="1">
       <c r="A693" s="29"/>
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
@@ -34373,7 +34385,7 @@
       <c r="Y693" s="18"/>
       <c r="Z693" s="18"/>
     </row>
-    <row r="694" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="694" spans="1:26" ht="13.5" customHeight="1">
       <c r="A694" s="29"/>
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
@@ -34401,7 +34413,7 @@
       <c r="Y694" s="18"/>
       <c r="Z694" s="18"/>
     </row>
-    <row r="695" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="695" spans="1:26" ht="13.5" customHeight="1">
       <c r="A695" s="29"/>
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
@@ -34429,7 +34441,7 @@
       <c r="Y695" s="18"/>
       <c r="Z695" s="18"/>
     </row>
-    <row r="696" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="696" spans="1:26" ht="13.5" customHeight="1">
       <c r="A696" s="29"/>
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
@@ -34457,7 +34469,7 @@
       <c r="Y696" s="18"/>
       <c r="Z696" s="18"/>
     </row>
-    <row r="697" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="697" spans="1:26" ht="13.5" customHeight="1">
       <c r="A697" s="29"/>
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
@@ -34485,7 +34497,7 @@
       <c r="Y697" s="18"/>
       <c r="Z697" s="18"/>
     </row>
-    <row r="698" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="698" spans="1:26" ht="13.5" customHeight="1">
       <c r="A698" s="29"/>
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
@@ -34513,7 +34525,7 @@
       <c r="Y698" s="18"/>
       <c r="Z698" s="18"/>
     </row>
-    <row r="699" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="699" spans="1:26" ht="13.5" customHeight="1">
       <c r="A699" s="29"/>
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
@@ -34541,7 +34553,7 @@
       <c r="Y699" s="18"/>
       <c r="Z699" s="18"/>
     </row>
-    <row r="700" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="700" spans="1:26" ht="13.5" customHeight="1">
       <c r="A700" s="29"/>
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
@@ -34569,7 +34581,7 @@
       <c r="Y700" s="18"/>
       <c r="Z700" s="18"/>
     </row>
-    <row r="701" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="701" spans="1:26" ht="13.5" customHeight="1">
       <c r="A701" s="29"/>
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
@@ -34597,7 +34609,7 @@
       <c r="Y701" s="18"/>
       <c r="Z701" s="18"/>
     </row>
-    <row r="702" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="702" spans="1:26" ht="13.5" customHeight="1">
       <c r="A702" s="29"/>
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
@@ -34625,7 +34637,7 @@
       <c r="Y702" s="18"/>
       <c r="Z702" s="18"/>
     </row>
-    <row r="703" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="703" spans="1:26" ht="13.5" customHeight="1">
       <c r="A703" s="29"/>
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
@@ -34653,7 +34665,7 @@
       <c r="Y703" s="18"/>
       <c r="Z703" s="18"/>
     </row>
-    <row r="704" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="704" spans="1:26" ht="13.5" customHeight="1">
       <c r="A704" s="29"/>
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
@@ -34681,7 +34693,7 @@
       <c r="Y704" s="18"/>
       <c r="Z704" s="18"/>
     </row>
-    <row r="705" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="705" spans="1:26" ht="13.5" customHeight="1">
       <c r="A705" s="29"/>
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
@@ -34709,7 +34721,7 @@
       <c r="Y705" s="18"/>
       <c r="Z705" s="18"/>
     </row>
-    <row r="706" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="706" spans="1:26" ht="13.5" customHeight="1">
       <c r="A706" s="29"/>
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
@@ -34737,7 +34749,7 @@
       <c r="Y706" s="18"/>
       <c r="Z706" s="18"/>
     </row>
-    <row r="707" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="707" spans="1:26" ht="13.5" customHeight="1">
       <c r="A707" s="29"/>
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
@@ -34765,7 +34777,7 @@
       <c r="Y707" s="18"/>
       <c r="Z707" s="18"/>
     </row>
-    <row r="708" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="708" spans="1:26" ht="13.5" customHeight="1">
       <c r="A708" s="29"/>
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
@@ -34793,7 +34805,7 @@
       <c r="Y708" s="18"/>
       <c r="Z708" s="18"/>
     </row>
-    <row r="709" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="709" spans="1:26" ht="13.5" customHeight="1">
       <c r="A709" s="29"/>
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
@@ -34821,7 +34833,7 @@
       <c r="Y709" s="18"/>
       <c r="Z709" s="18"/>
     </row>
-    <row r="710" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="710" spans="1:26" ht="13.5" customHeight="1">
       <c r="A710" s="29"/>
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
@@ -34849,7 +34861,7 @@
       <c r="Y710" s="18"/>
       <c r="Z710" s="18"/>
     </row>
-    <row r="711" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="711" spans="1:26" ht="13.5" customHeight="1">
       <c r="A711" s="29"/>
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
@@ -34877,7 +34889,7 @@
       <c r="Y711" s="18"/>
       <c r="Z711" s="18"/>
     </row>
-    <row r="712" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="712" spans="1:26" ht="13.5" customHeight="1">
       <c r="A712" s="29"/>
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
@@ -34905,7 +34917,7 @@
       <c r="Y712" s="18"/>
       <c r="Z712" s="18"/>
     </row>
-    <row r="713" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="713" spans="1:26" ht="13.5" customHeight="1">
       <c r="A713" s="29"/>
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
@@ -34933,7 +34945,7 @@
       <c r="Y713" s="18"/>
       <c r="Z713" s="18"/>
     </row>
-    <row r="714" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="714" spans="1:26" ht="13.5" customHeight="1">
       <c r="A714" s="29"/>
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
@@ -34961,7 +34973,7 @@
       <c r="Y714" s="18"/>
       <c r="Z714" s="18"/>
     </row>
-    <row r="715" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="715" spans="1:26" ht="13.5" customHeight="1">
       <c r="A715" s="29"/>
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
@@ -34989,7 +35001,7 @@
       <c r="Y715" s="18"/>
       <c r="Z715" s="18"/>
     </row>
-    <row r="716" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="716" spans="1:26" ht="13.5" customHeight="1">
       <c r="A716" s="29"/>
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
@@ -35017,7 +35029,7 @@
       <c r="Y716" s="18"/>
       <c r="Z716" s="18"/>
     </row>
-    <row r="717" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="717" spans="1:26" ht="13.5" customHeight="1">
       <c r="A717" s="29"/>
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
@@ -35045,7 +35057,7 @@
       <c r="Y717" s="18"/>
       <c r="Z717" s="18"/>
     </row>
-    <row r="718" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="718" spans="1:26" ht="13.5" customHeight="1">
       <c r="A718" s="29"/>
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
@@ -35073,7 +35085,7 @@
       <c r="Y718" s="18"/>
       <c r="Z718" s="18"/>
     </row>
-    <row r="719" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="719" spans="1:26" ht="13.5" customHeight="1">
       <c r="A719" s="29"/>
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
@@ -35101,7 +35113,7 @@
       <c r="Y719" s="18"/>
       <c r="Z719" s="18"/>
     </row>
-    <row r="720" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="720" spans="1:26" ht="13.5" customHeight="1">
       <c r="A720" s="29"/>
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
@@ -35129,7 +35141,7 @@
       <c r="Y720" s="18"/>
       <c r="Z720" s="18"/>
     </row>
-    <row r="721" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="721" spans="1:26" ht="13.5" customHeight="1">
       <c r="A721" s="29"/>
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
@@ -35157,7 +35169,7 @@
       <c r="Y721" s="18"/>
       <c r="Z721" s="18"/>
     </row>
-    <row r="722" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="722" spans="1:26" ht="13.5" customHeight="1">
       <c r="A722" s="29"/>
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
@@ -35185,7 +35197,7 @@
       <c r="Y722" s="18"/>
       <c r="Z722" s="18"/>
     </row>
-    <row r="723" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="723" spans="1:26" ht="13.5" customHeight="1">
       <c r="A723" s="29"/>
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
@@ -35213,7 +35225,7 @@
       <c r="Y723" s="18"/>
       <c r="Z723" s="18"/>
     </row>
-    <row r="724" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="724" spans="1:26" ht="13.5" customHeight="1">
       <c r="A724" s="29"/>
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
@@ -35241,7 +35253,7 @@
       <c r="Y724" s="18"/>
       <c r="Z724" s="18"/>
     </row>
-    <row r="725" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="725" spans="1:26" ht="13.5" customHeight="1">
       <c r="A725" s="29"/>
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
@@ -35269,7 +35281,7 @@
       <c r="Y725" s="18"/>
       <c r="Z725" s="18"/>
     </row>
-    <row r="726" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="726" spans="1:26" ht="13.5" customHeight="1">
       <c r="A726" s="29"/>
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
@@ -35297,7 +35309,7 @@
       <c r="Y726" s="18"/>
       <c r="Z726" s="18"/>
     </row>
-    <row r="727" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="727" spans="1:26" ht="13.5" customHeight="1">
       <c r="A727" s="29"/>
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
@@ -35325,7 +35337,7 @@
       <c r="Y727" s="18"/>
       <c r="Z727" s="18"/>
     </row>
-    <row r="728" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="728" spans="1:26" ht="13.5" customHeight="1">
       <c r="A728" s="29"/>
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
@@ -35353,7 +35365,7 @@
       <c r="Y728" s="18"/>
       <c r="Z728" s="18"/>
     </row>
-    <row r="729" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="729" spans="1:26" ht="13.5" customHeight="1">
       <c r="A729" s="29"/>
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
@@ -35381,7 +35393,7 @@
       <c r="Y729" s="18"/>
       <c r="Z729" s="18"/>
     </row>
-    <row r="730" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="730" spans="1:26" ht="13.5" customHeight="1">
       <c r="A730" s="29"/>
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
@@ -35409,7 +35421,7 @@
       <c r="Y730" s="18"/>
       <c r="Z730" s="18"/>
     </row>
-    <row r="731" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="731" spans="1:26" ht="13.5" customHeight="1">
       <c r="A731" s="29"/>
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
@@ -35437,7 +35449,7 @@
       <c r="Y731" s="18"/>
       <c r="Z731" s="18"/>
     </row>
-    <row r="732" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="732" spans="1:26" ht="13.5" customHeight="1">
       <c r="A732" s="29"/>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
@@ -35465,7 +35477,7 @@
       <c r="Y732" s="18"/>
       <c r="Z732" s="18"/>
     </row>
-    <row r="733" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="733" spans="1:26" ht="13.5" customHeight="1">
       <c r="A733" s="29"/>
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
@@ -35493,7 +35505,7 @@
       <c r="Y733" s="18"/>
       <c r="Z733" s="18"/>
     </row>
-    <row r="734" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="734" spans="1:26" ht="13.5" customHeight="1">
       <c r="A734" s="29"/>
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
@@ -35521,7 +35533,7 @@
       <c r="Y734" s="18"/>
       <c r="Z734" s="18"/>
     </row>
-    <row r="735" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="735" spans="1:26" ht="13.5" customHeight="1">
       <c r="A735" s="29"/>
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
@@ -35549,7 +35561,7 @@
       <c r="Y735" s="18"/>
       <c r="Z735" s="18"/>
     </row>
-    <row r="736" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="736" spans="1:26" ht="13.5" customHeight="1">
       <c r="A736" s="29"/>
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
@@ -35577,7 +35589,7 @@
       <c r="Y736" s="18"/>
       <c r="Z736" s="18"/>
     </row>
-    <row r="737" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="737" spans="1:26" ht="13.5" customHeight="1">
       <c r="A737" s="29"/>
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
@@ -35605,7 +35617,7 @@
       <c r="Y737" s="18"/>
       <c r="Z737" s="18"/>
     </row>
-    <row r="738" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="738" spans="1:26" ht="13.5" customHeight="1">
       <c r="A738" s="29"/>
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
@@ -35633,7 +35645,7 @@
       <c r="Y738" s="18"/>
       <c r="Z738" s="18"/>
     </row>
-    <row r="739" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="739" spans="1:26" ht="13.5" customHeight="1">
       <c r="A739" s="29"/>
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
@@ -35661,7 +35673,7 @@
       <c r="Y739" s="18"/>
       <c r="Z739" s="18"/>
     </row>
-    <row r="740" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="740" spans="1:26" ht="13.5" customHeight="1">
       <c r="A740" s="29"/>
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
@@ -35689,7 +35701,7 @@
       <c r="Y740" s="18"/>
       <c r="Z740" s="18"/>
     </row>
-    <row r="741" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="741" spans="1:26" ht="13.5" customHeight="1">
       <c r="A741" s="29"/>
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
@@ -35717,7 +35729,7 @@
       <c r="Y741" s="18"/>
       <c r="Z741" s="18"/>
     </row>
-    <row r="742" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="742" spans="1:26" ht="13.5" customHeight="1">
       <c r="A742" s="29"/>
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
@@ -35745,7 +35757,7 @@
       <c r="Y742" s="18"/>
       <c r="Z742" s="18"/>
     </row>
-    <row r="743" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="743" spans="1:26" ht="13.5" customHeight="1">
       <c r="A743" s="29"/>
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
@@ -35773,7 +35785,7 @@
       <c r="Y743" s="18"/>
       <c r="Z743" s="18"/>
     </row>
-    <row r="744" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="744" spans="1:26" ht="13.5" customHeight="1">
       <c r="A744" s="29"/>
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
@@ -35801,7 +35813,7 @@
       <c r="Y744" s="18"/>
       <c r="Z744" s="18"/>
     </row>
-    <row r="745" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="745" spans="1:26" ht="13.5" customHeight="1">
       <c r="A745" s="29"/>
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
@@ -35829,7 +35841,7 @@
       <c r="Y745" s="18"/>
       <c r="Z745" s="18"/>
     </row>
-    <row r="746" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="746" spans="1:26" ht="13.5" customHeight="1">
       <c r="A746" s="29"/>
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
@@ -35857,7 +35869,7 @@
       <c r="Y746" s="18"/>
       <c r="Z746" s="18"/>
     </row>
-    <row r="747" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="747" spans="1:26" ht="13.5" customHeight="1">
       <c r="A747" s="29"/>
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
@@ -35885,7 +35897,7 @@
       <c r="Y747" s="18"/>
       <c r="Z747" s="18"/>
     </row>
-    <row r="748" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="748" spans="1:26" ht="13.5" customHeight="1">
       <c r="A748" s="29"/>
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
@@ -35913,7 +35925,7 @@
       <c r="Y748" s="18"/>
       <c r="Z748" s="18"/>
     </row>
-    <row r="749" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="749" spans="1:26" ht="13.5" customHeight="1">
       <c r="A749" s="29"/>
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
@@ -35941,7 +35953,7 @@
       <c r="Y749" s="18"/>
       <c r="Z749" s="18"/>
     </row>
-    <row r="750" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="750" spans="1:26" ht="13.5" customHeight="1">
       <c r="A750" s="29"/>
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
@@ -35969,7 +35981,7 @@
       <c r="Y750" s="18"/>
       <c r="Z750" s="18"/>
     </row>
-    <row r="751" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="751" spans="1:26" ht="13.5" customHeight="1">
       <c r="A751" s="29"/>
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
@@ -35997,7 +36009,7 @@
       <c r="Y751" s="18"/>
       <c r="Z751" s="18"/>
     </row>
-    <row r="752" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="752" spans="1:26" ht="13.5" customHeight="1">
       <c r="A752" s="29"/>
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
@@ -36025,7 +36037,7 @@
       <c r="Y752" s="18"/>
       <c r="Z752" s="18"/>
     </row>
-    <row r="753" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="753" spans="1:26" ht="13.5" customHeight="1">
       <c r="A753" s="29"/>
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
@@ -36053,7 +36065,7 @@
       <c r="Y753" s="18"/>
       <c r="Z753" s="18"/>
     </row>
-    <row r="754" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="754" spans="1:26" ht="13.5" customHeight="1">
       <c r="A754" s="29"/>
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
@@ -36081,7 +36093,7 @@
       <c r="Y754" s="18"/>
       <c r="Z754" s="18"/>
     </row>
-    <row r="755" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="755" spans="1:26" ht="13.5" customHeight="1">
       <c r="A755" s="29"/>
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
@@ -36109,7 +36121,7 @@
       <c r="Y755" s="18"/>
       <c r="Z755" s="18"/>
     </row>
-    <row r="756" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="756" spans="1:26" ht="13.5" customHeight="1">
       <c r="A756" s="29"/>
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
@@ -36137,7 +36149,7 @@
       <c r="Y756" s="18"/>
       <c r="Z756" s="18"/>
     </row>
-    <row r="757" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="757" spans="1:26" ht="13.5" customHeight="1">
       <c r="A757" s="29"/>
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
@@ -36165,7 +36177,7 @@
       <c r="Y757" s="18"/>
       <c r="Z757" s="18"/>
     </row>
-    <row r="758" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="758" spans="1:26" ht="13.5" customHeight="1">
       <c r="A758" s="29"/>
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
@@ -36193,7 +36205,7 @@
       <c r="Y758" s="18"/>
       <c r="Z758" s="18"/>
     </row>
-    <row r="759" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="759" spans="1:26" ht="13.5" customHeight="1">
       <c r="A759" s="29"/>
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
@@ -36221,7 +36233,7 @@
       <c r="Y759" s="18"/>
       <c r="Z759" s="18"/>
     </row>
-    <row r="760" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="760" spans="1:26" ht="13.5" customHeight="1">
       <c r="A760" s="29"/>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
@@ -36249,7 +36261,7 @@
       <c r="Y760" s="18"/>
       <c r="Z760" s="18"/>
     </row>
-    <row r="761" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="761" spans="1:26" ht="13.5" customHeight="1">
       <c r="A761" s="29"/>
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
@@ -36277,7 +36289,7 @@
       <c r="Y761" s="18"/>
       <c r="Z761" s="18"/>
     </row>
-    <row r="762" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="762" spans="1:26" ht="13.5" customHeight="1">
       <c r="A762" s="29"/>
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
@@ -36305,7 +36317,7 @@
       <c r="Y762" s="18"/>
       <c r="Z762" s="18"/>
     </row>
-    <row r="763" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="763" spans="1:26" ht="13.5" customHeight="1">
       <c r="A763" s="29"/>
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
@@ -36333,7 +36345,7 @@
       <c r="Y763" s="18"/>
       <c r="Z763" s="18"/>
     </row>
-    <row r="764" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="764" spans="1:26" ht="13.5" customHeight="1">
       <c r="A764" s="29"/>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
@@ -36361,7 +36373,7 @@
       <c r="Y764" s="18"/>
       <c r="Z764" s="18"/>
     </row>
-    <row r="765" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="765" spans="1:26" ht="13.5" customHeight="1">
       <c r="A765" s="29"/>
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
@@ -36389,7 +36401,7 @@
       <c r="Y765" s="18"/>
       <c r="Z765" s="18"/>
     </row>
-    <row r="766" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="766" spans="1:26" ht="13.5" customHeight="1">
       <c r="A766" s="29"/>
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
@@ -36417,7 +36429,7 @@
       <c r="Y766" s="18"/>
       <c r="Z766" s="18"/>
     </row>
-    <row r="767" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="767" spans="1:26" ht="13.5" customHeight="1">
       <c r="A767" s="29"/>
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
@@ -36445,7 +36457,7 @@
       <c r="Y767" s="18"/>
       <c r="Z767" s="18"/>
     </row>
-    <row r="768" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="768" spans="1:26" ht="13.5" customHeight="1">
       <c r="A768" s="29"/>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
@@ -36473,7 +36485,7 @@
       <c r="Y768" s="18"/>
       <c r="Z768" s="18"/>
     </row>
-    <row r="769" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="769" spans="1:26" ht="13.5" customHeight="1">
       <c r="A769" s="29"/>
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
@@ -36501,7 +36513,7 @@
       <c r="Y769" s="18"/>
       <c r="Z769" s="18"/>
     </row>
-    <row r="770" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="770" spans="1:26" ht="13.5" customHeight="1">
       <c r="A770" s="29"/>
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
@@ -36529,7 +36541,7 @@
       <c r="Y770" s="18"/>
       <c r="Z770" s="18"/>
     </row>
-    <row r="771" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="771" spans="1:26" ht="13.5" customHeight="1">
       <c r="A771" s="29"/>
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
@@ -36557,7 +36569,7 @@
       <c r="Y771" s="18"/>
       <c r="Z771" s="18"/>
     </row>
-    <row r="772" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="772" spans="1:26" ht="13.5" customHeight="1">
       <c r="A772" s="29"/>
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
@@ -36585,7 +36597,7 @@
       <c r="Y772" s="18"/>
       <c r="Z772" s="18"/>
     </row>
-    <row r="773" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="773" spans="1:26" ht="13.5" customHeight="1">
       <c r="A773" s="29"/>
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
@@ -36613,7 +36625,7 @@
       <c r="Y773" s="18"/>
       <c r="Z773" s="18"/>
     </row>
-    <row r="774" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="774" spans="1:26" ht="13.5" customHeight="1">
       <c r="A774" s="29"/>
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
@@ -36641,7 +36653,7 @@
       <c r="Y774" s="18"/>
       <c r="Z774" s="18"/>
     </row>
-    <row r="775" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="775" spans="1:26" ht="13.5" customHeight="1">
       <c r="A775" s="29"/>
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
@@ -36669,7 +36681,7 @@
       <c r="Y775" s="18"/>
       <c r="Z775" s="18"/>
     </row>
-    <row r="776" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="776" spans="1:26" ht="13.5" customHeight="1">
       <c r="A776" s="29"/>
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
@@ -36697,7 +36709,7 @@
       <c r="Y776" s="18"/>
       <c r="Z776" s="18"/>
     </row>
-    <row r="777" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="777" spans="1:26" ht="13.5" customHeight="1">
       <c r="A777" s="29"/>
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
@@ -36725,7 +36737,7 @@
       <c r="Y777" s="18"/>
       <c r="Z777" s="18"/>
     </row>
-    <row r="778" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="778" spans="1:26" ht="13.5" customHeight="1">
       <c r="A778" s="29"/>
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
@@ -36753,7 +36765,7 @@
       <c r="Y778" s="18"/>
       <c r="Z778" s="18"/>
     </row>
-    <row r="779" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="779" spans="1:26" ht="13.5" customHeight="1">
       <c r="A779" s="29"/>
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
@@ -36781,7 +36793,7 @@
       <c r="Y779" s="18"/>
       <c r="Z779" s="18"/>
     </row>
-    <row r="780" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="780" spans="1:26" ht="13.5" customHeight="1">
       <c r="A780" s="29"/>
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
@@ -36809,7 +36821,7 @@
       <c r="Y780" s="18"/>
       <c r="Z780" s="18"/>
     </row>
-    <row r="781" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="781" spans="1:26" ht="13.5" customHeight="1">
       <c r="A781" s="29"/>
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
@@ -36837,7 +36849,7 @@
       <c r="Y781" s="18"/>
       <c r="Z781" s="18"/>
     </row>
-    <row r="782" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="782" spans="1:26" ht="13.5" customHeight="1">
       <c r="A782" s="29"/>
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
@@ -36865,7 +36877,7 @@
       <c r="Y782" s="18"/>
       <c r="Z782" s="18"/>
     </row>
-    <row r="783" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="783" spans="1:26" ht="13.5" customHeight="1">
       <c r="A783" s="29"/>
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
@@ -36893,7 +36905,7 @@
       <c r="Y783" s="18"/>
       <c r="Z783" s="18"/>
     </row>
-    <row r="784" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="784" spans="1:26" ht="13.5" customHeight="1">
       <c r="A784" s="29"/>
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
@@ -36921,7 +36933,7 @@
       <c r="Y784" s="18"/>
       <c r="Z784" s="18"/>
     </row>
-    <row r="785" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="785" spans="1:26" ht="13.5" customHeight="1">
       <c r="A785" s="29"/>
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
@@ -36949,7 +36961,7 @@
       <c r="Y785" s="18"/>
       <c r="Z785" s="18"/>
     </row>
-    <row r="786" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="786" spans="1:26" ht="13.5" customHeight="1">
       <c r="A786" s="29"/>
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
@@ -36977,7 +36989,7 @@
       <c r="Y786" s="18"/>
       <c r="Z786" s="18"/>
     </row>
-    <row r="787" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="787" spans="1:26" ht="13.5" customHeight="1">
       <c r="A787" s="29"/>
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
@@ -37005,7 +37017,7 @@
       <c r="Y787" s="18"/>
       <c r="Z787" s="18"/>
     </row>
-    <row r="788" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="788" spans="1:26" ht="13.5" customHeight="1">
       <c r="A788" s="29"/>
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
@@ -37033,7 +37045,7 @@
       <c r="Y788" s="18"/>
       <c r="Z788" s="18"/>
     </row>
-    <row r="789" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="789" spans="1:26" ht="13.5" customHeight="1">
       <c r="A789" s="29"/>
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
@@ -37061,7 +37073,7 @@
       <c r="Y789" s="18"/>
       <c r="Z789" s="18"/>
     </row>
-    <row r="790" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="790" spans="1:26" ht="13.5" customHeight="1">
       <c r="A790" s="29"/>
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
@@ -37089,7 +37101,7 @@
       <c r="Y790" s="18"/>
       <c r="Z790" s="18"/>
     </row>
-    <row r="791" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="791" spans="1:26" ht="13.5" customHeight="1">
       <c r="A791" s="29"/>
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
@@ -37117,7 +37129,7 @@
       <c r="Y791" s="18"/>
       <c r="Z791" s="18"/>
     </row>
-    <row r="792" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="792" spans="1:26" ht="13.5" customHeight="1">
       <c r="A792" s="29"/>
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
@@ -37145,7 +37157,7 @@
       <c r="Y792" s="18"/>
       <c r="Z792" s="18"/>
     </row>
-    <row r="793" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="793" spans="1:26" ht="13.5" customHeight="1">
       <c r="A793" s="29"/>
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
@@ -37173,7 +37185,7 @@
       <c r="Y793" s="18"/>
       <c r="Z793" s="18"/>
     </row>
-    <row r="794" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="794" spans="1:26" ht="13.5" customHeight="1">
       <c r="A794" s="29"/>
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
@@ -37201,7 +37213,7 @@
       <c r="Y794" s="18"/>
       <c r="Z794" s="18"/>
     </row>
-    <row r="795" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="795" spans="1:26" ht="13.5" customHeight="1">
       <c r="A795" s="29"/>
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
@@ -37229,7 +37241,7 @@
       <c r="Y795" s="18"/>
       <c r="Z795" s="18"/>
     </row>
-    <row r="796" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="796" spans="1:26" ht="13.5" customHeight="1">
       <c r="A796" s="29"/>
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
@@ -37257,7 +37269,7 @@
       <c r="Y796" s="18"/>
       <c r="Z796" s="18"/>
     </row>
-    <row r="797" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="797" spans="1:26" ht="13.5" customHeight="1">
       <c r="A797" s="29"/>
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
@@ -37285,7 +37297,7 @@
       <c r="Y797" s="18"/>
       <c r="Z797" s="18"/>
     </row>
-    <row r="798" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="798" spans="1:26" ht="13.5" customHeight="1">
       <c r="A798" s="29"/>
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
@@ -37313,7 +37325,7 @@
       <c r="Y798" s="18"/>
       <c r="Z798" s="18"/>
     </row>
-    <row r="799" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="799" spans="1:26" ht="13.5" customHeight="1">
       <c r="A799" s="29"/>
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
@@ -37341,7 +37353,7 @@
       <c r="Y799" s="18"/>
       <c r="Z799" s="18"/>
     </row>
-    <row r="800" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="800" spans="1:26" ht="13.5" customHeight="1">
       <c r="A800" s="29"/>
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
@@ -37369,7 +37381,7 @@
       <c r="Y800" s="18"/>
       <c r="Z800" s="18"/>
     </row>
-    <row r="801" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="801" spans="1:26" ht="13.5" customHeight="1">
       <c r="A801" s="29"/>
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
@@ -37397,7 +37409,7 @@
       <c r="Y801" s="18"/>
       <c r="Z801" s="18"/>
     </row>
-    <row r="802" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="802" spans="1:26" ht="13.5" customHeight="1">
       <c r="A802" s="29"/>
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
@@ -37425,7 +37437,7 @@
       <c r="Y802" s="18"/>
       <c r="Z802" s="18"/>
     </row>
-    <row r="803" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="803" spans="1:26" ht="13.5" customHeight="1">
       <c r="A803" s="29"/>
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
@@ -37453,7 +37465,7 @@
       <c r="Y803" s="18"/>
       <c r="Z803" s="18"/>
     </row>
-    <row r="804" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="804" spans="1:26" ht="13.5" customHeight="1">
       <c r="A804" s="29"/>
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
@@ -37481,7 +37493,7 @@
       <c r="Y804" s="18"/>
       <c r="Z804" s="18"/>
     </row>
-    <row r="805" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="805" spans="1:26" ht="13.5" customHeight="1">
       <c r="A805" s="29"/>
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
@@ -37509,7 +37521,7 @@
       <c r="Y805" s="18"/>
       <c r="Z805" s="18"/>
     </row>
-    <row r="806" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="806" spans="1:26" ht="13.5" customHeight="1">
       <c r="A806" s="29"/>
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
@@ -37537,7 +37549,7 @@
       <c r="Y806" s="18"/>
       <c r="Z806" s="18"/>
     </row>
-    <row r="807" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="807" spans="1:26" ht="13.5" customHeight="1">
       <c r="A807" s="29"/>
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
@@ -37565,7 +37577,7 @@
       <c r="Y807" s="18"/>
       <c r="Z807" s="18"/>
     </row>
-    <row r="808" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="808" spans="1:26" ht="13.5" customHeight="1">
       <c r="A808" s="29"/>
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
@@ -37593,7 +37605,7 @@
       <c r="Y808" s="18"/>
       <c r="Z808" s="18"/>
     </row>
-    <row r="809" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="809" spans="1:26" ht="13.5" customHeight="1">
       <c r="A809" s="29"/>
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
@@ -37621,7 +37633,7 @@
       <c r="Y809" s="18"/>
       <c r="Z809" s="18"/>
     </row>
-    <row r="810" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="810" spans="1:26" ht="13.5" customHeight="1">
       <c r="A810" s="29"/>
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
@@ -37649,7 +37661,7 @@
       <c r="Y810" s="18"/>
       <c r="Z810" s="18"/>
     </row>
-    <row r="811" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="811" spans="1:26" ht="13.5" customHeight="1">
       <c r="A811" s="29"/>
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
@@ -37677,7 +37689,7 @@
       <c r="Y811" s="18"/>
       <c r="Z811" s="18"/>
     </row>
-    <row r="812" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="812" spans="1:26" ht="13.5" customHeight="1">
       <c r="A812" s="29"/>
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
@@ -37705,7 +37717,7 @@
       <c r="Y812" s="18"/>
       <c r="Z812" s="18"/>
     </row>
-    <row r="813" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="813" spans="1:26" ht="13.5" customHeight="1">
       <c r="A813" s="29"/>
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
@@ -37733,7 +37745,7 @@
       <c r="Y813" s="18"/>
       <c r="Z813" s="18"/>
     </row>
-    <row r="814" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="814" spans="1:26" ht="13.5" customHeight="1">
       <c r="A814" s="29"/>
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
@@ -37761,7 +37773,7 @@
       <c r="Y814" s="18"/>
       <c r="Z814" s="18"/>
     </row>
-    <row r="815" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="815" spans="1:26" ht="13.5" customHeight="1">
       <c r="A815" s="29"/>
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
@@ -37789,7 +37801,7 @@
       <c r="Y815" s="18"/>
       <c r="Z815" s="18"/>
     </row>
-    <row r="816" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="816" spans="1:26" ht="13.5" customHeight="1">
       <c r="A816" s="29"/>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
@@ -37817,7 +37829,7 @@
       <c r="Y816" s="18"/>
       <c r="Z816" s="18"/>
     </row>
-    <row r="817" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="817" spans="1:26" ht="13.5" customHeight="1">
       <c r="A817" s="29"/>
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
@@ -37845,7 +37857,7 @@
       <c r="Y817" s="18"/>
       <c r="Z817" s="18"/>
     </row>
-    <row r="818" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="818" spans="1:26" ht="13.5" customHeight="1">
       <c r="A818" s="29"/>
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
@@ -37873,7 +37885,7 @@
       <c r="Y818" s="18"/>
       <c r="Z818" s="18"/>
     </row>
-    <row r="819" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="819" spans="1:26" ht="13.5" customHeight="1">
       <c r="A819" s="29"/>
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
@@ -37901,7 +37913,7 @@
       <c r="Y819" s="18"/>
       <c r="Z819" s="18"/>
     </row>
-    <row r="820" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="820" spans="1:26" ht="13.5" customHeight="1">
       <c r="A820" s="29"/>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
@@ -37929,7 +37941,7 @@
       <c r="Y820" s="18"/>
       <c r="Z820" s="18"/>
     </row>
-    <row r="821" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="821" spans="1:26" ht="13.5" customHeight="1">
       <c r="A821" s="29"/>
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
@@ -37957,7 +37969,7 @@
       <c r="Y821" s="18"/>
       <c r="Z821" s="18"/>
     </row>
-    <row r="822" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="822" spans="1:26" ht="13.5" customHeight="1">
       <c r="A822" s="29"/>
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
@@ -37985,7 +37997,7 @@
       <c r="Y822" s="18"/>
       <c r="Z822" s="18"/>
     </row>
-    <row r="823" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="823" spans="1:26" ht="13.5" customHeight="1">
       <c r="A823" s="29"/>
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
@@ -38013,7 +38025,7 @@
       <c r="Y823" s="18"/>
       <c r="Z823" s="18"/>
     </row>
-    <row r="824" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="824" spans="1:26" ht="13.5" customHeight="1">
       <c r="A824" s="29"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
@@ -38041,7 +38053,7 @@
       <c r="Y824" s="18"/>
       <c r="Z824" s="18"/>
     </row>
-    <row r="825" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="825" spans="1:26" ht="13.5" customHeight="1">
       <c r="A825" s="29"/>
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
@@ -38069,7 +38081,7 @@
       <c r="Y825" s="18"/>
       <c r="Z825" s="18"/>
     </row>
-    <row r="826" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="826" spans="1:26" ht="13.5" customHeight="1">
       <c r="A826" s="29"/>
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
@@ -38097,7 +38109,7 @@
       <c r="Y826" s="18"/>
       <c r="Z826" s="18"/>
     </row>
-    <row r="827" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="827" spans="1:26" ht="13.5" customHeight="1">
       <c r="A827" s="29"/>
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
@@ -38125,7 +38137,7 @@
       <c r="Y827" s="18"/>
       <c r="Z827" s="18"/>
     </row>
-    <row r="828" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="828" spans="1:26" ht="13.5" customHeight="1">
       <c r="A828" s="29"/>
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
@@ -38153,7 +38165,7 @@
       <c r="Y828" s="18"/>
       <c r="Z828" s="18"/>
     </row>
-    <row r="829" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="829" spans="1:26" ht="13.5" customHeight="1">
       <c r="A829" s="29"/>
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
@@ -38181,7 +38193,7 @@
       <c r="Y829" s="18"/>
       <c r="Z829" s="18"/>
     </row>
-    <row r="830" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="830" spans="1:26" ht="13.5" customHeight="1">
       <c r="A830" s="29"/>
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
@@ -38209,7 +38221,7 @@
       <c r="Y830" s="18"/>
       <c r="Z830" s="18"/>
     </row>
-    <row r="831" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="831" spans="1:26" ht="13.5" customHeight="1">
       <c r="A831" s="29"/>
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
@@ -38237,7 +38249,7 @@
       <c r="Y831" s="18"/>
       <c r="Z831" s="18"/>
     </row>
-    <row r="832" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="832" spans="1:26" ht="13.5" customHeight="1">
       <c r="A832" s="29"/>
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
@@ -38265,7 +38277,7 @@
       <c r="Y832" s="18"/>
       <c r="Z832" s="18"/>
     </row>
-    <row r="833" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="833" spans="1:26" ht="13.5" customHeight="1">
       <c r="A833" s="29"/>
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
@@ -38293,7 +38305,7 @@
       <c r="Y833" s="18"/>
       <c r="Z833" s="18"/>
     </row>
-    <row r="834" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="834" spans="1:26" ht="13.5" customHeight="1">
       <c r="A834" s="29"/>
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
@@ -38321,7 +38333,7 @@
       <c r="Y834" s="18"/>
       <c r="Z834" s="18"/>
     </row>
-    <row r="835" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="835" spans="1:26" ht="13.5" customHeight="1">
       <c r="A835" s="29"/>
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
@@ -38349,7 +38361,7 @@
       <c r="Y835" s="18"/>
       <c r="Z835" s="18"/>
     </row>
-    <row r="836" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="836" spans="1:26" ht="13.5" customHeight="1">
       <c r="A836" s="29"/>
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
@@ -38377,7 +38389,7 @@
       <c r="Y836" s="18"/>
       <c r="Z836" s="18"/>
     </row>
-    <row r="837" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="837" spans="1:26" ht="13.5" customHeight="1">
       <c r="A837" s="29"/>
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
@@ -38405,7 +38417,7 @@
       <c r="Y837" s="18"/>
       <c r="Z837" s="18"/>
     </row>
-    <row r="838" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="838" spans="1:26" ht="13.5" customHeight="1">
       <c r="A838" s="29"/>
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
@@ -38433,7 +38445,7 @@
       <c r="Y838" s="18"/>
       <c r="Z838" s="18"/>
     </row>
-    <row r="839" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="839" spans="1:26" ht="13.5" customHeight="1">
       <c r="A839" s="29"/>
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
@@ -38461,7 +38473,7 @@
       <c r="Y839" s="18"/>
       <c r="Z839" s="18"/>
     </row>
-    <row r="840" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="840" spans="1:26" ht="13.5" customHeight="1">
       <c r="A840" s="29"/>
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
@@ -38489,7 +38501,7 @@
       <c r="Y840" s="18"/>
       <c r="Z840" s="18"/>
     </row>
-    <row r="841" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="841" spans="1:26" ht="13.5" customHeight="1">
       <c r="A841" s="29"/>
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
@@ -38517,7 +38529,7 @@
       <c r="Y841" s="18"/>
       <c r="Z841" s="18"/>
     </row>
-    <row r="842" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="842" spans="1:26" ht="13.5" customHeight="1">
       <c r="A842" s="29"/>
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
@@ -38545,7 +38557,7 @@
       <c r="Y842" s="18"/>
       <c r="Z842" s="18"/>
     </row>
-    <row r="843" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="843" spans="1:26" ht="13.5" customHeight="1">
       <c r="A843" s="29"/>
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
@@ -38573,7 +38585,7 @@
       <c r="Y843" s="18"/>
       <c r="Z843" s="18"/>
     </row>
-    <row r="844" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="844" spans="1:26" ht="13.5" customHeight="1">
       <c r="A844" s="29"/>
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
@@ -38601,7 +38613,7 @@
       <c r="Y844" s="18"/>
       <c r="Z844" s="18"/>
     </row>
-    <row r="845" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="845" spans="1:26" ht="13.5" customHeight="1">
       <c r="A845" s="29"/>
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
@@ -38629,7 +38641,7 @@
       <c r="Y845" s="18"/>
       <c r="Z845" s="18"/>
     </row>
-    <row r="846" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="846" spans="1:26" ht="13.5" customHeight="1">
       <c r="A846" s="29"/>
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
@@ -38657,7 +38669,7 @@
       <c r="Y846" s="18"/>
       <c r="Z846" s="18"/>
     </row>
-    <row r="847" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="847" spans="1:26" ht="13.5" customHeight="1">
       <c r="A847" s="29"/>
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
@@ -38685,7 +38697,7 @@
       <c r="Y847" s="18"/>
       <c r="Z847" s="18"/>
     </row>
-    <row r="848" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="848" spans="1:26" ht="13.5" customHeight="1">
       <c r="A848" s="29"/>
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
@@ -38713,7 +38725,7 @@
       <c r="Y848" s="18"/>
       <c r="Z848" s="18"/>
     </row>
-    <row r="849" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="849" spans="1:26" ht="13.5" customHeight="1">
       <c r="A849" s="29"/>
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
@@ -38741,7 +38753,7 @@
       <c r="Y849" s="18"/>
       <c r="Z849" s="18"/>
     </row>
-    <row r="850" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="850" spans="1:26" ht="13.5" customHeight="1">
       <c r="A850" s="29"/>
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
@@ -38769,7 +38781,7 @@
       <c r="Y850" s="18"/>
       <c r="Z850" s="18"/>
     </row>
-    <row r="851" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="851" spans="1:26" ht="13.5" customHeight="1">
       <c r="A851" s="29"/>
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
@@ -38797,7 +38809,7 @@
       <c r="Y851" s="18"/>
       <c r="Z851" s="18"/>
     </row>
-    <row r="852" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="852" spans="1:26" ht="13.5" customHeight="1">
       <c r="A852" s="29"/>
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
@@ -38825,7 +38837,7 @@
       <c r="Y852" s="18"/>
       <c r="Z852" s="18"/>
     </row>
-    <row r="853" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="853" spans="1:26" ht="13.5" customHeight="1">
       <c r="A853" s="29"/>
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
@@ -38853,7 +38865,7 @@
       <c r="Y853" s="18"/>
       <c r="Z853" s="18"/>
     </row>
-    <row r="854" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="854" spans="1:26" ht="13.5" customHeight="1">
       <c r="A854" s="29"/>
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
@@ -38881,7 +38893,7 @@
       <c r="Y854" s="18"/>
       <c r="Z854" s="18"/>
     </row>
-    <row r="855" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="855" spans="1:26" ht="13.5" customHeight="1">
       <c r="A855" s="29"/>
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
@@ -38909,7 +38921,7 @@
       <c r="Y855" s="18"/>
       <c r="Z855" s="18"/>
     </row>
-    <row r="856" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="856" spans="1:26" ht="13.5" customHeight="1">
       <c r="A856" s="29"/>
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
@@ -38937,7 +38949,7 @@
       <c r="Y856" s="18"/>
       <c r="Z856" s="18"/>
     </row>
-    <row r="857" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="857" spans="1:26" ht="13.5" customHeight="1">
       <c r="A857" s="29"/>
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
@@ -38965,7 +38977,7 @@
       <c r="Y857" s="18"/>
       <c r="Z857" s="18"/>
     </row>
-    <row r="858" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="858" spans="1:26" ht="13.5" customHeight="1">
       <c r="A858" s="29"/>
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
@@ -38993,7 +39005,7 @@
       <c r="Y858" s="18"/>
       <c r="Z858" s="18"/>
     </row>
-    <row r="859" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="859" spans="1:26" ht="13.5" customHeight="1">
       <c r="A859" s="29"/>
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
@@ -39021,7 +39033,7 @@
       <c r="Y859" s="18"/>
       <c r="Z859" s="18"/>
     </row>
-    <row r="860" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="860" spans="1:26" ht="13.5" customHeight="1">
       <c r="A860" s="29"/>
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
@@ -39049,7 +39061,7 @@
       <c r="Y860" s="18"/>
       <c r="Z860" s="18"/>
     </row>
-    <row r="861" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="861" spans="1:26" ht="13.5" customHeight="1">
       <c r="A861" s="29"/>
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
@@ -39077,7 +39089,7 @@
       <c r="Y861" s="18"/>
       <c r="Z861" s="18"/>
     </row>
-    <row r="862" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="862" spans="1:26" ht="13.5" customHeight="1">
       <c r="A862" s="29"/>
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
@@ -39105,7 +39117,7 @@
       <c r="Y862" s="18"/>
       <c r="Z862" s="18"/>
     </row>
-    <row r="863" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="863" spans="1:26" ht="13.5" customHeight="1">
       <c r="A863" s="29"/>
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
@@ -39133,7 +39145,7 @@
       <c r="Y863" s="18"/>
       <c r="Z863" s="18"/>
     </row>
-    <row r="864" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="864" spans="1:26" ht="13.5" customHeight="1">
       <c r="A864" s="29"/>
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
@@ -39161,7 +39173,7 @@
       <c r="Y864" s="18"/>
       <c r="Z864" s="18"/>
     </row>
-    <row r="865" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="865" spans="1:26" ht="13.5" customHeight="1">
       <c r="A865" s="29"/>
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
@@ -39189,7 +39201,7 @@
       <c r="Y865" s="18"/>
       <c r="Z865" s="18"/>
     </row>
-    <row r="866" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="866" spans="1:26" ht="13.5" customHeight="1">
       <c r="A866" s="29"/>
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
@@ -39217,7 +39229,7 @@
       <c r="Y866" s="18"/>
       <c r="Z866" s="18"/>
     </row>
-    <row r="867" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="867" spans="1:26" ht="13.5" customHeight="1">
       <c r="A867" s="29"/>
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
@@ -39245,7 +39257,7 @@
       <c r="Y867" s="18"/>
       <c r="Z867" s="18"/>
     </row>
-    <row r="868" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="868" spans="1:26" ht="13.5" customHeight="1">
       <c r="A868" s="29"/>
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
@@ -39273,7 +39285,7 @@
       <c r="Y868" s="18"/>
       <c r="Z868" s="18"/>
     </row>
-    <row r="869" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="869" spans="1:26" ht="13.5" customHeight="1">
       <c r="A869" s="29"/>
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
@@ -39301,7 +39313,7 @@
       <c r="Y869" s="18"/>
       <c r="Z869" s="18"/>
     </row>
-    <row r="870" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="870" spans="1:26" ht="13.5" customHeight="1">
       <c r="A870" s="29"/>
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
@@ -39329,7 +39341,7 @@
       <c r="Y870" s="18"/>
       <c r="Z870" s="18"/>
     </row>
-    <row r="871" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="871" spans="1:26" ht="13.5" customHeight="1">
       <c r="A871" s="29"/>
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
@@ -39357,7 +39369,7 @@
       <c r="Y871" s="18"/>
       <c r="Z871" s="18"/>
     </row>
-    <row r="872" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="872" spans="1:26" ht="13.5" customHeight="1">
       <c r="A872" s="29"/>
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
@@ -39385,7 +39397,7 @@
       <c r="Y872" s="18"/>
       <c r="Z872" s="18"/>
     </row>
-    <row r="873" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="873" spans="1:26" ht="13.5" customHeight="1">
       <c r="A873" s="29"/>
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
@@ -39413,7 +39425,7 @@
       <c r="Y873" s="18"/>
       <c r="Z873" s="18"/>
     </row>
-    <row r="874" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="874" spans="1:26" ht="13.5" customHeight="1">
       <c r="A874" s="29"/>
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
@@ -39441,7 +39453,7 @@
       <c r="Y874" s="18"/>
       <c r="Z874" s="18"/>
     </row>
-    <row r="875" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="875" spans="1:26" ht="13.5" customHeight="1">
       <c r="A875" s="29"/>
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
@@ -39469,7 +39481,7 @@
       <c r="Y875" s="18"/>
       <c r="Z875" s="18"/>
     </row>
-    <row r="876" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="876" spans="1:26" ht="13.5" customHeight="1">
       <c r="A876" s="29"/>
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
@@ -39497,7 +39509,7 @@
       <c r="Y876" s="18"/>
       <c r="Z876" s="18"/>
     </row>
-    <row r="877" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="877" spans="1:26" ht="13.5" customHeight="1">
       <c r="A877" s="29"/>
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
@@ -39525,7 +39537,7 @@
       <c r="Y877" s="18"/>
       <c r="Z877" s="18"/>
     </row>
-    <row r="878" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="878" spans="1:26" ht="13.5" customHeight="1">
       <c r="A878" s="29"/>
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
@@ -39553,7 +39565,7 @@
       <c r="Y878" s="18"/>
       <c r="Z878" s="18"/>
     </row>
-    <row r="879" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="879" spans="1:26" ht="13.5" customHeight="1">
       <c r="A879" s="29"/>
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
@@ -39581,7 +39593,7 @@
       <c r="Y879" s="18"/>
       <c r="Z879" s="18"/>
     </row>
-    <row r="880" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="880" spans="1:26" ht="13.5" customHeight="1">
       <c r="A880" s="29"/>
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
@@ -39609,7 +39621,7 @@
       <c r="Y880" s="18"/>
       <c r="Z880" s="18"/>
     </row>
-    <row r="881" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="881" spans="1:26" ht="13.5" customHeight="1">
       <c r="A881" s="29"/>
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
@@ -39637,7 +39649,7 @@
       <c r="Y881" s="18"/>
       <c r="Z881" s="18"/>
     </row>
-    <row r="882" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="882" spans="1:26" ht="13.5" customHeight="1">
       <c r="A882" s="29"/>
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
@@ -39665,7 +39677,7 @@
       <c r="Y882" s="18"/>
       <c r="Z882" s="18"/>
     </row>
-    <row r="883" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="883" spans="1:26" ht="13.5" customHeight="1">
       <c r="A883" s="29"/>
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
@@ -39693,7 +39705,7 @@
       <c r="Y883" s="18"/>
       <c r="Z883" s="18"/>
     </row>
-    <row r="884" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="884" spans="1:26" ht="13.5" customHeight="1">
       <c r="A884" s="29"/>
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
@@ -39721,7 +39733,7 @@
       <c r="Y884" s="18"/>
       <c r="Z884" s="18"/>
     </row>
-    <row r="885" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="885" spans="1:26" ht="13.5" customHeight="1">
       <c r="A885" s="29"/>
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
@@ -39749,7 +39761,7 @@
       <c r="Y885" s="18"/>
       <c r="Z885" s="18"/>
     </row>
-    <row r="886" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="886" spans="1:26" ht="13.5" customHeight="1">
       <c r="A886" s="29"/>
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
@@ -39777,7 +39789,7 @@
       <c r="Y886" s="18"/>
       <c r="Z886" s="18"/>
     </row>
-    <row r="887" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="887" spans="1:26" ht="13.5" customHeight="1">
       <c r="A887" s="29"/>
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
@@ -39805,7 +39817,7 @@
       <c r="Y887" s="18"/>
       <c r="Z887" s="18"/>
     </row>
-    <row r="888" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="888" spans="1:26" ht="13.5" customHeight="1">
       <c r="A888" s="29"/>
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
@@ -39833,7 +39845,7 @@
       <c r="Y888" s="18"/>
       <c r="Z888" s="18"/>
     </row>
-    <row r="889" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="889" spans="1:26" ht="13.5" customHeight="1">
       <c r="A889" s="29"/>
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
@@ -39861,7 +39873,7 @@
       <c r="Y889" s="18"/>
       <c r="Z889" s="18"/>
     </row>
-    <row r="890" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="890" spans="1:26" ht="13.5" customHeight="1">
       <c r="A890" s="29"/>
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
@@ -39889,7 +39901,7 @@
       <c r="Y890" s="18"/>
       <c r="Z890" s="18"/>
     </row>
-    <row r="891" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="891" spans="1:26" ht="13.5" customHeight="1">
       <c r="A891" s="29"/>
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
@@ -39917,7 +39929,7 @@
       <c r="Y891" s="18"/>
       <c r="Z891" s="18"/>
     </row>
-    <row r="892" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="892" spans="1:26" ht="13.5" customHeight="1">
       <c r="A892" s="29"/>
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
@@ -39945,7 +39957,7 @@
       <c r="Y892" s="18"/>
       <c r="Z892" s="18"/>
     </row>
-    <row r="893" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="893" spans="1:26" ht="13.5" customHeight="1">
       <c r="A893" s="29"/>
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
@@ -39973,7 +39985,7 @@
       <c r="Y893" s="18"/>
       <c r="Z893" s="18"/>
     </row>
-    <row r="894" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="894" spans="1:26" ht="13.5" customHeight="1">
       <c r="A894" s="29"/>
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
@@ -40001,7 +40013,7 @@
       <c r="Y894" s="18"/>
       <c r="Z894" s="18"/>
     </row>
-    <row r="895" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="895" spans="1:26" ht="13.5" customHeight="1">
       <c r="A895" s="29"/>
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
@@ -40029,7 +40041,7 @@
       <c r="Y895" s="18"/>
       <c r="Z895" s="18"/>
     </row>
-    <row r="896" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="896" spans="1:26" ht="13.5" customHeight="1">
       <c r="A896" s="29"/>
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
@@ -40057,7 +40069,7 @@
       <c r="Y896" s="18"/>
       <c r="Z896" s="18"/>
     </row>
-    <row r="897" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="897" spans="1:26" ht="13.5" customHeight="1">
       <c r="A897" s="29"/>
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
@@ -40085,7 +40097,7 @@
       <c r="Y897" s="18"/>
       <c r="Z897" s="18"/>
     </row>
-    <row r="898" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="898" spans="1:26" ht="13.5" customHeight="1">
       <c r="A898" s="29"/>
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
@@ -40113,7 +40125,7 @@
       <c r="Y898" s="18"/>
       <c r="Z898" s="18"/>
     </row>
-    <row r="899" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="899" spans="1:26" ht="13.5" customHeight="1">
       <c r="A899" s="29"/>
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
@@ -40141,7 +40153,7 @@
       <c r="Y899" s="18"/>
       <c r="Z899" s="18"/>
     </row>
-    <row r="900" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="900" spans="1:26" ht="13.5" customHeight="1">
       <c r="A900" s="29"/>
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
@@ -40169,7 +40181,7 @@
       <c r="Y900" s="18"/>
       <c r="Z900" s="18"/>
     </row>
-    <row r="901" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="901" spans="1:26" ht="13.5" customHeight="1">
       <c r="A901" s="29"/>
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
@@ -40197,7 +40209,7 @@
       <c r="Y901" s="18"/>
       <c r="Z901" s="18"/>
     </row>
-    <row r="902" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="902" spans="1:26" ht="13.5" customHeight="1">
       <c r="A902" s="29"/>
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
@@ -40225,7 +40237,7 @@
       <c r="Y902" s="18"/>
       <c r="Z902" s="18"/>
     </row>
-    <row r="903" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="903" spans="1:26" ht="13.5" customHeight="1">
       <c r="A903" s="29"/>
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
@@ -40253,7 +40265,7 @@
       <c r="Y903" s="18"/>
       <c r="Z903" s="18"/>
     </row>
-    <row r="904" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="904" spans="1:26" ht="13.5" customHeight="1">
       <c r="A904" s="29"/>
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
@@ -40281,7 +40293,7 @@
       <c r="Y904" s="18"/>
       <c r="Z904" s="18"/>
     </row>
-    <row r="905" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="905" spans="1:26" ht="13.5" customHeight="1">
       <c r="A905" s="29"/>
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
@@ -40309,7 +40321,7 @@
       <c r="Y905" s="18"/>
       <c r="Z905" s="18"/>
     </row>
-    <row r="906" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="906" spans="1:26" ht="13.5" customHeight="1">
       <c r="A906" s="29"/>
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
@@ -40337,7 +40349,7 @@
       <c r="Y906" s="18"/>
       <c r="Z906" s="18"/>
     </row>
-    <row r="907" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="907" spans="1:26" ht="13.5" customHeight="1">
       <c r="A907" s="29"/>
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
@@ -40365,7 +40377,7 @@
       <c r="Y907" s="18"/>
       <c r="Z907" s="18"/>
     </row>
-    <row r="908" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="908" spans="1:26" ht="13.5" customHeight="1">
       <c r="A908" s="29"/>
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
@@ -40393,7 +40405,7 @@
       <c r="Y908" s="18"/>
       <c r="Z908" s="18"/>
     </row>
-    <row r="909" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="909" spans="1:26" ht="13.5" customHeight="1">
       <c r="A909" s="29"/>
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
@@ -40421,7 +40433,7 @@
       <c r="Y909" s="18"/>
       <c r="Z909" s="18"/>
     </row>
-    <row r="910" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="910" spans="1:26" ht="13.5" customHeight="1">
       <c r="A910" s="29"/>
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
@@ -40449,7 +40461,7 @@
       <c r="Y910" s="18"/>
       <c r="Z910" s="18"/>
     </row>
-    <row r="911" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="911" spans="1:26" ht="13.5" customHeight="1">
       <c r="A911" s="29"/>
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
@@ -40477,7 +40489,7 @@
       <c r="Y911" s="18"/>
       <c r="Z911" s="18"/>
     </row>
-    <row r="912" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="912" spans="1:26" ht="13.5" customHeight="1">
       <c r="A912" s="29"/>
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
@@ -40505,7 +40517,7 @@
       <c r="Y912" s="18"/>
       <c r="Z912" s="18"/>
     </row>
-    <row r="913" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="913" spans="1:26" ht="13.5" customHeight="1">
       <c r="A913" s="29"/>
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
@@ -40533,7 +40545,7 @@
       <c r="Y913" s="18"/>
       <c r="Z913" s="18"/>
     </row>
-    <row r="914" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="914" spans="1:26" ht="13.5" customHeight="1">
       <c r="A914" s="29"/>
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
@@ -40561,7 +40573,7 @@
       <c r="Y914" s="18"/>
       <c r="Z914" s="18"/>
     </row>
-    <row r="915" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="915" spans="1:26" ht="13.5" customHeight="1">
       <c r="A915" s="29"/>
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
@@ -40589,7 +40601,7 @@
       <c r="Y915" s="18"/>
       <c r="Z915" s="18"/>
     </row>
-    <row r="916" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="916" spans="1:26" ht="13.5" customHeight="1">
       <c r="A916" s="29"/>
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
@@ -40617,7 +40629,7 @@
       <c r="Y916" s="18"/>
       <c r="Z916" s="18"/>
     </row>
-    <row r="917" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="917" spans="1:26" ht="13.5" customHeight="1">
       <c r="A917" s="29"/>
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
@@ -40645,7 +40657,7 @@
       <c r="Y917" s="18"/>
       <c r="Z917" s="18"/>
     </row>
-    <row r="918" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="918" spans="1:26" ht="13.5" customHeight="1">
       <c r="A918" s="29"/>
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
@@ -40673,7 +40685,7 @@
       <c r="Y918" s="18"/>
       <c r="Z918" s="18"/>
     </row>
-    <row r="919" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="919" spans="1:26" ht="13.5" customHeight="1">
       <c r="A919" s="29"/>
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
@@ -40701,7 +40713,7 @@
       <c r="Y919" s="18"/>
       <c r="Z919" s="18"/>
     </row>
-    <row r="920" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="920" spans="1:26" ht="13.5" customHeight="1">
       <c r="A920" s="29"/>
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
@@ -40729,7 +40741,7 @@
       <c r="Y920" s="18"/>
       <c r="Z920" s="18"/>
     </row>
-    <row r="921" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="921" spans="1:26" ht="13.5" customHeight="1">
       <c r="A921" s="29"/>
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
@@ -40757,7 +40769,7 @@
       <c r="Y921" s="18"/>
       <c r="Z921" s="18"/>
     </row>
-    <row r="922" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="922" spans="1:26" ht="13.5" customHeight="1">
       <c r="A922" s="29"/>
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
@@ -40785,7 +40797,7 @@
       <c r="Y922" s="18"/>
       <c r="Z922" s="18"/>
     </row>
-    <row r="923" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="923" spans="1:26" ht="13.5" customHeight="1">
       <c r="A923" s="29"/>
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
@@ -40813,7 +40825,7 @@
       <c r="Y923" s="18"/>
       <c r="Z923" s="18"/>
     </row>
-    <row r="924" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="924" spans="1:26" ht="13.5" customHeight="1">
       <c r="A924" s="29"/>
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
@@ -40841,7 +40853,7 @@
       <c r="Y924" s="18"/>
       <c r="Z924" s="18"/>
     </row>
-    <row r="925" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="925" spans="1:26" ht="13.5" customHeight="1">
       <c r="A925" s="29"/>
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
@@ -40869,7 +40881,7 @@
       <c r="Y925" s="18"/>
       <c r="Z925" s="18"/>
     </row>
-    <row r="926" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="926" spans="1:26" ht="13.5" customHeight="1">
       <c r="A926" s="29"/>
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
@@ -40897,7 +40909,7 @@
       <c r="Y926" s="18"/>
       <c r="Z926" s="18"/>
     </row>
-    <row r="927" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="927" spans="1:26" ht="13.5" customHeight="1">
       <c r="A927" s="29"/>
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
@@ -40925,7 +40937,7 @@
       <c r="Y927" s="18"/>
       <c r="Z927" s="18"/>
     </row>
-    <row r="928" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="928" spans="1:26" ht="13.5" customHeight="1">
       <c r="A928" s="29"/>
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
@@ -40953,7 +40965,7 @@
       <c r="Y928" s="18"/>
       <c r="Z928" s="18"/>
     </row>
-    <row r="929" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="929" spans="1:26" ht="13.5" customHeight="1">
       <c r="A929" s="29"/>
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
@@ -40981,7 +40993,7 @@
       <c r="Y929" s="18"/>
       <c r="Z929" s="18"/>
     </row>
-    <row r="930" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="930" spans="1:26" ht="13.5" customHeight="1">
       <c r="A930" s="29"/>
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
@@ -41009,7 +41021,7 @@
       <c r="Y930" s="18"/>
       <c r="Z930" s="18"/>
     </row>
-    <row r="931" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="931" spans="1:26" ht="13.5" customHeight="1">
       <c r="A931" s="29"/>
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
@@ -41037,7 +41049,7 @@
       <c r="Y931" s="18"/>
       <c r="Z931" s="18"/>
     </row>
-    <row r="932" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="932" spans="1:26" ht="13.5" customHeight="1">
       <c r="A932" s="29"/>
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
@@ -41065,7 +41077,7 @@
       <c r="Y932" s="18"/>
       <c r="Z932" s="18"/>
     </row>
-    <row r="933" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="933" spans="1:26" ht="13.5" customHeight="1">
       <c r="A933" s="29"/>
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
@@ -41093,7 +41105,7 @@
       <c r="Y933" s="18"/>
       <c r="Z933" s="18"/>
     </row>
-    <row r="934" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="934" spans="1:26" ht="13.5" customHeight="1">
       <c r="A934" s="29"/>
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
@@ -41121,7 +41133,7 @@
       <c r="Y934" s="18"/>
       <c r="Z934" s="18"/>
     </row>
-    <row r="935" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="935" spans="1:26" ht="13.5" customHeight="1">
       <c r="A935" s="29"/>
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
@@ -41149,7 +41161,7 @@
       <c r="Y935" s="18"/>
       <c r="Z935" s="18"/>
     </row>
-    <row r="936" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="936" spans="1:26" ht="13.5" customHeight="1">
       <c r="A936" s="29"/>
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
@@ -41177,7 +41189,7 @@
       <c r="Y936" s="18"/>
       <c r="Z936" s="18"/>
     </row>
-    <row r="937" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="937" spans="1:26" ht="13.5" customHeight="1">
       <c r="A937" s="29"/>
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
@@ -41205,7 +41217,7 @@
       <c r="Y937" s="18"/>
       <c r="Z937" s="18"/>
     </row>
-    <row r="938" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="938" spans="1:26" ht="13.5" customHeight="1">
       <c r="A938" s="29"/>
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
@@ -41233,7 +41245,7 @@
       <c r="Y938" s="18"/>
       <c r="Z938" s="18"/>
     </row>
-    <row r="939" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="939" spans="1:26" ht="13.5" customHeight="1">
       <c r="A939" s="29"/>
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
@@ -41261,7 +41273,7 @@
       <c r="Y939" s="18"/>
       <c r="Z939" s="18"/>
     </row>
-    <row r="940" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="940" spans="1:26" ht="13.5" customHeight="1">
       <c r="A940" s="29"/>
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
@@ -41289,7 +41301,7 @@
       <c r="Y940" s="18"/>
       <c r="Z940" s="18"/>
     </row>
-    <row r="941" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="941" spans="1:26" ht="13.5" customHeight="1">
       <c r="A941" s="29"/>
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
@@ -41317,7 +41329,7 @@
       <c r="Y941" s="18"/>
       <c r="Z941" s="18"/>
     </row>
-    <row r="942" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="942" spans="1:26" ht="13.5" customHeight="1">
       <c r="A942" s="29"/>
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
@@ -41345,7 +41357,7 @@
       <c r="Y942" s="18"/>
       <c r="Z942" s="18"/>
     </row>
-    <row r="943" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="943" spans="1:26" ht="13.5" customHeight="1">
       <c r="A943" s="29"/>
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
@@ -41373,7 +41385,7 @@
       <c r="Y943" s="18"/>
       <c r="Z943" s="18"/>
     </row>
-    <row r="944" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="944" spans="1:26" ht="13.5" customHeight="1">
       <c r="A944" s="29"/>
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
@@ -41401,7 +41413,7 @@
       <c r="Y944" s="18"/>
       <c r="Z944" s="18"/>
     </row>
-    <row r="945" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="945" spans="1:26" ht="13.5" customHeight="1">
       <c r="A945" s="29"/>
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
@@ -41429,7 +41441,7 @@
       <c r="Y945" s="18"/>
       <c r="Z945" s="18"/>
     </row>
-    <row r="946" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="946" spans="1:26" ht="13.5" customHeight="1">
       <c r="A946" s="29"/>
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
@@ -41457,7 +41469,7 @@
       <c r="Y946" s="18"/>
       <c r="Z946" s="18"/>
     </row>
-    <row r="947" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="947" spans="1:26" ht="13.5" customHeight="1">
       <c r="A947" s="29"/>
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
@@ -41485,7 +41497,7 @@
       <c r="Y947" s="18"/>
       <c r="Z947" s="18"/>
     </row>
-    <row r="948" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="948" spans="1:26" ht="13.5" customHeight="1">
       <c r="A948" s="29"/>
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
@@ -41513,7 +41525,7 @@
       <c r="Y948" s="18"/>
       <c r="Z948" s="18"/>
     </row>
-    <row r="949" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="949" spans="1:26" ht="13.5" customHeight="1">
       <c r="A949" s="29"/>
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
@@ -41541,7 +41553,7 @@
       <c r="Y949" s="18"/>
       <c r="Z949" s="18"/>
     </row>
-    <row r="950" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="950" spans="1:26" ht="13.5" customHeight="1">
       <c r="A950" s="29"/>
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
@@ -41569,7 +41581,7 @@
       <c r="Y950" s="18"/>
       <c r="Z950" s="18"/>
     </row>
-    <row r="951" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="951" spans="1:26" ht="13.5" customHeight="1">
       <c r="A951" s="29"/>
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
@@ -41597,7 +41609,7 @@
       <c r="Y951" s="18"/>
       <c r="Z951" s="18"/>
     </row>
-    <row r="952" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="952" spans="1:26" ht="13.5" customHeight="1">
       <c r="A952" s="29"/>
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
@@ -41625,7 +41637,7 @@
       <c r="Y952" s="18"/>
       <c r="Z952" s="18"/>
     </row>
-    <row r="953" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="953" spans="1:26" ht="13.5" customHeight="1">
       <c r="A953" s="29"/>
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
@@ -41653,7 +41665,7 @@
       <c r="Y953" s="18"/>
       <c r="Z953" s="18"/>
     </row>
-    <row r="954" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="954" spans="1:26" ht="13.5" customHeight="1">
       <c r="A954" s="29"/>
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
@@ -41681,7 +41693,7 @@
       <c r="Y954" s="18"/>
       <c r="Z954" s="18"/>
     </row>
-    <row r="955" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="955" spans="1:26" ht="13.5" customHeight="1">
       <c r="A955" s="29"/>
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
@@ -41709,7 +41721,7 @@
       <c r="Y955" s="18"/>
       <c r="Z955" s="18"/>
     </row>
-    <row r="956" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="956" spans="1:26" ht="13.5" customHeight="1">
       <c r="A956" s="29"/>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
@@ -41737,7 +41749,7 @@
       <c r="Y956" s="18"/>
       <c r="Z956" s="18"/>
     </row>
-    <row r="957" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="957" spans="1:26" ht="13.5" customHeight="1">
       <c r="A957" s="29"/>
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
@@ -41765,7 +41777,7 @@
       <c r="Y957" s="18"/>
       <c r="Z957" s="18"/>
     </row>
-    <row r="958" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="958" spans="1:26" ht="13.5" customHeight="1">
       <c r="A958" s="29"/>
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
@@ -41793,7 +41805,7 @@
       <c r="Y958" s="18"/>
       <c r="Z958" s="18"/>
     </row>
-    <row r="959" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="959" spans="1:26" ht="13.5" customHeight="1">
       <c r="A959" s="29"/>
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
@@ -41821,7 +41833,7 @@
       <c r="Y959" s="18"/>
       <c r="Z959" s="18"/>
     </row>
-    <row r="960" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="960" spans="1:26" ht="13.5" customHeight="1">
       <c r="A960" s="29"/>
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
@@ -41849,7 +41861,7 @@
       <c r="Y960" s="18"/>
       <c r="Z960" s="18"/>
     </row>
-    <row r="961" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="961" spans="1:26" ht="13.5" customHeight="1">
       <c r="A961" s="29"/>
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
@@ -41877,7 +41889,7 @@
       <c r="Y961" s="18"/>
       <c r="Z961" s="18"/>
     </row>
-    <row r="962" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="962" spans="1:26" ht="13.5" customHeight="1">
       <c r="A962" s="29"/>
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
@@ -41905,7 +41917,7 @@
       <c r="Y962" s="18"/>
       <c r="Z962" s="18"/>
     </row>
-    <row r="963" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="963" spans="1:26" ht="13.5" customHeight="1">
       <c r="A963" s="29"/>
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
@@ -41933,7 +41945,7 @@
       <c r="Y963" s="18"/>
       <c r="Z963" s="18"/>
     </row>
-    <row r="964" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="964" spans="1:26" ht="13.5" customHeight="1">
       <c r="A964" s="29"/>
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
@@ -41961,7 +41973,7 @@
       <c r="Y964" s="18"/>
       <c r="Z964" s="18"/>
     </row>
-    <row r="965" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="965" spans="1:26" ht="13.5" customHeight="1">
       <c r="A965" s="29"/>
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
@@ -41989,7 +42001,7 @@
       <c r="Y965" s="18"/>
       <c r="Z965" s="18"/>
     </row>
-    <row r="966" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="966" spans="1:26" ht="13.5" customHeight="1">
       <c r="A966" s="29"/>
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
@@ -42017,7 +42029,7 @@
       <c r="Y966" s="18"/>
       <c r="Z966" s="18"/>
     </row>
-    <row r="967" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="967" spans="1:26" ht="13.5" customHeight="1">
       <c r="A967" s="29"/>
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
@@ -42045,7 +42057,7 @@
       <c r="Y967" s="18"/>
       <c r="Z967" s="18"/>
     </row>
-    <row r="968" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="968" spans="1:26" ht="13.5" customHeight="1">
       <c r="A968" s="29"/>
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
@@ -42073,7 +42085,7 @@
       <c r="Y968" s="18"/>
       <c r="Z968" s="18"/>
     </row>
-    <row r="969" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="969" spans="1:26" ht="13.5" customHeight="1">
       <c r="A969" s="29"/>
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
@@ -42101,7 +42113,7 @@
       <c r="Y969" s="18"/>
       <c r="Z969" s="18"/>
     </row>
-    <row r="970" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="970" spans="1:26" ht="13.5" customHeight="1">
       <c r="A970" s="29"/>
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
@@ -42129,7 +42141,7 @@
       <c r="Y970" s="18"/>
       <c r="Z970" s="18"/>
     </row>
-    <row r="971" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="971" spans="1:26" ht="13.5" customHeight="1">
       <c r="A971" s="29"/>
       <c r="B971" s="17"/>
       <c r="C971" s="17"/>
@@ -42157,7 +42169,7 @@
       <c r="Y971" s="18"/>
       <c r="Z971" s="18"/>
     </row>
-    <row r="972" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="972" spans="1:26" ht="13.5" customHeight="1">
       <c r="A972" s="29"/>
       <c r="B972" s="17"/>
       <c r="C972" s="17"/>
@@ -42185,7 +42197,7 @@
       <c r="Y972" s="18"/>
       <c r="Z972" s="18"/>
     </row>
-    <row r="973" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="973" spans="1:26" ht="13.5" customHeight="1">
       <c r="A973" s="29"/>
       <c r="B973" s="17"/>
       <c r="C973" s="17"/>
@@ -42213,7 +42225,7 @@
       <c r="Y973" s="18"/>
       <c r="Z973" s="18"/>
     </row>
-    <row r="974" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="974" spans="1:26" ht="13.5" customHeight="1">
       <c r="A974" s="29"/>
       <c r="B974" s="17"/>
       <c r="C974" s="17"/>
@@ -42241,7 +42253,7 @@
       <c r="Y974" s="18"/>
       <c r="Z974" s="18"/>
     </row>
-    <row r="975" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="975" spans="1:26" ht="13.5" customHeight="1">
       <c r="A975" s="29"/>
       <c r="B975" s="17"/>
       <c r="C975" s="17"/>
@@ -42269,7 +42281,7 @@
       <c r="Y975" s="18"/>
       <c r="Z975" s="18"/>
     </row>
-    <row r="976" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="976" spans="1:26" ht="13.5" customHeight="1">
       <c r="A976" s="29"/>
       <c r="B976" s="17"/>
       <c r="C976" s="17"/>
@@ -42297,7 +42309,7 @@
       <c r="Y976" s="18"/>
       <c r="Z976" s="18"/>
     </row>
-    <row r="977" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="977" spans="1:26" ht="13.5" customHeight="1">
       <c r="A977" s="29"/>
       <c r="B977" s="17"/>
       <c r="C977" s="17"/>
@@ -42325,7 +42337,7 @@
       <c r="Y977" s="18"/>
       <c r="Z977" s="18"/>
     </row>
-    <row r="978" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="978" spans="1:26" ht="13.5" customHeight="1">
       <c r="A978" s="29"/>
       <c r="B978" s="17"/>
       <c r="C978" s="17"/>
@@ -42353,7 +42365,7 @@
       <c r="Y978" s="18"/>
       <c r="Z978" s="18"/>
     </row>
-    <row r="979" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="979" spans="1:26" ht="13.5" customHeight="1">
       <c r="A979" s="29"/>
       <c r="B979" s="17"/>
       <c r="C979" s="17"/>
@@ -42381,7 +42393,7 @@
       <c r="Y979" s="18"/>
       <c r="Z979" s="18"/>
     </row>
-    <row r="980" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="980" spans="1:26" ht="13.5" customHeight="1">
       <c r="A980" s="29"/>
       <c r="B980" s="17"/>
       <c r="C980" s="17"/>
@@ -42409,7 +42421,7 @@
       <c r="Y980" s="18"/>
       <c r="Z980" s="18"/>
     </row>
-    <row r="981" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="981" spans="1:26" ht="13.5" customHeight="1">
       <c r="A981" s="29"/>
       <c r="B981" s="17"/>
       <c r="C981" s="17"/>
@@ -42437,7 +42449,7 @@
       <c r="Y981" s="18"/>
       <c r="Z981" s="18"/>
     </row>
-    <row r="982" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="982" spans="1:26" ht="13.5" customHeight="1">
       <c r="A982" s="29"/>
       <c r="B982" s="17"/>
       <c r="C982" s="17"/>
@@ -42465,7 +42477,7 @@
       <c r="Y982" s="18"/>
       <c r="Z982" s="18"/>
     </row>
-    <row r="983" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="983" spans="1:26" ht="13.5" customHeight="1">
       <c r="A983" s="29"/>
       <c r="B983" s="17"/>
       <c r="C983" s="17"/>
@@ -42493,7 +42505,7 @@
       <c r="Y983" s="18"/>
       <c r="Z983" s="18"/>
     </row>
-    <row r="984" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="984" spans="1:26" ht="13.5" customHeight="1">
       <c r="A984" s="29"/>
       <c r="B984" s="17"/>
       <c r="C984" s="17"/>
@@ -42521,7 +42533,7 @@
       <c r="Y984" s="18"/>
       <c r="Z984" s="18"/>
     </row>
-    <row r="985" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="985" spans="1:26" ht="13.5" customHeight="1">
       <c r="A985" s="29"/>
       <c r="B985" s="17"/>
       <c r="C985" s="17"/>
@@ -42549,7 +42561,7 @@
       <c r="Y985" s="18"/>
       <c r="Z985" s="18"/>
     </row>
-    <row r="986" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="986" spans="1:26" ht="13.5" customHeight="1">
       <c r="A986" s="29"/>
       <c r="B986" s="17"/>
       <c r="C986" s="17"/>
@@ -42577,7 +42589,7 @@
       <c r="Y986" s="18"/>
       <c r="Z986" s="18"/>
     </row>
-    <row r="987" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="987" spans="1:26" ht="13.5" customHeight="1">
       <c r="A987" s="29"/>
       <c r="B987" s="17"/>
       <c r="C987" s="17"/>
@@ -42605,7 +42617,7 @@
       <c r="Y987" s="18"/>
       <c r="Z987" s="18"/>
     </row>
-    <row r="988" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="988" spans="1:26" ht="13.5" customHeight="1">
       <c r="A988" s="29"/>
       <c r="B988" s="17"/>
       <c r="C988" s="17"/>
@@ -42633,7 +42645,7 @@
       <c r="Y988" s="18"/>
       <c r="Z988" s="18"/>
     </row>
-    <row r="989" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="989" spans="1:26" ht="13.5" customHeight="1">
       <c r="A989" s="29"/>
       <c r="B989" s="17"/>
       <c r="C989" s="17"/>
@@ -42661,7 +42673,7 @@
       <c r="Y989" s="18"/>
       <c r="Z989" s="18"/>
     </row>
-    <row r="990" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="990" spans="1:26" ht="13.5" customHeight="1">
       <c r="A990" s="29"/>
       <c r="B990" s="17"/>
       <c r="C990" s="17"/>
@@ -42689,7 +42701,7 @@
       <c r="Y990" s="18"/>
       <c r="Z990" s="18"/>
     </row>
-    <row r="991" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="991" spans="1:26" ht="13.5" customHeight="1">
       <c r="A991" s="29"/>
       <c r="B991" s="17"/>
       <c r="C991" s="17"/>
@@ -42717,7 +42729,7 @@
       <c r="Y991" s="18"/>
       <c r="Z991" s="18"/>
     </row>
-    <row r="992" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="992" spans="1:26" ht="13.5" customHeight="1">
       <c r="A992" s="29"/>
       <c r="B992" s="17"/>
       <c r="C992" s="17"/>
@@ -42745,7 +42757,7 @@
       <c r="Y992" s="18"/>
       <c r="Z992" s="18"/>
     </row>
-    <row r="993" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="993" spans="1:26" ht="13.5" customHeight="1">
       <c r="A993" s="29"/>
       <c r="B993" s="17"/>
       <c r="C993" s="17"/>
@@ -42773,7 +42785,7 @@
       <c r="Y993" s="18"/>
       <c r="Z993" s="18"/>
     </row>
-    <row r="994" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="994" spans="1:26" ht="13.5" customHeight="1">
       <c r="A994" s="29"/>
       <c r="B994" s="17"/>
       <c r="C994" s="17"/>
@@ -42801,7 +42813,7 @@
       <c r="Y994" s="18"/>
       <c r="Z994" s="18"/>
     </row>
-    <row r="995" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="995" spans="1:26" ht="13.5" customHeight="1">
       <c r="A995" s="29"/>
       <c r="B995" s="17"/>
       <c r="C995" s="17"/>
@@ -42829,7 +42841,7 @@
       <c r="Y995" s="18"/>
       <c r="Z995" s="18"/>
     </row>
-    <row r="996" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="996" spans="1:26" ht="13.5" customHeight="1">
       <c r="A996" s="29"/>
       <c r="B996" s="17"/>
       <c r="C996" s="17"/>
@@ -42857,7 +42869,7 @@
       <c r="Y996" s="18"/>
       <c r="Z996" s="18"/>
     </row>
-    <row r="997" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="997" spans="1:26" ht="13.5" customHeight="1">
       <c r="A997" s="29"/>
       <c r="B997" s="17"/>
       <c r="C997" s="17"/>
@@ -42885,7 +42897,7 @@
       <c r="Y997" s="18"/>
       <c r="Z997" s="18"/>
     </row>
-    <row r="998" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="998" spans="1:26" ht="13.5" customHeight="1">
       <c r="A998" s="29"/>
       <c r="B998" s="17"/>
       <c r="C998" s="17"/>
@@ -42913,7 +42925,7 @@
       <c r="Y998" s="18"/>
       <c r="Z998" s="18"/>
     </row>
-    <row r="999" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="999" spans="1:26" ht="13.5" customHeight="1">
       <c r="A999" s="29"/>
       <c r="B999" s="17"/>
       <c r="C999" s="17"/>
@@ -42941,7 +42953,7 @@
       <c r="Y999" s="18"/>
       <c r="Z999" s="18"/>
     </row>
-    <row r="1000" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1000" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1000" s="29"/>
       <c r="B1000" s="17"/>
       <c r="C1000" s="17"/>
@@ -42969,7 +42981,7 @@
       <c r="Y1000" s="18"/>
       <c r="Z1000" s="18"/>
     </row>
-    <row r="1001" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1001" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1001" s="29"/>
       <c r="B1001" s="17"/>
       <c r="C1001" s="17"/>
@@ -42997,7 +43009,7 @@
       <c r="Y1001" s="18"/>
       <c r="Z1001" s="18"/>
     </row>
-    <row r="1002" spans="1:26" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1002" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1002" s="29"/>
       <c r="B1002" s="17"/>
       <c r="C1002" s="17"/>
@@ -43027,7 +43039,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -43039,13 +43056,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="26" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="26" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
@@ -48092,5 +48109,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>